--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA706C9-CB85-4AF3-BD0F-13C655D00800}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19068" windowHeight="7716"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 4" sheetId="1" r:id="rId1"/>
+    <sheet name="Week 5" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
   <si>
     <t>Question</t>
   </si>
@@ -57,31 +59,39 @@
     <t>Sunday</t>
   </si>
   <si>
-    <t>Member 1</t>
-  </si>
-  <si>
-    <t>Member 2</t>
-  </si>
-  <si>
-    <t>Member 3</t>
-  </si>
-  <si>
     <t>What will you do today?</t>
   </si>
   <si>
-    <t>Member 4</t>
+    <t>Member 1
+DaEun</t>
   </si>
   <si>
-    <t>Member 5</t>
+    <t>Member 2
+Matthew Tan</t>
   </si>
   <si>
-    <t>Week: &lt;starting date&gt; to &lt;ending date&gt;</t>
+    <t>Member 3
+Brendon</t>
+  </si>
+  <si>
+    <t>Member 4
+Sheng Qin, Sim</t>
+  </si>
+  <si>
+    <t>Member 5
+Vittorio</t>
+  </si>
+  <si>
+    <t>Week 4: 9 September 19 to 15 September 19</t>
+  </si>
+  <si>
+    <t>Week 4: 16 September 19 to 22 September 19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -132,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -140,22 +150,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -163,14 +247,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -178,6 +260,47 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,7 +581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -466,36 +589,36 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
+      <selection pane="topRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="32" style="6" customWidth="1"/>
-    <col min="5" max="5" width="31" style="6" customWidth="1"/>
-    <col min="6" max="6" width="30.88671875" style="6" customWidth="1"/>
-    <col min="7" max="9" width="29.109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="32" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" style="4" customWidth="1"/>
+    <col min="7" max="9" width="29.109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -514,28 +637,28 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J2" s="1"/>
@@ -557,4115 +680,4145 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="1:26" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="3" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:26" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="3" t="s">
+      <c r="B9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="1:26" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>13</v>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="3" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="3" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:26" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>14</v>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>17</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="3" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="3" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="4"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="4"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="4"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="4"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="4"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="4"/>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="4"/>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="4"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="4"/>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="4"/>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="4"/>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="4"/>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="4"/>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="4"/>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="4"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="4"/>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="4"/>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="4"/>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="4"/>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="4"/>
+      <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="4"/>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="4"/>
+      <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="4"/>
+      <c r="B54" s="3"/>
     </row>
     <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="4"/>
+      <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="4"/>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="4"/>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="4"/>
+      <c r="B58" s="3"/>
     </row>
     <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="4"/>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="4"/>
+      <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="4"/>
+      <c r="B61" s="3"/>
     </row>
     <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="4"/>
+      <c r="B62" s="3"/>
     </row>
     <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="4"/>
+      <c r="B63" s="3"/>
     </row>
     <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="4"/>
+      <c r="B64" s="3"/>
     </row>
     <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="4"/>
+      <c r="B65" s="3"/>
     </row>
     <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="4"/>
+      <c r="B66" s="3"/>
     </row>
     <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="4"/>
+      <c r="B67" s="3"/>
     </row>
     <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="4"/>
+      <c r="B68" s="3"/>
     </row>
     <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="4"/>
+      <c r="B69" s="3"/>
     </row>
     <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="4"/>
+      <c r="B70" s="3"/>
     </row>
     <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="4"/>
+      <c r="B71" s="3"/>
     </row>
     <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="4"/>
+      <c r="B72" s="3"/>
     </row>
     <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="4"/>
+      <c r="B73" s="3"/>
     </row>
     <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="4"/>
+      <c r="B74" s="3"/>
     </row>
     <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="4"/>
+      <c r="B75" s="3"/>
     </row>
     <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="4"/>
+      <c r="B76" s="3"/>
     </row>
     <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="4"/>
+      <c r="B77" s="3"/>
     </row>
     <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="4"/>
+      <c r="B78" s="3"/>
     </row>
     <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="4"/>
+      <c r="B79" s="3"/>
     </row>
     <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="4"/>
+      <c r="B80" s="3"/>
     </row>
     <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="4"/>
+      <c r="B81" s="3"/>
     </row>
     <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="4"/>
+      <c r="B82" s="3"/>
     </row>
     <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="4"/>
+      <c r="B83" s="3"/>
     </row>
     <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="4"/>
+      <c r="B84" s="3"/>
     </row>
     <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="4"/>
+      <c r="B85" s="3"/>
     </row>
     <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="4"/>
+      <c r="B86" s="3"/>
     </row>
     <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="4"/>
+      <c r="B87" s="3"/>
     </row>
     <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="4"/>
+      <c r="B88" s="3"/>
     </row>
     <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="4"/>
+      <c r="B89" s="3"/>
     </row>
     <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="4"/>
+      <c r="B90" s="3"/>
     </row>
     <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="4"/>
+      <c r="B91" s="3"/>
     </row>
     <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="4"/>
+      <c r="B92" s="3"/>
     </row>
     <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="4"/>
+      <c r="B93" s="3"/>
     </row>
     <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="4"/>
+      <c r="B94" s="3"/>
     </row>
     <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="4"/>
+      <c r="B95" s="3"/>
     </row>
     <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="4"/>
+      <c r="B96" s="3"/>
     </row>
     <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="4"/>
+      <c r="B97" s="3"/>
     </row>
     <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="4"/>
+      <c r="B98" s="3"/>
     </row>
     <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="4"/>
+      <c r="B99" s="3"/>
     </row>
     <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="4"/>
+      <c r="B100" s="3"/>
     </row>
     <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="4"/>
+      <c r="B101" s="3"/>
     </row>
     <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="4"/>
+      <c r="B102" s="3"/>
     </row>
     <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="4"/>
+      <c r="B103" s="3"/>
     </row>
     <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="4"/>
+      <c r="B104" s="3"/>
     </row>
     <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="4"/>
+      <c r="B105" s="3"/>
     </row>
     <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="4"/>
+      <c r="B106" s="3"/>
     </row>
     <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="4"/>
+      <c r="B107" s="3"/>
     </row>
     <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="4"/>
+      <c r="B108" s="3"/>
     </row>
     <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="4"/>
+      <c r="B109" s="3"/>
     </row>
     <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="4"/>
+      <c r="B110" s="3"/>
     </row>
     <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="4"/>
+      <c r="B111" s="3"/>
     </row>
     <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="4"/>
+      <c r="B112" s="3"/>
     </row>
     <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="4"/>
+      <c r="B113" s="3"/>
     </row>
     <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="4"/>
+      <c r="B114" s="3"/>
     </row>
     <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="4"/>
+      <c r="B115" s="3"/>
     </row>
     <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="4"/>
+      <c r="B116" s="3"/>
     </row>
     <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="4"/>
+      <c r="B117" s="3"/>
     </row>
     <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="4"/>
+      <c r="B118" s="3"/>
     </row>
     <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="4"/>
+      <c r="B119" s="3"/>
     </row>
     <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="4"/>
+      <c r="B120" s="3"/>
     </row>
     <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="B121" s="4"/>
+      <c r="B121" s="3"/>
     </row>
     <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="B122" s="4"/>
+      <c r="B122" s="3"/>
     </row>
     <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="4"/>
+      <c r="B123" s="3"/>
     </row>
     <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
-      <c r="B124" s="4"/>
+      <c r="B124" s="3"/>
     </row>
     <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
-      <c r="B125" s="4"/>
+      <c r="B125" s="3"/>
     </row>
     <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="B126" s="4"/>
+      <c r="B126" s="3"/>
     </row>
     <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="B127" s="4"/>
+      <c r="B127" s="3"/>
     </row>
     <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="B128" s="4"/>
+      <c r="B128" s="3"/>
     </row>
     <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="B129" s="4"/>
+      <c r="B129" s="3"/>
     </row>
     <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="B130" s="4"/>
+      <c r="B130" s="3"/>
     </row>
     <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="B131" s="4"/>
+      <c r="B131" s="3"/>
     </row>
     <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="B132" s="4"/>
+      <c r="B132" s="3"/>
     </row>
     <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="B133" s="4"/>
+      <c r="B133" s="3"/>
     </row>
     <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="B134" s="4"/>
+      <c r="B134" s="3"/>
     </row>
     <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="B135" s="4"/>
+      <c r="B135" s="3"/>
     </row>
     <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="B136" s="4"/>
+      <c r="B136" s="3"/>
     </row>
     <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="B137" s="4"/>
+      <c r="B137" s="3"/>
     </row>
     <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="4"/>
+      <c r="B138" s="3"/>
     </row>
     <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="B139" s="4"/>
+      <c r="B139" s="3"/>
     </row>
     <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="B140" s="4"/>
+      <c r="B140" s="3"/>
     </row>
     <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="B141" s="4"/>
+      <c r="B141" s="3"/>
     </row>
     <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="4"/>
+      <c r="B142" s="3"/>
     </row>
     <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="B143" s="4"/>
+      <c r="B143" s="3"/>
     </row>
     <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="B144" s="4"/>
+      <c r="B144" s="3"/>
     </row>
     <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="B145" s="4"/>
+      <c r="B145" s="3"/>
     </row>
     <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="B146" s="4"/>
+      <c r="B146" s="3"/>
     </row>
     <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="B147" s="4"/>
+      <c r="B147" s="3"/>
     </row>
     <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="B148" s="4"/>
+      <c r="B148" s="3"/>
     </row>
     <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="B149" s="4"/>
+      <c r="B149" s="3"/>
     </row>
     <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="B150" s="4"/>
+      <c r="B150" s="3"/>
     </row>
     <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
-      <c r="B151" s="4"/>
+      <c r="B151" s="3"/>
     </row>
     <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
-      <c r="B152" s="4"/>
+      <c r="B152" s="3"/>
     </row>
     <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
-      <c r="B153" s="4"/>
+      <c r="B153" s="3"/>
     </row>
     <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
-      <c r="B154" s="4"/>
+      <c r="B154" s="3"/>
     </row>
     <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
-      <c r="B155" s="4"/>
+      <c r="B155" s="3"/>
     </row>
     <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
-      <c r="B156" s="4"/>
+      <c r="B156" s="3"/>
     </row>
     <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
-      <c r="B157" s="4"/>
+      <c r="B157" s="3"/>
     </row>
     <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
-      <c r="B158" s="4"/>
+      <c r="B158" s="3"/>
     </row>
     <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
-      <c r="B159" s="4"/>
+      <c r="B159" s="3"/>
     </row>
     <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
-      <c r="B160" s="4"/>
+      <c r="B160" s="3"/>
     </row>
     <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
-      <c r="B161" s="4"/>
+      <c r="B161" s="3"/>
     </row>
     <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
-      <c r="B162" s="4"/>
+      <c r="B162" s="3"/>
     </row>
     <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
-      <c r="B163" s="4"/>
+      <c r="B163" s="3"/>
     </row>
     <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
-      <c r="B164" s="4"/>
+      <c r="B164" s="3"/>
     </row>
     <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
-      <c r="B165" s="4"/>
+      <c r="B165" s="3"/>
     </row>
     <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
-      <c r="B166" s="4"/>
+      <c r="B166" s="3"/>
     </row>
     <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
-      <c r="B167" s="4"/>
+      <c r="B167" s="3"/>
     </row>
     <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
-      <c r="B168" s="4"/>
+      <c r="B168" s="3"/>
     </row>
     <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
-      <c r="B169" s="4"/>
+      <c r="B169" s="3"/>
     </row>
     <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
-      <c r="B170" s="4"/>
+      <c r="B170" s="3"/>
     </row>
     <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
-      <c r="B171" s="4"/>
+      <c r="B171" s="3"/>
     </row>
     <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
-      <c r="B172" s="4"/>
+      <c r="B172" s="3"/>
     </row>
     <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
-      <c r="B173" s="4"/>
+      <c r="B173" s="3"/>
     </row>
     <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
-      <c r="B174" s="4"/>
+      <c r="B174" s="3"/>
     </row>
     <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
-      <c r="B175" s="4"/>
+      <c r="B175" s="3"/>
     </row>
     <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
-      <c r="B176" s="4"/>
+      <c r="B176" s="3"/>
     </row>
     <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
-      <c r="B177" s="4"/>
+      <c r="B177" s="3"/>
     </row>
     <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
-      <c r="B178" s="4"/>
+      <c r="B178" s="3"/>
     </row>
     <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
-      <c r="B179" s="4"/>
+      <c r="B179" s="3"/>
     </row>
     <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
-      <c r="B180" s="4"/>
+      <c r="B180" s="3"/>
     </row>
     <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
-      <c r="B181" s="4"/>
+      <c r="B181" s="3"/>
     </row>
     <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
-      <c r="B182" s="4"/>
+      <c r="B182" s="3"/>
     </row>
     <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
-      <c r="B183" s="4"/>
+      <c r="B183" s="3"/>
     </row>
     <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
-      <c r="B184" s="4"/>
+      <c r="B184" s="3"/>
     </row>
     <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
-      <c r="B185" s="4"/>
+      <c r="B185" s="3"/>
     </row>
     <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
-      <c r="B186" s="4"/>
+      <c r="B186" s="3"/>
     </row>
     <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
-      <c r="B187" s="4"/>
+      <c r="B187" s="3"/>
     </row>
     <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
-      <c r="B188" s="4"/>
+      <c r="B188" s="3"/>
     </row>
     <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
-      <c r="B189" s="4"/>
+      <c r="B189" s="3"/>
     </row>
     <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
-      <c r="B190" s="4"/>
+      <c r="B190" s="3"/>
     </row>
     <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
-      <c r="B191" s="4"/>
+      <c r="B191" s="3"/>
     </row>
     <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
-      <c r="B192" s="4"/>
+      <c r="B192" s="3"/>
     </row>
     <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
-      <c r="B193" s="4"/>
+      <c r="B193" s="3"/>
     </row>
     <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
-      <c r="B194" s="4"/>
+      <c r="B194" s="3"/>
     </row>
     <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
-      <c r="B195" s="4"/>
+      <c r="B195" s="3"/>
     </row>
     <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
-      <c r="B196" s="4"/>
+      <c r="B196" s="3"/>
     </row>
     <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
-      <c r="B197" s="4"/>
+      <c r="B197" s="3"/>
     </row>
     <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
-      <c r="B198" s="4"/>
+      <c r="B198" s="3"/>
     </row>
     <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
-      <c r="B199" s="4"/>
+      <c r="B199" s="3"/>
     </row>
     <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
-      <c r="B200" s="4"/>
+      <c r="B200" s="3"/>
     </row>
     <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
-      <c r="B201" s="4"/>
+      <c r="B201" s="3"/>
     </row>
     <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
-      <c r="B202" s="4"/>
+      <c r="B202" s="3"/>
     </row>
     <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
-      <c r="B203" s="4"/>
+      <c r="B203" s="3"/>
     </row>
     <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
-      <c r="B204" s="4"/>
+      <c r="B204" s="3"/>
     </row>
     <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
-      <c r="B205" s="4"/>
+      <c r="B205" s="3"/>
     </row>
     <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
-      <c r="B206" s="4"/>
+      <c r="B206" s="3"/>
     </row>
     <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
-      <c r="B207" s="4"/>
+      <c r="B207" s="3"/>
     </row>
     <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
-      <c r="B208" s="4"/>
+      <c r="B208" s="3"/>
     </row>
     <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
-      <c r="B209" s="4"/>
+      <c r="B209" s="3"/>
     </row>
     <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
-      <c r="B210" s="4"/>
+      <c r="B210" s="3"/>
     </row>
     <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
-      <c r="B211" s="4"/>
+      <c r="B211" s="3"/>
     </row>
     <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
-      <c r="B212" s="4"/>
+      <c r="B212" s="3"/>
     </row>
     <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
-      <c r="B213" s="4"/>
+      <c r="B213" s="3"/>
     </row>
     <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
-      <c r="B214" s="4"/>
+      <c r="B214" s="3"/>
     </row>
     <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
-      <c r="B215" s="4"/>
+      <c r="B215" s="3"/>
     </row>
     <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
-      <c r="B216" s="4"/>
+      <c r="B216" s="3"/>
     </row>
     <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
-      <c r="B217" s="4"/>
+      <c r="B217" s="3"/>
     </row>
     <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
-      <c r="B218" s="4"/>
+      <c r="B218" s="3"/>
     </row>
     <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
-      <c r="B219" s="4"/>
+      <c r="B219" s="3"/>
     </row>
     <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
-      <c r="B220" s="4"/>
+      <c r="B220" s="3"/>
     </row>
     <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
-      <c r="B221" s="4"/>
+      <c r="B221" s="3"/>
     </row>
     <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
-      <c r="B222" s="4"/>
+      <c r="B222" s="3"/>
     </row>
     <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
-      <c r="B223" s="4"/>
+      <c r="B223" s="3"/>
     </row>
     <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
-      <c r="B224" s="4"/>
+      <c r="B224" s="3"/>
     </row>
     <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
-      <c r="B225" s="4"/>
+      <c r="B225" s="3"/>
     </row>
     <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
-      <c r="B226" s="4"/>
+      <c r="B226" s="3"/>
     </row>
     <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
-      <c r="B227" s="4"/>
+      <c r="B227" s="3"/>
     </row>
     <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
-      <c r="B228" s="4"/>
+      <c r="B228" s="3"/>
     </row>
     <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
-      <c r="B229" s="4"/>
+      <c r="B229" s="3"/>
     </row>
     <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
-      <c r="B230" s="4"/>
+      <c r="B230" s="3"/>
     </row>
     <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
-      <c r="B231" s="4"/>
+      <c r="B231" s="3"/>
     </row>
     <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
-      <c r="B232" s="4"/>
+      <c r="B232" s="3"/>
     </row>
     <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
-      <c r="B233" s="4"/>
+      <c r="B233" s="3"/>
     </row>
     <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
-      <c r="B234" s="4"/>
+      <c r="B234" s="3"/>
     </row>
     <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
-      <c r="B235" s="4"/>
+      <c r="B235" s="3"/>
     </row>
     <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
-      <c r="B236" s="4"/>
+      <c r="B236" s="3"/>
     </row>
     <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
-      <c r="B237" s="4"/>
+      <c r="B237" s="3"/>
     </row>
     <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
-      <c r="B238" s="4"/>
+      <c r="B238" s="3"/>
     </row>
     <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
-      <c r="B239" s="4"/>
+      <c r="B239" s="3"/>
     </row>
     <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
-      <c r="B240" s="4"/>
+      <c r="B240" s="3"/>
     </row>
     <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
-      <c r="B241" s="4"/>
+      <c r="B241" s="3"/>
     </row>
     <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
-      <c r="B242" s="4"/>
+      <c r="B242" s="3"/>
     </row>
     <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
-      <c r="B243" s="4"/>
+      <c r="B243" s="3"/>
     </row>
     <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
-      <c r="B244" s="4"/>
+      <c r="B244" s="3"/>
     </row>
     <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
-      <c r="B245" s="4"/>
+      <c r="B245" s="3"/>
     </row>
     <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
-      <c r="B246" s="4"/>
+      <c r="B246" s="3"/>
     </row>
     <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
-      <c r="B247" s="4"/>
+      <c r="B247" s="3"/>
     </row>
     <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
-      <c r="B248" s="4"/>
+      <c r="B248" s="3"/>
     </row>
     <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
-      <c r="B249" s="4"/>
+      <c r="B249" s="3"/>
     </row>
     <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
-      <c r="B250" s="4"/>
+      <c r="B250" s="3"/>
     </row>
     <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
-      <c r="B251" s="4"/>
+      <c r="B251" s="3"/>
     </row>
     <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
-      <c r="B252" s="4"/>
+      <c r="B252" s="3"/>
     </row>
     <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
-      <c r="B253" s="4"/>
+      <c r="B253" s="3"/>
     </row>
     <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
-      <c r="B254" s="4"/>
+      <c r="B254" s="3"/>
     </row>
     <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
-      <c r="B255" s="4"/>
+      <c r="B255" s="3"/>
     </row>
     <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
-      <c r="B256" s="4"/>
+      <c r="B256" s="3"/>
     </row>
     <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
-      <c r="B257" s="4"/>
+      <c r="B257" s="3"/>
     </row>
     <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
-      <c r="B258" s="4"/>
+      <c r="B258" s="3"/>
     </row>
     <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
-      <c r="B259" s="4"/>
+      <c r="B259" s="3"/>
     </row>
     <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
-      <c r="B260" s="4"/>
+      <c r="B260" s="3"/>
     </row>
     <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
-      <c r="B261" s="4"/>
+      <c r="B261" s="3"/>
     </row>
     <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
-      <c r="B262" s="4"/>
+      <c r="B262" s="3"/>
     </row>
     <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
-      <c r="B263" s="4"/>
+      <c r="B263" s="3"/>
     </row>
     <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
-      <c r="B264" s="4"/>
+      <c r="B264" s="3"/>
     </row>
     <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
-      <c r="B265" s="4"/>
+      <c r="B265" s="3"/>
     </row>
     <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
-      <c r="B266" s="4"/>
+      <c r="B266" s="3"/>
     </row>
     <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
-      <c r="B267" s="4"/>
+      <c r="B267" s="3"/>
     </row>
     <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
-      <c r="B268" s="4"/>
+      <c r="B268" s="3"/>
     </row>
     <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
-      <c r="B269" s="4"/>
+      <c r="B269" s="3"/>
     </row>
     <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
-      <c r="B270" s="4"/>
+      <c r="B270" s="3"/>
     </row>
     <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
-      <c r="B271" s="4"/>
+      <c r="B271" s="3"/>
     </row>
     <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
-      <c r="B272" s="4"/>
+      <c r="B272" s="3"/>
     </row>
     <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
-      <c r="B273" s="4"/>
+      <c r="B273" s="3"/>
     </row>
     <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
-      <c r="B274" s="4"/>
+      <c r="B274" s="3"/>
     </row>
     <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
-      <c r="B275" s="4"/>
+      <c r="B275" s="3"/>
     </row>
     <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
-      <c r="B276" s="4"/>
+      <c r="B276" s="3"/>
     </row>
     <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
-      <c r="B277" s="4"/>
+      <c r="B277" s="3"/>
     </row>
     <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
-      <c r="B278" s="4"/>
+      <c r="B278" s="3"/>
     </row>
     <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
-      <c r="B279" s="4"/>
+      <c r="B279" s="3"/>
     </row>
     <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
-      <c r="B280" s="4"/>
+      <c r="B280" s="3"/>
     </row>
     <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
-      <c r="B281" s="4"/>
+      <c r="B281" s="3"/>
     </row>
     <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
-      <c r="B282" s="4"/>
+      <c r="B282" s="3"/>
     </row>
     <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
-      <c r="B283" s="4"/>
+      <c r="B283" s="3"/>
     </row>
     <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
-      <c r="B284" s="4"/>
+      <c r="B284" s="3"/>
     </row>
     <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
-      <c r="B285" s="4"/>
+      <c r="B285" s="3"/>
     </row>
     <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
-      <c r="B286" s="4"/>
+      <c r="B286" s="3"/>
     </row>
     <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
-      <c r="B287" s="4"/>
+      <c r="B287" s="3"/>
     </row>
     <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
-      <c r="B288" s="4"/>
+      <c r="B288" s="3"/>
     </row>
     <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
-      <c r="B289" s="4"/>
+      <c r="B289" s="3"/>
     </row>
     <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
-      <c r="B290" s="4"/>
+      <c r="B290" s="3"/>
     </row>
     <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
-      <c r="B291" s="4"/>
+      <c r="B291" s="3"/>
     </row>
     <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
-      <c r="B292" s="4"/>
+      <c r="B292" s="3"/>
     </row>
     <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
-      <c r="B293" s="4"/>
+      <c r="B293" s="3"/>
     </row>
     <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
-      <c r="B294" s="4"/>
+      <c r="B294" s="3"/>
     </row>
     <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
-      <c r="B295" s="4"/>
+      <c r="B295" s="3"/>
     </row>
     <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
-      <c r="B296" s="4"/>
+      <c r="B296" s="3"/>
     </row>
     <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
-      <c r="B297" s="4"/>
+      <c r="B297" s="3"/>
     </row>
     <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
-      <c r="B298" s="4"/>
+      <c r="B298" s="3"/>
     </row>
     <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
-      <c r="B299" s="4"/>
+      <c r="B299" s="3"/>
     </row>
     <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
-      <c r="B300" s="4"/>
+      <c r="B300" s="3"/>
     </row>
     <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
-      <c r="B301" s="4"/>
+      <c r="B301" s="3"/>
     </row>
     <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
-      <c r="B302" s="4"/>
+      <c r="B302" s="3"/>
     </row>
     <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
-      <c r="B303" s="4"/>
+      <c r="B303" s="3"/>
     </row>
     <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
-      <c r="B304" s="4"/>
+      <c r="B304" s="3"/>
     </row>
     <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
-      <c r="B305" s="4"/>
+      <c r="B305" s="3"/>
     </row>
     <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
-      <c r="B306" s="4"/>
+      <c r="B306" s="3"/>
     </row>
     <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
-      <c r="B307" s="4"/>
+      <c r="B307" s="3"/>
     </row>
     <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
-      <c r="B308" s="4"/>
+      <c r="B308" s="3"/>
     </row>
     <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
-      <c r="B309" s="4"/>
+      <c r="B309" s="3"/>
     </row>
     <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
-      <c r="B310" s="4"/>
+      <c r="B310" s="3"/>
     </row>
     <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
-      <c r="B311" s="4"/>
+      <c r="B311" s="3"/>
     </row>
     <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
-      <c r="B312" s="4"/>
+      <c r="B312" s="3"/>
     </row>
     <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
-      <c r="B313" s="4"/>
+      <c r="B313" s="3"/>
     </row>
     <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
-      <c r="B314" s="4"/>
+      <c r="B314" s="3"/>
     </row>
     <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
-      <c r="B315" s="4"/>
+      <c r="B315" s="3"/>
     </row>
     <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
-      <c r="B316" s="4"/>
+      <c r="B316" s="3"/>
     </row>
     <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
-      <c r="B317" s="4"/>
+      <c r="B317" s="3"/>
     </row>
     <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
-      <c r="B318" s="4"/>
+      <c r="B318" s="3"/>
     </row>
     <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
-      <c r="B319" s="4"/>
+      <c r="B319" s="3"/>
     </row>
     <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
-      <c r="B320" s="4"/>
+      <c r="B320" s="3"/>
     </row>
     <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
-      <c r="B321" s="4"/>
+      <c r="B321" s="3"/>
     </row>
     <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
-      <c r="B322" s="4"/>
+      <c r="B322" s="3"/>
     </row>
     <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
-      <c r="B323" s="4"/>
+      <c r="B323" s="3"/>
     </row>
     <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
-      <c r="B324" s="4"/>
+      <c r="B324" s="3"/>
     </row>
     <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
-      <c r="B325" s="4"/>
+      <c r="B325" s="3"/>
     </row>
     <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
-      <c r="B326" s="4"/>
+      <c r="B326" s="3"/>
     </row>
     <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
-      <c r="B327" s="4"/>
+      <c r="B327" s="3"/>
     </row>
     <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
-      <c r="B328" s="4"/>
+      <c r="B328" s="3"/>
     </row>
     <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
-      <c r="B329" s="4"/>
+      <c r="B329" s="3"/>
     </row>
     <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
-      <c r="B330" s="4"/>
+      <c r="B330" s="3"/>
     </row>
     <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
-      <c r="B331" s="4"/>
+      <c r="B331" s="3"/>
     </row>
     <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
-      <c r="B332" s="4"/>
+      <c r="B332" s="3"/>
     </row>
     <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
-      <c r="B333" s="4"/>
+      <c r="B333" s="3"/>
     </row>
     <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
-      <c r="B334" s="4"/>
+      <c r="B334" s="3"/>
     </row>
     <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
-      <c r="B335" s="4"/>
+      <c r="B335" s="3"/>
     </row>
     <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
-      <c r="B336" s="4"/>
+      <c r="B336" s="3"/>
     </row>
     <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
-      <c r="B337" s="4"/>
+      <c r="B337" s="3"/>
     </row>
     <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
-      <c r="B338" s="4"/>
+      <c r="B338" s="3"/>
     </row>
     <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
-      <c r="B339" s="4"/>
+      <c r="B339" s="3"/>
     </row>
     <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
-      <c r="B340" s="4"/>
+      <c r="B340" s="3"/>
     </row>
     <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
-      <c r="B341" s="4"/>
+      <c r="B341" s="3"/>
     </row>
     <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
-      <c r="B342" s="4"/>
+      <c r="B342" s="3"/>
     </row>
     <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
-      <c r="B343" s="4"/>
+      <c r="B343" s="3"/>
     </row>
     <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
-      <c r="B344" s="4"/>
+      <c r="B344" s="3"/>
     </row>
     <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
-      <c r="B345" s="4"/>
+      <c r="B345" s="3"/>
     </row>
     <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
-      <c r="B346" s="4"/>
+      <c r="B346" s="3"/>
     </row>
     <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
-      <c r="B347" s="4"/>
+      <c r="B347" s="3"/>
     </row>
     <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
-      <c r="B348" s="4"/>
+      <c r="B348" s="3"/>
     </row>
     <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
-      <c r="B349" s="4"/>
+      <c r="B349" s="3"/>
     </row>
     <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
-      <c r="B350" s="4"/>
+      <c r="B350" s="3"/>
     </row>
     <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
-      <c r="B351" s="4"/>
+      <c r="B351" s="3"/>
     </row>
     <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
-      <c r="B352" s="4"/>
+      <c r="B352" s="3"/>
     </row>
     <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
-      <c r="B353" s="4"/>
+      <c r="B353" s="3"/>
     </row>
     <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
-      <c r="B354" s="4"/>
+      <c r="B354" s="3"/>
     </row>
     <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
-      <c r="B355" s="4"/>
+      <c r="B355" s="3"/>
     </row>
     <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
-      <c r="B356" s="4"/>
+      <c r="B356" s="3"/>
     </row>
     <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
-      <c r="B357" s="4"/>
+      <c r="B357" s="3"/>
     </row>
     <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
-      <c r="B358" s="4"/>
+      <c r="B358" s="3"/>
     </row>
     <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
-      <c r="B359" s="4"/>
+      <c r="B359" s="3"/>
     </row>
     <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
-      <c r="B360" s="4"/>
+      <c r="B360" s="3"/>
     </row>
     <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
-      <c r="B361" s="4"/>
+      <c r="B361" s="3"/>
     </row>
     <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
-      <c r="B362" s="4"/>
+      <c r="B362" s="3"/>
     </row>
     <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
-      <c r="B363" s="4"/>
+      <c r="B363" s="3"/>
     </row>
     <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
-      <c r="B364" s="4"/>
+      <c r="B364" s="3"/>
     </row>
     <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
-      <c r="B365" s="4"/>
+      <c r="B365" s="3"/>
     </row>
     <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
-      <c r="B366" s="4"/>
+      <c r="B366" s="3"/>
     </row>
     <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
-      <c r="B367" s="4"/>
+      <c r="B367" s="3"/>
     </row>
     <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
-      <c r="B368" s="4"/>
+      <c r="B368" s="3"/>
     </row>
     <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
-      <c r="B369" s="4"/>
+      <c r="B369" s="3"/>
     </row>
     <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
-      <c r="B370" s="4"/>
+      <c r="B370" s="3"/>
     </row>
     <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
-      <c r="B371" s="4"/>
+      <c r="B371" s="3"/>
     </row>
     <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
-      <c r="B372" s="4"/>
+      <c r="B372" s="3"/>
     </row>
     <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
-      <c r="B373" s="4"/>
+      <c r="B373" s="3"/>
     </row>
     <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
-      <c r="B374" s="4"/>
+      <c r="B374" s="3"/>
     </row>
     <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
-      <c r="B375" s="4"/>
+      <c r="B375" s="3"/>
     </row>
     <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
-      <c r="B376" s="4"/>
+      <c r="B376" s="3"/>
     </row>
     <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
-      <c r="B377" s="4"/>
+      <c r="B377" s="3"/>
     </row>
     <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
-      <c r="B378" s="4"/>
+      <c r="B378" s="3"/>
     </row>
     <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
-      <c r="B379" s="4"/>
+      <c r="B379" s="3"/>
     </row>
     <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
-      <c r="B380" s="4"/>
+      <c r="B380" s="3"/>
     </row>
     <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
-      <c r="B381" s="4"/>
+      <c r="B381" s="3"/>
     </row>
     <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
-      <c r="B382" s="4"/>
+      <c r="B382" s="3"/>
     </row>
     <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
-      <c r="B383" s="4"/>
+      <c r="B383" s="3"/>
     </row>
     <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
-      <c r="B384" s="4"/>
+      <c r="B384" s="3"/>
     </row>
     <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
-      <c r="B385" s="4"/>
+      <c r="B385" s="3"/>
     </row>
     <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
-      <c r="B386" s="4"/>
+      <c r="B386" s="3"/>
     </row>
     <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
-      <c r="B387" s="4"/>
+      <c r="B387" s="3"/>
     </row>
     <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
-      <c r="B388" s="4"/>
+      <c r="B388" s="3"/>
     </row>
     <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
-      <c r="B389" s="4"/>
+      <c r="B389" s="3"/>
     </row>
     <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
-      <c r="B390" s="4"/>
+      <c r="B390" s="3"/>
     </row>
     <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
-      <c r="B391" s="4"/>
+      <c r="B391" s="3"/>
     </row>
     <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
-      <c r="B392" s="4"/>
+      <c r="B392" s="3"/>
     </row>
     <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
-      <c r="B393" s="4"/>
+      <c r="B393" s="3"/>
     </row>
     <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
-      <c r="B394" s="4"/>
+      <c r="B394" s="3"/>
     </row>
     <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
-      <c r="B395" s="4"/>
+      <c r="B395" s="3"/>
     </row>
     <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
-      <c r="B396" s="4"/>
+      <c r="B396" s="3"/>
     </row>
     <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
-      <c r="B397" s="4"/>
+      <c r="B397" s="3"/>
     </row>
     <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
-      <c r="B398" s="4"/>
+      <c r="B398" s="3"/>
     </row>
     <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
-      <c r="B399" s="4"/>
+      <c r="B399" s="3"/>
     </row>
     <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
-      <c r="B400" s="4"/>
+      <c r="B400" s="3"/>
     </row>
     <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
-      <c r="B401" s="4"/>
+      <c r="B401" s="3"/>
     </row>
     <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
-      <c r="B402" s="4"/>
+      <c r="B402" s="3"/>
     </row>
     <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
-      <c r="B403" s="4"/>
+      <c r="B403" s="3"/>
     </row>
     <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
-      <c r="B404" s="4"/>
+      <c r="B404" s="3"/>
     </row>
     <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
-      <c r="B405" s="4"/>
+      <c r="B405" s="3"/>
     </row>
     <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
-      <c r="B406" s="4"/>
+      <c r="B406" s="3"/>
     </row>
     <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
-      <c r="B407" s="4"/>
+      <c r="B407" s="3"/>
     </row>
     <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
-      <c r="B408" s="4"/>
+      <c r="B408" s="3"/>
     </row>
     <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
-      <c r="B409" s="4"/>
+      <c r="B409" s="3"/>
     </row>
     <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
-      <c r="B410" s="4"/>
+      <c r="B410" s="3"/>
     </row>
     <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
-      <c r="B411" s="4"/>
+      <c r="B411" s="3"/>
     </row>
     <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
-      <c r="B412" s="4"/>
+      <c r="B412" s="3"/>
     </row>
     <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
-      <c r="B413" s="4"/>
+      <c r="B413" s="3"/>
     </row>
     <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
-      <c r="B414" s="4"/>
+      <c r="B414" s="3"/>
     </row>
     <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
-      <c r="B415" s="4"/>
+      <c r="B415" s="3"/>
     </row>
     <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
-      <c r="B416" s="4"/>
+      <c r="B416" s="3"/>
     </row>
     <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
-      <c r="B417" s="4"/>
+      <c r="B417" s="3"/>
     </row>
     <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
-      <c r="B418" s="4"/>
+      <c r="B418" s="3"/>
     </row>
     <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
-      <c r="B419" s="4"/>
+      <c r="B419" s="3"/>
     </row>
     <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
-      <c r="B420" s="4"/>
+      <c r="B420" s="3"/>
     </row>
     <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
-      <c r="B421" s="4"/>
+      <c r="B421" s="3"/>
     </row>
     <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
-      <c r="B422" s="4"/>
+      <c r="B422" s="3"/>
     </row>
     <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
-      <c r="B423" s="4"/>
+      <c r="B423" s="3"/>
     </row>
     <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
-      <c r="B424" s="4"/>
+      <c r="B424" s="3"/>
     </row>
     <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
-      <c r="B425" s="4"/>
+      <c r="B425" s="3"/>
     </row>
     <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
-      <c r="B426" s="4"/>
+      <c r="B426" s="3"/>
     </row>
     <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
-      <c r="B427" s="4"/>
+      <c r="B427" s="3"/>
     </row>
     <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
-      <c r="B428" s="4"/>
+      <c r="B428" s="3"/>
     </row>
     <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
-      <c r="B429" s="4"/>
+      <c r="B429" s="3"/>
     </row>
     <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
-      <c r="B430" s="4"/>
+      <c r="B430" s="3"/>
     </row>
     <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
-      <c r="B431" s="4"/>
+      <c r="B431" s="3"/>
     </row>
     <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
-      <c r="B432" s="4"/>
+      <c r="B432" s="3"/>
     </row>
     <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
-      <c r="B433" s="4"/>
+      <c r="B433" s="3"/>
     </row>
     <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
-      <c r="B434" s="4"/>
+      <c r="B434" s="3"/>
     </row>
     <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
-      <c r="B435" s="4"/>
+      <c r="B435" s="3"/>
     </row>
     <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
-      <c r="B436" s="4"/>
+      <c r="B436" s="3"/>
     </row>
     <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
-      <c r="B437" s="4"/>
+      <c r="B437" s="3"/>
     </row>
     <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
-      <c r="B438" s="4"/>
+      <c r="B438" s="3"/>
     </row>
     <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
-      <c r="B439" s="4"/>
+      <c r="B439" s="3"/>
     </row>
     <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
-      <c r="B440" s="4"/>
+      <c r="B440" s="3"/>
     </row>
     <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
-      <c r="B441" s="4"/>
+      <c r="B441" s="3"/>
     </row>
     <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
-      <c r="B442" s="4"/>
+      <c r="B442" s="3"/>
     </row>
     <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
-      <c r="B443" s="4"/>
+      <c r="B443" s="3"/>
     </row>
     <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
-      <c r="B444" s="4"/>
+      <c r="B444" s="3"/>
     </row>
     <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
-      <c r="B445" s="4"/>
+      <c r="B445" s="3"/>
     </row>
     <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
-      <c r="B446" s="4"/>
+      <c r="B446" s="3"/>
     </row>
     <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
-      <c r="B447" s="4"/>
+      <c r="B447" s="3"/>
     </row>
     <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
-      <c r="B448" s="4"/>
+      <c r="B448" s="3"/>
     </row>
     <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
-      <c r="B449" s="4"/>
+      <c r="B449" s="3"/>
     </row>
     <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
-      <c r="B450" s="4"/>
+      <c r="B450" s="3"/>
     </row>
     <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
-      <c r="B451" s="4"/>
+      <c r="B451" s="3"/>
     </row>
     <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
-      <c r="B452" s="4"/>
+      <c r="B452" s="3"/>
     </row>
     <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
-      <c r="B453" s="4"/>
+      <c r="B453" s="3"/>
     </row>
     <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
-      <c r="B454" s="4"/>
+      <c r="B454" s="3"/>
     </row>
     <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
-      <c r="B455" s="4"/>
+      <c r="B455" s="3"/>
     </row>
     <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
-      <c r="B456" s="4"/>
+      <c r="B456" s="3"/>
     </row>
     <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
-      <c r="B457" s="4"/>
+      <c r="B457" s="3"/>
     </row>
     <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
-      <c r="B458" s="4"/>
+      <c r="B458" s="3"/>
     </row>
     <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
-      <c r="B459" s="4"/>
+      <c r="B459" s="3"/>
     </row>
     <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
-      <c r="B460" s="4"/>
+      <c r="B460" s="3"/>
     </row>
     <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
-      <c r="B461" s="4"/>
+      <c r="B461" s="3"/>
     </row>
     <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
-      <c r="B462" s="4"/>
+      <c r="B462" s="3"/>
     </row>
     <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
-      <c r="B463" s="4"/>
+      <c r="B463" s="3"/>
     </row>
     <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
-      <c r="B464" s="4"/>
+      <c r="B464" s="3"/>
     </row>
     <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
-      <c r="B465" s="4"/>
+      <c r="B465" s="3"/>
     </row>
     <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
-      <c r="B466" s="4"/>
+      <c r="B466" s="3"/>
     </row>
     <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
-      <c r="B467" s="4"/>
+      <c r="B467" s="3"/>
     </row>
     <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
-      <c r="B468" s="4"/>
+      <c r="B468" s="3"/>
     </row>
     <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
-      <c r="B469" s="4"/>
+      <c r="B469" s="3"/>
     </row>
     <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
-      <c r="B470" s="4"/>
+      <c r="B470" s="3"/>
     </row>
     <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
-      <c r="B471" s="4"/>
+      <c r="B471" s="3"/>
     </row>
     <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
-      <c r="B472" s="4"/>
+      <c r="B472" s="3"/>
     </row>
     <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
-      <c r="B473" s="4"/>
+      <c r="B473" s="3"/>
     </row>
     <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
-      <c r="B474" s="4"/>
+      <c r="B474" s="3"/>
     </row>
     <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
-      <c r="B475" s="4"/>
+      <c r="B475" s="3"/>
     </row>
     <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
-      <c r="B476" s="4"/>
+      <c r="B476" s="3"/>
     </row>
     <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
-      <c r="B477" s="4"/>
+      <c r="B477" s="3"/>
     </row>
     <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
-      <c r="B478" s="4"/>
+      <c r="B478" s="3"/>
     </row>
     <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
-      <c r="B479" s="4"/>
+      <c r="B479" s="3"/>
     </row>
     <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
-      <c r="B480" s="4"/>
+      <c r="B480" s="3"/>
     </row>
     <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
-      <c r="B481" s="4"/>
+      <c r="B481" s="3"/>
     </row>
     <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
-      <c r="B482" s="4"/>
+      <c r="B482" s="3"/>
     </row>
     <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
-      <c r="B483" s="4"/>
+      <c r="B483" s="3"/>
     </row>
     <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
-      <c r="B484" s="4"/>
+      <c r="B484" s="3"/>
     </row>
     <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
-      <c r="B485" s="4"/>
+      <c r="B485" s="3"/>
     </row>
     <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
-      <c r="B486" s="4"/>
+      <c r="B486" s="3"/>
     </row>
     <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
-      <c r="B487" s="4"/>
+      <c r="B487" s="3"/>
     </row>
     <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
-      <c r="B488" s="4"/>
+      <c r="B488" s="3"/>
     </row>
     <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
-      <c r="B489" s="4"/>
+      <c r="B489" s="3"/>
     </row>
     <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
-      <c r="B490" s="4"/>
+      <c r="B490" s="3"/>
     </row>
     <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
-      <c r="B491" s="4"/>
+      <c r="B491" s="3"/>
     </row>
     <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
-      <c r="B492" s="4"/>
+      <c r="B492" s="3"/>
     </row>
     <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
-      <c r="B493" s="4"/>
+      <c r="B493" s="3"/>
     </row>
     <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
-      <c r="B494" s="4"/>
+      <c r="B494" s="3"/>
     </row>
     <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
-      <c r="B495" s="4"/>
+      <c r="B495" s="3"/>
     </row>
     <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
-      <c r="B496" s="4"/>
+      <c r="B496" s="3"/>
     </row>
     <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
-      <c r="B497" s="4"/>
+      <c r="B497" s="3"/>
     </row>
     <row r="498" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
-      <c r="B498" s="4"/>
+      <c r="B498" s="3"/>
     </row>
     <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
-      <c r="B499" s="4"/>
+      <c r="B499" s="3"/>
     </row>
     <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
-      <c r="B500" s="4"/>
+      <c r="B500" s="3"/>
     </row>
     <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
-      <c r="B501" s="4"/>
+      <c r="B501" s="3"/>
     </row>
     <row r="502" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
-      <c r="B502" s="4"/>
+      <c r="B502" s="3"/>
     </row>
     <row r="503" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
-      <c r="B503" s="4"/>
+      <c r="B503" s="3"/>
     </row>
     <row r="504" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
-      <c r="B504" s="4"/>
+      <c r="B504" s="3"/>
     </row>
     <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
-      <c r="B505" s="4"/>
+      <c r="B505" s="3"/>
     </row>
     <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
-      <c r="B506" s="4"/>
+      <c r="B506" s="3"/>
     </row>
     <row r="507" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
-      <c r="B507" s="4"/>
+      <c r="B507" s="3"/>
     </row>
     <row r="508" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
-      <c r="B508" s="4"/>
+      <c r="B508" s="3"/>
     </row>
     <row r="509" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
-      <c r="B509" s="4"/>
+      <c r="B509" s="3"/>
     </row>
     <row r="510" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
-      <c r="B510" s="4"/>
+      <c r="B510" s="3"/>
     </row>
     <row r="511" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
-      <c r="B511" s="4"/>
+      <c r="B511" s="3"/>
     </row>
     <row r="512" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
-      <c r="B512" s="4"/>
+      <c r="B512" s="3"/>
     </row>
     <row r="513" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
-      <c r="B513" s="4"/>
+      <c r="B513" s="3"/>
     </row>
     <row r="514" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
-      <c r="B514" s="4"/>
+      <c r="B514" s="3"/>
     </row>
     <row r="515" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
-      <c r="B515" s="4"/>
+      <c r="B515" s="3"/>
     </row>
     <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
-      <c r="B516" s="4"/>
+      <c r="B516" s="3"/>
     </row>
     <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
-      <c r="B517" s="4"/>
+      <c r="B517" s="3"/>
     </row>
     <row r="518" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
-      <c r="B518" s="4"/>
+      <c r="B518" s="3"/>
     </row>
     <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
-      <c r="B519" s="4"/>
+      <c r="B519" s="3"/>
     </row>
     <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
-      <c r="B520" s="4"/>
+      <c r="B520" s="3"/>
     </row>
     <row r="521" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
-      <c r="B521" s="4"/>
+      <c r="B521" s="3"/>
     </row>
     <row r="522" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
-      <c r="B522" s="4"/>
+      <c r="B522" s="3"/>
     </row>
     <row r="523" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
-      <c r="B523" s="4"/>
+      <c r="B523" s="3"/>
     </row>
     <row r="524" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
-      <c r="B524" s="4"/>
+      <c r="B524" s="3"/>
     </row>
     <row r="525" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
-      <c r="B525" s="4"/>
+      <c r="B525" s="3"/>
     </row>
     <row r="526" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
-      <c r="B526" s="4"/>
+      <c r="B526" s="3"/>
     </row>
     <row r="527" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
-      <c r="B527" s="4"/>
+      <c r="B527" s="3"/>
     </row>
     <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
-      <c r="B528" s="4"/>
+      <c r="B528" s="3"/>
     </row>
     <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
-      <c r="B529" s="4"/>
+      <c r="B529" s="3"/>
     </row>
     <row r="530" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
-      <c r="B530" s="4"/>
+      <c r="B530" s="3"/>
     </row>
     <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
-      <c r="B531" s="4"/>
+      <c r="B531" s="3"/>
     </row>
     <row r="532" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
-      <c r="B532" s="4"/>
+      <c r="B532" s="3"/>
     </row>
     <row r="533" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
-      <c r="B533" s="4"/>
+      <c r="B533" s="3"/>
     </row>
     <row r="534" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
-      <c r="B534" s="4"/>
+      <c r="B534" s="3"/>
     </row>
     <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
-      <c r="B535" s="4"/>
+      <c r="B535" s="3"/>
     </row>
     <row r="536" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
-      <c r="B536" s="4"/>
+      <c r="B536" s="3"/>
     </row>
     <row r="537" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
-      <c r="B537" s="4"/>
+      <c r="B537" s="3"/>
     </row>
     <row r="538" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
-      <c r="B538" s="4"/>
+      <c r="B538" s="3"/>
     </row>
     <row r="539" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
-      <c r="B539" s="4"/>
+      <c r="B539" s="3"/>
     </row>
     <row r="540" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
-      <c r="B540" s="4"/>
+      <c r="B540" s="3"/>
     </row>
     <row r="541" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
-      <c r="B541" s="4"/>
+      <c r="B541" s="3"/>
     </row>
     <row r="542" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
-      <c r="B542" s="4"/>
+      <c r="B542" s="3"/>
     </row>
     <row r="543" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
-      <c r="B543" s="4"/>
+      <c r="B543" s="3"/>
     </row>
     <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
-      <c r="B544" s="4"/>
+      <c r="B544" s="3"/>
     </row>
     <row r="545" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
-      <c r="B545" s="4"/>
+      <c r="B545" s="3"/>
     </row>
     <row r="546" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
-      <c r="B546" s="4"/>
+      <c r="B546" s="3"/>
     </row>
     <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
-      <c r="B547" s="4"/>
+      <c r="B547" s="3"/>
     </row>
     <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
-      <c r="B548" s="4"/>
+      <c r="B548" s="3"/>
     </row>
     <row r="549" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
-      <c r="B549" s="4"/>
+      <c r="B549" s="3"/>
     </row>
     <row r="550" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
-      <c r="B550" s="4"/>
+      <c r="B550" s="3"/>
     </row>
     <row r="551" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
-      <c r="B551" s="4"/>
+      <c r="B551" s="3"/>
     </row>
     <row r="552" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
-      <c r="B552" s="4"/>
+      <c r="B552" s="3"/>
     </row>
     <row r="553" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
-      <c r="B553" s="4"/>
+      <c r="B553" s="3"/>
     </row>
     <row r="554" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
-      <c r="B554" s="4"/>
+      <c r="B554" s="3"/>
     </row>
     <row r="555" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
-      <c r="B555" s="4"/>
+      <c r="B555" s="3"/>
     </row>
     <row r="556" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
-      <c r="B556" s="4"/>
+      <c r="B556" s="3"/>
     </row>
     <row r="557" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
-      <c r="B557" s="4"/>
+      <c r="B557" s="3"/>
     </row>
     <row r="558" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
-      <c r="B558" s="4"/>
+      <c r="B558" s="3"/>
     </row>
     <row r="559" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
-      <c r="B559" s="4"/>
+      <c r="B559" s="3"/>
     </row>
     <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
-      <c r="B560" s="4"/>
+      <c r="B560" s="3"/>
     </row>
     <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
-      <c r="B561" s="4"/>
+      <c r="B561" s="3"/>
     </row>
     <row r="562" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
-      <c r="B562" s="4"/>
+      <c r="B562" s="3"/>
     </row>
     <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
-      <c r="B563" s="4"/>
+      <c r="B563" s="3"/>
     </row>
     <row r="564" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
-      <c r="B564" s="4"/>
+      <c r="B564" s="3"/>
     </row>
     <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
-      <c r="B565" s="4"/>
+      <c r="B565" s="3"/>
     </row>
     <row r="566" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
-      <c r="B566" s="4"/>
+      <c r="B566" s="3"/>
     </row>
     <row r="567" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
-      <c r="B567" s="4"/>
+      <c r="B567" s="3"/>
     </row>
     <row r="568" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
-      <c r="B568" s="4"/>
+      <c r="B568" s="3"/>
     </row>
     <row r="569" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
-      <c r="B569" s="4"/>
+      <c r="B569" s="3"/>
     </row>
     <row r="570" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
-      <c r="B570" s="4"/>
+      <c r="B570" s="3"/>
     </row>
     <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
-      <c r="B571" s="4"/>
+      <c r="B571" s="3"/>
     </row>
     <row r="572" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
-      <c r="B572" s="4"/>
+      <c r="B572" s="3"/>
     </row>
     <row r="573" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
-      <c r="B573" s="4"/>
+      <c r="B573" s="3"/>
     </row>
     <row r="574" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
-      <c r="B574" s="4"/>
+      <c r="B574" s="3"/>
     </row>
     <row r="575" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
-      <c r="B575" s="4"/>
+      <c r="B575" s="3"/>
     </row>
     <row r="576" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
-      <c r="B576" s="4"/>
+      <c r="B576" s="3"/>
     </row>
     <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
-      <c r="B577" s="4"/>
+      <c r="B577" s="3"/>
     </row>
     <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
-      <c r="B578" s="4"/>
+      <c r="B578" s="3"/>
     </row>
     <row r="579" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
-      <c r="B579" s="4"/>
+      <c r="B579" s="3"/>
     </row>
     <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
-      <c r="B580" s="4"/>
+      <c r="B580" s="3"/>
     </row>
     <row r="581" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
-      <c r="B581" s="4"/>
+      <c r="B581" s="3"/>
     </row>
     <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
-      <c r="B582" s="4"/>
+      <c r="B582" s="3"/>
     </row>
     <row r="583" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
-      <c r="B583" s="4"/>
+      <c r="B583" s="3"/>
     </row>
     <row r="584" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
-      <c r="B584" s="4"/>
+      <c r="B584" s="3"/>
     </row>
     <row r="585" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
-      <c r="B585" s="4"/>
+      <c r="B585" s="3"/>
     </row>
     <row r="586" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
-      <c r="B586" s="4"/>
+      <c r="B586" s="3"/>
     </row>
     <row r="587" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
-      <c r="B587" s="4"/>
+      <c r="B587" s="3"/>
     </row>
     <row r="588" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
-      <c r="B588" s="4"/>
+      <c r="B588" s="3"/>
     </row>
     <row r="589" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
-      <c r="B589" s="4"/>
+      <c r="B589" s="3"/>
     </row>
     <row r="590" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
-      <c r="B590" s="4"/>
+      <c r="B590" s="3"/>
     </row>
     <row r="591" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
-      <c r="B591" s="4"/>
+      <c r="B591" s="3"/>
     </row>
     <row r="592" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
-      <c r="B592" s="4"/>
+      <c r="B592" s="3"/>
     </row>
     <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
-      <c r="B593" s="4"/>
+      <c r="B593" s="3"/>
     </row>
     <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
-      <c r="B594" s="4"/>
+      <c r="B594" s="3"/>
     </row>
     <row r="595" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
-      <c r="B595" s="4"/>
+      <c r="B595" s="3"/>
     </row>
     <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
-      <c r="B596" s="4"/>
+      <c r="B596" s="3"/>
     </row>
     <row r="597" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
-      <c r="B597" s="4"/>
+      <c r="B597" s="3"/>
     </row>
     <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
-      <c r="B598" s="4"/>
+      <c r="B598" s="3"/>
     </row>
     <row r="599" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
-      <c r="B599" s="4"/>
+      <c r="B599" s="3"/>
     </row>
     <row r="600" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
-      <c r="B600" s="4"/>
+      <c r="B600" s="3"/>
     </row>
     <row r="601" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
-      <c r="B601" s="4"/>
+      <c r="B601" s="3"/>
     </row>
     <row r="602" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
-      <c r="B602" s="4"/>
+      <c r="B602" s="3"/>
     </row>
     <row r="603" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
-      <c r="B603" s="4"/>
+      <c r="B603" s="3"/>
     </row>
     <row r="604" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
-      <c r="B604" s="4"/>
+      <c r="B604" s="3"/>
     </row>
     <row r="605" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
-      <c r="B605" s="4"/>
+      <c r="B605" s="3"/>
     </row>
     <row r="606" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
-      <c r="B606" s="4"/>
+      <c r="B606" s="3"/>
     </row>
     <row r="607" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
-      <c r="B607" s="4"/>
+      <c r="B607" s="3"/>
     </row>
     <row r="608" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
-      <c r="B608" s="4"/>
+      <c r="B608" s="3"/>
     </row>
     <row r="609" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
-      <c r="B609" s="4"/>
+      <c r="B609" s="3"/>
     </row>
     <row r="610" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
-      <c r="B610" s="4"/>
+      <c r="B610" s="3"/>
     </row>
     <row r="611" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
-      <c r="B611" s="4"/>
+      <c r="B611" s="3"/>
     </row>
     <row r="612" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
-      <c r="B612" s="4"/>
+      <c r="B612" s="3"/>
     </row>
     <row r="613" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
-      <c r="B613" s="4"/>
+      <c r="B613" s="3"/>
     </row>
     <row r="614" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
-      <c r="B614" s="4"/>
+      <c r="B614" s="3"/>
     </row>
     <row r="615" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
-      <c r="B615" s="4"/>
+      <c r="B615" s="3"/>
     </row>
     <row r="616" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
-      <c r="B616" s="4"/>
+      <c r="B616" s="3"/>
     </row>
     <row r="617" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
-      <c r="B617" s="4"/>
+      <c r="B617" s="3"/>
     </row>
     <row r="618" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
-      <c r="B618" s="4"/>
+      <c r="B618" s="3"/>
     </row>
     <row r="619" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
-      <c r="B619" s="4"/>
+      <c r="B619" s="3"/>
     </row>
     <row r="620" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
-      <c r="B620" s="4"/>
+      <c r="B620" s="3"/>
     </row>
     <row r="621" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
-      <c r="B621" s="4"/>
+      <c r="B621" s="3"/>
     </row>
     <row r="622" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
-      <c r="B622" s="4"/>
+      <c r="B622" s="3"/>
     </row>
     <row r="623" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
-      <c r="B623" s="4"/>
+      <c r="B623" s="3"/>
     </row>
     <row r="624" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
-      <c r="B624" s="4"/>
+      <c r="B624" s="3"/>
     </row>
     <row r="625" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
-      <c r="B625" s="4"/>
+      <c r="B625" s="3"/>
     </row>
     <row r="626" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
-      <c r="B626" s="4"/>
+      <c r="B626" s="3"/>
     </row>
     <row r="627" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
-      <c r="B627" s="4"/>
+      <c r="B627" s="3"/>
     </row>
     <row r="628" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
-      <c r="B628" s="4"/>
+      <c r="B628" s="3"/>
     </row>
     <row r="629" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
-      <c r="B629" s="4"/>
+      <c r="B629" s="3"/>
     </row>
     <row r="630" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
-      <c r="B630" s="4"/>
+      <c r="B630" s="3"/>
     </row>
     <row r="631" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
-      <c r="B631" s="4"/>
+      <c r="B631" s="3"/>
     </row>
     <row r="632" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
-      <c r="B632" s="4"/>
+      <c r="B632" s="3"/>
     </row>
     <row r="633" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
-      <c r="B633" s="4"/>
+      <c r="B633" s="3"/>
     </row>
     <row r="634" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
-      <c r="B634" s="4"/>
+      <c r="B634" s="3"/>
     </row>
     <row r="635" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
-      <c r="B635" s="4"/>
+      <c r="B635" s="3"/>
     </row>
     <row r="636" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
-      <c r="B636" s="4"/>
+      <c r="B636" s="3"/>
     </row>
     <row r="637" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
-      <c r="B637" s="4"/>
+      <c r="B637" s="3"/>
     </row>
     <row r="638" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
-      <c r="B638" s="4"/>
+      <c r="B638" s="3"/>
     </row>
     <row r="639" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
-      <c r="B639" s="4"/>
+      <c r="B639" s="3"/>
     </row>
     <row r="640" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
-      <c r="B640" s="4"/>
+      <c r="B640" s="3"/>
     </row>
     <row r="641" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
-      <c r="B641" s="4"/>
+      <c r="B641" s="3"/>
     </row>
     <row r="642" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
-      <c r="B642" s="4"/>
+      <c r="B642" s="3"/>
     </row>
     <row r="643" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
-      <c r="B643" s="4"/>
+      <c r="B643" s="3"/>
     </row>
     <row r="644" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
-      <c r="B644" s="4"/>
+      <c r="B644" s="3"/>
     </row>
     <row r="645" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
-      <c r="B645" s="4"/>
+      <c r="B645" s="3"/>
     </row>
     <row r="646" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
-      <c r="B646" s="4"/>
+      <c r="B646" s="3"/>
     </row>
     <row r="647" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
-      <c r="B647" s="4"/>
+      <c r="B647" s="3"/>
     </row>
     <row r="648" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
-      <c r="B648" s="4"/>
+      <c r="B648" s="3"/>
     </row>
     <row r="649" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
-      <c r="B649" s="4"/>
+      <c r="B649" s="3"/>
     </row>
     <row r="650" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
-      <c r="B650" s="4"/>
+      <c r="B650" s="3"/>
     </row>
     <row r="651" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
-      <c r="B651" s="4"/>
+      <c r="B651" s="3"/>
     </row>
     <row r="652" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
-      <c r="B652" s="4"/>
+      <c r="B652" s="3"/>
     </row>
     <row r="653" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
-      <c r="B653" s="4"/>
+      <c r="B653" s="3"/>
     </row>
     <row r="654" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
-      <c r="B654" s="4"/>
+      <c r="B654" s="3"/>
     </row>
     <row r="655" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
-      <c r="B655" s="4"/>
+      <c r="B655" s="3"/>
     </row>
     <row r="656" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
-      <c r="B656" s="4"/>
+      <c r="B656" s="3"/>
     </row>
     <row r="657" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
-      <c r="B657" s="4"/>
+      <c r="B657" s="3"/>
     </row>
     <row r="658" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
-      <c r="B658" s="4"/>
+      <c r="B658" s="3"/>
     </row>
     <row r="659" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
-      <c r="B659" s="4"/>
+      <c r="B659" s="3"/>
     </row>
     <row r="660" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
-      <c r="B660" s="4"/>
+      <c r="B660" s="3"/>
     </row>
     <row r="661" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
-      <c r="B661" s="4"/>
+      <c r="B661" s="3"/>
     </row>
     <row r="662" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
-      <c r="B662" s="4"/>
+      <c r="B662" s="3"/>
     </row>
     <row r="663" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
-      <c r="B663" s="4"/>
+      <c r="B663" s="3"/>
     </row>
     <row r="664" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
-      <c r="B664" s="4"/>
+      <c r="B664" s="3"/>
     </row>
     <row r="665" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
-      <c r="B665" s="4"/>
+      <c r="B665" s="3"/>
     </row>
     <row r="666" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
-      <c r="B666" s="4"/>
+      <c r="B666" s="3"/>
     </row>
     <row r="667" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
-      <c r="B667" s="4"/>
+      <c r="B667" s="3"/>
     </row>
     <row r="668" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
-      <c r="B668" s="4"/>
+      <c r="B668" s="3"/>
     </row>
     <row r="669" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
-      <c r="B669" s="4"/>
+      <c r="B669" s="3"/>
     </row>
     <row r="670" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
-      <c r="B670" s="4"/>
+      <c r="B670" s="3"/>
     </row>
     <row r="671" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
-      <c r="B671" s="4"/>
+      <c r="B671" s="3"/>
     </row>
     <row r="672" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
-      <c r="B672" s="4"/>
+      <c r="B672" s="3"/>
     </row>
     <row r="673" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
-      <c r="B673" s="4"/>
+      <c r="B673" s="3"/>
     </row>
     <row r="674" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
-      <c r="B674" s="4"/>
+      <c r="B674" s="3"/>
     </row>
     <row r="675" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
-      <c r="B675" s="4"/>
+      <c r="B675" s="3"/>
     </row>
     <row r="676" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
-      <c r="B676" s="4"/>
+      <c r="B676" s="3"/>
     </row>
     <row r="677" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
-      <c r="B677" s="4"/>
+      <c r="B677" s="3"/>
     </row>
     <row r="678" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
-      <c r="B678" s="4"/>
+      <c r="B678" s="3"/>
     </row>
     <row r="679" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
-      <c r="B679" s="4"/>
+      <c r="B679" s="3"/>
     </row>
     <row r="680" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
-      <c r="B680" s="4"/>
+      <c r="B680" s="3"/>
     </row>
     <row r="681" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
-      <c r="B681" s="4"/>
+      <c r="B681" s="3"/>
     </row>
     <row r="682" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
-      <c r="B682" s="4"/>
+      <c r="B682" s="3"/>
     </row>
     <row r="683" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
-      <c r="B683" s="4"/>
+      <c r="B683" s="3"/>
     </row>
     <row r="684" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
-      <c r="B684" s="4"/>
+      <c r="B684" s="3"/>
     </row>
     <row r="685" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
-      <c r="B685" s="4"/>
+      <c r="B685" s="3"/>
     </row>
     <row r="686" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
-      <c r="B686" s="4"/>
+      <c r="B686" s="3"/>
     </row>
     <row r="687" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
-      <c r="B687" s="4"/>
+      <c r="B687" s="3"/>
     </row>
     <row r="688" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
-      <c r="B688" s="4"/>
+      <c r="B688" s="3"/>
     </row>
     <row r="689" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
-      <c r="B689" s="4"/>
+      <c r="B689" s="3"/>
     </row>
     <row r="690" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
-      <c r="B690" s="4"/>
+      <c r="B690" s="3"/>
     </row>
     <row r="691" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
-      <c r="B691" s="4"/>
+      <c r="B691" s="3"/>
     </row>
     <row r="692" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
-      <c r="B692" s="4"/>
+      <c r="B692" s="3"/>
     </row>
     <row r="693" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
-      <c r="B693" s="4"/>
+      <c r="B693" s="3"/>
     </row>
     <row r="694" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
-      <c r="B694" s="4"/>
+      <c r="B694" s="3"/>
     </row>
     <row r="695" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
-      <c r="B695" s="4"/>
+      <c r="B695" s="3"/>
     </row>
     <row r="696" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
-      <c r="B696" s="4"/>
+      <c r="B696" s="3"/>
     </row>
     <row r="697" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
-      <c r="B697" s="4"/>
+      <c r="B697" s="3"/>
     </row>
     <row r="698" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
-      <c r="B698" s="4"/>
+      <c r="B698" s="3"/>
     </row>
     <row r="699" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
-      <c r="B699" s="4"/>
+      <c r="B699" s="3"/>
     </row>
     <row r="700" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
-      <c r="B700" s="4"/>
+      <c r="B700" s="3"/>
     </row>
     <row r="701" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
-      <c r="B701" s="4"/>
+      <c r="B701" s="3"/>
     </row>
     <row r="702" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
-      <c r="B702" s="4"/>
+      <c r="B702" s="3"/>
     </row>
     <row r="703" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
-      <c r="B703" s="4"/>
+      <c r="B703" s="3"/>
     </row>
     <row r="704" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
-      <c r="B704" s="4"/>
+      <c r="B704" s="3"/>
     </row>
     <row r="705" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
-      <c r="B705" s="4"/>
+      <c r="B705" s="3"/>
     </row>
     <row r="706" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
-      <c r="B706" s="4"/>
+      <c r="B706" s="3"/>
     </row>
     <row r="707" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
-      <c r="B707" s="4"/>
+      <c r="B707" s="3"/>
     </row>
     <row r="708" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
-      <c r="B708" s="4"/>
+      <c r="B708" s="3"/>
     </row>
     <row r="709" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
-      <c r="B709" s="4"/>
+      <c r="B709" s="3"/>
     </row>
     <row r="710" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
-      <c r="B710" s="4"/>
+      <c r="B710" s="3"/>
     </row>
     <row r="711" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
-      <c r="B711" s="4"/>
+      <c r="B711" s="3"/>
     </row>
     <row r="712" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
-      <c r="B712" s="4"/>
+      <c r="B712" s="3"/>
     </row>
     <row r="713" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
-      <c r="B713" s="4"/>
+      <c r="B713" s="3"/>
     </row>
     <row r="714" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
-      <c r="B714" s="4"/>
+      <c r="B714" s="3"/>
     </row>
     <row r="715" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
-      <c r="B715" s="4"/>
+      <c r="B715" s="3"/>
     </row>
     <row r="716" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
-      <c r="B716" s="4"/>
+      <c r="B716" s="3"/>
     </row>
     <row r="717" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
-      <c r="B717" s="4"/>
+      <c r="B717" s="3"/>
     </row>
     <row r="718" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
-      <c r="B718" s="4"/>
+      <c r="B718" s="3"/>
     </row>
     <row r="719" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
-      <c r="B719" s="4"/>
+      <c r="B719" s="3"/>
     </row>
     <row r="720" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
-      <c r="B720" s="4"/>
+      <c r="B720" s="3"/>
     </row>
     <row r="721" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
-      <c r="B721" s="4"/>
+      <c r="B721" s="3"/>
     </row>
     <row r="722" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
-      <c r="B722" s="4"/>
+      <c r="B722" s="3"/>
     </row>
     <row r="723" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
-      <c r="B723" s="4"/>
+      <c r="B723" s="3"/>
     </row>
     <row r="724" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
-      <c r="B724" s="4"/>
+      <c r="B724" s="3"/>
     </row>
     <row r="725" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
-      <c r="B725" s="4"/>
+      <c r="B725" s="3"/>
     </row>
     <row r="726" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
-      <c r="B726" s="4"/>
+      <c r="B726" s="3"/>
     </row>
     <row r="727" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
-      <c r="B727" s="4"/>
+      <c r="B727" s="3"/>
     </row>
     <row r="728" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
-      <c r="B728" s="4"/>
+      <c r="B728" s="3"/>
     </row>
     <row r="729" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
-      <c r="B729" s="4"/>
+      <c r="B729" s="3"/>
     </row>
     <row r="730" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
-      <c r="B730" s="4"/>
+      <c r="B730" s="3"/>
     </row>
     <row r="731" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
-      <c r="B731" s="4"/>
+      <c r="B731" s="3"/>
     </row>
     <row r="732" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
-      <c r="B732" s="4"/>
+      <c r="B732" s="3"/>
     </row>
     <row r="733" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
-      <c r="B733" s="4"/>
+      <c r="B733" s="3"/>
     </row>
     <row r="734" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
-      <c r="B734" s="4"/>
+      <c r="B734" s="3"/>
     </row>
     <row r="735" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
-      <c r="B735" s="4"/>
+      <c r="B735" s="3"/>
     </row>
     <row r="736" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
-      <c r="B736" s="4"/>
+      <c r="B736" s="3"/>
     </row>
     <row r="737" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
-      <c r="B737" s="4"/>
+      <c r="B737" s="3"/>
     </row>
     <row r="738" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
-      <c r="B738" s="4"/>
+      <c r="B738" s="3"/>
     </row>
     <row r="739" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
-      <c r="B739" s="4"/>
+      <c r="B739" s="3"/>
     </row>
     <row r="740" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
-      <c r="B740" s="4"/>
+      <c r="B740" s="3"/>
     </row>
     <row r="741" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
-      <c r="B741" s="4"/>
+      <c r="B741" s="3"/>
     </row>
     <row r="742" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
-      <c r="B742" s="4"/>
+      <c r="B742" s="3"/>
     </row>
     <row r="743" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
-      <c r="B743" s="4"/>
+      <c r="B743" s="3"/>
     </row>
     <row r="744" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
-      <c r="B744" s="4"/>
+      <c r="B744" s="3"/>
     </row>
     <row r="745" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
-      <c r="B745" s="4"/>
+      <c r="B745" s="3"/>
     </row>
     <row r="746" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
-      <c r="B746" s="4"/>
+      <c r="B746" s="3"/>
     </row>
     <row r="747" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
-      <c r="B747" s="4"/>
+      <c r="B747" s="3"/>
     </row>
     <row r="748" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
-      <c r="B748" s="4"/>
+      <c r="B748" s="3"/>
     </row>
     <row r="749" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
-      <c r="B749" s="4"/>
+      <c r="B749" s="3"/>
     </row>
     <row r="750" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
-      <c r="B750" s="4"/>
+      <c r="B750" s="3"/>
     </row>
     <row r="751" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
-      <c r="B751" s="4"/>
+      <c r="B751" s="3"/>
     </row>
     <row r="752" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
-      <c r="B752" s="4"/>
+      <c r="B752" s="3"/>
     </row>
     <row r="753" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
-      <c r="B753" s="4"/>
+      <c r="B753" s="3"/>
     </row>
     <row r="754" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
-      <c r="B754" s="4"/>
+      <c r="B754" s="3"/>
     </row>
     <row r="755" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
-      <c r="B755" s="4"/>
+      <c r="B755" s="3"/>
     </row>
     <row r="756" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
-      <c r="B756" s="4"/>
+      <c r="B756" s="3"/>
     </row>
     <row r="757" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
-      <c r="B757" s="4"/>
+      <c r="B757" s="3"/>
     </row>
     <row r="758" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
-      <c r="B758" s="4"/>
+      <c r="B758" s="3"/>
     </row>
     <row r="759" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
-      <c r="B759" s="4"/>
+      <c r="B759" s="3"/>
     </row>
     <row r="760" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
-      <c r="B760" s="4"/>
+      <c r="B760" s="3"/>
     </row>
     <row r="761" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
-      <c r="B761" s="4"/>
+      <c r="B761" s="3"/>
     </row>
     <row r="762" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
-      <c r="B762" s="4"/>
+      <c r="B762" s="3"/>
     </row>
     <row r="763" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
-      <c r="B763" s="4"/>
+      <c r="B763" s="3"/>
     </row>
     <row r="764" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
-      <c r="B764" s="4"/>
+      <c r="B764" s="3"/>
     </row>
     <row r="765" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
-      <c r="B765" s="4"/>
+      <c r="B765" s="3"/>
     </row>
     <row r="766" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
-      <c r="B766" s="4"/>
+      <c r="B766" s="3"/>
     </row>
     <row r="767" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
-      <c r="B767" s="4"/>
+      <c r="B767" s="3"/>
     </row>
     <row r="768" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
-      <c r="B768" s="4"/>
+      <c r="B768" s="3"/>
     </row>
     <row r="769" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
-      <c r="B769" s="4"/>
+      <c r="B769" s="3"/>
     </row>
     <row r="770" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
-      <c r="B770" s="4"/>
+      <c r="B770" s="3"/>
     </row>
     <row r="771" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
-      <c r="B771" s="4"/>
+      <c r="B771" s="3"/>
     </row>
     <row r="772" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
-      <c r="B772" s="4"/>
+      <c r="B772" s="3"/>
     </row>
     <row r="773" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
-      <c r="B773" s="4"/>
+      <c r="B773" s="3"/>
     </row>
     <row r="774" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
-      <c r="B774" s="4"/>
+      <c r="B774" s="3"/>
     </row>
     <row r="775" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
-      <c r="B775" s="4"/>
+      <c r="B775" s="3"/>
     </row>
     <row r="776" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
-      <c r="B776" s="4"/>
+      <c r="B776" s="3"/>
     </row>
     <row r="777" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
-      <c r="B777" s="4"/>
+      <c r="B777" s="3"/>
     </row>
     <row r="778" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
-      <c r="B778" s="4"/>
+      <c r="B778" s="3"/>
     </row>
     <row r="779" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
-      <c r="B779" s="4"/>
+      <c r="B779" s="3"/>
     </row>
     <row r="780" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
-      <c r="B780" s="4"/>
+      <c r="B780" s="3"/>
     </row>
     <row r="781" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
-      <c r="B781" s="4"/>
+      <c r="B781" s="3"/>
     </row>
     <row r="782" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
-      <c r="B782" s="4"/>
+      <c r="B782" s="3"/>
     </row>
     <row r="783" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
-      <c r="B783" s="4"/>
+      <c r="B783" s="3"/>
     </row>
     <row r="784" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
-      <c r="B784" s="4"/>
+      <c r="B784" s="3"/>
     </row>
     <row r="785" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
-      <c r="B785" s="4"/>
+      <c r="B785" s="3"/>
     </row>
     <row r="786" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
-      <c r="B786" s="4"/>
+      <c r="B786" s="3"/>
     </row>
     <row r="787" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
-      <c r="B787" s="4"/>
+      <c r="B787" s="3"/>
     </row>
     <row r="788" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
-      <c r="B788" s="4"/>
+      <c r="B788" s="3"/>
     </row>
     <row r="789" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
-      <c r="B789" s="4"/>
+      <c r="B789" s="3"/>
     </row>
     <row r="790" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
-      <c r="B790" s="4"/>
+      <c r="B790" s="3"/>
     </row>
     <row r="791" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
-      <c r="B791" s="4"/>
+      <c r="B791" s="3"/>
     </row>
     <row r="792" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
-      <c r="B792" s="4"/>
+      <c r="B792" s="3"/>
     </row>
     <row r="793" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
-      <c r="B793" s="4"/>
+      <c r="B793" s="3"/>
     </row>
     <row r="794" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
-      <c r="B794" s="4"/>
+      <c r="B794" s="3"/>
     </row>
     <row r="795" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
-      <c r="B795" s="4"/>
+      <c r="B795" s="3"/>
     </row>
     <row r="796" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
-      <c r="B796" s="4"/>
+      <c r="B796" s="3"/>
     </row>
     <row r="797" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
-      <c r="B797" s="4"/>
+      <c r="B797" s="3"/>
     </row>
     <row r="798" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
-      <c r="B798" s="4"/>
+      <c r="B798" s="3"/>
     </row>
     <row r="799" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
-      <c r="B799" s="4"/>
+      <c r="B799" s="3"/>
     </row>
     <row r="800" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
-      <c r="B800" s="4"/>
+      <c r="B800" s="3"/>
     </row>
     <row r="801" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
-      <c r="B801" s="4"/>
+      <c r="B801" s="3"/>
     </row>
     <row r="802" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
-      <c r="B802" s="4"/>
+      <c r="B802" s="3"/>
     </row>
     <row r="803" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
-      <c r="B803" s="4"/>
+      <c r="B803" s="3"/>
     </row>
     <row r="804" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
-      <c r="B804" s="4"/>
+      <c r="B804" s="3"/>
     </row>
     <row r="805" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
-      <c r="B805" s="4"/>
+      <c r="B805" s="3"/>
     </row>
     <row r="806" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
-      <c r="B806" s="4"/>
+      <c r="B806" s="3"/>
     </row>
     <row r="807" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
-      <c r="B807" s="4"/>
+      <c r="B807" s="3"/>
     </row>
     <row r="808" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
-      <c r="B808" s="4"/>
+      <c r="B808" s="3"/>
     </row>
     <row r="809" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
-      <c r="B809" s="4"/>
+      <c r="B809" s="3"/>
     </row>
     <row r="810" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
-      <c r="B810" s="4"/>
+      <c r="B810" s="3"/>
     </row>
     <row r="811" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
-      <c r="B811" s="4"/>
+      <c r="B811" s="3"/>
     </row>
     <row r="812" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
-      <c r="B812" s="4"/>
+      <c r="B812" s="3"/>
     </row>
     <row r="813" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
-      <c r="B813" s="4"/>
+      <c r="B813" s="3"/>
     </row>
     <row r="814" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
-      <c r="B814" s="4"/>
+      <c r="B814" s="3"/>
     </row>
     <row r="815" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
-      <c r="B815" s="4"/>
+      <c r="B815" s="3"/>
     </row>
     <row r="816" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
-      <c r="B816" s="4"/>
+      <c r="B816" s="3"/>
     </row>
     <row r="817" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
-      <c r="B817" s="4"/>
+      <c r="B817" s="3"/>
     </row>
     <row r="818" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
-      <c r="B818" s="4"/>
+      <c r="B818" s="3"/>
     </row>
     <row r="819" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
-      <c r="B819" s="4"/>
+      <c r="B819" s="3"/>
     </row>
     <row r="820" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
-      <c r="B820" s="4"/>
+      <c r="B820" s="3"/>
     </row>
     <row r="821" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
-      <c r="B821" s="4"/>
+      <c r="B821" s="3"/>
     </row>
     <row r="822" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
-      <c r="B822" s="4"/>
+      <c r="B822" s="3"/>
     </row>
     <row r="823" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
-      <c r="B823" s="4"/>
+      <c r="B823" s="3"/>
     </row>
     <row r="824" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
-      <c r="B824" s="4"/>
+      <c r="B824" s="3"/>
     </row>
     <row r="825" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
-      <c r="B825" s="4"/>
+      <c r="B825" s="3"/>
     </row>
     <row r="826" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
-      <c r="B826" s="4"/>
+      <c r="B826" s="3"/>
     </row>
     <row r="827" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
-      <c r="B827" s="4"/>
+      <c r="B827" s="3"/>
     </row>
     <row r="828" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
-      <c r="B828" s="4"/>
+      <c r="B828" s="3"/>
     </row>
     <row r="829" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
-      <c r="B829" s="4"/>
+      <c r="B829" s="3"/>
     </row>
     <row r="830" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
-      <c r="B830" s="4"/>
+      <c r="B830" s="3"/>
     </row>
     <row r="831" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
-      <c r="B831" s="4"/>
+      <c r="B831" s="3"/>
     </row>
     <row r="832" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
-      <c r="B832" s="4"/>
+      <c r="B832" s="3"/>
     </row>
     <row r="833" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
-      <c r="B833" s="4"/>
+      <c r="B833" s="3"/>
     </row>
     <row r="834" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
-      <c r="B834" s="4"/>
+      <c r="B834" s="3"/>
     </row>
     <row r="835" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
-      <c r="B835" s="4"/>
+      <c r="B835" s="3"/>
     </row>
     <row r="836" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
-      <c r="B836" s="4"/>
+      <c r="B836" s="3"/>
     </row>
     <row r="837" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
-      <c r="B837" s="4"/>
+      <c r="B837" s="3"/>
     </row>
     <row r="838" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
-      <c r="B838" s="4"/>
+      <c r="B838" s="3"/>
     </row>
     <row r="839" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
-      <c r="B839" s="4"/>
+      <c r="B839" s="3"/>
     </row>
     <row r="840" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
-      <c r="B840" s="4"/>
+      <c r="B840" s="3"/>
     </row>
     <row r="841" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
-      <c r="B841" s="4"/>
+      <c r="B841" s="3"/>
     </row>
     <row r="842" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
-      <c r="B842" s="4"/>
+      <c r="B842" s="3"/>
     </row>
     <row r="843" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
-      <c r="B843" s="4"/>
+      <c r="B843" s="3"/>
     </row>
     <row r="844" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
-      <c r="B844" s="4"/>
+      <c r="B844" s="3"/>
     </row>
     <row r="845" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
-      <c r="B845" s="4"/>
+      <c r="B845" s="3"/>
     </row>
     <row r="846" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
-      <c r="B846" s="4"/>
+      <c r="B846" s="3"/>
     </row>
     <row r="847" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
-      <c r="B847" s="4"/>
+      <c r="B847" s="3"/>
     </row>
     <row r="848" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
-      <c r="B848" s="4"/>
+      <c r="B848" s="3"/>
     </row>
     <row r="849" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
-      <c r="B849" s="4"/>
+      <c r="B849" s="3"/>
     </row>
     <row r="850" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
-      <c r="B850" s="4"/>
+      <c r="B850" s="3"/>
     </row>
     <row r="851" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
-      <c r="B851" s="4"/>
+      <c r="B851" s="3"/>
     </row>
     <row r="852" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
-      <c r="B852" s="4"/>
+      <c r="B852" s="3"/>
     </row>
     <row r="853" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
-      <c r="B853" s="4"/>
+      <c r="B853" s="3"/>
     </row>
     <row r="854" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
-      <c r="B854" s="4"/>
+      <c r="B854" s="3"/>
     </row>
     <row r="855" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
-      <c r="B855" s="4"/>
+      <c r="B855" s="3"/>
     </row>
     <row r="856" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
-      <c r="B856" s="4"/>
+      <c r="B856" s="3"/>
     </row>
     <row r="857" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
-      <c r="B857" s="4"/>
+      <c r="B857" s="3"/>
     </row>
     <row r="858" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
-      <c r="B858" s="4"/>
+      <c r="B858" s="3"/>
     </row>
     <row r="859" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
-      <c r="B859" s="4"/>
+      <c r="B859" s="3"/>
     </row>
     <row r="860" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
-      <c r="B860" s="4"/>
+      <c r="B860" s="3"/>
     </row>
     <row r="861" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
-      <c r="B861" s="4"/>
+      <c r="B861" s="3"/>
     </row>
     <row r="862" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
-      <c r="B862" s="4"/>
+      <c r="B862" s="3"/>
     </row>
     <row r="863" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
-      <c r="B863" s="4"/>
+      <c r="B863" s="3"/>
     </row>
     <row r="864" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
-      <c r="B864" s="4"/>
+      <c r="B864" s="3"/>
     </row>
     <row r="865" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
-      <c r="B865" s="4"/>
+      <c r="B865" s="3"/>
     </row>
     <row r="866" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
-      <c r="B866" s="4"/>
+      <c r="B866" s="3"/>
     </row>
     <row r="867" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
-      <c r="B867" s="4"/>
+      <c r="B867" s="3"/>
     </row>
     <row r="868" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
-      <c r="B868" s="4"/>
+      <c r="B868" s="3"/>
     </row>
     <row r="869" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
-      <c r="B869" s="4"/>
+      <c r="B869" s="3"/>
     </row>
     <row r="870" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
-      <c r="B870" s="4"/>
+      <c r="B870" s="3"/>
     </row>
     <row r="871" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
-      <c r="B871" s="4"/>
+      <c r="B871" s="3"/>
     </row>
     <row r="872" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
-      <c r="B872" s="4"/>
+      <c r="B872" s="3"/>
     </row>
     <row r="873" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
-      <c r="B873" s="4"/>
+      <c r="B873" s="3"/>
     </row>
     <row r="874" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
-      <c r="B874" s="4"/>
+      <c r="B874" s="3"/>
     </row>
     <row r="875" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
-      <c r="B875" s="4"/>
+      <c r="B875" s="3"/>
     </row>
     <row r="876" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
-      <c r="B876" s="4"/>
+      <c r="B876" s="3"/>
     </row>
     <row r="877" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
-      <c r="B877" s="4"/>
+      <c r="B877" s="3"/>
     </row>
     <row r="878" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
-      <c r="B878" s="4"/>
+      <c r="B878" s="3"/>
     </row>
     <row r="879" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
-      <c r="B879" s="4"/>
+      <c r="B879" s="3"/>
     </row>
     <row r="880" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
-      <c r="B880" s="4"/>
+      <c r="B880" s="3"/>
     </row>
     <row r="881" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
-      <c r="B881" s="4"/>
+      <c r="B881" s="3"/>
     </row>
     <row r="882" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
-      <c r="B882" s="4"/>
+      <c r="B882" s="3"/>
     </row>
     <row r="883" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
-      <c r="B883" s="4"/>
+      <c r="B883" s="3"/>
     </row>
     <row r="884" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
-      <c r="B884" s="4"/>
+      <c r="B884" s="3"/>
     </row>
     <row r="885" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
-      <c r="B885" s="4"/>
+      <c r="B885" s="3"/>
     </row>
     <row r="886" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
-      <c r="B886" s="4"/>
+      <c r="B886" s="3"/>
     </row>
     <row r="887" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
-      <c r="B887" s="4"/>
+      <c r="B887" s="3"/>
     </row>
     <row r="888" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
-      <c r="B888" s="4"/>
+      <c r="B888" s="3"/>
     </row>
     <row r="889" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
-      <c r="B889" s="4"/>
+      <c r="B889" s="3"/>
     </row>
     <row r="890" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
-      <c r="B890" s="4"/>
+      <c r="B890" s="3"/>
     </row>
     <row r="891" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
-      <c r="B891" s="4"/>
+      <c r="B891" s="3"/>
     </row>
     <row r="892" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
-      <c r="B892" s="4"/>
+      <c r="B892" s="3"/>
     </row>
     <row r="893" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
-      <c r="B893" s="4"/>
+      <c r="B893" s="3"/>
     </row>
     <row r="894" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
-      <c r="B894" s="4"/>
+      <c r="B894" s="3"/>
     </row>
     <row r="895" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
-      <c r="B895" s="4"/>
+      <c r="B895" s="3"/>
     </row>
     <row r="896" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
-      <c r="B896" s="4"/>
+      <c r="B896" s="3"/>
     </row>
     <row r="897" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
-      <c r="B897" s="4"/>
+      <c r="B897" s="3"/>
     </row>
     <row r="898" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
-      <c r="B898" s="4"/>
+      <c r="B898" s="3"/>
     </row>
     <row r="899" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
-      <c r="B899" s="4"/>
+      <c r="B899" s="3"/>
     </row>
     <row r="900" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
-      <c r="B900" s="4"/>
+      <c r="B900" s="3"/>
     </row>
     <row r="901" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
-      <c r="B901" s="4"/>
+      <c r="B901" s="3"/>
     </row>
     <row r="902" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
-      <c r="B902" s="4"/>
+      <c r="B902" s="3"/>
     </row>
     <row r="903" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
-      <c r="B903" s="4"/>
+      <c r="B903" s="3"/>
     </row>
     <row r="904" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
-      <c r="B904" s="4"/>
+      <c r="B904" s="3"/>
     </row>
     <row r="905" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
-      <c r="B905" s="4"/>
+      <c r="B905" s="3"/>
     </row>
     <row r="906" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
-      <c r="B906" s="4"/>
+      <c r="B906" s="3"/>
     </row>
     <row r="907" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
-      <c r="B907" s="4"/>
+      <c r="B907" s="3"/>
     </row>
     <row r="908" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
-      <c r="B908" s="4"/>
+      <c r="B908" s="3"/>
     </row>
     <row r="909" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
-      <c r="B909" s="4"/>
+      <c r="B909" s="3"/>
     </row>
     <row r="910" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
-      <c r="B910" s="4"/>
+      <c r="B910" s="3"/>
     </row>
     <row r="911" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
-      <c r="B911" s="4"/>
+      <c r="B911" s="3"/>
     </row>
     <row r="912" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
-      <c r="B912" s="4"/>
+      <c r="B912" s="3"/>
     </row>
     <row r="913" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
-      <c r="B913" s="4"/>
+      <c r="B913" s="3"/>
     </row>
     <row r="914" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
-      <c r="B914" s="4"/>
+      <c r="B914" s="3"/>
     </row>
     <row r="915" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
-      <c r="B915" s="4"/>
+      <c r="B915" s="3"/>
     </row>
     <row r="916" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
-      <c r="B916" s="4"/>
+      <c r="B916" s="3"/>
     </row>
     <row r="917" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
-      <c r="B917" s="4"/>
+      <c r="B917" s="3"/>
     </row>
     <row r="918" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
-      <c r="B918" s="4"/>
+      <c r="B918" s="3"/>
     </row>
     <row r="919" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
-      <c r="B919" s="4"/>
+      <c r="B919" s="3"/>
     </row>
     <row r="920" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
-      <c r="B920" s="4"/>
+      <c r="B920" s="3"/>
     </row>
     <row r="921" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
-      <c r="B921" s="4"/>
+      <c r="B921" s="3"/>
     </row>
     <row r="922" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
-      <c r="B922" s="4"/>
+      <c r="B922" s="3"/>
     </row>
     <row r="923" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A923" s="1"/>
-      <c r="B923" s="4"/>
+      <c r="B923" s="3"/>
     </row>
     <row r="924" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A924" s="1"/>
-      <c r="B924" s="4"/>
+      <c r="B924" s="3"/>
     </row>
     <row r="925" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A925" s="1"/>
-      <c r="B925" s="4"/>
+      <c r="B925" s="3"/>
     </row>
     <row r="926" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
-      <c r="B926" s="4"/>
+      <c r="B926" s="3"/>
     </row>
     <row r="927" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A927" s="1"/>
-      <c r="B927" s="4"/>
+      <c r="B927" s="3"/>
     </row>
     <row r="928" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A928" s="1"/>
-      <c r="B928" s="4"/>
+      <c r="B928" s="3"/>
     </row>
     <row r="929" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A929" s="1"/>
-      <c r="B929" s="4"/>
+      <c r="B929" s="3"/>
     </row>
     <row r="930" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A930" s="1"/>
-      <c r="B930" s="4"/>
+      <c r="B930" s="3"/>
     </row>
     <row r="931" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A931" s="1"/>
-      <c r="B931" s="4"/>
+      <c r="B931" s="3"/>
     </row>
     <row r="932" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A932" s="1"/>
-      <c r="B932" s="4"/>
+      <c r="B932" s="3"/>
     </row>
     <row r="933" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A933" s="1"/>
-      <c r="B933" s="4"/>
+      <c r="B933" s="3"/>
     </row>
     <row r="934" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A934" s="1"/>
-      <c r="B934" s="4"/>
+      <c r="B934" s="3"/>
     </row>
     <row r="935" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A935" s="1"/>
-      <c r="B935" s="4"/>
+      <c r="B935" s="3"/>
     </row>
     <row r="936" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A936" s="1"/>
-      <c r="B936" s="4"/>
+      <c r="B936" s="3"/>
     </row>
     <row r="937" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
-      <c r="B937" s="4"/>
+      <c r="B937" s="3"/>
     </row>
     <row r="938" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
-      <c r="B938" s="4"/>
+      <c r="B938" s="3"/>
     </row>
     <row r="939" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
-      <c r="B939" s="4"/>
+      <c r="B939" s="3"/>
     </row>
     <row r="940" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
-      <c r="B940" s="4"/>
+      <c r="B940" s="3"/>
     </row>
     <row r="941" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
-      <c r="B941" s="4"/>
+      <c r="B941" s="3"/>
     </row>
     <row r="942" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
-      <c r="B942" s="4"/>
+      <c r="B942" s="3"/>
     </row>
     <row r="943" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
-      <c r="B943" s="4"/>
+      <c r="B943" s="3"/>
     </row>
     <row r="944" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
-      <c r="B944" s="4"/>
+      <c r="B944" s="3"/>
     </row>
     <row r="945" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A945" s="1"/>
-      <c r="B945" s="4"/>
+      <c r="B945" s="3"/>
     </row>
     <row r="946" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A946" s="1"/>
-      <c r="B946" s="4"/>
+      <c r="B946" s="3"/>
     </row>
     <row r="947" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A947" s="1"/>
-      <c r="B947" s="4"/>
+      <c r="B947" s="3"/>
     </row>
     <row r="948" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
-      <c r="B948" s="4"/>
+      <c r="B948" s="3"/>
     </row>
     <row r="949" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A949" s="1"/>
-      <c r="B949" s="4"/>
+      <c r="B949" s="3"/>
     </row>
     <row r="950" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A950" s="1"/>
-      <c r="B950" s="4"/>
+      <c r="B950" s="3"/>
     </row>
     <row r="951" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A951" s="1"/>
-      <c r="B951" s="4"/>
+      <c r="B951" s="3"/>
     </row>
     <row r="952" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A952" s="1"/>
-      <c r="B952" s="4"/>
+      <c r="B952" s="3"/>
     </row>
     <row r="953" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A953" s="1"/>
-      <c r="B953" s="4"/>
+      <c r="B953" s="3"/>
     </row>
     <row r="954" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A954" s="1"/>
-      <c r="B954" s="4"/>
+      <c r="B954" s="3"/>
     </row>
     <row r="955" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A955" s="1"/>
-      <c r="B955" s="4"/>
+      <c r="B955" s="3"/>
     </row>
     <row r="956" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A956" s="1"/>
-      <c r="B956" s="4"/>
+      <c r="B956" s="3"/>
     </row>
     <row r="957" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A957" s="1"/>
-      <c r="B957" s="4"/>
+      <c r="B957" s="3"/>
     </row>
     <row r="958" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A958" s="1"/>
-      <c r="B958" s="4"/>
+      <c r="B958" s="3"/>
     </row>
     <row r="959" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A959" s="1"/>
-      <c r="B959" s="4"/>
+      <c r="B959" s="3"/>
     </row>
     <row r="960" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
-      <c r="B960" s="4"/>
+      <c r="B960" s="3"/>
     </row>
     <row r="961" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A961" s="1"/>
-      <c r="B961" s="4"/>
+      <c r="B961" s="3"/>
     </row>
     <row r="962" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A962" s="1"/>
-      <c r="B962" s="4"/>
+      <c r="B962" s="3"/>
     </row>
     <row r="963" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
-      <c r="B963" s="4"/>
+      <c r="B963" s="3"/>
     </row>
     <row r="964" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A964" s="1"/>
-      <c r="B964" s="4"/>
+      <c r="B964" s="3"/>
     </row>
     <row r="965" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A965" s="1"/>
-      <c r="B965" s="4"/>
+      <c r="B965" s="3"/>
     </row>
     <row r="966" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A966" s="1"/>
-      <c r="B966" s="4"/>
+      <c r="B966" s="3"/>
     </row>
     <row r="967" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
-      <c r="B967" s="4"/>
+      <c r="B967" s="3"/>
     </row>
     <row r="968" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A968" s="1"/>
-      <c r="B968" s="4"/>
+      <c r="B968" s="3"/>
     </row>
     <row r="969" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A969" s="1"/>
-      <c r="B969" s="4"/>
+      <c r="B969" s="3"/>
     </row>
     <row r="970" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A970" s="1"/>
-      <c r="B970" s="4"/>
+      <c r="B970" s="3"/>
     </row>
     <row r="971" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
-      <c r="B971" s="4"/>
+      <c r="B971" s="3"/>
     </row>
     <row r="972" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A972" s="1"/>
-      <c r="B972" s="4"/>
+      <c r="B972" s="3"/>
     </row>
     <row r="973" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A973" s="1"/>
-      <c r="B973" s="4"/>
+      <c r="B973" s="3"/>
     </row>
     <row r="974" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A974" s="1"/>
-      <c r="B974" s="4"/>
+      <c r="B974" s="3"/>
     </row>
     <row r="975" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A975" s="1"/>
-      <c r="B975" s="4"/>
+      <c r="B975" s="3"/>
     </row>
     <row r="976" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A976" s="1"/>
-      <c r="B976" s="4"/>
+      <c r="B976" s="3"/>
     </row>
     <row r="977" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A977" s="1"/>
-      <c r="B977" s="4"/>
+      <c r="B977" s="3"/>
     </row>
     <row r="978" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A978" s="1"/>
-      <c r="B978" s="4"/>
+      <c r="B978" s="3"/>
     </row>
     <row r="979" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A979" s="1"/>
-      <c r="B979" s="4"/>
+      <c r="B979" s="3"/>
     </row>
     <row r="980" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A980" s="1"/>
-      <c r="B980" s="4"/>
+      <c r="B980" s="3"/>
     </row>
     <row r="981" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A981" s="1"/>
-      <c r="B981" s="4"/>
+      <c r="B981" s="3"/>
     </row>
     <row r="982" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A982" s="1"/>
-      <c r="B982" s="4"/>
+      <c r="B982" s="3"/>
     </row>
     <row r="983" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
-      <c r="B983" s="4"/>
+      <c r="B983" s="3"/>
     </row>
     <row r="984" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A984" s="1"/>
-      <c r="B984" s="4"/>
+      <c r="B984" s="3"/>
     </row>
     <row r="985" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A985" s="1"/>
-      <c r="B985" s="4"/>
+      <c r="B985" s="3"/>
     </row>
     <row r="986" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A986" s="1"/>
-      <c r="B986" s="4"/>
+      <c r="B986" s="3"/>
     </row>
     <row r="987" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A987" s="1"/>
-      <c r="B987" s="4"/>
+      <c r="B987" s="3"/>
     </row>
     <row r="988" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A988" s="1"/>
-      <c r="B988" s="4"/>
+      <c r="B988" s="3"/>
     </row>
     <row r="989" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A989" s="1"/>
-      <c r="B989" s="4"/>
+      <c r="B989" s="3"/>
     </row>
     <row r="990" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A990" s="1"/>
-      <c r="B990" s="4"/>
+      <c r="B990" s="3"/>
     </row>
     <row r="991" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A991" s="1"/>
-      <c r="B991" s="4"/>
+      <c r="B991" s="3"/>
     </row>
     <row r="992" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A992" s="1"/>
-      <c r="B992" s="4"/>
+      <c r="B992" s="3"/>
     </row>
     <row r="993" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A993" s="1"/>
-      <c r="B993" s="4"/>
+      <c r="B993" s="3"/>
     </row>
     <row r="994" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A994" s="1"/>
-      <c r="B994" s="4"/>
+      <c r="B994" s="3"/>
     </row>
     <row r="995" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
-      <c r="B995" s="4"/>
+      <c r="B995" s="3"/>
     </row>
     <row r="996" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A996" s="1"/>
-      <c r="B996" s="4"/>
+      <c r="B996" s="3"/>
     </row>
     <row r="997" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A997" s="1"/>
-      <c r="B997" s="4"/>
+      <c r="B997" s="3"/>
     </row>
     <row r="998" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A998" s="1"/>
-      <c r="B998" s="4"/>
+      <c r="B998" s="3"/>
     </row>
     <row r="999" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A999" s="1"/>
-      <c r="B999" s="4"/>
+      <c r="B999" s="3"/>
     </row>
     <row r="1000" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1000" s="1"/>
-      <c r="B1000" s="4"/>
+      <c r="B1000" s="3"/>
     </row>
     <row r="1001" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1001" s="1"/>
-      <c r="B1001" s="4"/>
+      <c r="B1001" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4681,4 +4834,4256 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBD716A-60D7-4544-9B59-DD3856981F97}">
+  <dimension ref="A1:Z1001"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="32" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" style="4" customWidth="1"/>
+    <col min="7" max="9" width="29.109375" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="1:26" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:26" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="1:26" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:26" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="3"/>
+    </row>
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="3"/>
+    </row>
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="3"/>
+    </row>
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="3"/>
+    </row>
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="3"/>
+    </row>
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="3"/>
+    </row>
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="3"/>
+    </row>
+    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="3"/>
+    </row>
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="3"/>
+    </row>
+    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="3"/>
+    </row>
+    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="3"/>
+    </row>
+    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="3"/>
+    </row>
+    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="3"/>
+    </row>
+    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="3"/>
+    </row>
+    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="3"/>
+    </row>
+    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="3"/>
+    </row>
+    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="3"/>
+    </row>
+    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="3"/>
+    </row>
+    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="3"/>
+    </row>
+    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="3"/>
+    </row>
+    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="3"/>
+    </row>
+    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="3"/>
+    </row>
+    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="3"/>
+    </row>
+    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="3"/>
+    </row>
+    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="3"/>
+    </row>
+    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="3"/>
+    </row>
+    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="3"/>
+    </row>
+    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="3"/>
+    </row>
+    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="3"/>
+    </row>
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="3"/>
+    </row>
+    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="3"/>
+    </row>
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="3"/>
+    </row>
+    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="3"/>
+    </row>
+    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="3"/>
+    </row>
+    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="3"/>
+    </row>
+    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="3"/>
+    </row>
+    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="3"/>
+    </row>
+    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="3"/>
+    </row>
+    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="3"/>
+    </row>
+    <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="3"/>
+    </row>
+    <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="3"/>
+    </row>
+    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="3"/>
+    </row>
+    <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="3"/>
+    </row>
+    <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="3"/>
+    </row>
+    <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="B130" s="3"/>
+    </row>
+    <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="3"/>
+    </row>
+    <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="3"/>
+    </row>
+    <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="3"/>
+    </row>
+    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="3"/>
+    </row>
+    <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="3"/>
+    </row>
+    <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="3"/>
+    </row>
+    <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="3"/>
+    </row>
+    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="3"/>
+    </row>
+    <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="3"/>
+    </row>
+    <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="3"/>
+    </row>
+    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="3"/>
+    </row>
+    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="B143" s="3"/>
+    </row>
+    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="3"/>
+    </row>
+    <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="3"/>
+    </row>
+    <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="3"/>
+    </row>
+    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="3"/>
+    </row>
+    <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="3"/>
+    </row>
+    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="B149" s="3"/>
+    </row>
+    <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="3"/>
+    </row>
+    <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="3"/>
+    </row>
+    <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="3"/>
+    </row>
+    <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="3"/>
+    </row>
+    <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="3"/>
+    </row>
+    <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="3"/>
+    </row>
+    <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="3"/>
+    </row>
+    <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="3"/>
+    </row>
+    <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="3"/>
+    </row>
+    <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="3"/>
+    </row>
+    <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="3"/>
+    </row>
+    <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="3"/>
+    </row>
+    <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="3"/>
+    </row>
+    <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="3"/>
+    </row>
+    <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="B164" s="3"/>
+    </row>
+    <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="3"/>
+    </row>
+    <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="B166" s="3"/>
+    </row>
+    <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="B167" s="3"/>
+    </row>
+    <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="3"/>
+    </row>
+    <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="3"/>
+    </row>
+    <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="B170" s="3"/>
+    </row>
+    <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="3"/>
+    </row>
+    <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="B172" s="3"/>
+    </row>
+    <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="B173" s="3"/>
+    </row>
+    <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="B174" s="3"/>
+    </row>
+    <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="B175" s="3"/>
+    </row>
+    <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+      <c r="B176" s="3"/>
+    </row>
+    <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="3"/>
+    </row>
+    <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="3"/>
+    </row>
+    <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+      <c r="B179" s="3"/>
+    </row>
+    <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+      <c r="B180" s="3"/>
+    </row>
+    <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+      <c r="B181" s="3"/>
+    </row>
+    <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+      <c r="B182" s="3"/>
+    </row>
+    <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+      <c r="B183" s="3"/>
+    </row>
+    <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
+      <c r="B184" s="3"/>
+    </row>
+    <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+      <c r="B185" s="3"/>
+    </row>
+    <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+      <c r="B186" s="3"/>
+    </row>
+    <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+      <c r="B187" s="3"/>
+    </row>
+    <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+      <c r="B188" s="3"/>
+    </row>
+    <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+      <c r="B189" s="3"/>
+    </row>
+    <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+      <c r="B190" s="3"/>
+    </row>
+    <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+      <c r="B191" s="3"/>
+    </row>
+    <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+      <c r="B192" s="3"/>
+    </row>
+    <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+      <c r="B193" s="3"/>
+    </row>
+    <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+      <c r="B194" s="3"/>
+    </row>
+    <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+      <c r="B195" s="3"/>
+    </row>
+    <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+      <c r="B196" s="3"/>
+    </row>
+    <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+      <c r="B197" s="3"/>
+    </row>
+    <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+      <c r="B198" s="3"/>
+    </row>
+    <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+      <c r="B199" s="3"/>
+    </row>
+    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+      <c r="B200" s="3"/>
+    </row>
+    <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+      <c r="B201" s="3"/>
+    </row>
+    <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A202" s="1"/>
+      <c r="B202" s="3"/>
+    </row>
+    <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+      <c r="B203" s="3"/>
+    </row>
+    <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+      <c r="B204" s="3"/>
+    </row>
+    <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+      <c r="B205" s="3"/>
+    </row>
+    <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+      <c r="B206" s="3"/>
+    </row>
+    <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+      <c r="B207" s="3"/>
+    </row>
+    <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+      <c r="B208" s="3"/>
+    </row>
+    <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+      <c r="B209" s="3"/>
+    </row>
+    <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+      <c r="B210" s="3"/>
+    </row>
+    <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
+      <c r="B211" s="3"/>
+    </row>
+    <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
+      <c r="B212" s="3"/>
+    </row>
+    <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+      <c r="B213" s="3"/>
+    </row>
+    <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A214" s="1"/>
+      <c r="B214" s="3"/>
+    </row>
+    <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+      <c r="B215" s="3"/>
+    </row>
+    <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
+      <c r="B216" s="3"/>
+    </row>
+    <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A217" s="1"/>
+      <c r="B217" s="3"/>
+    </row>
+    <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A218" s="1"/>
+      <c r="B218" s="3"/>
+    </row>
+    <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A219" s="1"/>
+      <c r="B219" s="3"/>
+    </row>
+    <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A220" s="1"/>
+      <c r="B220" s="3"/>
+    </row>
+    <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+      <c r="B221" s="3"/>
+    </row>
+    <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+      <c r="B222" s="3"/>
+    </row>
+    <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+      <c r="B223" s="3"/>
+    </row>
+    <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A224" s="1"/>
+      <c r="B224" s="3"/>
+    </row>
+    <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+      <c r="B225" s="3"/>
+    </row>
+    <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+      <c r="B226" s="3"/>
+    </row>
+    <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A227" s="1"/>
+      <c r="B227" s="3"/>
+    </row>
+    <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+      <c r="B228" s="3"/>
+    </row>
+    <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A229" s="1"/>
+      <c r="B229" s="3"/>
+    </row>
+    <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A230" s="1"/>
+      <c r="B230" s="3"/>
+    </row>
+    <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A231" s="1"/>
+      <c r="B231" s="3"/>
+    </row>
+    <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
+      <c r="B232" s="3"/>
+    </row>
+    <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A233" s="1"/>
+      <c r="B233" s="3"/>
+    </row>
+    <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A234" s="1"/>
+      <c r="B234" s="3"/>
+    </row>
+    <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+      <c r="B235" s="3"/>
+    </row>
+    <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A236" s="1"/>
+      <c r="B236" s="3"/>
+    </row>
+    <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A237" s="1"/>
+      <c r="B237" s="3"/>
+    </row>
+    <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A238" s="1"/>
+      <c r="B238" s="3"/>
+    </row>
+    <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A239" s="1"/>
+      <c r="B239" s="3"/>
+    </row>
+    <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+      <c r="B240" s="3"/>
+    </row>
+    <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A241" s="1"/>
+      <c r="B241" s="3"/>
+    </row>
+    <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A242" s="1"/>
+      <c r="B242" s="3"/>
+    </row>
+    <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A243" s="1"/>
+      <c r="B243" s="3"/>
+    </row>
+    <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A244" s="1"/>
+      <c r="B244" s="3"/>
+    </row>
+    <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A245" s="1"/>
+      <c r="B245" s="3"/>
+    </row>
+    <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A246" s="1"/>
+      <c r="B246" s="3"/>
+    </row>
+    <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A247" s="1"/>
+      <c r="B247" s="3"/>
+    </row>
+    <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A248" s="1"/>
+      <c r="B248" s="3"/>
+    </row>
+    <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A249" s="1"/>
+      <c r="B249" s="3"/>
+    </row>
+    <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A250" s="1"/>
+      <c r="B250" s="3"/>
+    </row>
+    <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A251" s="1"/>
+      <c r="B251" s="3"/>
+    </row>
+    <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A252" s="1"/>
+      <c r="B252" s="3"/>
+    </row>
+    <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A253" s="1"/>
+      <c r="B253" s="3"/>
+    </row>
+    <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A254" s="1"/>
+      <c r="B254" s="3"/>
+    </row>
+    <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A255" s="1"/>
+      <c r="B255" s="3"/>
+    </row>
+    <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A256" s="1"/>
+      <c r="B256" s="3"/>
+    </row>
+    <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A257" s="1"/>
+      <c r="B257" s="3"/>
+    </row>
+    <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A258" s="1"/>
+      <c r="B258" s="3"/>
+    </row>
+    <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A259" s="1"/>
+      <c r="B259" s="3"/>
+    </row>
+    <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A260" s="1"/>
+      <c r="B260" s="3"/>
+    </row>
+    <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A261" s="1"/>
+      <c r="B261" s="3"/>
+    </row>
+    <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A262" s="1"/>
+      <c r="B262" s="3"/>
+    </row>
+    <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A263" s="1"/>
+      <c r="B263" s="3"/>
+    </row>
+    <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A264" s="1"/>
+      <c r="B264" s="3"/>
+    </row>
+    <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A265" s="1"/>
+      <c r="B265" s="3"/>
+    </row>
+    <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A266" s="1"/>
+      <c r="B266" s="3"/>
+    </row>
+    <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A267" s="1"/>
+      <c r="B267" s="3"/>
+    </row>
+    <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A268" s="1"/>
+      <c r="B268" s="3"/>
+    </row>
+    <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A269" s="1"/>
+      <c r="B269" s="3"/>
+    </row>
+    <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A270" s="1"/>
+      <c r="B270" s="3"/>
+    </row>
+    <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A271" s="1"/>
+      <c r="B271" s="3"/>
+    </row>
+    <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A272" s="1"/>
+      <c r="B272" s="3"/>
+    </row>
+    <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A273" s="1"/>
+      <c r="B273" s="3"/>
+    </row>
+    <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A274" s="1"/>
+      <c r="B274" s="3"/>
+    </row>
+    <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A275" s="1"/>
+      <c r="B275" s="3"/>
+    </row>
+    <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A276" s="1"/>
+      <c r="B276" s="3"/>
+    </row>
+    <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A277" s="1"/>
+      <c r="B277" s="3"/>
+    </row>
+    <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A278" s="1"/>
+      <c r="B278" s="3"/>
+    </row>
+    <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A279" s="1"/>
+      <c r="B279" s="3"/>
+    </row>
+    <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A280" s="1"/>
+      <c r="B280" s="3"/>
+    </row>
+    <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A281" s="1"/>
+      <c r="B281" s="3"/>
+    </row>
+    <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A282" s="1"/>
+      <c r="B282" s="3"/>
+    </row>
+    <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A283" s="1"/>
+      <c r="B283" s="3"/>
+    </row>
+    <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A284" s="1"/>
+      <c r="B284" s="3"/>
+    </row>
+    <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A285" s="1"/>
+      <c r="B285" s="3"/>
+    </row>
+    <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A286" s="1"/>
+      <c r="B286" s="3"/>
+    </row>
+    <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A287" s="1"/>
+      <c r="B287" s="3"/>
+    </row>
+    <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A288" s="1"/>
+      <c r="B288" s="3"/>
+    </row>
+    <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A289" s="1"/>
+      <c r="B289" s="3"/>
+    </row>
+    <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A290" s="1"/>
+      <c r="B290" s="3"/>
+    </row>
+    <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A291" s="1"/>
+      <c r="B291" s="3"/>
+    </row>
+    <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A292" s="1"/>
+      <c r="B292" s="3"/>
+    </row>
+    <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A293" s="1"/>
+      <c r="B293" s="3"/>
+    </row>
+    <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A294" s="1"/>
+      <c r="B294" s="3"/>
+    </row>
+    <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A295" s="1"/>
+      <c r="B295" s="3"/>
+    </row>
+    <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A296" s="1"/>
+      <c r="B296" s="3"/>
+    </row>
+    <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A297" s="1"/>
+      <c r="B297" s="3"/>
+    </row>
+    <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A298" s="1"/>
+      <c r="B298" s="3"/>
+    </row>
+    <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A299" s="1"/>
+      <c r="B299" s="3"/>
+    </row>
+    <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A300" s="1"/>
+      <c r="B300" s="3"/>
+    </row>
+    <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A301" s="1"/>
+      <c r="B301" s="3"/>
+    </row>
+    <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A302" s="1"/>
+      <c r="B302" s="3"/>
+    </row>
+    <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A303" s="1"/>
+      <c r="B303" s="3"/>
+    </row>
+    <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A304" s="1"/>
+      <c r="B304" s="3"/>
+    </row>
+    <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A305" s="1"/>
+      <c r="B305" s="3"/>
+    </row>
+    <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A306" s="1"/>
+      <c r="B306" s="3"/>
+    </row>
+    <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A307" s="1"/>
+      <c r="B307" s="3"/>
+    </row>
+    <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A308" s="1"/>
+      <c r="B308" s="3"/>
+    </row>
+    <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A309" s="1"/>
+      <c r="B309" s="3"/>
+    </row>
+    <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A310" s="1"/>
+      <c r="B310" s="3"/>
+    </row>
+    <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A311" s="1"/>
+      <c r="B311" s="3"/>
+    </row>
+    <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A312" s="1"/>
+      <c r="B312" s="3"/>
+    </row>
+    <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A313" s="1"/>
+      <c r="B313" s="3"/>
+    </row>
+    <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A314" s="1"/>
+      <c r="B314" s="3"/>
+    </row>
+    <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A315" s="1"/>
+      <c r="B315" s="3"/>
+    </row>
+    <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A316" s="1"/>
+      <c r="B316" s="3"/>
+    </row>
+    <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A317" s="1"/>
+      <c r="B317" s="3"/>
+    </row>
+    <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A318" s="1"/>
+      <c r="B318" s="3"/>
+    </row>
+    <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A319" s="1"/>
+      <c r="B319" s="3"/>
+    </row>
+    <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A320" s="1"/>
+      <c r="B320" s="3"/>
+    </row>
+    <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A321" s="1"/>
+      <c r="B321" s="3"/>
+    </row>
+    <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A322" s="1"/>
+      <c r="B322" s="3"/>
+    </row>
+    <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A323" s="1"/>
+      <c r="B323" s="3"/>
+    </row>
+    <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A324" s="1"/>
+      <c r="B324" s="3"/>
+    </row>
+    <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A325" s="1"/>
+      <c r="B325" s="3"/>
+    </row>
+    <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A326" s="1"/>
+      <c r="B326" s="3"/>
+    </row>
+    <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A327" s="1"/>
+      <c r="B327" s="3"/>
+    </row>
+    <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A328" s="1"/>
+      <c r="B328" s="3"/>
+    </row>
+    <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A329" s="1"/>
+      <c r="B329" s="3"/>
+    </row>
+    <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A330" s="1"/>
+      <c r="B330" s="3"/>
+    </row>
+    <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A331" s="1"/>
+      <c r="B331" s="3"/>
+    </row>
+    <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A332" s="1"/>
+      <c r="B332" s="3"/>
+    </row>
+    <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A333" s="1"/>
+      <c r="B333" s="3"/>
+    </row>
+    <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A334" s="1"/>
+      <c r="B334" s="3"/>
+    </row>
+    <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A335" s="1"/>
+      <c r="B335" s="3"/>
+    </row>
+    <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A336" s="1"/>
+      <c r="B336" s="3"/>
+    </row>
+    <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A337" s="1"/>
+      <c r="B337" s="3"/>
+    </row>
+    <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A338" s="1"/>
+      <c r="B338" s="3"/>
+    </row>
+    <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A339" s="1"/>
+      <c r="B339" s="3"/>
+    </row>
+    <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A340" s="1"/>
+      <c r="B340" s="3"/>
+    </row>
+    <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A341" s="1"/>
+      <c r="B341" s="3"/>
+    </row>
+    <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A342" s="1"/>
+      <c r="B342" s="3"/>
+    </row>
+    <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A343" s="1"/>
+      <c r="B343" s="3"/>
+    </row>
+    <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A344" s="1"/>
+      <c r="B344" s="3"/>
+    </row>
+    <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A345" s="1"/>
+      <c r="B345" s="3"/>
+    </row>
+    <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A346" s="1"/>
+      <c r="B346" s="3"/>
+    </row>
+    <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A347" s="1"/>
+      <c r="B347" s="3"/>
+    </row>
+    <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A348" s="1"/>
+      <c r="B348" s="3"/>
+    </row>
+    <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A349" s="1"/>
+      <c r="B349" s="3"/>
+    </row>
+    <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A350" s="1"/>
+      <c r="B350" s="3"/>
+    </row>
+    <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A351" s="1"/>
+      <c r="B351" s="3"/>
+    </row>
+    <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A352" s="1"/>
+      <c r="B352" s="3"/>
+    </row>
+    <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A353" s="1"/>
+      <c r="B353" s="3"/>
+    </row>
+    <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A354" s="1"/>
+      <c r="B354" s="3"/>
+    </row>
+    <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A355" s="1"/>
+      <c r="B355" s="3"/>
+    </row>
+    <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A356" s="1"/>
+      <c r="B356" s="3"/>
+    </row>
+    <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A357" s="1"/>
+      <c r="B357" s="3"/>
+    </row>
+    <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A358" s="1"/>
+      <c r="B358" s="3"/>
+    </row>
+    <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A359" s="1"/>
+      <c r="B359" s="3"/>
+    </row>
+    <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A360" s="1"/>
+      <c r="B360" s="3"/>
+    </row>
+    <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A361" s="1"/>
+      <c r="B361" s="3"/>
+    </row>
+    <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A362" s="1"/>
+      <c r="B362" s="3"/>
+    </row>
+    <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A363" s="1"/>
+      <c r="B363" s="3"/>
+    </row>
+    <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A364" s="1"/>
+      <c r="B364" s="3"/>
+    </row>
+    <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A365" s="1"/>
+      <c r="B365" s="3"/>
+    </row>
+    <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A366" s="1"/>
+      <c r="B366" s="3"/>
+    </row>
+    <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A367" s="1"/>
+      <c r="B367" s="3"/>
+    </row>
+    <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A368" s="1"/>
+      <c r="B368" s="3"/>
+    </row>
+    <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A369" s="1"/>
+      <c r="B369" s="3"/>
+    </row>
+    <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A370" s="1"/>
+      <c r="B370" s="3"/>
+    </row>
+    <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A371" s="1"/>
+      <c r="B371" s="3"/>
+    </row>
+    <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A372" s="1"/>
+      <c r="B372" s="3"/>
+    </row>
+    <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A373" s="1"/>
+      <c r="B373" s="3"/>
+    </row>
+    <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A374" s="1"/>
+      <c r="B374" s="3"/>
+    </row>
+    <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A375" s="1"/>
+      <c r="B375" s="3"/>
+    </row>
+    <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A376" s="1"/>
+      <c r="B376" s="3"/>
+    </row>
+    <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A377" s="1"/>
+      <c r="B377" s="3"/>
+    </row>
+    <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A378" s="1"/>
+      <c r="B378" s="3"/>
+    </row>
+    <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A379" s="1"/>
+      <c r="B379" s="3"/>
+    </row>
+    <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A380" s="1"/>
+      <c r="B380" s="3"/>
+    </row>
+    <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A381" s="1"/>
+      <c r="B381" s="3"/>
+    </row>
+    <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A382" s="1"/>
+      <c r="B382" s="3"/>
+    </row>
+    <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A383" s="1"/>
+      <c r="B383" s="3"/>
+    </row>
+    <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A384" s="1"/>
+      <c r="B384" s="3"/>
+    </row>
+    <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A385" s="1"/>
+      <c r="B385" s="3"/>
+    </row>
+    <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A386" s="1"/>
+      <c r="B386" s="3"/>
+    </row>
+    <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A387" s="1"/>
+      <c r="B387" s="3"/>
+    </row>
+    <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A388" s="1"/>
+      <c r="B388" s="3"/>
+    </row>
+    <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A389" s="1"/>
+      <c r="B389" s="3"/>
+    </row>
+    <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A390" s="1"/>
+      <c r="B390" s="3"/>
+    </row>
+    <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A391" s="1"/>
+      <c r="B391" s="3"/>
+    </row>
+    <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A392" s="1"/>
+      <c r="B392" s="3"/>
+    </row>
+    <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A393" s="1"/>
+      <c r="B393" s="3"/>
+    </row>
+    <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A394" s="1"/>
+      <c r="B394" s="3"/>
+    </row>
+    <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A395" s="1"/>
+      <c r="B395" s="3"/>
+    </row>
+    <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A396" s="1"/>
+      <c r="B396" s="3"/>
+    </row>
+    <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A397" s="1"/>
+      <c r="B397" s="3"/>
+    </row>
+    <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A398" s="1"/>
+      <c r="B398" s="3"/>
+    </row>
+    <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A399" s="1"/>
+      <c r="B399" s="3"/>
+    </row>
+    <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A400" s="1"/>
+      <c r="B400" s="3"/>
+    </row>
+    <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A401" s="1"/>
+      <c r="B401" s="3"/>
+    </row>
+    <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A402" s="1"/>
+      <c r="B402" s="3"/>
+    </row>
+    <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A403" s="1"/>
+      <c r="B403" s="3"/>
+    </row>
+    <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A404" s="1"/>
+      <c r="B404" s="3"/>
+    </row>
+    <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A405" s="1"/>
+      <c r="B405" s="3"/>
+    </row>
+    <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A406" s="1"/>
+      <c r="B406" s="3"/>
+    </row>
+    <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A407" s="1"/>
+      <c r="B407" s="3"/>
+    </row>
+    <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A408" s="1"/>
+      <c r="B408" s="3"/>
+    </row>
+    <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A409" s="1"/>
+      <c r="B409" s="3"/>
+    </row>
+    <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A410" s="1"/>
+      <c r="B410" s="3"/>
+    </row>
+    <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A411" s="1"/>
+      <c r="B411" s="3"/>
+    </row>
+    <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A412" s="1"/>
+      <c r="B412" s="3"/>
+    </row>
+    <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A413" s="1"/>
+      <c r="B413" s="3"/>
+    </row>
+    <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A414" s="1"/>
+      <c r="B414" s="3"/>
+    </row>
+    <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A415" s="1"/>
+      <c r="B415" s="3"/>
+    </row>
+    <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A416" s="1"/>
+      <c r="B416" s="3"/>
+    </row>
+    <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A417" s="1"/>
+      <c r="B417" s="3"/>
+    </row>
+    <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A418" s="1"/>
+      <c r="B418" s="3"/>
+    </row>
+    <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A419" s="1"/>
+      <c r="B419" s="3"/>
+    </row>
+    <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A420" s="1"/>
+      <c r="B420" s="3"/>
+    </row>
+    <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A421" s="1"/>
+      <c r="B421" s="3"/>
+    </row>
+    <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A422" s="1"/>
+      <c r="B422" s="3"/>
+    </row>
+    <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A423" s="1"/>
+      <c r="B423" s="3"/>
+    </row>
+    <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A424" s="1"/>
+      <c r="B424" s="3"/>
+    </row>
+    <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A425" s="1"/>
+      <c r="B425" s="3"/>
+    </row>
+    <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A426" s="1"/>
+      <c r="B426" s="3"/>
+    </row>
+    <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A427" s="1"/>
+      <c r="B427" s="3"/>
+    </row>
+    <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A428" s="1"/>
+      <c r="B428" s="3"/>
+    </row>
+    <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A429" s="1"/>
+      <c r="B429" s="3"/>
+    </row>
+    <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A430" s="1"/>
+      <c r="B430" s="3"/>
+    </row>
+    <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A431" s="1"/>
+      <c r="B431" s="3"/>
+    </row>
+    <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A432" s="1"/>
+      <c r="B432" s="3"/>
+    </row>
+    <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A433" s="1"/>
+      <c r="B433" s="3"/>
+    </row>
+    <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A434" s="1"/>
+      <c r="B434" s="3"/>
+    </row>
+    <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A435" s="1"/>
+      <c r="B435" s="3"/>
+    </row>
+    <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A436" s="1"/>
+      <c r="B436" s="3"/>
+    </row>
+    <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A437" s="1"/>
+      <c r="B437" s="3"/>
+    </row>
+    <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A438" s="1"/>
+      <c r="B438" s="3"/>
+    </row>
+    <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A439" s="1"/>
+      <c r="B439" s="3"/>
+    </row>
+    <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A440" s="1"/>
+      <c r="B440" s="3"/>
+    </row>
+    <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A441" s="1"/>
+      <c r="B441" s="3"/>
+    </row>
+    <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A442" s="1"/>
+      <c r="B442" s="3"/>
+    </row>
+    <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A443" s="1"/>
+      <c r="B443" s="3"/>
+    </row>
+    <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A444" s="1"/>
+      <c r="B444" s="3"/>
+    </row>
+    <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A445" s="1"/>
+      <c r="B445" s="3"/>
+    </row>
+    <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A446" s="1"/>
+      <c r="B446" s="3"/>
+    </row>
+    <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A447" s="1"/>
+      <c r="B447" s="3"/>
+    </row>
+    <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A448" s="1"/>
+      <c r="B448" s="3"/>
+    </row>
+    <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A449" s="1"/>
+      <c r="B449" s="3"/>
+    </row>
+    <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A450" s="1"/>
+      <c r="B450" s="3"/>
+    </row>
+    <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A451" s="1"/>
+      <c r="B451" s="3"/>
+    </row>
+    <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A452" s="1"/>
+      <c r="B452" s="3"/>
+    </row>
+    <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A453" s="1"/>
+      <c r="B453" s="3"/>
+    </row>
+    <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A454" s="1"/>
+      <c r="B454" s="3"/>
+    </row>
+    <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A455" s="1"/>
+      <c r="B455" s="3"/>
+    </row>
+    <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A456" s="1"/>
+      <c r="B456" s="3"/>
+    </row>
+    <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A457" s="1"/>
+      <c r="B457" s="3"/>
+    </row>
+    <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A458" s="1"/>
+      <c r="B458" s="3"/>
+    </row>
+    <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A459" s="1"/>
+      <c r="B459" s="3"/>
+    </row>
+    <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A460" s="1"/>
+      <c r="B460" s="3"/>
+    </row>
+    <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A461" s="1"/>
+      <c r="B461" s="3"/>
+    </row>
+    <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A462" s="1"/>
+      <c r="B462" s="3"/>
+    </row>
+    <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A463" s="1"/>
+      <c r="B463" s="3"/>
+    </row>
+    <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A464" s="1"/>
+      <c r="B464" s="3"/>
+    </row>
+    <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A465" s="1"/>
+      <c r="B465" s="3"/>
+    </row>
+    <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A466" s="1"/>
+      <c r="B466" s="3"/>
+    </row>
+    <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A467" s="1"/>
+      <c r="B467" s="3"/>
+    </row>
+    <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A468" s="1"/>
+      <c r="B468" s="3"/>
+    </row>
+    <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A469" s="1"/>
+      <c r="B469" s="3"/>
+    </row>
+    <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A470" s="1"/>
+      <c r="B470" s="3"/>
+    </row>
+    <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A471" s="1"/>
+      <c r="B471" s="3"/>
+    </row>
+    <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A472" s="1"/>
+      <c r="B472" s="3"/>
+    </row>
+    <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A473" s="1"/>
+      <c r="B473" s="3"/>
+    </row>
+    <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A474" s="1"/>
+      <c r="B474" s="3"/>
+    </row>
+    <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A475" s="1"/>
+      <c r="B475" s="3"/>
+    </row>
+    <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A476" s="1"/>
+      <c r="B476" s="3"/>
+    </row>
+    <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A477" s="1"/>
+      <c r="B477" s="3"/>
+    </row>
+    <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A478" s="1"/>
+      <c r="B478" s="3"/>
+    </row>
+    <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A479" s="1"/>
+      <c r="B479" s="3"/>
+    </row>
+    <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A480" s="1"/>
+      <c r="B480" s="3"/>
+    </row>
+    <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A481" s="1"/>
+      <c r="B481" s="3"/>
+    </row>
+    <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A482" s="1"/>
+      <c r="B482" s="3"/>
+    </row>
+    <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A483" s="1"/>
+      <c r="B483" s="3"/>
+    </row>
+    <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A484" s="1"/>
+      <c r="B484" s="3"/>
+    </row>
+    <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A485" s="1"/>
+      <c r="B485" s="3"/>
+    </row>
+    <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A486" s="1"/>
+      <c r="B486" s="3"/>
+    </row>
+    <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A487" s="1"/>
+      <c r="B487" s="3"/>
+    </row>
+    <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A488" s="1"/>
+      <c r="B488" s="3"/>
+    </row>
+    <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A489" s="1"/>
+      <c r="B489" s="3"/>
+    </row>
+    <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A490" s="1"/>
+      <c r="B490" s="3"/>
+    </row>
+    <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A491" s="1"/>
+      <c r="B491" s="3"/>
+    </row>
+    <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A492" s="1"/>
+      <c r="B492" s="3"/>
+    </row>
+    <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A493" s="1"/>
+      <c r="B493" s="3"/>
+    </row>
+    <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A494" s="1"/>
+      <c r="B494" s="3"/>
+    </row>
+    <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A495" s="1"/>
+      <c r="B495" s="3"/>
+    </row>
+    <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A496" s="1"/>
+      <c r="B496" s="3"/>
+    </row>
+    <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A497" s="1"/>
+      <c r="B497" s="3"/>
+    </row>
+    <row r="498" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A498" s="1"/>
+      <c r="B498" s="3"/>
+    </row>
+    <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A499" s="1"/>
+      <c r="B499" s="3"/>
+    </row>
+    <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A500" s="1"/>
+      <c r="B500" s="3"/>
+    </row>
+    <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A501" s="1"/>
+      <c r="B501" s="3"/>
+    </row>
+    <row r="502" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A502" s="1"/>
+      <c r="B502" s="3"/>
+    </row>
+    <row r="503" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A503" s="1"/>
+      <c r="B503" s="3"/>
+    </row>
+    <row r="504" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A504" s="1"/>
+      <c r="B504" s="3"/>
+    </row>
+    <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A505" s="1"/>
+      <c r="B505" s="3"/>
+    </row>
+    <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A506" s="1"/>
+      <c r="B506" s="3"/>
+    </row>
+    <row r="507" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A507" s="1"/>
+      <c r="B507" s="3"/>
+    </row>
+    <row r="508" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A508" s="1"/>
+      <c r="B508" s="3"/>
+    </row>
+    <row r="509" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A509" s="1"/>
+      <c r="B509" s="3"/>
+    </row>
+    <row r="510" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A510" s="1"/>
+      <c r="B510" s="3"/>
+    </row>
+    <row r="511" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A511" s="1"/>
+      <c r="B511" s="3"/>
+    </row>
+    <row r="512" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A512" s="1"/>
+      <c r="B512" s="3"/>
+    </row>
+    <row r="513" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A513" s="1"/>
+      <c r="B513" s="3"/>
+    </row>
+    <row r="514" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A514" s="1"/>
+      <c r="B514" s="3"/>
+    </row>
+    <row r="515" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A515" s="1"/>
+      <c r="B515" s="3"/>
+    </row>
+    <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A516" s="1"/>
+      <c r="B516" s="3"/>
+    </row>
+    <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A517" s="1"/>
+      <c r="B517" s="3"/>
+    </row>
+    <row r="518" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A518" s="1"/>
+      <c r="B518" s="3"/>
+    </row>
+    <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A519" s="1"/>
+      <c r="B519" s="3"/>
+    </row>
+    <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A520" s="1"/>
+      <c r="B520" s="3"/>
+    </row>
+    <row r="521" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A521" s="1"/>
+      <c r="B521" s="3"/>
+    </row>
+    <row r="522" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A522" s="1"/>
+      <c r="B522" s="3"/>
+    </row>
+    <row r="523" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A523" s="1"/>
+      <c r="B523" s="3"/>
+    </row>
+    <row r="524" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A524" s="1"/>
+      <c r="B524" s="3"/>
+    </row>
+    <row r="525" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A525" s="1"/>
+      <c r="B525" s="3"/>
+    </row>
+    <row r="526" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A526" s="1"/>
+      <c r="B526" s="3"/>
+    </row>
+    <row r="527" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A527" s="1"/>
+      <c r="B527" s="3"/>
+    </row>
+    <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A528" s="1"/>
+      <c r="B528" s="3"/>
+    </row>
+    <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A529" s="1"/>
+      <c r="B529" s="3"/>
+    </row>
+    <row r="530" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A530" s="1"/>
+      <c r="B530" s="3"/>
+    </row>
+    <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A531" s="1"/>
+      <c r="B531" s="3"/>
+    </row>
+    <row r="532" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A532" s="1"/>
+      <c r="B532" s="3"/>
+    </row>
+    <row r="533" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A533" s="1"/>
+      <c r="B533" s="3"/>
+    </row>
+    <row r="534" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A534" s="1"/>
+      <c r="B534" s="3"/>
+    </row>
+    <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A535" s="1"/>
+      <c r="B535" s="3"/>
+    </row>
+    <row r="536" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A536" s="1"/>
+      <c r="B536" s="3"/>
+    </row>
+    <row r="537" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A537" s="1"/>
+      <c r="B537" s="3"/>
+    </row>
+    <row r="538" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A538" s="1"/>
+      <c r="B538" s="3"/>
+    </row>
+    <row r="539" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A539" s="1"/>
+      <c r="B539" s="3"/>
+    </row>
+    <row r="540" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A540" s="1"/>
+      <c r="B540" s="3"/>
+    </row>
+    <row r="541" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A541" s="1"/>
+      <c r="B541" s="3"/>
+    </row>
+    <row r="542" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A542" s="1"/>
+      <c r="B542" s="3"/>
+    </row>
+    <row r="543" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A543" s="1"/>
+      <c r="B543" s="3"/>
+    </row>
+    <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A544" s="1"/>
+      <c r="B544" s="3"/>
+    </row>
+    <row r="545" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A545" s="1"/>
+      <c r="B545" s="3"/>
+    </row>
+    <row r="546" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A546" s="1"/>
+      <c r="B546" s="3"/>
+    </row>
+    <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A547" s="1"/>
+      <c r="B547" s="3"/>
+    </row>
+    <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A548" s="1"/>
+      <c r="B548" s="3"/>
+    </row>
+    <row r="549" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A549" s="1"/>
+      <c r="B549" s="3"/>
+    </row>
+    <row r="550" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A550" s="1"/>
+      <c r="B550" s="3"/>
+    </row>
+    <row r="551" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A551" s="1"/>
+      <c r="B551" s="3"/>
+    </row>
+    <row r="552" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A552" s="1"/>
+      <c r="B552" s="3"/>
+    </row>
+    <row r="553" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A553" s="1"/>
+      <c r="B553" s="3"/>
+    </row>
+    <row r="554" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A554" s="1"/>
+      <c r="B554" s="3"/>
+    </row>
+    <row r="555" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A555" s="1"/>
+      <c r="B555" s="3"/>
+    </row>
+    <row r="556" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A556" s="1"/>
+      <c r="B556" s="3"/>
+    </row>
+    <row r="557" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A557" s="1"/>
+      <c r="B557" s="3"/>
+    </row>
+    <row r="558" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A558" s="1"/>
+      <c r="B558" s="3"/>
+    </row>
+    <row r="559" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A559" s="1"/>
+      <c r="B559" s="3"/>
+    </row>
+    <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A560" s="1"/>
+      <c r="B560" s="3"/>
+    </row>
+    <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A561" s="1"/>
+      <c r="B561" s="3"/>
+    </row>
+    <row r="562" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A562" s="1"/>
+      <c r="B562" s="3"/>
+    </row>
+    <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A563" s="1"/>
+      <c r="B563" s="3"/>
+    </row>
+    <row r="564" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A564" s="1"/>
+      <c r="B564" s="3"/>
+    </row>
+    <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A565" s="1"/>
+      <c r="B565" s="3"/>
+    </row>
+    <row r="566" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A566" s="1"/>
+      <c r="B566" s="3"/>
+    </row>
+    <row r="567" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A567" s="1"/>
+      <c r="B567" s="3"/>
+    </row>
+    <row r="568" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A568" s="1"/>
+      <c r="B568" s="3"/>
+    </row>
+    <row r="569" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A569" s="1"/>
+      <c r="B569" s="3"/>
+    </row>
+    <row r="570" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A570" s="1"/>
+      <c r="B570" s="3"/>
+    </row>
+    <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A571" s="1"/>
+      <c r="B571" s="3"/>
+    </row>
+    <row r="572" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A572" s="1"/>
+      <c r="B572" s="3"/>
+    </row>
+    <row r="573" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A573" s="1"/>
+      <c r="B573" s="3"/>
+    </row>
+    <row r="574" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A574" s="1"/>
+      <c r="B574" s="3"/>
+    </row>
+    <row r="575" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A575" s="1"/>
+      <c r="B575" s="3"/>
+    </row>
+    <row r="576" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A576" s="1"/>
+      <c r="B576" s="3"/>
+    </row>
+    <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A577" s="1"/>
+      <c r="B577" s="3"/>
+    </row>
+    <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A578" s="1"/>
+      <c r="B578" s="3"/>
+    </row>
+    <row r="579" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A579" s="1"/>
+      <c r="B579" s="3"/>
+    </row>
+    <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A580" s="1"/>
+      <c r="B580" s="3"/>
+    </row>
+    <row r="581" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A581" s="1"/>
+      <c r="B581" s="3"/>
+    </row>
+    <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A582" s="1"/>
+      <c r="B582" s="3"/>
+    </row>
+    <row r="583" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A583" s="1"/>
+      <c r="B583" s="3"/>
+    </row>
+    <row r="584" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A584" s="1"/>
+      <c r="B584" s="3"/>
+    </row>
+    <row r="585" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A585" s="1"/>
+      <c r="B585" s="3"/>
+    </row>
+    <row r="586" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A586" s="1"/>
+      <c r="B586" s="3"/>
+    </row>
+    <row r="587" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A587" s="1"/>
+      <c r="B587" s="3"/>
+    </row>
+    <row r="588" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A588" s="1"/>
+      <c r="B588" s="3"/>
+    </row>
+    <row r="589" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A589" s="1"/>
+      <c r="B589" s="3"/>
+    </row>
+    <row r="590" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A590" s="1"/>
+      <c r="B590" s="3"/>
+    </row>
+    <row r="591" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A591" s="1"/>
+      <c r="B591" s="3"/>
+    </row>
+    <row r="592" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A592" s="1"/>
+      <c r="B592" s="3"/>
+    </row>
+    <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A593" s="1"/>
+      <c r="B593" s="3"/>
+    </row>
+    <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A594" s="1"/>
+      <c r="B594" s="3"/>
+    </row>
+    <row r="595" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A595" s="1"/>
+      <c r="B595" s="3"/>
+    </row>
+    <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A596" s="1"/>
+      <c r="B596" s="3"/>
+    </row>
+    <row r="597" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A597" s="1"/>
+      <c r="B597" s="3"/>
+    </row>
+    <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A598" s="1"/>
+      <c r="B598" s="3"/>
+    </row>
+    <row r="599" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A599" s="1"/>
+      <c r="B599" s="3"/>
+    </row>
+    <row r="600" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A600" s="1"/>
+      <c r="B600" s="3"/>
+    </row>
+    <row r="601" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A601" s="1"/>
+      <c r="B601" s="3"/>
+    </row>
+    <row r="602" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A602" s="1"/>
+      <c r="B602" s="3"/>
+    </row>
+    <row r="603" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A603" s="1"/>
+      <c r="B603" s="3"/>
+    </row>
+    <row r="604" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A604" s="1"/>
+      <c r="B604" s="3"/>
+    </row>
+    <row r="605" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A605" s="1"/>
+      <c r="B605" s="3"/>
+    </row>
+    <row r="606" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A606" s="1"/>
+      <c r="B606" s="3"/>
+    </row>
+    <row r="607" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A607" s="1"/>
+      <c r="B607" s="3"/>
+    </row>
+    <row r="608" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A608" s="1"/>
+      <c r="B608" s="3"/>
+    </row>
+    <row r="609" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A609" s="1"/>
+      <c r="B609" s="3"/>
+    </row>
+    <row r="610" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A610" s="1"/>
+      <c r="B610" s="3"/>
+    </row>
+    <row r="611" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A611" s="1"/>
+      <c r="B611" s="3"/>
+    </row>
+    <row r="612" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A612" s="1"/>
+      <c r="B612" s="3"/>
+    </row>
+    <row r="613" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A613" s="1"/>
+      <c r="B613" s="3"/>
+    </row>
+    <row r="614" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A614" s="1"/>
+      <c r="B614" s="3"/>
+    </row>
+    <row r="615" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A615" s="1"/>
+      <c r="B615" s="3"/>
+    </row>
+    <row r="616" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A616" s="1"/>
+      <c r="B616" s="3"/>
+    </row>
+    <row r="617" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A617" s="1"/>
+      <c r="B617" s="3"/>
+    </row>
+    <row r="618" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A618" s="1"/>
+      <c r="B618" s="3"/>
+    </row>
+    <row r="619" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A619" s="1"/>
+      <c r="B619" s="3"/>
+    </row>
+    <row r="620" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A620" s="1"/>
+      <c r="B620" s="3"/>
+    </row>
+    <row r="621" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A621" s="1"/>
+      <c r="B621" s="3"/>
+    </row>
+    <row r="622" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A622" s="1"/>
+      <c r="B622" s="3"/>
+    </row>
+    <row r="623" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A623" s="1"/>
+      <c r="B623" s="3"/>
+    </row>
+    <row r="624" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A624" s="1"/>
+      <c r="B624" s="3"/>
+    </row>
+    <row r="625" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A625" s="1"/>
+      <c r="B625" s="3"/>
+    </row>
+    <row r="626" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A626" s="1"/>
+      <c r="B626" s="3"/>
+    </row>
+    <row r="627" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A627" s="1"/>
+      <c r="B627" s="3"/>
+    </row>
+    <row r="628" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A628" s="1"/>
+      <c r="B628" s="3"/>
+    </row>
+    <row r="629" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A629" s="1"/>
+      <c r="B629" s="3"/>
+    </row>
+    <row r="630" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A630" s="1"/>
+      <c r="B630" s="3"/>
+    </row>
+    <row r="631" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A631" s="1"/>
+      <c r="B631" s="3"/>
+    </row>
+    <row r="632" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A632" s="1"/>
+      <c r="B632" s="3"/>
+    </row>
+    <row r="633" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A633" s="1"/>
+      <c r="B633" s="3"/>
+    </row>
+    <row r="634" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A634" s="1"/>
+      <c r="B634" s="3"/>
+    </row>
+    <row r="635" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A635" s="1"/>
+      <c r="B635" s="3"/>
+    </row>
+    <row r="636" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A636" s="1"/>
+      <c r="B636" s="3"/>
+    </row>
+    <row r="637" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A637" s="1"/>
+      <c r="B637" s="3"/>
+    </row>
+    <row r="638" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A638" s="1"/>
+      <c r="B638" s="3"/>
+    </row>
+    <row r="639" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A639" s="1"/>
+      <c r="B639" s="3"/>
+    </row>
+    <row r="640" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A640" s="1"/>
+      <c r="B640" s="3"/>
+    </row>
+    <row r="641" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A641" s="1"/>
+      <c r="B641" s="3"/>
+    </row>
+    <row r="642" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A642" s="1"/>
+      <c r="B642" s="3"/>
+    </row>
+    <row r="643" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A643" s="1"/>
+      <c r="B643" s="3"/>
+    </row>
+    <row r="644" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A644" s="1"/>
+      <c r="B644" s="3"/>
+    </row>
+    <row r="645" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A645" s="1"/>
+      <c r="B645" s="3"/>
+    </row>
+    <row r="646" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A646" s="1"/>
+      <c r="B646" s="3"/>
+    </row>
+    <row r="647" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A647" s="1"/>
+      <c r="B647" s="3"/>
+    </row>
+    <row r="648" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A648" s="1"/>
+      <c r="B648" s="3"/>
+    </row>
+    <row r="649" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A649" s="1"/>
+      <c r="B649" s="3"/>
+    </row>
+    <row r="650" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A650" s="1"/>
+      <c r="B650" s="3"/>
+    </row>
+    <row r="651" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A651" s="1"/>
+      <c r="B651" s="3"/>
+    </row>
+    <row r="652" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A652" s="1"/>
+      <c r="B652" s="3"/>
+    </row>
+    <row r="653" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A653" s="1"/>
+      <c r="B653" s="3"/>
+    </row>
+    <row r="654" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A654" s="1"/>
+      <c r="B654" s="3"/>
+    </row>
+    <row r="655" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A655" s="1"/>
+      <c r="B655" s="3"/>
+    </row>
+    <row r="656" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A656" s="1"/>
+      <c r="B656" s="3"/>
+    </row>
+    <row r="657" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A657" s="1"/>
+      <c r="B657" s="3"/>
+    </row>
+    <row r="658" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A658" s="1"/>
+      <c r="B658" s="3"/>
+    </row>
+    <row r="659" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A659" s="1"/>
+      <c r="B659" s="3"/>
+    </row>
+    <row r="660" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A660" s="1"/>
+      <c r="B660" s="3"/>
+    </row>
+    <row r="661" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A661" s="1"/>
+      <c r="B661" s="3"/>
+    </row>
+    <row r="662" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A662" s="1"/>
+      <c r="B662" s="3"/>
+    </row>
+    <row r="663" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A663" s="1"/>
+      <c r="B663" s="3"/>
+    </row>
+    <row r="664" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A664" s="1"/>
+      <c r="B664" s="3"/>
+    </row>
+    <row r="665" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A665" s="1"/>
+      <c r="B665" s="3"/>
+    </row>
+    <row r="666" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A666" s="1"/>
+      <c r="B666" s="3"/>
+    </row>
+    <row r="667" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A667" s="1"/>
+      <c r="B667" s="3"/>
+    </row>
+    <row r="668" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A668" s="1"/>
+      <c r="B668" s="3"/>
+    </row>
+    <row r="669" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A669" s="1"/>
+      <c r="B669" s="3"/>
+    </row>
+    <row r="670" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A670" s="1"/>
+      <c r="B670" s="3"/>
+    </row>
+    <row r="671" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A671" s="1"/>
+      <c r="B671" s="3"/>
+    </row>
+    <row r="672" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A672" s="1"/>
+      <c r="B672" s="3"/>
+    </row>
+    <row r="673" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A673" s="1"/>
+      <c r="B673" s="3"/>
+    </row>
+    <row r="674" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A674" s="1"/>
+      <c r="B674" s="3"/>
+    </row>
+    <row r="675" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A675" s="1"/>
+      <c r="B675" s="3"/>
+    </row>
+    <row r="676" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A676" s="1"/>
+      <c r="B676" s="3"/>
+    </row>
+    <row r="677" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A677" s="1"/>
+      <c r="B677" s="3"/>
+    </row>
+    <row r="678" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A678" s="1"/>
+      <c r="B678" s="3"/>
+    </row>
+    <row r="679" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A679" s="1"/>
+      <c r="B679" s="3"/>
+    </row>
+    <row r="680" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A680" s="1"/>
+      <c r="B680" s="3"/>
+    </row>
+    <row r="681" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A681" s="1"/>
+      <c r="B681" s="3"/>
+    </row>
+    <row r="682" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A682" s="1"/>
+      <c r="B682" s="3"/>
+    </row>
+    <row r="683" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A683" s="1"/>
+      <c r="B683" s="3"/>
+    </row>
+    <row r="684" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A684" s="1"/>
+      <c r="B684" s="3"/>
+    </row>
+    <row r="685" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A685" s="1"/>
+      <c r="B685" s="3"/>
+    </row>
+    <row r="686" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A686" s="1"/>
+      <c r="B686" s="3"/>
+    </row>
+    <row r="687" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A687" s="1"/>
+      <c r="B687" s="3"/>
+    </row>
+    <row r="688" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A688" s="1"/>
+      <c r="B688" s="3"/>
+    </row>
+    <row r="689" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A689" s="1"/>
+      <c r="B689" s="3"/>
+    </row>
+    <row r="690" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A690" s="1"/>
+      <c r="B690" s="3"/>
+    </row>
+    <row r="691" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A691" s="1"/>
+      <c r="B691" s="3"/>
+    </row>
+    <row r="692" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A692" s="1"/>
+      <c r="B692" s="3"/>
+    </row>
+    <row r="693" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A693" s="1"/>
+      <c r="B693" s="3"/>
+    </row>
+    <row r="694" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A694" s="1"/>
+      <c r="B694" s="3"/>
+    </row>
+    <row r="695" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A695" s="1"/>
+      <c r="B695" s="3"/>
+    </row>
+    <row r="696" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A696" s="1"/>
+      <c r="B696" s="3"/>
+    </row>
+    <row r="697" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A697" s="1"/>
+      <c r="B697" s="3"/>
+    </row>
+    <row r="698" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A698" s="1"/>
+      <c r="B698" s="3"/>
+    </row>
+    <row r="699" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A699" s="1"/>
+      <c r="B699" s="3"/>
+    </row>
+    <row r="700" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A700" s="1"/>
+      <c r="B700" s="3"/>
+    </row>
+    <row r="701" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A701" s="1"/>
+      <c r="B701" s="3"/>
+    </row>
+    <row r="702" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A702" s="1"/>
+      <c r="B702" s="3"/>
+    </row>
+    <row r="703" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A703" s="1"/>
+      <c r="B703" s="3"/>
+    </row>
+    <row r="704" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A704" s="1"/>
+      <c r="B704" s="3"/>
+    </row>
+    <row r="705" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A705" s="1"/>
+      <c r="B705" s="3"/>
+    </row>
+    <row r="706" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A706" s="1"/>
+      <c r="B706" s="3"/>
+    </row>
+    <row r="707" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A707" s="1"/>
+      <c r="B707" s="3"/>
+    </row>
+    <row r="708" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A708" s="1"/>
+      <c r="B708" s="3"/>
+    </row>
+    <row r="709" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A709" s="1"/>
+      <c r="B709" s="3"/>
+    </row>
+    <row r="710" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A710" s="1"/>
+      <c r="B710" s="3"/>
+    </row>
+    <row r="711" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A711" s="1"/>
+      <c r="B711" s="3"/>
+    </row>
+    <row r="712" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A712" s="1"/>
+      <c r="B712" s="3"/>
+    </row>
+    <row r="713" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A713" s="1"/>
+      <c r="B713" s="3"/>
+    </row>
+    <row r="714" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A714" s="1"/>
+      <c r="B714" s="3"/>
+    </row>
+    <row r="715" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A715" s="1"/>
+      <c r="B715" s="3"/>
+    </row>
+    <row r="716" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A716" s="1"/>
+      <c r="B716" s="3"/>
+    </row>
+    <row r="717" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A717" s="1"/>
+      <c r="B717" s="3"/>
+    </row>
+    <row r="718" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A718" s="1"/>
+      <c r="B718" s="3"/>
+    </row>
+    <row r="719" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A719" s="1"/>
+      <c r="B719" s="3"/>
+    </row>
+    <row r="720" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A720" s="1"/>
+      <c r="B720" s="3"/>
+    </row>
+    <row r="721" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A721" s="1"/>
+      <c r="B721" s="3"/>
+    </row>
+    <row r="722" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A722" s="1"/>
+      <c r="B722" s="3"/>
+    </row>
+    <row r="723" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A723" s="1"/>
+      <c r="B723" s="3"/>
+    </row>
+    <row r="724" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A724" s="1"/>
+      <c r="B724" s="3"/>
+    </row>
+    <row r="725" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A725" s="1"/>
+      <c r="B725" s="3"/>
+    </row>
+    <row r="726" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A726" s="1"/>
+      <c r="B726" s="3"/>
+    </row>
+    <row r="727" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A727" s="1"/>
+      <c r="B727" s="3"/>
+    </row>
+    <row r="728" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A728" s="1"/>
+      <c r="B728" s="3"/>
+    </row>
+    <row r="729" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A729" s="1"/>
+      <c r="B729" s="3"/>
+    </row>
+    <row r="730" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A730" s="1"/>
+      <c r="B730" s="3"/>
+    </row>
+    <row r="731" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A731" s="1"/>
+      <c r="B731" s="3"/>
+    </row>
+    <row r="732" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A732" s="1"/>
+      <c r="B732" s="3"/>
+    </row>
+    <row r="733" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A733" s="1"/>
+      <c r="B733" s="3"/>
+    </row>
+    <row r="734" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A734" s="1"/>
+      <c r="B734" s="3"/>
+    </row>
+    <row r="735" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A735" s="1"/>
+      <c r="B735" s="3"/>
+    </row>
+    <row r="736" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A736" s="1"/>
+      <c r="B736" s="3"/>
+    </row>
+    <row r="737" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A737" s="1"/>
+      <c r="B737" s="3"/>
+    </row>
+    <row r="738" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A738" s="1"/>
+      <c r="B738" s="3"/>
+    </row>
+    <row r="739" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A739" s="1"/>
+      <c r="B739" s="3"/>
+    </row>
+    <row r="740" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A740" s="1"/>
+      <c r="B740" s="3"/>
+    </row>
+    <row r="741" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A741" s="1"/>
+      <c r="B741" s="3"/>
+    </row>
+    <row r="742" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A742" s="1"/>
+      <c r="B742" s="3"/>
+    </row>
+    <row r="743" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A743" s="1"/>
+      <c r="B743" s="3"/>
+    </row>
+    <row r="744" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A744" s="1"/>
+      <c r="B744" s="3"/>
+    </row>
+    <row r="745" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A745" s="1"/>
+      <c r="B745" s="3"/>
+    </row>
+    <row r="746" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A746" s="1"/>
+      <c r="B746" s="3"/>
+    </row>
+    <row r="747" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A747" s="1"/>
+      <c r="B747" s="3"/>
+    </row>
+    <row r="748" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A748" s="1"/>
+      <c r="B748" s="3"/>
+    </row>
+    <row r="749" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A749" s="1"/>
+      <c r="B749" s="3"/>
+    </row>
+    <row r="750" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A750" s="1"/>
+      <c r="B750" s="3"/>
+    </row>
+    <row r="751" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A751" s="1"/>
+      <c r="B751" s="3"/>
+    </row>
+    <row r="752" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A752" s="1"/>
+      <c r="B752" s="3"/>
+    </row>
+    <row r="753" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A753" s="1"/>
+      <c r="B753" s="3"/>
+    </row>
+    <row r="754" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A754" s="1"/>
+      <c r="B754" s="3"/>
+    </row>
+    <row r="755" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A755" s="1"/>
+      <c r="B755" s="3"/>
+    </row>
+    <row r="756" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A756" s="1"/>
+      <c r="B756" s="3"/>
+    </row>
+    <row r="757" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A757" s="1"/>
+      <c r="B757" s="3"/>
+    </row>
+    <row r="758" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A758" s="1"/>
+      <c r="B758" s="3"/>
+    </row>
+    <row r="759" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A759" s="1"/>
+      <c r="B759" s="3"/>
+    </row>
+    <row r="760" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A760" s="1"/>
+      <c r="B760" s="3"/>
+    </row>
+    <row r="761" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A761" s="1"/>
+      <c r="B761" s="3"/>
+    </row>
+    <row r="762" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A762" s="1"/>
+      <c r="B762" s="3"/>
+    </row>
+    <row r="763" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A763" s="1"/>
+      <c r="B763" s="3"/>
+    </row>
+    <row r="764" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A764" s="1"/>
+      <c r="B764" s="3"/>
+    </row>
+    <row r="765" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A765" s="1"/>
+      <c r="B765" s="3"/>
+    </row>
+    <row r="766" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A766" s="1"/>
+      <c r="B766" s="3"/>
+    </row>
+    <row r="767" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A767" s="1"/>
+      <c r="B767" s="3"/>
+    </row>
+    <row r="768" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A768" s="1"/>
+      <c r="B768" s="3"/>
+    </row>
+    <row r="769" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A769" s="1"/>
+      <c r="B769" s="3"/>
+    </row>
+    <row r="770" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A770" s="1"/>
+      <c r="B770" s="3"/>
+    </row>
+    <row r="771" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A771" s="1"/>
+      <c r="B771" s="3"/>
+    </row>
+    <row r="772" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A772" s="1"/>
+      <c r="B772" s="3"/>
+    </row>
+    <row r="773" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A773" s="1"/>
+      <c r="B773" s="3"/>
+    </row>
+    <row r="774" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A774" s="1"/>
+      <c r="B774" s="3"/>
+    </row>
+    <row r="775" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A775" s="1"/>
+      <c r="B775" s="3"/>
+    </row>
+    <row r="776" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A776" s="1"/>
+      <c r="B776" s="3"/>
+    </row>
+    <row r="777" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A777" s="1"/>
+      <c r="B777" s="3"/>
+    </row>
+    <row r="778" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A778" s="1"/>
+      <c r="B778" s="3"/>
+    </row>
+    <row r="779" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A779" s="1"/>
+      <c r="B779" s="3"/>
+    </row>
+    <row r="780" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A780" s="1"/>
+      <c r="B780" s="3"/>
+    </row>
+    <row r="781" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A781" s="1"/>
+      <c r="B781" s="3"/>
+    </row>
+    <row r="782" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A782" s="1"/>
+      <c r="B782" s="3"/>
+    </row>
+    <row r="783" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A783" s="1"/>
+      <c r="B783" s="3"/>
+    </row>
+    <row r="784" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A784" s="1"/>
+      <c r="B784" s="3"/>
+    </row>
+    <row r="785" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A785" s="1"/>
+      <c r="B785" s="3"/>
+    </row>
+    <row r="786" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A786" s="1"/>
+      <c r="B786" s="3"/>
+    </row>
+    <row r="787" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A787" s="1"/>
+      <c r="B787" s="3"/>
+    </row>
+    <row r="788" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A788" s="1"/>
+      <c r="B788" s="3"/>
+    </row>
+    <row r="789" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A789" s="1"/>
+      <c r="B789" s="3"/>
+    </row>
+    <row r="790" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A790" s="1"/>
+      <c r="B790" s="3"/>
+    </row>
+    <row r="791" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A791" s="1"/>
+      <c r="B791" s="3"/>
+    </row>
+    <row r="792" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A792" s="1"/>
+      <c r="B792" s="3"/>
+    </row>
+    <row r="793" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A793" s="1"/>
+      <c r="B793" s="3"/>
+    </row>
+    <row r="794" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A794" s="1"/>
+      <c r="B794" s="3"/>
+    </row>
+    <row r="795" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A795" s="1"/>
+      <c r="B795" s="3"/>
+    </row>
+    <row r="796" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A796" s="1"/>
+      <c r="B796" s="3"/>
+    </row>
+    <row r="797" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A797" s="1"/>
+      <c r="B797" s="3"/>
+    </row>
+    <row r="798" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A798" s="1"/>
+      <c r="B798" s="3"/>
+    </row>
+    <row r="799" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A799" s="1"/>
+      <c r="B799" s="3"/>
+    </row>
+    <row r="800" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A800" s="1"/>
+      <c r="B800" s="3"/>
+    </row>
+    <row r="801" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A801" s="1"/>
+      <c r="B801" s="3"/>
+    </row>
+    <row r="802" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A802" s="1"/>
+      <c r="B802" s="3"/>
+    </row>
+    <row r="803" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A803" s="1"/>
+      <c r="B803" s="3"/>
+    </row>
+    <row r="804" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A804" s="1"/>
+      <c r="B804" s="3"/>
+    </row>
+    <row r="805" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A805" s="1"/>
+      <c r="B805" s="3"/>
+    </row>
+    <row r="806" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A806" s="1"/>
+      <c r="B806" s="3"/>
+    </row>
+    <row r="807" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A807" s="1"/>
+      <c r="B807" s="3"/>
+    </row>
+    <row r="808" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A808" s="1"/>
+      <c r="B808" s="3"/>
+    </row>
+    <row r="809" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A809" s="1"/>
+      <c r="B809" s="3"/>
+    </row>
+    <row r="810" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A810" s="1"/>
+      <c r="B810" s="3"/>
+    </row>
+    <row r="811" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A811" s="1"/>
+      <c r="B811" s="3"/>
+    </row>
+    <row r="812" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A812" s="1"/>
+      <c r="B812" s="3"/>
+    </row>
+    <row r="813" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A813" s="1"/>
+      <c r="B813" s="3"/>
+    </row>
+    <row r="814" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A814" s="1"/>
+      <c r="B814" s="3"/>
+    </row>
+    <row r="815" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A815" s="1"/>
+      <c r="B815" s="3"/>
+    </row>
+    <row r="816" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A816" s="1"/>
+      <c r="B816" s="3"/>
+    </row>
+    <row r="817" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A817" s="1"/>
+      <c r="B817" s="3"/>
+    </row>
+    <row r="818" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A818" s="1"/>
+      <c r="B818" s="3"/>
+    </row>
+    <row r="819" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A819" s="1"/>
+      <c r="B819" s="3"/>
+    </row>
+    <row r="820" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A820" s="1"/>
+      <c r="B820" s="3"/>
+    </row>
+    <row r="821" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A821" s="1"/>
+      <c r="B821" s="3"/>
+    </row>
+    <row r="822" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A822" s="1"/>
+      <c r="B822" s="3"/>
+    </row>
+    <row r="823" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A823" s="1"/>
+      <c r="B823" s="3"/>
+    </row>
+    <row r="824" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A824" s="1"/>
+      <c r="B824" s="3"/>
+    </row>
+    <row r="825" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A825" s="1"/>
+      <c r="B825" s="3"/>
+    </row>
+    <row r="826" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A826" s="1"/>
+      <c r="B826" s="3"/>
+    </row>
+    <row r="827" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A827" s="1"/>
+      <c r="B827" s="3"/>
+    </row>
+    <row r="828" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A828" s="1"/>
+      <c r="B828" s="3"/>
+    </row>
+    <row r="829" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A829" s="1"/>
+      <c r="B829" s="3"/>
+    </row>
+    <row r="830" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A830" s="1"/>
+      <c r="B830" s="3"/>
+    </row>
+    <row r="831" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A831" s="1"/>
+      <c r="B831" s="3"/>
+    </row>
+    <row r="832" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A832" s="1"/>
+      <c r="B832" s="3"/>
+    </row>
+    <row r="833" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A833" s="1"/>
+      <c r="B833" s="3"/>
+    </row>
+    <row r="834" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A834" s="1"/>
+      <c r="B834" s="3"/>
+    </row>
+    <row r="835" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A835" s="1"/>
+      <c r="B835" s="3"/>
+    </row>
+    <row r="836" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A836" s="1"/>
+      <c r="B836" s="3"/>
+    </row>
+    <row r="837" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A837" s="1"/>
+      <c r="B837" s="3"/>
+    </row>
+    <row r="838" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A838" s="1"/>
+      <c r="B838" s="3"/>
+    </row>
+    <row r="839" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A839" s="1"/>
+      <c r="B839" s="3"/>
+    </row>
+    <row r="840" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A840" s="1"/>
+      <c r="B840" s="3"/>
+    </row>
+    <row r="841" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A841" s="1"/>
+      <c r="B841" s="3"/>
+    </row>
+    <row r="842" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A842" s="1"/>
+      <c r="B842" s="3"/>
+    </row>
+    <row r="843" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A843" s="1"/>
+      <c r="B843" s="3"/>
+    </row>
+    <row r="844" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A844" s="1"/>
+      <c r="B844" s="3"/>
+    </row>
+    <row r="845" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A845" s="1"/>
+      <c r="B845" s="3"/>
+    </row>
+    <row r="846" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A846" s="1"/>
+      <c r="B846" s="3"/>
+    </row>
+    <row r="847" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A847" s="1"/>
+      <c r="B847" s="3"/>
+    </row>
+    <row r="848" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A848" s="1"/>
+      <c r="B848" s="3"/>
+    </row>
+    <row r="849" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A849" s="1"/>
+      <c r="B849" s="3"/>
+    </row>
+    <row r="850" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A850" s="1"/>
+      <c r="B850" s="3"/>
+    </row>
+    <row r="851" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A851" s="1"/>
+      <c r="B851" s="3"/>
+    </row>
+    <row r="852" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A852" s="1"/>
+      <c r="B852" s="3"/>
+    </row>
+    <row r="853" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A853" s="1"/>
+      <c r="B853" s="3"/>
+    </row>
+    <row r="854" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A854" s="1"/>
+      <c r="B854" s="3"/>
+    </row>
+    <row r="855" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A855" s="1"/>
+      <c r="B855" s="3"/>
+    </row>
+    <row r="856" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A856" s="1"/>
+      <c r="B856" s="3"/>
+    </row>
+    <row r="857" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A857" s="1"/>
+      <c r="B857" s="3"/>
+    </row>
+    <row r="858" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A858" s="1"/>
+      <c r="B858" s="3"/>
+    </row>
+    <row r="859" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A859" s="1"/>
+      <c r="B859" s="3"/>
+    </row>
+    <row r="860" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A860" s="1"/>
+      <c r="B860" s="3"/>
+    </row>
+    <row r="861" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A861" s="1"/>
+      <c r="B861" s="3"/>
+    </row>
+    <row r="862" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A862" s="1"/>
+      <c r="B862" s="3"/>
+    </row>
+    <row r="863" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A863" s="1"/>
+      <c r="B863" s="3"/>
+    </row>
+    <row r="864" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A864" s="1"/>
+      <c r="B864" s="3"/>
+    </row>
+    <row r="865" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A865" s="1"/>
+      <c r="B865" s="3"/>
+    </row>
+    <row r="866" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A866" s="1"/>
+      <c r="B866" s="3"/>
+    </row>
+    <row r="867" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A867" s="1"/>
+      <c r="B867" s="3"/>
+    </row>
+    <row r="868" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A868" s="1"/>
+      <c r="B868" s="3"/>
+    </row>
+    <row r="869" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A869" s="1"/>
+      <c r="B869" s="3"/>
+    </row>
+    <row r="870" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A870" s="1"/>
+      <c r="B870" s="3"/>
+    </row>
+    <row r="871" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A871" s="1"/>
+      <c r="B871" s="3"/>
+    </row>
+    <row r="872" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A872" s="1"/>
+      <c r="B872" s="3"/>
+    </row>
+    <row r="873" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A873" s="1"/>
+      <c r="B873" s="3"/>
+    </row>
+    <row r="874" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A874" s="1"/>
+      <c r="B874" s="3"/>
+    </row>
+    <row r="875" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A875" s="1"/>
+      <c r="B875" s="3"/>
+    </row>
+    <row r="876" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A876" s="1"/>
+      <c r="B876" s="3"/>
+    </row>
+    <row r="877" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A877" s="1"/>
+      <c r="B877" s="3"/>
+    </row>
+    <row r="878" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A878" s="1"/>
+      <c r="B878" s="3"/>
+    </row>
+    <row r="879" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A879" s="1"/>
+      <c r="B879" s="3"/>
+    </row>
+    <row r="880" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A880" s="1"/>
+      <c r="B880" s="3"/>
+    </row>
+    <row r="881" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A881" s="1"/>
+      <c r="B881" s="3"/>
+    </row>
+    <row r="882" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A882" s="1"/>
+      <c r="B882" s="3"/>
+    </row>
+    <row r="883" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A883" s="1"/>
+      <c r="B883" s="3"/>
+    </row>
+    <row r="884" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A884" s="1"/>
+      <c r="B884" s="3"/>
+    </row>
+    <row r="885" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A885" s="1"/>
+      <c r="B885" s="3"/>
+    </row>
+    <row r="886" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A886" s="1"/>
+      <c r="B886" s="3"/>
+    </row>
+    <row r="887" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A887" s="1"/>
+      <c r="B887" s="3"/>
+    </row>
+    <row r="888" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A888" s="1"/>
+      <c r="B888" s="3"/>
+    </row>
+    <row r="889" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A889" s="1"/>
+      <c r="B889" s="3"/>
+    </row>
+    <row r="890" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A890" s="1"/>
+      <c r="B890" s="3"/>
+    </row>
+    <row r="891" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A891" s="1"/>
+      <c r="B891" s="3"/>
+    </row>
+    <row r="892" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A892" s="1"/>
+      <c r="B892" s="3"/>
+    </row>
+    <row r="893" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A893" s="1"/>
+      <c r="B893" s="3"/>
+    </row>
+    <row r="894" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A894" s="1"/>
+      <c r="B894" s="3"/>
+    </row>
+    <row r="895" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A895" s="1"/>
+      <c r="B895" s="3"/>
+    </row>
+    <row r="896" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A896" s="1"/>
+      <c r="B896" s="3"/>
+    </row>
+    <row r="897" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A897" s="1"/>
+      <c r="B897" s="3"/>
+    </row>
+    <row r="898" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A898" s="1"/>
+      <c r="B898" s="3"/>
+    </row>
+    <row r="899" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A899" s="1"/>
+      <c r="B899" s="3"/>
+    </row>
+    <row r="900" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A900" s="1"/>
+      <c r="B900" s="3"/>
+    </row>
+    <row r="901" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A901" s="1"/>
+      <c r="B901" s="3"/>
+    </row>
+    <row r="902" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A902" s="1"/>
+      <c r="B902" s="3"/>
+    </row>
+    <row r="903" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A903" s="1"/>
+      <c r="B903" s="3"/>
+    </row>
+    <row r="904" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A904" s="1"/>
+      <c r="B904" s="3"/>
+    </row>
+    <row r="905" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A905" s="1"/>
+      <c r="B905" s="3"/>
+    </row>
+    <row r="906" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A906" s="1"/>
+      <c r="B906" s="3"/>
+    </row>
+    <row r="907" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A907" s="1"/>
+      <c r="B907" s="3"/>
+    </row>
+    <row r="908" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A908" s="1"/>
+      <c r="B908" s="3"/>
+    </row>
+    <row r="909" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A909" s="1"/>
+      <c r="B909" s="3"/>
+    </row>
+    <row r="910" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A910" s="1"/>
+      <c r="B910" s="3"/>
+    </row>
+    <row r="911" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A911" s="1"/>
+      <c r="B911" s="3"/>
+    </row>
+    <row r="912" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A912" s="1"/>
+      <c r="B912" s="3"/>
+    </row>
+    <row r="913" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A913" s="1"/>
+      <c r="B913" s="3"/>
+    </row>
+    <row r="914" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A914" s="1"/>
+      <c r="B914" s="3"/>
+    </row>
+    <row r="915" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A915" s="1"/>
+      <c r="B915" s="3"/>
+    </row>
+    <row r="916" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A916" s="1"/>
+      <c r="B916" s="3"/>
+    </row>
+    <row r="917" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A917" s="1"/>
+      <c r="B917" s="3"/>
+    </row>
+    <row r="918" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A918" s="1"/>
+      <c r="B918" s="3"/>
+    </row>
+    <row r="919" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A919" s="1"/>
+      <c r="B919" s="3"/>
+    </row>
+    <row r="920" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A920" s="1"/>
+      <c r="B920" s="3"/>
+    </row>
+    <row r="921" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A921" s="1"/>
+      <c r="B921" s="3"/>
+    </row>
+    <row r="922" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A922" s="1"/>
+      <c r="B922" s="3"/>
+    </row>
+    <row r="923" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A923" s="1"/>
+      <c r="B923" s="3"/>
+    </row>
+    <row r="924" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A924" s="1"/>
+      <c r="B924" s="3"/>
+    </row>
+    <row r="925" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A925" s="1"/>
+      <c r="B925" s="3"/>
+    </row>
+    <row r="926" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A926" s="1"/>
+      <c r="B926" s="3"/>
+    </row>
+    <row r="927" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A927" s="1"/>
+      <c r="B927" s="3"/>
+    </row>
+    <row r="928" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A928" s="1"/>
+      <c r="B928" s="3"/>
+    </row>
+    <row r="929" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A929" s="1"/>
+      <c r="B929" s="3"/>
+    </row>
+    <row r="930" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A930" s="1"/>
+      <c r="B930" s="3"/>
+    </row>
+    <row r="931" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A931" s="1"/>
+      <c r="B931" s="3"/>
+    </row>
+    <row r="932" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A932" s="1"/>
+      <c r="B932" s="3"/>
+    </row>
+    <row r="933" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A933" s="1"/>
+      <c r="B933" s="3"/>
+    </row>
+    <row r="934" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A934" s="1"/>
+      <c r="B934" s="3"/>
+    </row>
+    <row r="935" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A935" s="1"/>
+      <c r="B935" s="3"/>
+    </row>
+    <row r="936" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A936" s="1"/>
+      <c r="B936" s="3"/>
+    </row>
+    <row r="937" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A937" s="1"/>
+      <c r="B937" s="3"/>
+    </row>
+    <row r="938" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A938" s="1"/>
+      <c r="B938" s="3"/>
+    </row>
+    <row r="939" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A939" s="1"/>
+      <c r="B939" s="3"/>
+    </row>
+    <row r="940" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A940" s="1"/>
+      <c r="B940" s="3"/>
+    </row>
+    <row r="941" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A941" s="1"/>
+      <c r="B941" s="3"/>
+    </row>
+    <row r="942" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A942" s="1"/>
+      <c r="B942" s="3"/>
+    </row>
+    <row r="943" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A943" s="1"/>
+      <c r="B943" s="3"/>
+    </row>
+    <row r="944" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A944" s="1"/>
+      <c r="B944" s="3"/>
+    </row>
+    <row r="945" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A945" s="1"/>
+      <c r="B945" s="3"/>
+    </row>
+    <row r="946" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A946" s="1"/>
+      <c r="B946" s="3"/>
+    </row>
+    <row r="947" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A947" s="1"/>
+      <c r="B947" s="3"/>
+    </row>
+    <row r="948" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A948" s="1"/>
+      <c r="B948" s="3"/>
+    </row>
+    <row r="949" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A949" s="1"/>
+      <c r="B949" s="3"/>
+    </row>
+    <row r="950" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A950" s="1"/>
+      <c r="B950" s="3"/>
+    </row>
+    <row r="951" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A951" s="1"/>
+      <c r="B951" s="3"/>
+    </row>
+    <row r="952" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A952" s="1"/>
+      <c r="B952" s="3"/>
+    </row>
+    <row r="953" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A953" s="1"/>
+      <c r="B953" s="3"/>
+    </row>
+    <row r="954" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A954" s="1"/>
+      <c r="B954" s="3"/>
+    </row>
+    <row r="955" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A955" s="1"/>
+      <c r="B955" s="3"/>
+    </row>
+    <row r="956" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A956" s="1"/>
+      <c r="B956" s="3"/>
+    </row>
+    <row r="957" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A957" s="1"/>
+      <c r="B957" s="3"/>
+    </row>
+    <row r="958" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A958" s="1"/>
+      <c r="B958" s="3"/>
+    </row>
+    <row r="959" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A959" s="1"/>
+      <c r="B959" s="3"/>
+    </row>
+    <row r="960" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A960" s="1"/>
+      <c r="B960" s="3"/>
+    </row>
+    <row r="961" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A961" s="1"/>
+      <c r="B961" s="3"/>
+    </row>
+    <row r="962" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A962" s="1"/>
+      <c r="B962" s="3"/>
+    </row>
+    <row r="963" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A963" s="1"/>
+      <c r="B963" s="3"/>
+    </row>
+    <row r="964" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A964" s="1"/>
+      <c r="B964" s="3"/>
+    </row>
+    <row r="965" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A965" s="1"/>
+      <c r="B965" s="3"/>
+    </row>
+    <row r="966" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A966" s="1"/>
+      <c r="B966" s="3"/>
+    </row>
+    <row r="967" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A967" s="1"/>
+      <c r="B967" s="3"/>
+    </row>
+    <row r="968" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A968" s="1"/>
+      <c r="B968" s="3"/>
+    </row>
+    <row r="969" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A969" s="1"/>
+      <c r="B969" s="3"/>
+    </row>
+    <row r="970" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A970" s="1"/>
+      <c r="B970" s="3"/>
+    </row>
+    <row r="971" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A971" s="1"/>
+      <c r="B971" s="3"/>
+    </row>
+    <row r="972" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A972" s="1"/>
+      <c r="B972" s="3"/>
+    </row>
+    <row r="973" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A973" s="1"/>
+      <c r="B973" s="3"/>
+    </row>
+    <row r="974" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A974" s="1"/>
+      <c r="B974" s="3"/>
+    </row>
+    <row r="975" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A975" s="1"/>
+      <c r="B975" s="3"/>
+    </row>
+    <row r="976" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A976" s="1"/>
+      <c r="B976" s="3"/>
+    </row>
+    <row r="977" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A977" s="1"/>
+      <c r="B977" s="3"/>
+    </row>
+    <row r="978" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A978" s="1"/>
+      <c r="B978" s="3"/>
+    </row>
+    <row r="979" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A979" s="1"/>
+      <c r="B979" s="3"/>
+    </row>
+    <row r="980" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A980" s="1"/>
+      <c r="B980" s="3"/>
+    </row>
+    <row r="981" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A981" s="1"/>
+      <c r="B981" s="3"/>
+    </row>
+    <row r="982" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A982" s="1"/>
+      <c r="B982" s="3"/>
+    </row>
+    <row r="983" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A983" s="1"/>
+      <c r="B983" s="3"/>
+    </row>
+    <row r="984" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A984" s="1"/>
+      <c r="B984" s="3"/>
+    </row>
+    <row r="985" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A985" s="1"/>
+      <c r="B985" s="3"/>
+    </row>
+    <row r="986" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A986" s="1"/>
+      <c r="B986" s="3"/>
+    </row>
+    <row r="987" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A987" s="1"/>
+      <c r="B987" s="3"/>
+    </row>
+    <row r="988" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A988" s="1"/>
+      <c r="B988" s="3"/>
+    </row>
+    <row r="989" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A989" s="1"/>
+      <c r="B989" s="3"/>
+    </row>
+    <row r="990" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A990" s="1"/>
+      <c r="B990" s="3"/>
+    </row>
+    <row r="991" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A991" s="1"/>
+      <c r="B991" s="3"/>
+    </row>
+    <row r="992" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A992" s="1"/>
+      <c r="B992" s="3"/>
+    </row>
+    <row r="993" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A993" s="1"/>
+      <c r="B993" s="3"/>
+    </row>
+    <row r="994" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A994" s="1"/>
+      <c r="B994" s="3"/>
+    </row>
+    <row r="995" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A995" s="1"/>
+      <c r="B995" s="3"/>
+    </row>
+    <row r="996" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A996" s="1"/>
+      <c r="B996" s="3"/>
+    </row>
+    <row r="997" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A997" s="1"/>
+      <c r="B997" s="3"/>
+    </row>
+    <row r="998" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A998" s="1"/>
+      <c r="B998" s="3"/>
+    </row>
+    <row r="999" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A999" s="1"/>
+      <c r="B999" s="3"/>
+    </row>
+    <row r="1000" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1000" s="1"/>
+      <c r="B1000" s="3"/>
+    </row>
+    <row r="1001" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA706C9-CB85-4AF3-BD0F-13C655D00800}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851E430D-B75E-4EBC-96DB-1E736DF3DD2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Question</t>
   </si>
@@ -87,12 +87,49 @@
   <si>
     <t>Week 4: 16 September 19 to 22 September 19</t>
   </si>
+  <si>
+    <t>1.) Functionality design for wireframe on Figma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.) Implementing database instead of using local dummy data within represented by an array, solution is to implement given data and upload into database, thus the data should response to the database rather than it responding locally. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.) Planning on programming approaching for initial stage with Sheng Qin and Brendon overseeing  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.) Pair programming with Sheng Qin, on LandinPage.php hardcode with data through local array. </t>
+  </si>
+  <si>
+    <t>1.) Planned on programming</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Weekly scrum meeting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1.) Updates on wireframe functionalities  
+2.) Implement database rather than local data (local array), to simulate real data
+3.) Pair program with Sheng Qin, oversee by Brendon on Bid page and update on landing page </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -118,6 +155,22 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -234,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -248,22 +301,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -276,7 +313,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -289,7 +325,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -301,6 +336,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,9 +658,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D3" sqref="D3"/>
+      <selection pane="topRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -604,21 +675,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -638,8 +709,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -680,209 +751,225 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
+      <c r="C16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -4857,21 +4944,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -4891,8 +4978,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -4933,209 +5020,209 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t6\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9642269D-295D-4AD5-9A3A-60C8F65E83B6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Week 4" sheetId="1" r:id="rId1"/>
@@ -61,49 +60,32 @@
     <t>What will you do today?</t>
   </si>
   <si>
-    <t>Member 5</t>
+    <t>Week: 12/09/2019 to 14/09/2019</t>
   </si>
   <si>
-    <t>Member 4</t>
+    <t>Matthew Tan</t>
   </si>
   <si>
-    <t>Member 3</t>
+    <t>Brendon Lim</t>
   </si>
   <si>
-    <t>Member 2</t>
+    <t>Cha Daeun</t>
   </si>
   <si>
-    <t>Member 1</t>
+    <t>Vittorio Carecci</t>
   </si>
   <si>
-    <t>Week: &lt;start date&gt; to &lt;end date&gt;</t>
+    <t>Sheng Qin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -114,6 +96,16 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -155,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -177,31 +169,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,15 +468,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -505,14 +491,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>18</v>
+      <c r="C1" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -539,8 +525,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -581,8 +567,8 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>17</v>
+      <c r="A3" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -596,7 +582,7 @@
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
@@ -609,7 +595,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
@@ -622,8 +608,8 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>16</v>
+      <c r="A6" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
@@ -637,7 +623,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
@@ -650,7 +636,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
@@ -663,8 +649,8 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>15</v>
+      <c r="A9" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -678,7 +664,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
@@ -691,7 +677,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
@@ -704,8 +690,8 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>14</v>
+      <c r="A12" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>7</v>
@@ -719,7 +705,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
@@ -732,7 +718,7 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
@@ -745,13 +731,13 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>13</v>
+      <c r="A15" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="7"/>
@@ -760,7 +746,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
@@ -773,12 +759,12 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="9"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E351D2E0-2481-4F8A-AE94-7580A507B51E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 4" sheetId="1" r:id="rId1"/>
@@ -60,9 +61,6 @@
     <t>What will you do today?</t>
   </si>
   <si>
-    <t>Week: 12/09/2019 to 14/09/2019</t>
-  </si>
-  <si>
     <t>Matthew Tan</t>
   </si>
   <si>
@@ -77,11 +75,14 @@
   <si>
     <t>Sheng Qin</t>
   </si>
+  <si>
+    <t>Week: 16/09/2019 to 20/09/2019</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -468,29 +469,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A18" sqref="A18"/>
+      <selection pane="topRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="32" style="4" customWidth="1"/>
     <col min="5" max="5" width="31" style="4" customWidth="1"/>
-    <col min="6" max="6" width="30.88671875" style="4" customWidth="1"/>
-    <col min="7" max="9" width="29.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" style="4" customWidth="1"/>
+    <col min="7" max="9" width="29.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
@@ -498,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -524,7 +525,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="5" t="s">
@@ -566,9 +567,9 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -581,7 +582,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="6" t="s">
         <v>12</v>
@@ -594,7 +595,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -607,9 +608,9 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
@@ -622,7 +623,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
@@ -635,7 +636,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="6" t="s">
         <v>9</v>
@@ -648,9 +649,9 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -663,7 +664,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -676,7 +677,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
@@ -689,9 +690,9 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>7</v>
@@ -704,7 +705,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="6" t="s">
         <v>8</v>
@@ -717,7 +718,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="6" t="s">
         <v>9</v>
@@ -730,9 +731,9 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>7</v>
@@ -745,7 +746,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="6" t="s">
         <v>8</v>
@@ -758,7 +759,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="6" t="s">
         <v>9</v>
@@ -771,3939 +772,3939 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="3"/>
     </row>
-    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="3"/>
     </row>
-    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="3"/>
     </row>
-    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="3"/>
     </row>
-    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="3"/>
     </row>
-    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="3"/>
     </row>
-    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="3"/>
     </row>
-    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="3"/>
     </row>
-    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="3"/>
     </row>
-    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="3"/>
     </row>
-    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="3"/>
     </row>
-    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="3"/>
     </row>
-    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="3"/>
     </row>
-    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="3"/>
     </row>
-    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="3"/>
     </row>
-    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="3"/>
     </row>
-    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="3"/>
     </row>
-    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="3"/>
     </row>
-    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="3"/>
     </row>
-    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="3"/>
     </row>
-    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="3"/>
     </row>
-    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="3"/>
     </row>
-    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="3"/>
     </row>
-    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="3"/>
     </row>
-    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="3"/>
     </row>
-    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="3"/>
     </row>
-    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="3"/>
     </row>
-    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="3"/>
     </row>
-    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="3"/>
     </row>
-    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="3"/>
     </row>
-    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="3"/>
     </row>
-    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="3"/>
     </row>
-    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="3"/>
     </row>
-    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="3"/>
     </row>
-    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="3"/>
     </row>
-    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="3"/>
     </row>
-    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="3"/>
     </row>
-    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="3"/>
     </row>
-    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="3"/>
     </row>
-    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="3"/>
     </row>
-    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="3"/>
     </row>
-    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="3"/>
     </row>
-    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="3"/>
     </row>
-    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="3"/>
     </row>
-    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="3"/>
     </row>
-    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="3"/>
     </row>
-    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="3"/>
     </row>
-    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="3"/>
     </row>
-    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="3"/>
     </row>
-    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="3"/>
     </row>
-    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="3"/>
     </row>
-    <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="3"/>
     </row>
-    <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="3"/>
     </row>
-    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="3"/>
     </row>
-    <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="3"/>
     </row>
-    <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="3"/>
     </row>
-    <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="3"/>
     </row>
-    <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="3"/>
     </row>
-    <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="3"/>
     </row>
-    <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="3"/>
     </row>
-    <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="3"/>
     </row>
-    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="3"/>
     </row>
-    <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="3"/>
     </row>
-    <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="3"/>
     </row>
-    <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="3"/>
     </row>
-    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="3"/>
     </row>
-    <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="3"/>
     </row>
-    <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="3"/>
     </row>
-    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="3"/>
     </row>
-    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="3"/>
     </row>
-    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="3"/>
     </row>
-    <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="3"/>
     </row>
-    <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="3"/>
     </row>
-    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="3"/>
     </row>
-    <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="3"/>
     </row>
-    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="3"/>
     </row>
-    <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="3"/>
     </row>
-    <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="3"/>
     </row>
-    <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="3"/>
     </row>
-    <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="3"/>
     </row>
-    <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="3"/>
     </row>
-    <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="3"/>
     </row>
-    <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="3"/>
     </row>
-    <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="3"/>
     </row>
-    <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="3"/>
     </row>
-    <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="3"/>
     </row>
-    <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="3"/>
     </row>
-    <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="3"/>
     </row>
-    <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="3"/>
     </row>
-    <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="3"/>
     </row>
-    <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="3"/>
     </row>
-    <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="3"/>
     </row>
-    <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="3"/>
     </row>
-    <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="3"/>
     </row>
-    <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="3"/>
     </row>
-    <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="3"/>
     </row>
-    <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="3"/>
     </row>
-    <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="3"/>
     </row>
-    <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="3"/>
     </row>
-    <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="3"/>
     </row>
-    <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="3"/>
     </row>
-    <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="3"/>
     </row>
-    <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="3"/>
     </row>
-    <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="3"/>
     </row>
-    <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="3"/>
     </row>
-    <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="3"/>
     </row>
-    <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="3"/>
     </row>
-    <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="3"/>
     </row>
-    <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="3"/>
     </row>
-    <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="3"/>
     </row>
-    <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="3"/>
     </row>
-    <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="3"/>
     </row>
-    <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="3"/>
     </row>
-    <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="3"/>
     </row>
-    <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="3"/>
     </row>
-    <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="3"/>
     </row>
-    <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="3"/>
     </row>
-    <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="3"/>
     </row>
-    <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="3"/>
     </row>
-    <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="3"/>
     </row>
-    <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="3"/>
     </row>
-    <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="3"/>
     </row>
-    <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="3"/>
     </row>
-    <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="3"/>
     </row>
-    <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="3"/>
     </row>
-    <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="3"/>
     </row>
-    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="3"/>
     </row>
-    <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="3"/>
     </row>
-    <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="3"/>
     </row>
-    <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="3"/>
     </row>
-    <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="3"/>
     </row>
-    <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="3"/>
     </row>
-    <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="3"/>
     </row>
-    <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="3"/>
     </row>
-    <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="3"/>
     </row>
-    <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="3"/>
     </row>
-    <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="3"/>
     </row>
-    <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="3"/>
     </row>
-    <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="3"/>
     </row>
-    <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="3"/>
     </row>
-    <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="3"/>
     </row>
-    <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="3"/>
     </row>
-    <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="3"/>
     </row>
-    <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="3"/>
     </row>
-    <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="3"/>
     </row>
-    <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="3"/>
     </row>
-    <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="3"/>
     </row>
-    <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="3"/>
     </row>
-    <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="3"/>
     </row>
-    <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="3"/>
     </row>
-    <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="3"/>
     </row>
-    <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="3"/>
     </row>
-    <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="3"/>
     </row>
-    <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="3"/>
     </row>
-    <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="3"/>
     </row>
-    <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="3"/>
     </row>
-    <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="3"/>
     </row>
-    <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="3"/>
     </row>
-    <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="3"/>
     </row>
-    <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="3"/>
     </row>
-    <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="3"/>
     </row>
-    <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="3"/>
     </row>
-    <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="3"/>
     </row>
-    <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="3"/>
     </row>
-    <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="3"/>
     </row>
-    <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="3"/>
     </row>
-    <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="3"/>
     </row>
-    <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="3"/>
     </row>
-    <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="3"/>
     </row>
-    <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="3"/>
     </row>
-    <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="3"/>
     </row>
-    <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="3"/>
     </row>
-    <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="3"/>
     </row>
-    <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="3"/>
     </row>
-    <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="3"/>
     </row>
-    <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="3"/>
     </row>
-    <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="3"/>
     </row>
-    <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="3"/>
     </row>
-    <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="3"/>
     </row>
-    <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="3"/>
     </row>
-    <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="3"/>
     </row>
-    <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="3"/>
     </row>
-    <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="3"/>
     </row>
-    <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="3"/>
     </row>
-    <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="3"/>
     </row>
-    <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="3"/>
     </row>
-    <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="3"/>
     </row>
-    <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="3"/>
     </row>
-    <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="3"/>
     </row>
-    <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="3"/>
     </row>
-    <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="3"/>
     </row>
-    <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="3"/>
     </row>
-    <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="3"/>
     </row>
-    <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="3"/>
     </row>
-    <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="3"/>
     </row>
-    <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="3"/>
     </row>
-    <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="3"/>
     </row>
-    <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="3"/>
     </row>
-    <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="3"/>
     </row>
-    <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="3"/>
     </row>
-    <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="3"/>
     </row>
-    <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="3"/>
     </row>
-    <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="3"/>
     </row>
-    <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="3"/>
     </row>
-    <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="3"/>
     </row>
-    <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="3"/>
     </row>
-    <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="3"/>
     </row>
-    <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="3"/>
     </row>
-    <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="3"/>
     </row>
-    <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="3"/>
     </row>
-    <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="3"/>
     </row>
-    <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="3"/>
     </row>
-    <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="3"/>
     </row>
-    <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="3"/>
     </row>
-    <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="3"/>
     </row>
-    <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="3"/>
     </row>
-    <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="3"/>
     </row>
-    <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="3"/>
     </row>
-    <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="3"/>
     </row>
-    <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="3"/>
     </row>
-    <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="3"/>
     </row>
-    <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="3"/>
     </row>
-    <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="3"/>
     </row>
-    <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="3"/>
     </row>
-    <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="3"/>
     </row>
-    <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="3"/>
     </row>
-    <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="3"/>
     </row>
-    <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="3"/>
     </row>
-    <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="3"/>
     </row>
-    <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="3"/>
     </row>
-    <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="B304" s="3"/>
     </row>
-    <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="B305" s="3"/>
     </row>
-    <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="B306" s="3"/>
     </row>
-    <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="B307" s="3"/>
     </row>
-    <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="3"/>
     </row>
-    <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="B309" s="3"/>
     </row>
-    <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="B310" s="3"/>
     </row>
-    <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="B311" s="3"/>
     </row>
-    <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="3"/>
     </row>
-    <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="3"/>
     </row>
-    <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="3"/>
     </row>
-    <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="3"/>
     </row>
-    <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="3"/>
     </row>
-    <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="3"/>
     </row>
-    <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="B318" s="3"/>
     </row>
-    <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="3"/>
     </row>
-    <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="B320" s="3"/>
     </row>
-    <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="B321" s="3"/>
     </row>
-    <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="3"/>
     </row>
-    <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="3"/>
     </row>
-    <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="3"/>
     </row>
-    <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="3"/>
     </row>
-    <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="3"/>
     </row>
-    <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="3"/>
     </row>
-    <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="3"/>
     </row>
-    <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="3"/>
     </row>
-    <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="3"/>
     </row>
-    <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="3"/>
     </row>
-    <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="3"/>
     </row>
-    <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="3"/>
     </row>
-    <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="3"/>
     </row>
-    <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="3"/>
     </row>
-    <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="3"/>
     </row>
-    <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="3"/>
     </row>
-    <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="3"/>
     </row>
-    <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="3"/>
     </row>
-    <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="3"/>
     </row>
-    <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="B341" s="3"/>
     </row>
-    <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="3"/>
     </row>
-    <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="B343" s="3"/>
     </row>
-    <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="3"/>
     </row>
-    <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="B345" s="3"/>
     </row>
-    <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="3"/>
     </row>
-    <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="3"/>
     </row>
-    <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="3"/>
     </row>
-    <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="3"/>
     </row>
-    <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="3"/>
     </row>
-    <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="3"/>
     </row>
-    <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="3"/>
     </row>
-    <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="3"/>
     </row>
-    <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="3"/>
     </row>
-    <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="3"/>
     </row>
-    <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="3"/>
     </row>
-    <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="B357" s="3"/>
     </row>
-    <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="3"/>
     </row>
-    <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="B359" s="3"/>
     </row>
-    <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="3"/>
     </row>
-    <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="B361" s="3"/>
     </row>
-    <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="B362" s="3"/>
     </row>
-    <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="3"/>
     </row>
-    <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="B364" s="3"/>
     </row>
-    <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="3"/>
     </row>
-    <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="3"/>
     </row>
-    <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="B367" s="3"/>
     </row>
-    <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="3"/>
     </row>
-    <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="B369" s="3"/>
     </row>
-    <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="B370" s="3"/>
     </row>
-    <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="B371" s="3"/>
     </row>
-    <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="3"/>
     </row>
-    <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="B373" s="3"/>
     </row>
-    <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="B374" s="3"/>
     </row>
-    <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="B375" s="3"/>
     </row>
-    <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="B376" s="3"/>
     </row>
-    <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="B377" s="3"/>
     </row>
-    <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="3"/>
     </row>
-    <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="3"/>
     </row>
-    <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="3"/>
     </row>
-    <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="3"/>
     </row>
-    <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="3"/>
     </row>
-    <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="B383" s="3"/>
     </row>
-    <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="3"/>
     </row>
-    <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="B385" s="3"/>
     </row>
-    <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="3"/>
     </row>
-    <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="B387" s="3"/>
     </row>
-    <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="3"/>
     </row>
-    <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="B389" s="3"/>
     </row>
-    <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="3"/>
     </row>
-    <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="B391" s="3"/>
     </row>
-    <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="B392" s="3"/>
     </row>
-    <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="3"/>
     </row>
-    <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="B394" s="3"/>
     </row>
-    <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="3"/>
     </row>
-    <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="B396" s="3"/>
     </row>
-    <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="3"/>
     </row>
-    <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="B398" s="3"/>
     </row>
-    <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="3"/>
     </row>
-    <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="3"/>
     </row>
-    <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="B401" s="3"/>
     </row>
-    <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="3"/>
     </row>
-    <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="3"/>
     </row>
-    <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="3"/>
     </row>
-    <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
       <c r="B405" s="3"/>
     </row>
-    <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="B406" s="3"/>
     </row>
-    <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
       <c r="B407" s="3"/>
     </row>
-    <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="B408" s="3"/>
     </row>
-    <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="B409" s="3"/>
     </row>
-    <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="B410" s="3"/>
     </row>
-    <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="3"/>
     </row>
-    <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="B412" s="3"/>
     </row>
-    <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="3"/>
     </row>
-    <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="3"/>
     </row>
-    <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="3"/>
     </row>
-    <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="B416" s="3"/>
     </row>
-    <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="B417" s="3"/>
     </row>
-    <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="3"/>
     </row>
-    <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="B419" s="3"/>
     </row>
-    <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="B420" s="3"/>
     </row>
-    <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
       <c r="B421" s="3"/>
     </row>
-    <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="B422" s="3"/>
     </row>
-    <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="B423" s="3"/>
     </row>
-    <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="3"/>
     </row>
-    <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="3"/>
     </row>
-    <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
       <c r="B426" s="3"/>
     </row>
-    <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="B427" s="3"/>
     </row>
-    <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
       <c r="B428" s="3"/>
     </row>
-    <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="B429" s="3"/>
     </row>
-    <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="3"/>
     </row>
-    <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="B431" s="3"/>
     </row>
-    <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
       <c r="B432" s="3"/>
     </row>
-    <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
       <c r="B433" s="3"/>
     </row>
-    <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="B434" s="3"/>
     </row>
-    <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
       <c r="B435" s="3"/>
     </row>
-    <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
       <c r="B436" s="3"/>
     </row>
-    <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="B437" s="3"/>
     </row>
-    <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
       <c r="B438" s="3"/>
     </row>
-    <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="B439" s="3"/>
     </row>
-    <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="B440" s="3"/>
     </row>
-    <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="3"/>
     </row>
-    <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="B442" s="3"/>
     </row>
-    <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="3"/>
     </row>
-    <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="B444" s="3"/>
     </row>
-    <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="B445" s="3"/>
     </row>
-    <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="3"/>
     </row>
-    <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="B447" s="3"/>
     </row>
-    <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="B448" s="3"/>
     </row>
-    <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="3"/>
     </row>
-    <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="B450" s="3"/>
     </row>
-    <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="B451" s="3"/>
     </row>
-    <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="3"/>
     </row>
-    <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="B453" s="3"/>
     </row>
-    <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
       <c r="B454" s="3"/>
     </row>
-    <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="B455" s="3"/>
     </row>
-    <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="B456" s="3"/>
     </row>
-    <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="3"/>
     </row>
-    <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
       <c r="B458" s="3"/>
     </row>
-    <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="B459" s="3"/>
     </row>
-    <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
       <c r="B460" s="3"/>
     </row>
-    <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
       <c r="B461" s="3"/>
     </row>
-    <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
       <c r="B462" s="3"/>
     </row>
-    <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
       <c r="B463" s="3"/>
     </row>
-    <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
       <c r="B464" s="3"/>
     </row>
-    <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
       <c r="B465" s="3"/>
     </row>
-    <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
       <c r="B466" s="3"/>
     </row>
-    <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
       <c r="B467" s="3"/>
     </row>
-    <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
       <c r="B468" s="3"/>
     </row>
-    <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
       <c r="B469" s="3"/>
     </row>
-    <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="3"/>
     </row>
-    <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
       <c r="B471" s="3"/>
     </row>
-    <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
       <c r="B472" s="3"/>
     </row>
-    <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
       <c r="B473" s="3"/>
     </row>
-    <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
       <c r="B474" s="3"/>
     </row>
-    <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
       <c r="B475" s="3"/>
     </row>
-    <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
       <c r="B476" s="3"/>
     </row>
-    <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
       <c r="B477" s="3"/>
     </row>
-    <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
       <c r="B478" s="3"/>
     </row>
-    <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
       <c r="B479" s="3"/>
     </row>
-    <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
       <c r="B480" s="3"/>
     </row>
-    <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
       <c r="B481" s="3"/>
     </row>
-    <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
       <c r="B482" s="3"/>
     </row>
-    <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
       <c r="B483" s="3"/>
     </row>
-    <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
       <c r="B484" s="3"/>
     </row>
-    <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
       <c r="B485" s="3"/>
     </row>
-    <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="3"/>
     </row>
-    <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
       <c r="B487" s="3"/>
     </row>
-    <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
       <c r="B488" s="3"/>
     </row>
-    <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
       <c r="B489" s="3"/>
     </row>
-    <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
       <c r="B490" s="3"/>
     </row>
-    <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
       <c r="B491" s="3"/>
     </row>
-    <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
       <c r="B492" s="3"/>
     </row>
-    <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
       <c r="B493" s="3"/>
     </row>
-    <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
       <c r="B494" s="3"/>
     </row>
-    <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
       <c r="B495" s="3"/>
     </row>
-    <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
       <c r="B496" s="3"/>
     </row>
-    <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
       <c r="B497" s="3"/>
     </row>
-    <row r="498" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
       <c r="B498" s="3"/>
     </row>
-    <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
       <c r="B499" s="3"/>
     </row>
-    <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
       <c r="B500" s="3"/>
     </row>
-    <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
       <c r="B501" s="3"/>
     </row>
-    <row r="502" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="3"/>
     </row>
-    <row r="503" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="B503" s="3"/>
     </row>
-    <row r="504" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
       <c r="B504" s="3"/>
     </row>
-    <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="B505" s="3"/>
     </row>
-    <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
       <c r="B506" s="3"/>
     </row>
-    <row r="507" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
       <c r="B507" s="3"/>
     </row>
-    <row r="508" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
       <c r="B508" s="3"/>
     </row>
-    <row r="509" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
       <c r="B509" s="3"/>
     </row>
-    <row r="510" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
       <c r="B510" s="3"/>
     </row>
-    <row r="511" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A511" s="1"/>
       <c r="B511" s="3"/>
     </row>
-    <row r="512" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
       <c r="B512" s="3"/>
     </row>
-    <row r="513" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A513" s="1"/>
       <c r="B513" s="3"/>
     </row>
-    <row r="514" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A514" s="1"/>
       <c r="B514" s="3"/>
     </row>
-    <row r="515" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A515" s="1"/>
       <c r="B515" s="3"/>
     </row>
-    <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="3"/>
     </row>
-    <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
       <c r="B517" s="3"/>
     </row>
-    <row r="518" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A518" s="1"/>
       <c r="B518" s="3"/>
     </row>
-    <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
       <c r="B519" s="3"/>
     </row>
-    <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A520" s="1"/>
       <c r="B520" s="3"/>
     </row>
-    <row r="521" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
       <c r="B521" s="3"/>
     </row>
-    <row r="522" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A522" s="1"/>
       <c r="B522" s="3"/>
     </row>
-    <row r="523" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
       <c r="B523" s="3"/>
     </row>
-    <row r="524" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
       <c r="B524" s="3"/>
     </row>
-    <row r="525" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A525" s="1"/>
       <c r="B525" s="3"/>
     </row>
-    <row r="526" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
       <c r="B526" s="3"/>
     </row>
-    <row r="527" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A527" s="1"/>
       <c r="B527" s="3"/>
     </row>
-    <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
       <c r="B528" s="3"/>
     </row>
-    <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A529" s="1"/>
       <c r="B529" s="3"/>
     </row>
-    <row r="530" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
       <c r="B530" s="3"/>
     </row>
-    <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
       <c r="B531" s="3"/>
     </row>
-    <row r="532" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="3"/>
     </row>
-    <row r="533" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A533" s="1"/>
       <c r="B533" s="3"/>
     </row>
-    <row r="534" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A534" s="1"/>
       <c r="B534" s="3"/>
     </row>
-    <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
       <c r="B535" s="3"/>
     </row>
-    <row r="536" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A536" s="1"/>
       <c r="B536" s="3"/>
     </row>
-    <row r="537" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
       <c r="B537" s="3"/>
     </row>
-    <row r="538" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A538" s="1"/>
       <c r="B538" s="3"/>
     </row>
-    <row r="539" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
       <c r="B539" s="3"/>
     </row>
-    <row r="540" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A540" s="1"/>
       <c r="B540" s="3"/>
     </row>
-    <row r="541" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
       <c r="B541" s="3"/>
     </row>
-    <row r="542" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
       <c r="B542" s="3"/>
     </row>
-    <row r="543" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A543" s="1"/>
       <c r="B543" s="3"/>
     </row>
-    <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
       <c r="B544" s="3"/>
     </row>
-    <row r="545" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A545" s="1"/>
       <c r="B545" s="3"/>
     </row>
-    <row r="546" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
       <c r="B546" s="3"/>
     </row>
-    <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
       <c r="B547" s="3"/>
     </row>
-    <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="3"/>
     </row>
-    <row r="549" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A549" s="1"/>
       <c r="B549" s="3"/>
     </row>
-    <row r="550" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
       <c r="B550" s="3"/>
     </row>
-    <row r="551" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A551" s="1"/>
       <c r="B551" s="3"/>
     </row>
-    <row r="552" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A552" s="1"/>
       <c r="B552" s="3"/>
     </row>
-    <row r="553" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
       <c r="B553" s="3"/>
     </row>
-    <row r="554" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A554" s="1"/>
       <c r="B554" s="3"/>
     </row>
-    <row r="555" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
       <c r="B555" s="3"/>
     </row>
-    <row r="556" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
       <c r="B556" s="3"/>
     </row>
-    <row r="557" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A557" s="1"/>
       <c r="B557" s="3"/>
     </row>
-    <row r="558" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A558" s="1"/>
       <c r="B558" s="3"/>
     </row>
-    <row r="559" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A559" s="1"/>
       <c r="B559" s="3"/>
     </row>
-    <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A560" s="1"/>
       <c r="B560" s="3"/>
     </row>
-    <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="3"/>
     </row>
-    <row r="562" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
       <c r="B562" s="3"/>
     </row>
-    <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A563" s="1"/>
       <c r="B563" s="3"/>
     </row>
-    <row r="564" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
       <c r="B564" s="3"/>
     </row>
-    <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A565" s="1"/>
       <c r="B565" s="3"/>
     </row>
-    <row r="566" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
       <c r="B566" s="3"/>
     </row>
-    <row r="567" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
       <c r="B567" s="3"/>
     </row>
-    <row r="568" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A568" s="1"/>
       <c r="B568" s="3"/>
     </row>
-    <row r="569" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
       <c r="B569" s="3"/>
     </row>
-    <row r="570" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
       <c r="B570" s="3"/>
     </row>
-    <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
       <c r="B571" s="3"/>
     </row>
-    <row r="572" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="3"/>
     </row>
-    <row r="573" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
       <c r="B573" s="3"/>
     </row>
-    <row r="574" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A574" s="1"/>
       <c r="B574" s="3"/>
     </row>
-    <row r="575" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A575" s="1"/>
       <c r="B575" s="3"/>
     </row>
-    <row r="576" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A576" s="1"/>
       <c r="B576" s="3"/>
     </row>
-    <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A577" s="1"/>
       <c r="B577" s="3"/>
     </row>
-    <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
       <c r="B578" s="3"/>
     </row>
-    <row r="579" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A579" s="1"/>
       <c r="B579" s="3"/>
     </row>
-    <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
       <c r="B580" s="3"/>
     </row>
-    <row r="581" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A581" s="1"/>
       <c r="B581" s="3"/>
     </row>
-    <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
       <c r="B582" s="3"/>
     </row>
-    <row r="583" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
       <c r="B583" s="3"/>
     </row>
-    <row r="584" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A584" s="1"/>
       <c r="B584" s="3"/>
     </row>
-    <row r="585" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A585" s="1"/>
       <c r="B585" s="3"/>
     </row>
-    <row r="586" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A586" s="1"/>
       <c r="B586" s="3"/>
     </row>
-    <row r="587" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
       <c r="B587" s="3"/>
     </row>
-    <row r="588" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A588" s="1"/>
       <c r="B588" s="3"/>
     </row>
-    <row r="589" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A589" s="1"/>
       <c r="B589" s="3"/>
     </row>
-    <row r="590" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A590" s="1"/>
       <c r="B590" s="3"/>
     </row>
-    <row r="591" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A591" s="1"/>
       <c r="B591" s="3"/>
     </row>
-    <row r="592" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A592" s="1"/>
       <c r="B592" s="3"/>
     </row>
-    <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A593" s="1"/>
       <c r="B593" s="3"/>
     </row>
-    <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
       <c r="B594" s="3"/>
     </row>
-    <row r="595" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A595" s="1"/>
       <c r="B595" s="3"/>
     </row>
-    <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A596" s="1"/>
       <c r="B596" s="3"/>
     </row>
-    <row r="597" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A597" s="1"/>
       <c r="B597" s="3"/>
     </row>
-    <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A598" s="1"/>
       <c r="B598" s="3"/>
     </row>
-    <row r="599" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A599" s="1"/>
       <c r="B599" s="3"/>
     </row>
-    <row r="600" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A600" s="1"/>
       <c r="B600" s="3"/>
     </row>
-    <row r="601" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
       <c r="B601" s="3"/>
     </row>
-    <row r="602" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A602" s="1"/>
       <c r="B602" s="3"/>
     </row>
-    <row r="603" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A603" s="1"/>
       <c r="B603" s="3"/>
     </row>
-    <row r="604" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
       <c r="B604" s="3"/>
     </row>
-    <row r="605" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A605" s="1"/>
       <c r="B605" s="3"/>
     </row>
-    <row r="606" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
       <c r="B606" s="3"/>
     </row>
-    <row r="607" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A607" s="1"/>
       <c r="B607" s="3"/>
     </row>
-    <row r="608" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A608" s="1"/>
       <c r="B608" s="3"/>
     </row>
-    <row r="609" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A609" s="1"/>
       <c r="B609" s="3"/>
     </row>
-    <row r="610" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A610" s="1"/>
       <c r="B610" s="3"/>
     </row>
-    <row r="611" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A611" s="1"/>
       <c r="B611" s="3"/>
     </row>
-    <row r="612" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A612" s="1"/>
       <c r="B612" s="3"/>
     </row>
-    <row r="613" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A613" s="1"/>
       <c r="B613" s="3"/>
     </row>
-    <row r="614" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A614" s="1"/>
       <c r="B614" s="3"/>
     </row>
-    <row r="615" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A615" s="1"/>
       <c r="B615" s="3"/>
     </row>
-    <row r="616" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A616" s="1"/>
       <c r="B616" s="3"/>
     </row>
-    <row r="617" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
       <c r="B617" s="3"/>
     </row>
-    <row r="618" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A618" s="1"/>
       <c r="B618" s="3"/>
     </row>
-    <row r="619" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A619" s="1"/>
       <c r="B619" s="3"/>
     </row>
-    <row r="620" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A620" s="1"/>
       <c r="B620" s="3"/>
     </row>
-    <row r="621" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A621" s="1"/>
       <c r="B621" s="3"/>
     </row>
-    <row r="622" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A622" s="1"/>
       <c r="B622" s="3"/>
     </row>
-    <row r="623" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
       <c r="B623" s="3"/>
     </row>
-    <row r="624" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A624" s="1"/>
       <c r="B624" s="3"/>
     </row>
-    <row r="625" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A625" s="1"/>
       <c r="B625" s="3"/>
     </row>
-    <row r="626" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
       <c r="B626" s="3"/>
     </row>
-    <row r="627" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A627" s="1"/>
       <c r="B627" s="3"/>
     </row>
-    <row r="628" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A628" s="1"/>
       <c r="B628" s="3"/>
     </row>
-    <row r="629" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A629" s="1"/>
       <c r="B629" s="3"/>
     </row>
-    <row r="630" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A630" s="1"/>
       <c r="B630" s="3"/>
     </row>
-    <row r="631" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A631" s="1"/>
       <c r="B631" s="3"/>
     </row>
-    <row r="632" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A632" s="1"/>
       <c r="B632" s="3"/>
     </row>
-    <row r="633" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A633" s="1"/>
       <c r="B633" s="3"/>
     </row>
-    <row r="634" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A634" s="1"/>
       <c r="B634" s="3"/>
     </row>
-    <row r="635" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A635" s="1"/>
       <c r="B635" s="3"/>
     </row>
-    <row r="636" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A636" s="1"/>
       <c r="B636" s="3"/>
     </row>
-    <row r="637" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A637" s="1"/>
       <c r="B637" s="3"/>
     </row>
-    <row r="638" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A638" s="1"/>
       <c r="B638" s="3"/>
     </row>
-    <row r="639" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A639" s="1"/>
       <c r="B639" s="3"/>
     </row>
-    <row r="640" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A640" s="1"/>
       <c r="B640" s="3"/>
     </row>
-    <row r="641" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A641" s="1"/>
       <c r="B641" s="3"/>
     </row>
-    <row r="642" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A642" s="1"/>
       <c r="B642" s="3"/>
     </row>
-    <row r="643" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A643" s="1"/>
       <c r="B643" s="3"/>
     </row>
-    <row r="644" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A644" s="1"/>
       <c r="B644" s="3"/>
     </row>
-    <row r="645" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A645" s="1"/>
       <c r="B645" s="3"/>
     </row>
-    <row r="646" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A646" s="1"/>
       <c r="B646" s="3"/>
     </row>
-    <row r="647" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A647" s="1"/>
       <c r="B647" s="3"/>
     </row>
-    <row r="648" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A648" s="1"/>
       <c r="B648" s="3"/>
     </row>
-    <row r="649" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A649" s="1"/>
       <c r="B649" s="3"/>
     </row>
-    <row r="650" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A650" s="1"/>
       <c r="B650" s="3"/>
     </row>
-    <row r="651" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A651" s="1"/>
       <c r="B651" s="3"/>
     </row>
-    <row r="652" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A652" s="1"/>
       <c r="B652" s="3"/>
     </row>
-    <row r="653" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A653" s="1"/>
       <c r="B653" s="3"/>
     </row>
-    <row r="654" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A654" s="1"/>
       <c r="B654" s="3"/>
     </row>
-    <row r="655" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A655" s="1"/>
       <c r="B655" s="3"/>
     </row>
-    <row r="656" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A656" s="1"/>
       <c r="B656" s="3"/>
     </row>
-    <row r="657" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A657" s="1"/>
       <c r="B657" s="3"/>
     </row>
-    <row r="658" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A658" s="1"/>
       <c r="B658" s="3"/>
     </row>
-    <row r="659" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A659" s="1"/>
       <c r="B659" s="3"/>
     </row>
-    <row r="660" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A660" s="1"/>
       <c r="B660" s="3"/>
     </row>
-    <row r="661" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A661" s="1"/>
       <c r="B661" s="3"/>
     </row>
-    <row r="662" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A662" s="1"/>
       <c r="B662" s="3"/>
     </row>
-    <row r="663" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A663" s="1"/>
       <c r="B663" s="3"/>
     </row>
-    <row r="664" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A664" s="1"/>
       <c r="B664" s="3"/>
     </row>
-    <row r="665" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A665" s="1"/>
       <c r="B665" s="3"/>
     </row>
-    <row r="666" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A666" s="1"/>
       <c r="B666" s="3"/>
     </row>
-    <row r="667" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A667" s="1"/>
       <c r="B667" s="3"/>
     </row>
-    <row r="668" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A668" s="1"/>
       <c r="B668" s="3"/>
     </row>
-    <row r="669" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A669" s="1"/>
       <c r="B669" s="3"/>
     </row>
-    <row r="670" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A670" s="1"/>
       <c r="B670" s="3"/>
     </row>
-    <row r="671" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A671" s="1"/>
       <c r="B671" s="3"/>
     </row>
-    <row r="672" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A672" s="1"/>
       <c r="B672" s="3"/>
     </row>
-    <row r="673" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A673" s="1"/>
       <c r="B673" s="3"/>
     </row>
-    <row r="674" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A674" s="1"/>
       <c r="B674" s="3"/>
     </row>
-    <row r="675" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A675" s="1"/>
       <c r="B675" s="3"/>
     </row>
-    <row r="676" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A676" s="1"/>
       <c r="B676" s="3"/>
     </row>
-    <row r="677" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A677" s="1"/>
       <c r="B677" s="3"/>
     </row>
-    <row r="678" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A678" s="1"/>
       <c r="B678" s="3"/>
     </row>
-    <row r="679" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A679" s="1"/>
       <c r="B679" s="3"/>
     </row>
-    <row r="680" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A680" s="1"/>
       <c r="B680" s="3"/>
     </row>
-    <row r="681" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A681" s="1"/>
       <c r="B681" s="3"/>
     </row>
-    <row r="682" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A682" s="1"/>
       <c r="B682" s="3"/>
     </row>
-    <row r="683" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A683" s="1"/>
       <c r="B683" s="3"/>
     </row>
-    <row r="684" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A684" s="1"/>
       <c r="B684" s="3"/>
     </row>
-    <row r="685" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A685" s="1"/>
       <c r="B685" s="3"/>
     </row>
-    <row r="686" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A686" s="1"/>
       <c r="B686" s="3"/>
     </row>
-    <row r="687" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A687" s="1"/>
       <c r="B687" s="3"/>
     </row>
-    <row r="688" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A688" s="1"/>
       <c r="B688" s="3"/>
     </row>
-    <row r="689" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A689" s="1"/>
       <c r="B689" s="3"/>
     </row>
-    <row r="690" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A690" s="1"/>
       <c r="B690" s="3"/>
     </row>
-    <row r="691" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A691" s="1"/>
       <c r="B691" s="3"/>
     </row>
-    <row r="692" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A692" s="1"/>
       <c r="B692" s="3"/>
     </row>
-    <row r="693" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A693" s="1"/>
       <c r="B693" s="3"/>
     </row>
-    <row r="694" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A694" s="1"/>
       <c r="B694" s="3"/>
     </row>
-    <row r="695" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A695" s="1"/>
       <c r="B695" s="3"/>
     </row>
-    <row r="696" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A696" s="1"/>
       <c r="B696" s="3"/>
     </row>
-    <row r="697" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A697" s="1"/>
       <c r="B697" s="3"/>
     </row>
-    <row r="698" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A698" s="1"/>
       <c r="B698" s="3"/>
     </row>
-    <row r="699" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A699" s="1"/>
       <c r="B699" s="3"/>
     </row>
-    <row r="700" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A700" s="1"/>
       <c r="B700" s="3"/>
     </row>
-    <row r="701" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A701" s="1"/>
       <c r="B701" s="3"/>
     </row>
-    <row r="702" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A702" s="1"/>
       <c r="B702" s="3"/>
     </row>
-    <row r="703" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A703" s="1"/>
       <c r="B703" s="3"/>
     </row>
-    <row r="704" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A704" s="1"/>
       <c r="B704" s="3"/>
     </row>
-    <row r="705" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A705" s="1"/>
       <c r="B705" s="3"/>
     </row>
-    <row r="706" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A706" s="1"/>
       <c r="B706" s="3"/>
     </row>
-    <row r="707" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A707" s="1"/>
       <c r="B707" s="3"/>
     </row>
-    <row r="708" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A708" s="1"/>
       <c r="B708" s="3"/>
     </row>
-    <row r="709" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A709" s="1"/>
       <c r="B709" s="3"/>
     </row>
-    <row r="710" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A710" s="1"/>
       <c r="B710" s="3"/>
     </row>
-    <row r="711" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A711" s="1"/>
       <c r="B711" s="3"/>
     </row>
-    <row r="712" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A712" s="1"/>
       <c r="B712" s="3"/>
     </row>
-    <row r="713" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A713" s="1"/>
       <c r="B713" s="3"/>
     </row>
-    <row r="714" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A714" s="1"/>
       <c r="B714" s="3"/>
     </row>
-    <row r="715" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A715" s="1"/>
       <c r="B715" s="3"/>
     </row>
-    <row r="716" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A716" s="1"/>
       <c r="B716" s="3"/>
     </row>
-    <row r="717" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A717" s="1"/>
       <c r="B717" s="3"/>
     </row>
-    <row r="718" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A718" s="1"/>
       <c r="B718" s="3"/>
     </row>
-    <row r="719" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A719" s="1"/>
       <c r="B719" s="3"/>
     </row>
-    <row r="720" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A720" s="1"/>
       <c r="B720" s="3"/>
     </row>
-    <row r="721" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A721" s="1"/>
       <c r="B721" s="3"/>
     </row>
-    <row r="722" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A722" s="1"/>
       <c r="B722" s="3"/>
     </row>
-    <row r="723" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A723" s="1"/>
       <c r="B723" s="3"/>
     </row>
-    <row r="724" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A724" s="1"/>
       <c r="B724" s="3"/>
     </row>
-    <row r="725" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A725" s="1"/>
       <c r="B725" s="3"/>
     </row>
-    <row r="726" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A726" s="1"/>
       <c r="B726" s="3"/>
     </row>
-    <row r="727" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A727" s="1"/>
       <c r="B727" s="3"/>
     </row>
-    <row r="728" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A728" s="1"/>
       <c r="B728" s="3"/>
     </row>
-    <row r="729" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A729" s="1"/>
       <c r="B729" s="3"/>
     </row>
-    <row r="730" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A730" s="1"/>
       <c r="B730" s="3"/>
     </row>
-    <row r="731" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A731" s="1"/>
       <c r="B731" s="3"/>
     </row>
-    <row r="732" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A732" s="1"/>
       <c r="B732" s="3"/>
     </row>
-    <row r="733" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A733" s="1"/>
       <c r="B733" s="3"/>
     </row>
-    <row r="734" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A734" s="1"/>
       <c r="B734" s="3"/>
     </row>
-    <row r="735" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A735" s="1"/>
       <c r="B735" s="3"/>
     </row>
-    <row r="736" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A736" s="1"/>
       <c r="B736" s="3"/>
     </row>
-    <row r="737" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A737" s="1"/>
       <c r="B737" s="3"/>
     </row>
-    <row r="738" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A738" s="1"/>
       <c r="B738" s="3"/>
     </row>
-    <row r="739" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A739" s="1"/>
       <c r="B739" s="3"/>
     </row>
-    <row r="740" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A740" s="1"/>
       <c r="B740" s="3"/>
     </row>
-    <row r="741" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A741" s="1"/>
       <c r="B741" s="3"/>
     </row>
-    <row r="742" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A742" s="1"/>
       <c r="B742" s="3"/>
     </row>
-    <row r="743" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A743" s="1"/>
       <c r="B743" s="3"/>
     </row>
-    <row r="744" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A744" s="1"/>
       <c r="B744" s="3"/>
     </row>
-    <row r="745" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A745" s="1"/>
       <c r="B745" s="3"/>
     </row>
-    <row r="746" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A746" s="1"/>
       <c r="B746" s="3"/>
     </row>
-    <row r="747" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A747" s="1"/>
       <c r="B747" s="3"/>
     </row>
-    <row r="748" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A748" s="1"/>
       <c r="B748" s="3"/>
     </row>
-    <row r="749" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A749" s="1"/>
       <c r="B749" s="3"/>
     </row>
-    <row r="750" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A750" s="1"/>
       <c r="B750" s="3"/>
     </row>
-    <row r="751" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A751" s="1"/>
       <c r="B751" s="3"/>
     </row>
-    <row r="752" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A752" s="1"/>
       <c r="B752" s="3"/>
     </row>
-    <row r="753" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A753" s="1"/>
       <c r="B753" s="3"/>
     </row>
-    <row r="754" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A754" s="1"/>
       <c r="B754" s="3"/>
     </row>
-    <row r="755" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A755" s="1"/>
       <c r="B755" s="3"/>
     </row>
-    <row r="756" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A756" s="1"/>
       <c r="B756" s="3"/>
     </row>
-    <row r="757" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A757" s="1"/>
       <c r="B757" s="3"/>
     </row>
-    <row r="758" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A758" s="1"/>
       <c r="B758" s="3"/>
     </row>
-    <row r="759" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A759" s="1"/>
       <c r="B759" s="3"/>
     </row>
-    <row r="760" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A760" s="1"/>
       <c r="B760" s="3"/>
     </row>
-    <row r="761" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A761" s="1"/>
       <c r="B761" s="3"/>
     </row>
-    <row r="762" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A762" s="1"/>
       <c r="B762" s="3"/>
     </row>
-    <row r="763" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A763" s="1"/>
       <c r="B763" s="3"/>
     </row>
-    <row r="764" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A764" s="1"/>
       <c r="B764" s="3"/>
     </row>
-    <row r="765" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A765" s="1"/>
       <c r="B765" s="3"/>
     </row>
-    <row r="766" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A766" s="1"/>
       <c r="B766" s="3"/>
     </row>
-    <row r="767" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A767" s="1"/>
       <c r="B767" s="3"/>
     </row>
-    <row r="768" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A768" s="1"/>
       <c r="B768" s="3"/>
     </row>
-    <row r="769" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A769" s="1"/>
       <c r="B769" s="3"/>
     </row>
-    <row r="770" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A770" s="1"/>
       <c r="B770" s="3"/>
     </row>
-    <row r="771" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A771" s="1"/>
       <c r="B771" s="3"/>
     </row>
-    <row r="772" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A772" s="1"/>
       <c r="B772" s="3"/>
     </row>
-    <row r="773" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A773" s="1"/>
       <c r="B773" s="3"/>
     </row>
-    <row r="774" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A774" s="1"/>
       <c r="B774" s="3"/>
     </row>
-    <row r="775" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A775" s="1"/>
       <c r="B775" s="3"/>
     </row>
-    <row r="776" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A776" s="1"/>
       <c r="B776" s="3"/>
     </row>
-    <row r="777" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A777" s="1"/>
       <c r="B777" s="3"/>
     </row>
-    <row r="778" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A778" s="1"/>
       <c r="B778" s="3"/>
     </row>
-    <row r="779" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A779" s="1"/>
       <c r="B779" s="3"/>
     </row>
-    <row r="780" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A780" s="1"/>
       <c r="B780" s="3"/>
     </row>
-    <row r="781" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A781" s="1"/>
       <c r="B781" s="3"/>
     </row>
-    <row r="782" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A782" s="1"/>
       <c r="B782" s="3"/>
     </row>
-    <row r="783" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A783" s="1"/>
       <c r="B783" s="3"/>
     </row>
-    <row r="784" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A784" s="1"/>
       <c r="B784" s="3"/>
     </row>
-    <row r="785" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A785" s="1"/>
       <c r="B785" s="3"/>
     </row>
-    <row r="786" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A786" s="1"/>
       <c r="B786" s="3"/>
     </row>
-    <row r="787" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A787" s="1"/>
       <c r="B787" s="3"/>
     </row>
-    <row r="788" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A788" s="1"/>
       <c r="B788" s="3"/>
     </row>
-    <row r="789" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A789" s="1"/>
       <c r="B789" s="3"/>
     </row>
-    <row r="790" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A790" s="1"/>
       <c r="B790" s="3"/>
     </row>
-    <row r="791" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A791" s="1"/>
       <c r="B791" s="3"/>
     </row>
-    <row r="792" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A792" s="1"/>
       <c r="B792" s="3"/>
     </row>
-    <row r="793" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A793" s="1"/>
       <c r="B793" s="3"/>
     </row>
-    <row r="794" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A794" s="1"/>
       <c r="B794" s="3"/>
     </row>
-    <row r="795" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A795" s="1"/>
       <c r="B795" s="3"/>
     </row>
-    <row r="796" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A796" s="1"/>
       <c r="B796" s="3"/>
     </row>
-    <row r="797" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A797" s="1"/>
       <c r="B797" s="3"/>
     </row>
-    <row r="798" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A798" s="1"/>
       <c r="B798" s="3"/>
     </row>
-    <row r="799" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A799" s="1"/>
       <c r="B799" s="3"/>
     </row>
-    <row r="800" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A800" s="1"/>
       <c r="B800" s="3"/>
     </row>
-    <row r="801" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A801" s="1"/>
       <c r="B801" s="3"/>
     </row>
-    <row r="802" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A802" s="1"/>
       <c r="B802" s="3"/>
     </row>
-    <row r="803" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A803" s="1"/>
       <c r="B803" s="3"/>
     </row>
-    <row r="804" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A804" s="1"/>
       <c r="B804" s="3"/>
     </row>
-    <row r="805" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A805" s="1"/>
       <c r="B805" s="3"/>
     </row>
-    <row r="806" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A806" s="1"/>
       <c r="B806" s="3"/>
     </row>
-    <row r="807" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A807" s="1"/>
       <c r="B807" s="3"/>
     </row>
-    <row r="808" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A808" s="1"/>
       <c r="B808" s="3"/>
     </row>
-    <row r="809" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A809" s="1"/>
       <c r="B809" s="3"/>
     </row>
-    <row r="810" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A810" s="1"/>
       <c r="B810" s="3"/>
     </row>
-    <row r="811" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A811" s="1"/>
       <c r="B811" s="3"/>
     </row>
-    <row r="812" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A812" s="1"/>
       <c r="B812" s="3"/>
     </row>
-    <row r="813" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A813" s="1"/>
       <c r="B813" s="3"/>
     </row>
-    <row r="814" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A814" s="1"/>
       <c r="B814" s="3"/>
     </row>
-    <row r="815" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A815" s="1"/>
       <c r="B815" s="3"/>
     </row>
-    <row r="816" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A816" s="1"/>
       <c r="B816" s="3"/>
     </row>
-    <row r="817" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A817" s="1"/>
       <c r="B817" s="3"/>
     </row>
-    <row r="818" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A818" s="1"/>
       <c r="B818" s="3"/>
     </row>
-    <row r="819" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A819" s="1"/>
       <c r="B819" s="3"/>
     </row>
-    <row r="820" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A820" s="1"/>
       <c r="B820" s="3"/>
     </row>
-    <row r="821" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A821" s="1"/>
       <c r="B821" s="3"/>
     </row>
-    <row r="822" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A822" s="1"/>
       <c r="B822" s="3"/>
     </row>
-    <row r="823" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A823" s="1"/>
       <c r="B823" s="3"/>
     </row>
-    <row r="824" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A824" s="1"/>
       <c r="B824" s="3"/>
     </row>
-    <row r="825" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A825" s="1"/>
       <c r="B825" s="3"/>
     </row>
-    <row r="826" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A826" s="1"/>
       <c r="B826" s="3"/>
     </row>
-    <row r="827" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A827" s="1"/>
       <c r="B827" s="3"/>
     </row>
-    <row r="828" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A828" s="1"/>
       <c r="B828" s="3"/>
     </row>
-    <row r="829" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A829" s="1"/>
       <c r="B829" s="3"/>
     </row>
-    <row r="830" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A830" s="1"/>
       <c r="B830" s="3"/>
     </row>
-    <row r="831" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A831" s="1"/>
       <c r="B831" s="3"/>
     </row>
-    <row r="832" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A832" s="1"/>
       <c r="B832" s="3"/>
     </row>
-    <row r="833" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A833" s="1"/>
       <c r="B833" s="3"/>
     </row>
-    <row r="834" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A834" s="1"/>
       <c r="B834" s="3"/>
     </row>
-    <row r="835" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A835" s="1"/>
       <c r="B835" s="3"/>
     </row>
-    <row r="836" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A836" s="1"/>
       <c r="B836" s="3"/>
     </row>
-    <row r="837" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A837" s="1"/>
       <c r="B837" s="3"/>
     </row>
-    <row r="838" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A838" s="1"/>
       <c r="B838" s="3"/>
     </row>
-    <row r="839" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A839" s="1"/>
       <c r="B839" s="3"/>
     </row>
-    <row r="840" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A840" s="1"/>
       <c r="B840" s="3"/>
     </row>
-    <row r="841" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A841" s="1"/>
       <c r="B841" s="3"/>
     </row>
-    <row r="842" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A842" s="1"/>
       <c r="B842" s="3"/>
     </row>
-    <row r="843" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A843" s="1"/>
       <c r="B843" s="3"/>
     </row>
-    <row r="844" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A844" s="1"/>
       <c r="B844" s="3"/>
     </row>
-    <row r="845" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A845" s="1"/>
       <c r="B845" s="3"/>
     </row>
-    <row r="846" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A846" s="1"/>
       <c r="B846" s="3"/>
     </row>
-    <row r="847" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A847" s="1"/>
       <c r="B847" s="3"/>
     </row>
-    <row r="848" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A848" s="1"/>
       <c r="B848" s="3"/>
     </row>
-    <row r="849" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A849" s="1"/>
       <c r="B849" s="3"/>
     </row>
-    <row r="850" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A850" s="1"/>
       <c r="B850" s="3"/>
     </row>
-    <row r="851" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A851" s="1"/>
       <c r="B851" s="3"/>
     </row>
-    <row r="852" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A852" s="1"/>
       <c r="B852" s="3"/>
     </row>
-    <row r="853" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A853" s="1"/>
       <c r="B853" s="3"/>
     </row>
-    <row r="854" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A854" s="1"/>
       <c r="B854" s="3"/>
     </row>
-    <row r="855" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A855" s="1"/>
       <c r="B855" s="3"/>
     </row>
-    <row r="856" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A856" s="1"/>
       <c r="B856" s="3"/>
     </row>
-    <row r="857" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A857" s="1"/>
       <c r="B857" s="3"/>
     </row>
-    <row r="858" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A858" s="1"/>
       <c r="B858" s="3"/>
     </row>
-    <row r="859" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A859" s="1"/>
       <c r="B859" s="3"/>
     </row>
-    <row r="860" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A860" s="1"/>
       <c r="B860" s="3"/>
     </row>
-    <row r="861" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A861" s="1"/>
       <c r="B861" s="3"/>
     </row>
-    <row r="862" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A862" s="1"/>
       <c r="B862" s="3"/>
     </row>
-    <row r="863" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A863" s="1"/>
       <c r="B863" s="3"/>
     </row>
-    <row r="864" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A864" s="1"/>
       <c r="B864" s="3"/>
     </row>
-    <row r="865" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A865" s="1"/>
       <c r="B865" s="3"/>
     </row>
-    <row r="866" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A866" s="1"/>
       <c r="B866" s="3"/>
     </row>
-    <row r="867" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A867" s="1"/>
       <c r="B867" s="3"/>
     </row>
-    <row r="868" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A868" s="1"/>
       <c r="B868" s="3"/>
     </row>
-    <row r="869" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A869" s="1"/>
       <c r="B869" s="3"/>
     </row>
-    <row r="870" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A870" s="1"/>
       <c r="B870" s="3"/>
     </row>
-    <row r="871" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A871" s="1"/>
       <c r="B871" s="3"/>
     </row>
-    <row r="872" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A872" s="1"/>
       <c r="B872" s="3"/>
     </row>
-    <row r="873" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A873" s="1"/>
       <c r="B873" s="3"/>
     </row>
-    <row r="874" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A874" s="1"/>
       <c r="B874" s="3"/>
     </row>
-    <row r="875" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A875" s="1"/>
       <c r="B875" s="3"/>
     </row>
-    <row r="876" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A876" s="1"/>
       <c r="B876" s="3"/>
     </row>
-    <row r="877" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A877" s="1"/>
       <c r="B877" s="3"/>
     </row>
-    <row r="878" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A878" s="1"/>
       <c r="B878" s="3"/>
     </row>
-    <row r="879" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A879" s="1"/>
       <c r="B879" s="3"/>
     </row>
-    <row r="880" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A880" s="1"/>
       <c r="B880" s="3"/>
     </row>
-    <row r="881" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A881" s="1"/>
       <c r="B881" s="3"/>
     </row>
-    <row r="882" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A882" s="1"/>
       <c r="B882" s="3"/>
     </row>
-    <row r="883" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A883" s="1"/>
       <c r="B883" s="3"/>
     </row>
-    <row r="884" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A884" s="1"/>
       <c r="B884" s="3"/>
     </row>
-    <row r="885" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A885" s="1"/>
       <c r="B885" s="3"/>
     </row>
-    <row r="886" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A886" s="1"/>
       <c r="B886" s="3"/>
     </row>
-    <row r="887" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A887" s="1"/>
       <c r="B887" s="3"/>
     </row>
-    <row r="888" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A888" s="1"/>
       <c r="B888" s="3"/>
     </row>
-    <row r="889" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A889" s="1"/>
       <c r="B889" s="3"/>
     </row>
-    <row r="890" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A890" s="1"/>
       <c r="B890" s="3"/>
     </row>
-    <row r="891" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A891" s="1"/>
       <c r="B891" s="3"/>
     </row>
-    <row r="892" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A892" s="1"/>
       <c r="B892" s="3"/>
     </row>
-    <row r="893" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A893" s="1"/>
       <c r="B893" s="3"/>
     </row>
-    <row r="894" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A894" s="1"/>
       <c r="B894" s="3"/>
     </row>
-    <row r="895" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A895" s="1"/>
       <c r="B895" s="3"/>
     </row>
-    <row r="896" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A896" s="1"/>
       <c r="B896" s="3"/>
     </row>
-    <row r="897" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A897" s="1"/>
       <c r="B897" s="3"/>
     </row>
-    <row r="898" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A898" s="1"/>
       <c r="B898" s="3"/>
     </row>
-    <row r="899" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A899" s="1"/>
       <c r="B899" s="3"/>
     </row>
-    <row r="900" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A900" s="1"/>
       <c r="B900" s="3"/>
     </row>
-    <row r="901" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A901" s="1"/>
       <c r="B901" s="3"/>
     </row>
-    <row r="902" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A902" s="1"/>
       <c r="B902" s="3"/>
     </row>
-    <row r="903" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A903" s="1"/>
       <c r="B903" s="3"/>
     </row>
-    <row r="904" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A904" s="1"/>
       <c r="B904" s="3"/>
     </row>
-    <row r="905" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A905" s="1"/>
       <c r="B905" s="3"/>
     </row>
-    <row r="906" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A906" s="1"/>
       <c r="B906" s="3"/>
     </row>
-    <row r="907" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A907" s="1"/>
       <c r="B907" s="3"/>
     </row>
-    <row r="908" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A908" s="1"/>
       <c r="B908" s="3"/>
     </row>
-    <row r="909" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A909" s="1"/>
       <c r="B909" s="3"/>
     </row>
-    <row r="910" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A910" s="1"/>
       <c r="B910" s="3"/>
     </row>
-    <row r="911" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A911" s="1"/>
       <c r="B911" s="3"/>
     </row>
-    <row r="912" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A912" s="1"/>
       <c r="B912" s="3"/>
     </row>
-    <row r="913" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A913" s="1"/>
       <c r="B913" s="3"/>
     </row>
-    <row r="914" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A914" s="1"/>
       <c r="B914" s="3"/>
     </row>
-    <row r="915" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A915" s="1"/>
       <c r="B915" s="3"/>
     </row>
-    <row r="916" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A916" s="1"/>
       <c r="B916" s="3"/>
     </row>
-    <row r="917" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A917" s="1"/>
       <c r="B917" s="3"/>
     </row>
-    <row r="918" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A918" s="1"/>
       <c r="B918" s="3"/>
     </row>
-    <row r="919" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A919" s="1"/>
       <c r="B919" s="3"/>
     </row>
-    <row r="920" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A920" s="1"/>
       <c r="B920" s="3"/>
     </row>
-    <row r="921" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A921" s="1"/>
       <c r="B921" s="3"/>
     </row>
-    <row r="922" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A922" s="1"/>
       <c r="B922" s="3"/>
     </row>
-    <row r="923" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A923" s="1"/>
       <c r="B923" s="3"/>
     </row>
-    <row r="924" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A924" s="1"/>
       <c r="B924" s="3"/>
     </row>
-    <row r="925" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A925" s="1"/>
       <c r="B925" s="3"/>
     </row>
-    <row r="926" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A926" s="1"/>
       <c r="B926" s="3"/>
     </row>
-    <row r="927" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A927" s="1"/>
       <c r="B927" s="3"/>
     </row>
-    <row r="928" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A928" s="1"/>
       <c r="B928" s="3"/>
     </row>
-    <row r="929" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A929" s="1"/>
       <c r="B929" s="3"/>
     </row>
-    <row r="930" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A930" s="1"/>
       <c r="B930" s="3"/>
     </row>
-    <row r="931" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A931" s="1"/>
       <c r="B931" s="3"/>
     </row>
-    <row r="932" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A932" s="1"/>
       <c r="B932" s="3"/>
     </row>
-    <row r="933" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A933" s="1"/>
       <c r="B933" s="3"/>
     </row>
-    <row r="934" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A934" s="1"/>
       <c r="B934" s="3"/>
     </row>
-    <row r="935" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A935" s="1"/>
       <c r="B935" s="3"/>
     </row>
-    <row r="936" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A936" s="1"/>
       <c r="B936" s="3"/>
     </row>
-    <row r="937" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A937" s="1"/>
       <c r="B937" s="3"/>
     </row>
-    <row r="938" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A938" s="1"/>
       <c r="B938" s="3"/>
     </row>
-    <row r="939" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A939" s="1"/>
       <c r="B939" s="3"/>
     </row>
-    <row r="940" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A940" s="1"/>
       <c r="B940" s="3"/>
     </row>
-    <row r="941" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A941" s="1"/>
       <c r="B941" s="3"/>
     </row>
-    <row r="942" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A942" s="1"/>
       <c r="B942" s="3"/>
     </row>
-    <row r="943" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A943" s="1"/>
       <c r="B943" s="3"/>
     </row>
-    <row r="944" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A944" s="1"/>
       <c r="B944" s="3"/>
     </row>
-    <row r="945" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A945" s="1"/>
       <c r="B945" s="3"/>
     </row>
-    <row r="946" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A946" s="1"/>
       <c r="B946" s="3"/>
     </row>
-    <row r="947" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A947" s="1"/>
       <c r="B947" s="3"/>
     </row>
-    <row r="948" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A948" s="1"/>
       <c r="B948" s="3"/>
     </row>
-    <row r="949" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A949" s="1"/>
       <c r="B949" s="3"/>
     </row>
-    <row r="950" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A950" s="1"/>
       <c r="B950" s="3"/>
     </row>
-    <row r="951" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A951" s="1"/>
       <c r="B951" s="3"/>
     </row>
-    <row r="952" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A952" s="1"/>
       <c r="B952" s="3"/>
     </row>
-    <row r="953" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A953" s="1"/>
       <c r="B953" s="3"/>
     </row>
-    <row r="954" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A954" s="1"/>
       <c r="B954" s="3"/>
     </row>
-    <row r="955" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A955" s="1"/>
       <c r="B955" s="3"/>
     </row>
-    <row r="956" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A956" s="1"/>
       <c r="B956" s="3"/>
     </row>
-    <row r="957" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A957" s="1"/>
       <c r="B957" s="3"/>
     </row>
-    <row r="958" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A958" s="1"/>
       <c r="B958" s="3"/>
     </row>
-    <row r="959" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A959" s="1"/>
       <c r="B959" s="3"/>
     </row>
-    <row r="960" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A960" s="1"/>
       <c r="B960" s="3"/>
     </row>
-    <row r="961" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A961" s="1"/>
       <c r="B961" s="3"/>
     </row>
-    <row r="962" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A962" s="1"/>
       <c r="B962" s="3"/>
     </row>
-    <row r="963" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A963" s="1"/>
       <c r="B963" s="3"/>
     </row>
-    <row r="964" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A964" s="1"/>
       <c r="B964" s="3"/>
     </row>
-    <row r="965" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A965" s="1"/>
       <c r="B965" s="3"/>
     </row>
-    <row r="966" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A966" s="1"/>
       <c r="B966" s="3"/>
     </row>
-    <row r="967" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A967" s="1"/>
       <c r="B967" s="3"/>
     </row>
-    <row r="968" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A968" s="1"/>
       <c r="B968" s="3"/>
     </row>
-    <row r="969" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A969" s="1"/>
       <c r="B969" s="3"/>
     </row>
-    <row r="970" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A970" s="1"/>
       <c r="B970" s="3"/>
     </row>
-    <row r="971" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A971" s="1"/>
       <c r="B971" s="3"/>
     </row>
-    <row r="972" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A972" s="1"/>
       <c r="B972" s="3"/>
     </row>
-    <row r="973" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A973" s="1"/>
       <c r="B973" s="3"/>
     </row>
-    <row r="974" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A974" s="1"/>
       <c r="B974" s="3"/>
     </row>
-    <row r="975" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A975" s="1"/>
       <c r="B975" s="3"/>
     </row>
-    <row r="976" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A976" s="1"/>
       <c r="B976" s="3"/>
     </row>
-    <row r="977" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A977" s="1"/>
       <c r="B977" s="3"/>
     </row>
-    <row r="978" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A978" s="1"/>
       <c r="B978" s="3"/>
     </row>
-    <row r="979" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A979" s="1"/>
       <c r="B979" s="3"/>
     </row>
-    <row r="980" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A980" s="1"/>
       <c r="B980" s="3"/>
     </row>
-    <row r="981" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A981" s="1"/>
       <c r="B981" s="3"/>
     </row>
-    <row r="982" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A982" s="1"/>
       <c r="B982" s="3"/>
     </row>
-    <row r="983" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A983" s="1"/>
       <c r="B983" s="3"/>
     </row>
-    <row r="984" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A984" s="1"/>
       <c r="B984" s="3"/>
     </row>
-    <row r="985" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A985" s="1"/>
       <c r="B985" s="3"/>
     </row>
-    <row r="986" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A986" s="1"/>
       <c r="B986" s="3"/>
     </row>
-    <row r="987" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A987" s="1"/>
       <c r="B987" s="3"/>
     </row>
-    <row r="988" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A988" s="1"/>
       <c r="B988" s="3"/>
     </row>
-    <row r="989" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A989" s="1"/>
       <c r="B989" s="3"/>
     </row>
-    <row r="990" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A990" s="1"/>
       <c r="B990" s="3"/>
     </row>
-    <row r="991" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A991" s="1"/>
       <c r="B991" s="3"/>
     </row>
-    <row r="992" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A992" s="1"/>
       <c r="B992" s="3"/>
     </row>
-    <row r="993" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A993" s="1"/>
       <c r="B993" s="3"/>
     </row>
-    <row r="994" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A994" s="1"/>
       <c r="B994" s="3"/>
     </row>
-    <row r="995" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A995" s="1"/>
       <c r="B995" s="3"/>
     </row>
-    <row r="996" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A996" s="1"/>
       <c r="B996" s="3"/>
     </row>
-    <row r="997" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A997" s="1"/>
       <c r="B997" s="3"/>
     </row>
-    <row r="998" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A998" s="1"/>
       <c r="B998" s="3"/>
     </row>
-    <row r="999" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A999" s="1"/>
       <c r="B999" s="3"/>
     </row>
-    <row r="1000" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1000" s="1"/>
       <c r="B1000" s="3"/>
     </row>
-    <row r="1001" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1001" s="1"/>
       <c r="B1001" s="3"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E351D2E0-2481-4F8A-AE94-7580A507B51E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FA74DA-2F35-417A-AEE1-71A22EAFA0FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17865" yWindow="4935" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 4" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Question</t>
   </si>
@@ -77,6 +77,24 @@
   </si>
   <si>
     <t>Week: 16/09/2019 to 20/09/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not a work day </t>
+  </si>
+  <si>
+    <t>We had a weekly meeting, discussed next sprint. See minutes for more information</t>
+  </si>
+  <si>
+    <t>Assisted Sheng Qin in the implementation code for the bid and landing page. Also attended weekly meeting</t>
+  </si>
+  <si>
+    <t>Implemented code for the bid and landing page. Also attended the meeting</t>
+  </si>
+  <si>
+    <t>Working on updating the wireframe for extra pages and updating designs on the wireframe.</t>
+  </si>
+  <si>
+    <t>Trying to ensure that he maintains concentration</t>
   </si>
 </sst>
 </file>
@@ -148,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -189,6 +207,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,9 +496,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -578,7 +599,9 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="G3" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
@@ -591,7 +614,9 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
@@ -604,7 +629,9 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
@@ -619,7 +646,9 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
@@ -632,7 +661,9 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
@@ -645,7 +676,9 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
@@ -660,7 +693,9 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
@@ -673,7 +708,9 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
@@ -686,7 +723,9 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
@@ -701,7 +740,9 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
@@ -714,7 +755,9 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
@@ -727,7 +770,9 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
@@ -742,7 +787,9 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
@@ -755,7 +802,9 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="G16" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
@@ -768,7 +817,9 @@
       <c r="D17" s="10"/>
       <c r="E17" s="9"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="G17" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FA74DA-2F35-417A-AEE1-71A22EAFA0FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8875DAD2-8E7A-4C16-B91B-8C1C54B1B988}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17865" yWindow="4935" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 4" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
   <si>
     <t>Question</t>
   </si>
@@ -96,6 +96,9 @@
   <si>
     <t>Trying to ensure that he maintains concentration</t>
   </si>
+  <si>
+    <t>Week: 23/09/2019 to 28/09/2019</t>
+  </si>
 </sst>
 </file>
 
@@ -166,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -185,14 +188,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -207,9 +210,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,9 +496,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -528,15 +528,21 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
+      <c r="J1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -570,15 +576,29 @@
       <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -599,11 +619,30 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
@@ -614,11 +653,28 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="G4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
@@ -629,11 +685,28 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="G5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
@@ -646,11 +719,30 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="H6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -661,11 +753,28 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="G7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -676,11 +785,28 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="G8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
@@ -693,11 +819,30 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="H9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -708,11 +853,28 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="G10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
@@ -723,11 +885,28 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="G11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
@@ -740,11 +919,30 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="H12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
@@ -755,11 +953,28 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="H13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -770,11 +985,28 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="H14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
@@ -783,103 +1015,156 @@
       <c r="B15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="H15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
     </row>
     <row r="16" spans="1:26" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+    </row>
+    <row r="17" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="G17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+    </row>
+    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="3"/>
     </row>
@@ -4760,7 +5045,15 @@
       <c r="B1001" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8875DAD2-8E7A-4C16-B91B-8C1C54B1B988}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D2D525-411F-45DC-8AED-3926F1DCCA40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="35">
   <si>
     <t>Question</t>
   </si>
@@ -99,12 +99,39 @@
   <si>
     <t>Week: 23/09/2019 to 28/09/2019</t>
   </si>
+  <si>
+    <t>Did up scheduling with Brendon and Da Eun</t>
+  </si>
+  <si>
+    <t>How to break down the task into smaller sub-tasks for the scheduling</t>
+  </si>
+  <si>
+    <t>Did up scheduling with Matthew and Da Eun</t>
+  </si>
+  <si>
+    <t>Breaking down tasks for scheduling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did up scheduling with Matthew and Brendon, made template slides for presentation </t>
+  </si>
+  <si>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pair programming with Sheng Qin. Updated 'add bid page process' page and 'add big' page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pair programming with Vittorio. Updated 'add bid page process' page and 'add big' page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting with team. Refer to minutes for further details </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -122,17 +149,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -169,15 +187,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -185,31 +199,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,107 +511,116 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="32" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31" style="4" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" style="4" customWidth="1"/>
-    <col min="7" max="9" width="29.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="26" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="14.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="16" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="5" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S2" s="1"/>
@@ -609,4459 +633,4549 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="10" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="12" t="s">
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
+      <c r="L3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="6" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
+      <c r="L4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="6" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
+      <c r="L5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="10" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="12" t="s">
+      <c r="H6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
+      <c r="L6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="6" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
+      <c r="L7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="6" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
+      <c r="L8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="10" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="12" t="s">
+      <c r="H9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
+      <c r="L9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="6" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
+      <c r="L10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="6" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
+      <c r="L11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="10" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="12" t="s">
+      <c r="H12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
+      <c r="L12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="10" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="6" t="s">
+      <c r="H13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
+      <c r="L13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="10" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="6" t="s">
+      <c r="H14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
+      <c r="L14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="10" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="12" t="s">
+      <c r="H15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
+      <c r="L15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="6" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
+      <c r="L16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="6" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
+      <c r="L17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
     </row>
     <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="3"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="3"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="3"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="3"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="3"/>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="3"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="3"/>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="3"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="3"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="3"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="3"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="3"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="3"/>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="3"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="3"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="3"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="3"/>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="3"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="3"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="3"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="3"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="3"/>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="3"/>
+      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="3"/>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="3"/>
+      <c r="B47" s="2"/>
     </row>
     <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="3"/>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="3"/>
+      <c r="B49" s="2"/>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="3"/>
+      <c r="B50" s="2"/>
     </row>
     <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="3"/>
+      <c r="B51" s="2"/>
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="3"/>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="3"/>
+      <c r="B53" s="2"/>
     </row>
     <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="3"/>
+      <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="3"/>
+      <c r="B55" s="2"/>
     </row>
     <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="3"/>
+      <c r="B56" s="2"/>
     </row>
     <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="3"/>
+      <c r="B57" s="2"/>
     </row>
     <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="3"/>
+      <c r="B58" s="2"/>
     </row>
     <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="3"/>
+      <c r="B59" s="2"/>
     </row>
     <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="3"/>
+      <c r="B60" s="2"/>
     </row>
     <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="3"/>
+      <c r="B61" s="2"/>
     </row>
     <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="3"/>
+      <c r="B62" s="2"/>
     </row>
     <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="3"/>
+      <c r="B63" s="2"/>
     </row>
     <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="3"/>
+      <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="3"/>
+      <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="3"/>
+      <c r="B66" s="2"/>
     </row>
     <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="3"/>
+      <c r="B67" s="2"/>
     </row>
     <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="3"/>
+      <c r="B68" s="2"/>
     </row>
     <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="3"/>
+      <c r="B69" s="2"/>
     </row>
     <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="3"/>
+      <c r="B70" s="2"/>
     </row>
     <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="3"/>
+      <c r="B71" s="2"/>
     </row>
     <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="3"/>
+      <c r="B72" s="2"/>
     </row>
     <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
-      <c r="B73" s="3"/>
+      <c r="B73" s="2"/>
     </row>
     <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="3"/>
+      <c r="B74" s="2"/>
     </row>
     <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="3"/>
+      <c r="B75" s="2"/>
     </row>
     <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="3"/>
+      <c r="B76" s="2"/>
     </row>
     <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="3"/>
+      <c r="B77" s="2"/>
     </row>
     <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="3"/>
+      <c r="B78" s="2"/>
     </row>
     <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="3"/>
+      <c r="B79" s="2"/>
     </row>
     <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="3"/>
+      <c r="B80" s="2"/>
     </row>
     <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
-      <c r="B81" s="3"/>
+      <c r="B81" s="2"/>
     </row>
     <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
-      <c r="B82" s="3"/>
+      <c r="B82" s="2"/>
     </row>
     <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
-      <c r="B83" s="3"/>
+      <c r="B83" s="2"/>
     </row>
     <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
-      <c r="B84" s="3"/>
+      <c r="B84" s="2"/>
     </row>
     <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
-      <c r="B85" s="3"/>
+      <c r="B85" s="2"/>
     </row>
     <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="3"/>
+      <c r="B86" s="2"/>
     </row>
     <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
-      <c r="B87" s="3"/>
+      <c r="B87" s="2"/>
     </row>
     <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="3"/>
+      <c r="B88" s="2"/>
     </row>
     <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="3"/>
+      <c r="B89" s="2"/>
     </row>
     <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="3"/>
+      <c r="B90" s="2"/>
     </row>
     <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="3"/>
+      <c r="B91" s="2"/>
     </row>
     <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="3"/>
+      <c r="B92" s="2"/>
     </row>
     <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
-      <c r="B93" s="3"/>
+      <c r="B93" s="2"/>
     </row>
     <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="3"/>
+      <c r="B94" s="2"/>
     </row>
     <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="3"/>
+      <c r="B95" s="2"/>
     </row>
     <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="3"/>
+      <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="3"/>
+      <c r="B97" s="2"/>
     </row>
     <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
-      <c r="B98" s="3"/>
+      <c r="B98" s="2"/>
     </row>
     <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
-      <c r="B99" s="3"/>
+      <c r="B99" s="2"/>
     </row>
     <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="3"/>
+      <c r="B100" s="2"/>
     </row>
     <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="3"/>
+      <c r="B101" s="2"/>
     </row>
     <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="3"/>
+      <c r="B102" s="2"/>
     </row>
     <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-      <c r="B103" s="3"/>
+      <c r="B103" s="2"/>
     </row>
     <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
-      <c r="B104" s="3"/>
+      <c r="B104" s="2"/>
     </row>
     <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
-      <c r="B105" s="3"/>
+      <c r="B105" s="2"/>
     </row>
     <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
-      <c r="B106" s="3"/>
+      <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
-      <c r="B107" s="3"/>
+      <c r="B107" s="2"/>
     </row>
     <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
-      <c r="B108" s="3"/>
+      <c r="B108" s="2"/>
     </row>
     <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109" s="3"/>
+      <c r="B109" s="2"/>
     </row>
     <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
-      <c r="B110" s="3"/>
+      <c r="B110" s="2"/>
     </row>
     <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
-      <c r="B111" s="3"/>
+      <c r="B111" s="2"/>
     </row>
     <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
-      <c r="B112" s="3"/>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
-      <c r="B113" s="3"/>
+      <c r="B113" s="2"/>
     </row>
     <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
-      <c r="B114" s="3"/>
+      <c r="B114" s="2"/>
     </row>
     <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
-      <c r="B115" s="3"/>
+      <c r="B115" s="2"/>
     </row>
     <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
-      <c r="B116" s="3"/>
+      <c r="B116" s="2"/>
     </row>
     <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
-      <c r="B117" s="3"/>
+      <c r="B117" s="2"/>
     </row>
     <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
-      <c r="B118" s="3"/>
+      <c r="B118" s="2"/>
     </row>
     <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
-      <c r="B119" s="3"/>
+      <c r="B119" s="2"/>
     </row>
     <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
-      <c r="B120" s="3"/>
+      <c r="B120" s="2"/>
     </row>
     <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
-      <c r="B121" s="3"/>
+      <c r="B121" s="2"/>
     </row>
     <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
-      <c r="B122" s="3"/>
+      <c r="B122" s="2"/>
     </row>
     <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
-      <c r="B123" s="3"/>
+      <c r="B123" s="2"/>
     </row>
     <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
-      <c r="B124" s="3"/>
+      <c r="B124" s="2"/>
     </row>
     <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
-      <c r="B125" s="3"/>
+      <c r="B125" s="2"/>
     </row>
     <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
-      <c r="B126" s="3"/>
+      <c r="B126" s="2"/>
     </row>
     <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
-      <c r="B127" s="3"/>
+      <c r="B127" s="2"/>
     </row>
     <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
-      <c r="B128" s="3"/>
+      <c r="B128" s="2"/>
     </row>
     <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
-      <c r="B129" s="3"/>
+      <c r="B129" s="2"/>
     </row>
     <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
-      <c r="B130" s="3"/>
+      <c r="B130" s="2"/>
     </row>
     <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
-      <c r="B131" s="3"/>
+      <c r="B131" s="2"/>
     </row>
     <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
-      <c r="B132" s="3"/>
+      <c r="B132" s="2"/>
     </row>
     <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
-      <c r="B133" s="3"/>
+      <c r="B133" s="2"/>
     </row>
     <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
-      <c r="B134" s="3"/>
+      <c r="B134" s="2"/>
     </row>
     <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
-      <c r="B135" s="3"/>
+      <c r="B135" s="2"/>
     </row>
     <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
-      <c r="B136" s="3"/>
+      <c r="B136" s="2"/>
     </row>
     <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
-      <c r="B137" s="3"/>
+      <c r="B137" s="2"/>
     </row>
     <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
-      <c r="B138" s="3"/>
+      <c r="B138" s="2"/>
     </row>
     <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
-      <c r="B139" s="3"/>
+      <c r="B139" s="2"/>
     </row>
     <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
-      <c r="B140" s="3"/>
+      <c r="B140" s="2"/>
     </row>
     <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
-      <c r="B141" s="3"/>
+      <c r="B141" s="2"/>
     </row>
     <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
-      <c r="B142" s="3"/>
+      <c r="B142" s="2"/>
     </row>
     <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
-      <c r="B143" s="3"/>
+      <c r="B143" s="2"/>
     </row>
     <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
-      <c r="B144" s="3"/>
+      <c r="B144" s="2"/>
     </row>
     <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
-      <c r="B145" s="3"/>
+      <c r="B145" s="2"/>
     </row>
     <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
-      <c r="B146" s="3"/>
+      <c r="B146" s="2"/>
     </row>
     <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
-      <c r="B147" s="3"/>
+      <c r="B147" s="2"/>
     </row>
     <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
-      <c r="B148" s="3"/>
+      <c r="B148" s="2"/>
     </row>
     <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
-      <c r="B149" s="3"/>
+      <c r="B149" s="2"/>
     </row>
     <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
-      <c r="B150" s="3"/>
+      <c r="B150" s="2"/>
     </row>
     <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
-      <c r="B151" s="3"/>
+      <c r="B151" s="2"/>
     </row>
     <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
-      <c r="B152" s="3"/>
+      <c r="B152" s="2"/>
     </row>
     <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
-      <c r="B153" s="3"/>
+      <c r="B153" s="2"/>
     </row>
     <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
-      <c r="B154" s="3"/>
+      <c r="B154" s="2"/>
     </row>
     <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
-      <c r="B155" s="3"/>
+      <c r="B155" s="2"/>
     </row>
     <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
-      <c r="B156" s="3"/>
+      <c r="B156" s="2"/>
     </row>
     <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
-      <c r="B157" s="3"/>
+      <c r="B157" s="2"/>
     </row>
     <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
-      <c r="B158" s="3"/>
+      <c r="B158" s="2"/>
     </row>
     <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
-      <c r="B159" s="3"/>
+      <c r="B159" s="2"/>
     </row>
     <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
-      <c r="B160" s="3"/>
+      <c r="B160" s="2"/>
     </row>
     <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
-      <c r="B161" s="3"/>
+      <c r="B161" s="2"/>
     </row>
     <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
-      <c r="B162" s="3"/>
+      <c r="B162" s="2"/>
     </row>
     <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
-      <c r="B163" s="3"/>
+      <c r="B163" s="2"/>
     </row>
     <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
-      <c r="B164" s="3"/>
+      <c r="B164" s="2"/>
     </row>
     <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
-      <c r="B165" s="3"/>
+      <c r="B165" s="2"/>
     </row>
     <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
-      <c r="B166" s="3"/>
+      <c r="B166" s="2"/>
     </row>
     <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
-      <c r="B167" s="3"/>
+      <c r="B167" s="2"/>
     </row>
     <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
-      <c r="B168" s="3"/>
+      <c r="B168" s="2"/>
     </row>
     <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
-      <c r="B169" s="3"/>
+      <c r="B169" s="2"/>
     </row>
     <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
-      <c r="B170" s="3"/>
+      <c r="B170" s="2"/>
     </row>
     <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
-      <c r="B171" s="3"/>
+      <c r="B171" s="2"/>
     </row>
     <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
-      <c r="B172" s="3"/>
+      <c r="B172" s="2"/>
     </row>
     <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
-      <c r="B173" s="3"/>
+      <c r="B173" s="2"/>
     </row>
     <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
-      <c r="B174" s="3"/>
+      <c r="B174" s="2"/>
     </row>
     <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
-      <c r="B175" s="3"/>
+      <c r="B175" s="2"/>
     </row>
     <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
-      <c r="B176" s="3"/>
+      <c r="B176" s="2"/>
     </row>
     <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
-      <c r="B177" s="3"/>
+      <c r="B177" s="2"/>
     </row>
     <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
-      <c r="B178" s="3"/>
+      <c r="B178" s="2"/>
     </row>
     <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
-      <c r="B179" s="3"/>
+      <c r="B179" s="2"/>
     </row>
     <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
-      <c r="B180" s="3"/>
+      <c r="B180" s="2"/>
     </row>
     <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
-      <c r="B181" s="3"/>
+      <c r="B181" s="2"/>
     </row>
     <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
-      <c r="B182" s="3"/>
+      <c r="B182" s="2"/>
     </row>
     <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
-      <c r="B183" s="3"/>
+      <c r="B183" s="2"/>
     </row>
     <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
-      <c r="B184" s="3"/>
+      <c r="B184" s="2"/>
     </row>
     <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
-      <c r="B185" s="3"/>
+      <c r="B185" s="2"/>
     </row>
     <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
-      <c r="B186" s="3"/>
+      <c r="B186" s="2"/>
     </row>
     <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
-      <c r="B187" s="3"/>
+      <c r="B187" s="2"/>
     </row>
     <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
-      <c r="B188" s="3"/>
+      <c r="B188" s="2"/>
     </row>
     <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
-      <c r="B189" s="3"/>
+      <c r="B189" s="2"/>
     </row>
     <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
-      <c r="B190" s="3"/>
+      <c r="B190" s="2"/>
     </row>
     <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
-      <c r="B191" s="3"/>
+      <c r="B191" s="2"/>
     </row>
     <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
-      <c r="B192" s="3"/>
+      <c r="B192" s="2"/>
     </row>
     <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
-      <c r="B193" s="3"/>
+      <c r="B193" s="2"/>
     </row>
     <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
-      <c r="B194" s="3"/>
+      <c r="B194" s="2"/>
     </row>
     <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
-      <c r="B195" s="3"/>
+      <c r="B195" s="2"/>
     </row>
     <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
-      <c r="B196" s="3"/>
+      <c r="B196" s="2"/>
     </row>
     <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
-      <c r="B197" s="3"/>
+      <c r="B197" s="2"/>
     </row>
     <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
-      <c r="B198" s="3"/>
+      <c r="B198" s="2"/>
     </row>
     <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
-      <c r="B199" s="3"/>
+      <c r="B199" s="2"/>
     </row>
     <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
-      <c r="B200" s="3"/>
+      <c r="B200" s="2"/>
     </row>
     <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
-      <c r="B201" s="3"/>
+      <c r="B201" s="2"/>
     </row>
     <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
-      <c r="B202" s="3"/>
+      <c r="B202" s="2"/>
     </row>
     <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
-      <c r="B203" s="3"/>
+      <c r="B203" s="2"/>
     </row>
     <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
-      <c r="B204" s="3"/>
+      <c r="B204" s="2"/>
     </row>
     <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
-      <c r="B205" s="3"/>
+      <c r="B205" s="2"/>
     </row>
     <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
-      <c r="B206" s="3"/>
+      <c r="B206" s="2"/>
     </row>
     <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
-      <c r="B207" s="3"/>
+      <c r="B207" s="2"/>
     </row>
     <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
-      <c r="B208" s="3"/>
+      <c r="B208" s="2"/>
     </row>
     <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
-      <c r="B209" s="3"/>
+      <c r="B209" s="2"/>
     </row>
     <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
-      <c r="B210" s="3"/>
+      <c r="B210" s="2"/>
     </row>
     <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
-      <c r="B211" s="3"/>
+      <c r="B211" s="2"/>
     </row>
     <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
-      <c r="B212" s="3"/>
+      <c r="B212" s="2"/>
     </row>
     <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
-      <c r="B213" s="3"/>
+      <c r="B213" s="2"/>
     </row>
     <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
-      <c r="B214" s="3"/>
+      <c r="B214" s="2"/>
     </row>
     <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
-      <c r="B215" s="3"/>
+      <c r="B215" s="2"/>
     </row>
     <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
-      <c r="B216" s="3"/>
+      <c r="B216" s="2"/>
     </row>
     <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
-      <c r="B217" s="3"/>
+      <c r="B217" s="2"/>
     </row>
     <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
-      <c r="B218" s="3"/>
+      <c r="B218" s="2"/>
     </row>
     <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
-      <c r="B219" s="3"/>
+      <c r="B219" s="2"/>
     </row>
     <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
-      <c r="B220" s="3"/>
+      <c r="B220" s="2"/>
     </row>
     <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
-      <c r="B221" s="3"/>
+      <c r="B221" s="2"/>
     </row>
     <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
-      <c r="B222" s="3"/>
+      <c r="B222" s="2"/>
     </row>
     <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
-      <c r="B223" s="3"/>
+      <c r="B223" s="2"/>
     </row>
     <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
-      <c r="B224" s="3"/>
+      <c r="B224" s="2"/>
     </row>
     <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
-      <c r="B225" s="3"/>
+      <c r="B225" s="2"/>
     </row>
     <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
-      <c r="B226" s="3"/>
+      <c r="B226" s="2"/>
     </row>
     <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
-      <c r="B227" s="3"/>
+      <c r="B227" s="2"/>
     </row>
     <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
-      <c r="B228" s="3"/>
+      <c r="B228" s="2"/>
     </row>
     <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
-      <c r="B229" s="3"/>
+      <c r="B229" s="2"/>
     </row>
     <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
-      <c r="B230" s="3"/>
+      <c r="B230" s="2"/>
     </row>
     <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
-      <c r="B231" s="3"/>
+      <c r="B231" s="2"/>
     </row>
     <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
-      <c r="B232" s="3"/>
+      <c r="B232" s="2"/>
     </row>
     <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
-      <c r="B233" s="3"/>
+      <c r="B233" s="2"/>
     </row>
     <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
-      <c r="B234" s="3"/>
+      <c r="B234" s="2"/>
     </row>
     <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
-      <c r="B235" s="3"/>
+      <c r="B235" s="2"/>
     </row>
     <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
-      <c r="B236" s="3"/>
+      <c r="B236" s="2"/>
     </row>
     <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
-      <c r="B237" s="3"/>
+      <c r="B237" s="2"/>
     </row>
     <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
-      <c r="B238" s="3"/>
+      <c r="B238" s="2"/>
     </row>
     <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
-      <c r="B239" s="3"/>
+      <c r="B239" s="2"/>
     </row>
     <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
-      <c r="B240" s="3"/>
+      <c r="B240" s="2"/>
     </row>
     <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
-      <c r="B241" s="3"/>
+      <c r="B241" s="2"/>
     </row>
     <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
-      <c r="B242" s="3"/>
+      <c r="B242" s="2"/>
     </row>
     <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
-      <c r="B243" s="3"/>
+      <c r="B243" s="2"/>
     </row>
     <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
-      <c r="B244" s="3"/>
+      <c r="B244" s="2"/>
     </row>
     <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
-      <c r="B245" s="3"/>
+      <c r="B245" s="2"/>
     </row>
     <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
-      <c r="B246" s="3"/>
+      <c r="B246" s="2"/>
     </row>
     <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
-      <c r="B247" s="3"/>
+      <c r="B247" s="2"/>
     </row>
     <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
-      <c r="B248" s="3"/>
+      <c r="B248" s="2"/>
     </row>
     <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
-      <c r="B249" s="3"/>
+      <c r="B249" s="2"/>
     </row>
     <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
-      <c r="B250" s="3"/>
+      <c r="B250" s="2"/>
     </row>
     <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
-      <c r="B251" s="3"/>
+      <c r="B251" s="2"/>
     </row>
     <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
-      <c r="B252" s="3"/>
+      <c r="B252" s="2"/>
     </row>
     <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
-      <c r="B253" s="3"/>
+      <c r="B253" s="2"/>
     </row>
     <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
-      <c r="B254" s="3"/>
+      <c r="B254" s="2"/>
     </row>
     <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
-      <c r="B255" s="3"/>
+      <c r="B255" s="2"/>
     </row>
     <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
-      <c r="B256" s="3"/>
+      <c r="B256" s="2"/>
     </row>
     <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
-      <c r="B257" s="3"/>
+      <c r="B257" s="2"/>
     </row>
     <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
-      <c r="B258" s="3"/>
+      <c r="B258" s="2"/>
     </row>
     <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
-      <c r="B259" s="3"/>
+      <c r="B259" s="2"/>
     </row>
     <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
-      <c r="B260" s="3"/>
+      <c r="B260" s="2"/>
     </row>
     <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
-      <c r="B261" s="3"/>
+      <c r="B261" s="2"/>
     </row>
     <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
-      <c r="B262" s="3"/>
+      <c r="B262" s="2"/>
     </row>
     <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
-      <c r="B263" s="3"/>
+      <c r="B263" s="2"/>
     </row>
     <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
-      <c r="B264" s="3"/>
+      <c r="B264" s="2"/>
     </row>
     <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
-      <c r="B265" s="3"/>
+      <c r="B265" s="2"/>
     </row>
     <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
-      <c r="B266" s="3"/>
+      <c r="B266" s="2"/>
     </row>
     <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
-      <c r="B267" s="3"/>
+      <c r="B267" s="2"/>
     </row>
     <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
-      <c r="B268" s="3"/>
+      <c r="B268" s="2"/>
     </row>
     <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
-      <c r="B269" s="3"/>
+      <c r="B269" s="2"/>
     </row>
     <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
-      <c r="B270" s="3"/>
+      <c r="B270" s="2"/>
     </row>
     <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
-      <c r="B271" s="3"/>
+      <c r="B271" s="2"/>
     </row>
     <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
-      <c r="B272" s="3"/>
+      <c r="B272" s="2"/>
     </row>
     <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
-      <c r="B273" s="3"/>
+      <c r="B273" s="2"/>
     </row>
     <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
-      <c r="B274" s="3"/>
+      <c r="B274" s="2"/>
     </row>
     <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
-      <c r="B275" s="3"/>
+      <c r="B275" s="2"/>
     </row>
     <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
-      <c r="B276" s="3"/>
+      <c r="B276" s="2"/>
     </row>
     <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
-      <c r="B277" s="3"/>
+      <c r="B277" s="2"/>
     </row>
     <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
-      <c r="B278" s="3"/>
+      <c r="B278" s="2"/>
     </row>
     <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
-      <c r="B279" s="3"/>
+      <c r="B279" s="2"/>
     </row>
     <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
-      <c r="B280" s="3"/>
+      <c r="B280" s="2"/>
     </row>
     <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
-      <c r="B281" s="3"/>
+      <c r="B281" s="2"/>
     </row>
     <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
-      <c r="B282" s="3"/>
+      <c r="B282" s="2"/>
     </row>
     <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
-      <c r="B283" s="3"/>
+      <c r="B283" s="2"/>
     </row>
     <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
-      <c r="B284" s="3"/>
+      <c r="B284" s="2"/>
     </row>
     <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
-      <c r="B285" s="3"/>
+      <c r="B285" s="2"/>
     </row>
     <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
-      <c r="B286" s="3"/>
+      <c r="B286" s="2"/>
     </row>
     <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
-      <c r="B287" s="3"/>
+      <c r="B287" s="2"/>
     </row>
     <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
-      <c r="B288" s="3"/>
+      <c r="B288" s="2"/>
     </row>
     <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
-      <c r="B289" s="3"/>
+      <c r="B289" s="2"/>
     </row>
     <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
-      <c r="B290" s="3"/>
+      <c r="B290" s="2"/>
     </row>
     <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
-      <c r="B291" s="3"/>
+      <c r="B291" s="2"/>
     </row>
     <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
-      <c r="B292" s="3"/>
+      <c r="B292" s="2"/>
     </row>
     <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
-      <c r="B293" s="3"/>
+      <c r="B293" s="2"/>
     </row>
     <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
-      <c r="B294" s="3"/>
+      <c r="B294" s="2"/>
     </row>
     <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
-      <c r="B295" s="3"/>
+      <c r="B295" s="2"/>
     </row>
     <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
-      <c r="B296" s="3"/>
+      <c r="B296" s="2"/>
     </row>
     <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
-      <c r="B297" s="3"/>
+      <c r="B297" s="2"/>
     </row>
     <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
-      <c r="B298" s="3"/>
+      <c r="B298" s="2"/>
     </row>
     <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
-      <c r="B299" s="3"/>
+      <c r="B299" s="2"/>
     </row>
     <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
-      <c r="B300" s="3"/>
+      <c r="B300" s="2"/>
     </row>
     <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
-      <c r="B301" s="3"/>
+      <c r="B301" s="2"/>
     </row>
     <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
-      <c r="B302" s="3"/>
+      <c r="B302" s="2"/>
     </row>
     <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
-      <c r="B303" s="3"/>
+      <c r="B303" s="2"/>
     </row>
     <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
-      <c r="B304" s="3"/>
+      <c r="B304" s="2"/>
     </row>
     <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
-      <c r="B305" s="3"/>
+      <c r="B305" s="2"/>
     </row>
     <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
-      <c r="B306" s="3"/>
+      <c r="B306" s="2"/>
     </row>
     <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
-      <c r="B307" s="3"/>
+      <c r="B307" s="2"/>
     </row>
     <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
-      <c r="B308" s="3"/>
+      <c r="B308" s="2"/>
     </row>
     <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
-      <c r="B309" s="3"/>
+      <c r="B309" s="2"/>
     </row>
     <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
-      <c r="B310" s="3"/>
+      <c r="B310" s="2"/>
     </row>
     <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
-      <c r="B311" s="3"/>
+      <c r="B311" s="2"/>
     </row>
     <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
-      <c r="B312" s="3"/>
+      <c r="B312" s="2"/>
     </row>
     <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
-      <c r="B313" s="3"/>
+      <c r="B313" s="2"/>
     </row>
     <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
-      <c r="B314" s="3"/>
+      <c r="B314" s="2"/>
     </row>
     <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
-      <c r="B315" s="3"/>
+      <c r="B315" s="2"/>
     </row>
     <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
-      <c r="B316" s="3"/>
+      <c r="B316" s="2"/>
     </row>
     <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
-      <c r="B317" s="3"/>
+      <c r="B317" s="2"/>
     </row>
     <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
-      <c r="B318" s="3"/>
+      <c r="B318" s="2"/>
     </row>
     <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
-      <c r="B319" s="3"/>
+      <c r="B319" s="2"/>
     </row>
     <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
-      <c r="B320" s="3"/>
+      <c r="B320" s="2"/>
     </row>
     <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
-      <c r="B321" s="3"/>
+      <c r="B321" s="2"/>
     </row>
     <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
-      <c r="B322" s="3"/>
+      <c r="B322" s="2"/>
     </row>
     <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
-      <c r="B323" s="3"/>
+      <c r="B323" s="2"/>
     </row>
     <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
-      <c r="B324" s="3"/>
+      <c r="B324" s="2"/>
     </row>
     <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
-      <c r="B325" s="3"/>
+      <c r="B325" s="2"/>
     </row>
     <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
-      <c r="B326" s="3"/>
+      <c r="B326" s="2"/>
     </row>
     <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
-      <c r="B327" s="3"/>
+      <c r="B327" s="2"/>
     </row>
     <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
-      <c r="B328" s="3"/>
+      <c r="B328" s="2"/>
     </row>
     <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
-      <c r="B329" s="3"/>
+      <c r="B329" s="2"/>
     </row>
     <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
-      <c r="B330" s="3"/>
+      <c r="B330" s="2"/>
     </row>
     <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
-      <c r="B331" s="3"/>
+      <c r="B331" s="2"/>
     </row>
     <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
-      <c r="B332" s="3"/>
+      <c r="B332" s="2"/>
     </row>
     <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
-      <c r="B333" s="3"/>
+      <c r="B333" s="2"/>
     </row>
     <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
-      <c r="B334" s="3"/>
+      <c r="B334" s="2"/>
     </row>
     <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
-      <c r="B335" s="3"/>
+      <c r="B335" s="2"/>
     </row>
     <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
-      <c r="B336" s="3"/>
+      <c r="B336" s="2"/>
     </row>
     <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
-      <c r="B337" s="3"/>
+      <c r="B337" s="2"/>
     </row>
     <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
-      <c r="B338" s="3"/>
+      <c r="B338" s="2"/>
     </row>
     <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
-      <c r="B339" s="3"/>
+      <c r="B339" s="2"/>
     </row>
     <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
-      <c r="B340" s="3"/>
+      <c r="B340" s="2"/>
     </row>
     <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
-      <c r="B341" s="3"/>
+      <c r="B341" s="2"/>
     </row>
     <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
-      <c r="B342" s="3"/>
+      <c r="B342" s="2"/>
     </row>
     <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
-      <c r="B343" s="3"/>
+      <c r="B343" s="2"/>
     </row>
     <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
-      <c r="B344" s="3"/>
+      <c r="B344" s="2"/>
     </row>
     <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
-      <c r="B345" s="3"/>
+      <c r="B345" s="2"/>
     </row>
     <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
-      <c r="B346" s="3"/>
+      <c r="B346" s="2"/>
     </row>
     <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
-      <c r="B347" s="3"/>
+      <c r="B347" s="2"/>
     </row>
     <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
-      <c r="B348" s="3"/>
+      <c r="B348" s="2"/>
     </row>
     <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
-      <c r="B349" s="3"/>
+      <c r="B349" s="2"/>
     </row>
     <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
-      <c r="B350" s="3"/>
+      <c r="B350" s="2"/>
     </row>
     <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
-      <c r="B351" s="3"/>
+      <c r="B351" s="2"/>
     </row>
     <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
-      <c r="B352" s="3"/>
+      <c r="B352" s="2"/>
     </row>
     <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
-      <c r="B353" s="3"/>
+      <c r="B353" s="2"/>
     </row>
     <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
-      <c r="B354" s="3"/>
+      <c r="B354" s="2"/>
     </row>
     <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
-      <c r="B355" s="3"/>
+      <c r="B355" s="2"/>
     </row>
     <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
-      <c r="B356" s="3"/>
+      <c r="B356" s="2"/>
     </row>
     <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
-      <c r="B357" s="3"/>
+      <c r="B357" s="2"/>
     </row>
     <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
-      <c r="B358" s="3"/>
+      <c r="B358" s="2"/>
     </row>
     <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
-      <c r="B359" s="3"/>
+      <c r="B359" s="2"/>
     </row>
     <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
-      <c r="B360" s="3"/>
+      <c r="B360" s="2"/>
     </row>
     <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
-      <c r="B361" s="3"/>
+      <c r="B361" s="2"/>
     </row>
     <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
-      <c r="B362" s="3"/>
+      <c r="B362" s="2"/>
     </row>
     <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
-      <c r="B363" s="3"/>
+      <c r="B363" s="2"/>
     </row>
     <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
-      <c r="B364" s="3"/>
+      <c r="B364" s="2"/>
     </row>
     <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
-      <c r="B365" s="3"/>
+      <c r="B365" s="2"/>
     </row>
     <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
-      <c r="B366" s="3"/>
+      <c r="B366" s="2"/>
     </row>
     <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
-      <c r="B367" s="3"/>
+      <c r="B367" s="2"/>
     </row>
     <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
-      <c r="B368" s="3"/>
+      <c r="B368" s="2"/>
     </row>
     <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
-      <c r="B369" s="3"/>
+      <c r="B369" s="2"/>
     </row>
     <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
-      <c r="B370" s="3"/>
+      <c r="B370" s="2"/>
     </row>
     <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
-      <c r="B371" s="3"/>
+      <c r="B371" s="2"/>
     </row>
     <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
-      <c r="B372" s="3"/>
+      <c r="B372" s="2"/>
     </row>
     <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
-      <c r="B373" s="3"/>
+      <c r="B373" s="2"/>
     </row>
     <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
-      <c r="B374" s="3"/>
+      <c r="B374" s="2"/>
     </row>
     <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
-      <c r="B375" s="3"/>
+      <c r="B375" s="2"/>
     </row>
     <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
-      <c r="B376" s="3"/>
+      <c r="B376" s="2"/>
     </row>
     <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
-      <c r="B377" s="3"/>
+      <c r="B377" s="2"/>
     </row>
     <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
-      <c r="B378" s="3"/>
+      <c r="B378" s="2"/>
     </row>
     <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
-      <c r="B379" s="3"/>
+      <c r="B379" s="2"/>
     </row>
     <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
-      <c r="B380" s="3"/>
+      <c r="B380" s="2"/>
     </row>
     <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
-      <c r="B381" s="3"/>
+      <c r="B381" s="2"/>
     </row>
     <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
-      <c r="B382" s="3"/>
+      <c r="B382" s="2"/>
     </row>
     <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
-      <c r="B383" s="3"/>
+      <c r="B383" s="2"/>
     </row>
     <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
-      <c r="B384" s="3"/>
+      <c r="B384" s="2"/>
     </row>
     <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
-      <c r="B385" s="3"/>
+      <c r="B385" s="2"/>
     </row>
     <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
-      <c r="B386" s="3"/>
+      <c r="B386" s="2"/>
     </row>
     <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
-      <c r="B387" s="3"/>
+      <c r="B387" s="2"/>
     </row>
     <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
-      <c r="B388" s="3"/>
+      <c r="B388" s="2"/>
     </row>
     <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
-      <c r="B389" s="3"/>
+      <c r="B389" s="2"/>
     </row>
     <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
-      <c r="B390" s="3"/>
+      <c r="B390" s="2"/>
     </row>
     <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
-      <c r="B391" s="3"/>
+      <c r="B391" s="2"/>
     </row>
     <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
-      <c r="B392" s="3"/>
+      <c r="B392" s="2"/>
     </row>
     <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
-      <c r="B393" s="3"/>
+      <c r="B393" s="2"/>
     </row>
     <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
-      <c r="B394" s="3"/>
+      <c r="B394" s="2"/>
     </row>
     <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
-      <c r="B395" s="3"/>
+      <c r="B395" s="2"/>
     </row>
     <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
-      <c r="B396" s="3"/>
+      <c r="B396" s="2"/>
     </row>
     <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
-      <c r="B397" s="3"/>
+      <c r="B397" s="2"/>
     </row>
     <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
-      <c r="B398" s="3"/>
+      <c r="B398" s="2"/>
     </row>
     <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
-      <c r="B399" s="3"/>
+      <c r="B399" s="2"/>
     </row>
     <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
-      <c r="B400" s="3"/>
+      <c r="B400" s="2"/>
     </row>
     <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
-      <c r="B401" s="3"/>
+      <c r="B401" s="2"/>
     </row>
     <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
-      <c r="B402" s="3"/>
+      <c r="B402" s="2"/>
     </row>
     <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
-      <c r="B403" s="3"/>
+      <c r="B403" s="2"/>
     </row>
     <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
-      <c r="B404" s="3"/>
+      <c r="B404" s="2"/>
     </row>
     <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
-      <c r="B405" s="3"/>
+      <c r="B405" s="2"/>
     </row>
     <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
-      <c r="B406" s="3"/>
+      <c r="B406" s="2"/>
     </row>
     <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
-      <c r="B407" s="3"/>
+      <c r="B407" s="2"/>
     </row>
     <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
-      <c r="B408" s="3"/>
+      <c r="B408" s="2"/>
     </row>
     <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
-      <c r="B409" s="3"/>
+      <c r="B409" s="2"/>
     </row>
     <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
-      <c r="B410" s="3"/>
+      <c r="B410" s="2"/>
     </row>
     <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
-      <c r="B411" s="3"/>
+      <c r="B411" s="2"/>
     </row>
     <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
-      <c r="B412" s="3"/>
+      <c r="B412" s="2"/>
     </row>
     <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
-      <c r="B413" s="3"/>
+      <c r="B413" s="2"/>
     </row>
     <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
-      <c r="B414" s="3"/>
+      <c r="B414" s="2"/>
     </row>
     <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
-      <c r="B415" s="3"/>
+      <c r="B415" s="2"/>
     </row>
     <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
-      <c r="B416" s="3"/>
+      <c r="B416" s="2"/>
     </row>
     <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
-      <c r="B417" s="3"/>
+      <c r="B417" s="2"/>
     </row>
     <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
-      <c r="B418" s="3"/>
+      <c r="B418" s="2"/>
     </row>
     <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
-      <c r="B419" s="3"/>
+      <c r="B419" s="2"/>
     </row>
     <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
-      <c r="B420" s="3"/>
+      <c r="B420" s="2"/>
     </row>
     <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
-      <c r="B421" s="3"/>
+      <c r="B421" s="2"/>
     </row>
     <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
-      <c r="B422" s="3"/>
+      <c r="B422" s="2"/>
     </row>
     <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
-      <c r="B423" s="3"/>
+      <c r="B423" s="2"/>
     </row>
     <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
-      <c r="B424" s="3"/>
+      <c r="B424" s="2"/>
     </row>
     <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
-      <c r="B425" s="3"/>
+      <c r="B425" s="2"/>
     </row>
     <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
-      <c r="B426" s="3"/>
+      <c r="B426" s="2"/>
     </row>
     <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
-      <c r="B427" s="3"/>
+      <c r="B427" s="2"/>
     </row>
     <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
-      <c r="B428" s="3"/>
+      <c r="B428" s="2"/>
     </row>
     <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
-      <c r="B429" s="3"/>
+      <c r="B429" s="2"/>
     </row>
     <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
-      <c r="B430" s="3"/>
+      <c r="B430" s="2"/>
     </row>
     <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
-      <c r="B431" s="3"/>
+      <c r="B431" s="2"/>
     </row>
     <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
-      <c r="B432" s="3"/>
+      <c r="B432" s="2"/>
     </row>
     <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
-      <c r="B433" s="3"/>
+      <c r="B433" s="2"/>
     </row>
     <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
-      <c r="B434" s="3"/>
+      <c r="B434" s="2"/>
     </row>
     <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
-      <c r="B435" s="3"/>
+      <c r="B435" s="2"/>
     </row>
     <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
-      <c r="B436" s="3"/>
+      <c r="B436" s="2"/>
     </row>
     <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
-      <c r="B437" s="3"/>
+      <c r="B437" s="2"/>
     </row>
     <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
-      <c r="B438" s="3"/>
+      <c r="B438" s="2"/>
     </row>
     <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
-      <c r="B439" s="3"/>
+      <c r="B439" s="2"/>
     </row>
     <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
-      <c r="B440" s="3"/>
+      <c r="B440" s="2"/>
     </row>
     <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
-      <c r="B441" s="3"/>
+      <c r="B441" s="2"/>
     </row>
     <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
-      <c r="B442" s="3"/>
+      <c r="B442" s="2"/>
     </row>
     <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
-      <c r="B443" s="3"/>
+      <c r="B443" s="2"/>
     </row>
     <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
-      <c r="B444" s="3"/>
+      <c r="B444" s="2"/>
     </row>
     <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
-      <c r="B445" s="3"/>
+      <c r="B445" s="2"/>
     </row>
     <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
-      <c r="B446" s="3"/>
+      <c r="B446" s="2"/>
     </row>
     <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
-      <c r="B447" s="3"/>
+      <c r="B447" s="2"/>
     </row>
     <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
-      <c r="B448" s="3"/>
+      <c r="B448" s="2"/>
     </row>
     <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
-      <c r="B449" s="3"/>
+      <c r="B449" s="2"/>
     </row>
     <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
-      <c r="B450" s="3"/>
+      <c r="B450" s="2"/>
     </row>
     <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
-      <c r="B451" s="3"/>
+      <c r="B451" s="2"/>
     </row>
     <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
-      <c r="B452" s="3"/>
+      <c r="B452" s="2"/>
     </row>
     <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
-      <c r="B453" s="3"/>
+      <c r="B453" s="2"/>
     </row>
     <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
-      <c r="B454" s="3"/>
+      <c r="B454" s="2"/>
     </row>
     <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
-      <c r="B455" s="3"/>
+      <c r="B455" s="2"/>
     </row>
     <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
-      <c r="B456" s="3"/>
+      <c r="B456" s="2"/>
     </row>
     <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
-      <c r="B457" s="3"/>
+      <c r="B457" s="2"/>
     </row>
     <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
-      <c r="B458" s="3"/>
+      <c r="B458" s="2"/>
     </row>
     <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
-      <c r="B459" s="3"/>
+      <c r="B459" s="2"/>
     </row>
     <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
-      <c r="B460" s="3"/>
+      <c r="B460" s="2"/>
     </row>
     <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
-      <c r="B461" s="3"/>
+      <c r="B461" s="2"/>
     </row>
     <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
-      <c r="B462" s="3"/>
+      <c r="B462" s="2"/>
     </row>
     <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
-      <c r="B463" s="3"/>
+      <c r="B463" s="2"/>
     </row>
     <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
-      <c r="B464" s="3"/>
+      <c r="B464" s="2"/>
     </row>
     <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
-      <c r="B465" s="3"/>
+      <c r="B465" s="2"/>
     </row>
     <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
-      <c r="B466" s="3"/>
+      <c r="B466" s="2"/>
     </row>
     <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
-      <c r="B467" s="3"/>
+      <c r="B467" s="2"/>
     </row>
     <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
-      <c r="B468" s="3"/>
+      <c r="B468" s="2"/>
     </row>
     <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
-      <c r="B469" s="3"/>
+      <c r="B469" s="2"/>
     </row>
     <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
-      <c r="B470" s="3"/>
+      <c r="B470" s="2"/>
     </row>
     <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
-      <c r="B471" s="3"/>
+      <c r="B471" s="2"/>
     </row>
     <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
-      <c r="B472" s="3"/>
+      <c r="B472" s="2"/>
     </row>
     <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
-      <c r="B473" s="3"/>
+      <c r="B473" s="2"/>
     </row>
     <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
-      <c r="B474" s="3"/>
+      <c r="B474" s="2"/>
     </row>
     <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
-      <c r="B475" s="3"/>
+      <c r="B475" s="2"/>
     </row>
     <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
-      <c r="B476" s="3"/>
+      <c r="B476" s="2"/>
     </row>
     <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
-      <c r="B477" s="3"/>
+      <c r="B477" s="2"/>
     </row>
     <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
-      <c r="B478" s="3"/>
+      <c r="B478" s="2"/>
     </row>
     <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
-      <c r="B479" s="3"/>
+      <c r="B479" s="2"/>
     </row>
     <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
-      <c r="B480" s="3"/>
+      <c r="B480" s="2"/>
     </row>
     <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
-      <c r="B481" s="3"/>
+      <c r="B481" s="2"/>
     </row>
     <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
-      <c r="B482" s="3"/>
+      <c r="B482" s="2"/>
     </row>
     <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
-      <c r="B483" s="3"/>
+      <c r="B483" s="2"/>
     </row>
     <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
-      <c r="B484" s="3"/>
+      <c r="B484" s="2"/>
     </row>
     <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
-      <c r="B485" s="3"/>
+      <c r="B485" s="2"/>
     </row>
     <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
-      <c r="B486" s="3"/>
+      <c r="B486" s="2"/>
     </row>
     <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
-      <c r="B487" s="3"/>
+      <c r="B487" s="2"/>
     </row>
     <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
-      <c r="B488" s="3"/>
+      <c r="B488" s="2"/>
     </row>
     <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
-      <c r="B489" s="3"/>
+      <c r="B489" s="2"/>
     </row>
     <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
-      <c r="B490" s="3"/>
+      <c r="B490" s="2"/>
     </row>
     <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
-      <c r="B491" s="3"/>
+      <c r="B491" s="2"/>
     </row>
     <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
-      <c r="B492" s="3"/>
+      <c r="B492" s="2"/>
     </row>
     <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
-      <c r="B493" s="3"/>
+      <c r="B493" s="2"/>
     </row>
     <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
-      <c r="B494" s="3"/>
+      <c r="B494" s="2"/>
     </row>
     <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
-      <c r="B495" s="3"/>
+      <c r="B495" s="2"/>
     </row>
     <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
-      <c r="B496" s="3"/>
+      <c r="B496" s="2"/>
     </row>
     <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
-      <c r="B497" s="3"/>
+      <c r="B497" s="2"/>
     </row>
     <row r="498" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
-      <c r="B498" s="3"/>
+      <c r="B498" s="2"/>
     </row>
     <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
-      <c r="B499" s="3"/>
+      <c r="B499" s="2"/>
     </row>
     <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
-      <c r="B500" s="3"/>
+      <c r="B500" s="2"/>
     </row>
     <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
-      <c r="B501" s="3"/>
+      <c r="B501" s="2"/>
     </row>
     <row r="502" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
-      <c r="B502" s="3"/>
+      <c r="B502" s="2"/>
     </row>
     <row r="503" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
-      <c r="B503" s="3"/>
+      <c r="B503" s="2"/>
     </row>
     <row r="504" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
-      <c r="B504" s="3"/>
+      <c r="B504" s="2"/>
     </row>
     <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
-      <c r="B505" s="3"/>
+      <c r="B505" s="2"/>
     </row>
     <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
-      <c r="B506" s="3"/>
+      <c r="B506" s="2"/>
     </row>
     <row r="507" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
-      <c r="B507" s="3"/>
+      <c r="B507" s="2"/>
     </row>
     <row r="508" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
-      <c r="B508" s="3"/>
+      <c r="B508" s="2"/>
     </row>
     <row r="509" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
-      <c r="B509" s="3"/>
+      <c r="B509" s="2"/>
     </row>
     <row r="510" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
-      <c r="B510" s="3"/>
+      <c r="B510" s="2"/>
     </row>
     <row r="511" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A511" s="1"/>
-      <c r="B511" s="3"/>
+      <c r="B511" s="2"/>
     </row>
     <row r="512" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
-      <c r="B512" s="3"/>
+      <c r="B512" s="2"/>
     </row>
     <row r="513" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A513" s="1"/>
-      <c r="B513" s="3"/>
+      <c r="B513" s="2"/>
     </row>
     <row r="514" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A514" s="1"/>
-      <c r="B514" s="3"/>
+      <c r="B514" s="2"/>
     </row>
     <row r="515" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A515" s="1"/>
-      <c r="B515" s="3"/>
+      <c r="B515" s="2"/>
     </row>
     <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
-      <c r="B516" s="3"/>
+      <c r="B516" s="2"/>
     </row>
     <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
-      <c r="B517" s="3"/>
+      <c r="B517" s="2"/>
     </row>
     <row r="518" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A518" s="1"/>
-      <c r="B518" s="3"/>
+      <c r="B518" s="2"/>
     </row>
     <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
-      <c r="B519" s="3"/>
+      <c r="B519" s="2"/>
     </row>
     <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A520" s="1"/>
-      <c r="B520" s="3"/>
+      <c r="B520" s="2"/>
     </row>
     <row r="521" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
-      <c r="B521" s="3"/>
+      <c r="B521" s="2"/>
     </row>
     <row r="522" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A522" s="1"/>
-      <c r="B522" s="3"/>
+      <c r="B522" s="2"/>
     </row>
     <row r="523" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
-      <c r="B523" s="3"/>
+      <c r="B523" s="2"/>
     </row>
     <row r="524" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
-      <c r="B524" s="3"/>
+      <c r="B524" s="2"/>
     </row>
     <row r="525" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A525" s="1"/>
-      <c r="B525" s="3"/>
+      <c r="B525" s="2"/>
     </row>
     <row r="526" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
-      <c r="B526" s="3"/>
+      <c r="B526" s="2"/>
     </row>
     <row r="527" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A527" s="1"/>
-      <c r="B527" s="3"/>
+      <c r="B527" s="2"/>
     </row>
     <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
-      <c r="B528" s="3"/>
+      <c r="B528" s="2"/>
     </row>
     <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A529" s="1"/>
-      <c r="B529" s="3"/>
+      <c r="B529" s="2"/>
     </row>
     <row r="530" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
-      <c r="B530" s="3"/>
+      <c r="B530" s="2"/>
     </row>
     <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
-      <c r="B531" s="3"/>
+      <c r="B531" s="2"/>
     </row>
     <row r="532" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
-      <c r="B532" s="3"/>
+      <c r="B532" s="2"/>
     </row>
     <row r="533" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A533" s="1"/>
-      <c r="B533" s="3"/>
+      <c r="B533" s="2"/>
     </row>
     <row r="534" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A534" s="1"/>
-      <c r="B534" s="3"/>
+      <c r="B534" s="2"/>
     </row>
     <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
-      <c r="B535" s="3"/>
+      <c r="B535" s="2"/>
     </row>
     <row r="536" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A536" s="1"/>
-      <c r="B536" s="3"/>
+      <c r="B536" s="2"/>
     </row>
     <row r="537" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
-      <c r="B537" s="3"/>
+      <c r="B537" s="2"/>
     </row>
     <row r="538" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A538" s="1"/>
-      <c r="B538" s="3"/>
+      <c r="B538" s="2"/>
     </row>
     <row r="539" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
-      <c r="B539" s="3"/>
+      <c r="B539" s="2"/>
     </row>
     <row r="540" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A540" s="1"/>
-      <c r="B540" s="3"/>
+      <c r="B540" s="2"/>
     </row>
     <row r="541" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
-      <c r="B541" s="3"/>
+      <c r="B541" s="2"/>
     </row>
     <row r="542" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
-      <c r="B542" s="3"/>
+      <c r="B542" s="2"/>
     </row>
     <row r="543" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A543" s="1"/>
-      <c r="B543" s="3"/>
+      <c r="B543" s="2"/>
     </row>
     <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
-      <c r="B544" s="3"/>
+      <c r="B544" s="2"/>
     </row>
     <row r="545" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A545" s="1"/>
-      <c r="B545" s="3"/>
+      <c r="B545" s="2"/>
     </row>
     <row r="546" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
-      <c r="B546" s="3"/>
+      <c r="B546" s="2"/>
     </row>
     <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
-      <c r="B547" s="3"/>
+      <c r="B547" s="2"/>
     </row>
     <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
-      <c r="B548" s="3"/>
+      <c r="B548" s="2"/>
     </row>
     <row r="549" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A549" s="1"/>
-      <c r="B549" s="3"/>
+      <c r="B549" s="2"/>
     </row>
     <row r="550" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
-      <c r="B550" s="3"/>
+      <c r="B550" s="2"/>
     </row>
     <row r="551" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A551" s="1"/>
-      <c r="B551" s="3"/>
+      <c r="B551" s="2"/>
     </row>
     <row r="552" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A552" s="1"/>
-      <c r="B552" s="3"/>
+      <c r="B552" s="2"/>
     </row>
     <row r="553" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
-      <c r="B553" s="3"/>
+      <c r="B553" s="2"/>
     </row>
     <row r="554" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A554" s="1"/>
-      <c r="B554" s="3"/>
+      <c r="B554" s="2"/>
     </row>
     <row r="555" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
-      <c r="B555" s="3"/>
+      <c r="B555" s="2"/>
     </row>
     <row r="556" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
-      <c r="B556" s="3"/>
+      <c r="B556" s="2"/>
     </row>
     <row r="557" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A557" s="1"/>
-      <c r="B557" s="3"/>
+      <c r="B557" s="2"/>
     </row>
     <row r="558" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A558" s="1"/>
-      <c r="B558" s="3"/>
+      <c r="B558" s="2"/>
     </row>
     <row r="559" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A559" s="1"/>
-      <c r="B559" s="3"/>
+      <c r="B559" s="2"/>
     </row>
     <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A560" s="1"/>
-      <c r="B560" s="3"/>
+      <c r="B560" s="2"/>
     </row>
     <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
-      <c r="B561" s="3"/>
+      <c r="B561" s="2"/>
     </row>
     <row r="562" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
-      <c r="B562" s="3"/>
+      <c r="B562" s="2"/>
     </row>
     <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A563" s="1"/>
-      <c r="B563" s="3"/>
+      <c r="B563" s="2"/>
     </row>
     <row r="564" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
-      <c r="B564" s="3"/>
+      <c r="B564" s="2"/>
     </row>
     <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A565" s="1"/>
-      <c r="B565" s="3"/>
+      <c r="B565" s="2"/>
     </row>
     <row r="566" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
-      <c r="B566" s="3"/>
+      <c r="B566" s="2"/>
     </row>
     <row r="567" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
-      <c r="B567" s="3"/>
+      <c r="B567" s="2"/>
     </row>
     <row r="568" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A568" s="1"/>
-      <c r="B568" s="3"/>
+      <c r="B568" s="2"/>
     </row>
     <row r="569" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
-      <c r="B569" s="3"/>
+      <c r="B569" s="2"/>
     </row>
     <row r="570" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
-      <c r="B570" s="3"/>
+      <c r="B570" s="2"/>
     </row>
     <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
-      <c r="B571" s="3"/>
+      <c r="B571" s="2"/>
     </row>
     <row r="572" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
-      <c r="B572" s="3"/>
+      <c r="B572" s="2"/>
     </row>
     <row r="573" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
-      <c r="B573" s="3"/>
+      <c r="B573" s="2"/>
     </row>
     <row r="574" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A574" s="1"/>
-      <c r="B574" s="3"/>
+      <c r="B574" s="2"/>
     </row>
     <row r="575" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A575" s="1"/>
-      <c r="B575" s="3"/>
+      <c r="B575" s="2"/>
     </row>
     <row r="576" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A576" s="1"/>
-      <c r="B576" s="3"/>
+      <c r="B576" s="2"/>
     </row>
     <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A577" s="1"/>
-      <c r="B577" s="3"/>
+      <c r="B577" s="2"/>
     </row>
     <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
-      <c r="B578" s="3"/>
+      <c r="B578" s="2"/>
     </row>
     <row r="579" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A579" s="1"/>
-      <c r="B579" s="3"/>
+      <c r="B579" s="2"/>
     </row>
     <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
-      <c r="B580" s="3"/>
+      <c r="B580" s="2"/>
     </row>
     <row r="581" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A581" s="1"/>
-      <c r="B581" s="3"/>
+      <c r="B581" s="2"/>
     </row>
     <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
-      <c r="B582" s="3"/>
+      <c r="B582" s="2"/>
     </row>
     <row r="583" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
-      <c r="B583" s="3"/>
+      <c r="B583" s="2"/>
     </row>
     <row r="584" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A584" s="1"/>
-      <c r="B584" s="3"/>
+      <c r="B584" s="2"/>
     </row>
     <row r="585" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A585" s="1"/>
-      <c r="B585" s="3"/>
+      <c r="B585" s="2"/>
     </row>
     <row r="586" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A586" s="1"/>
-      <c r="B586" s="3"/>
+      <c r="B586" s="2"/>
     </row>
     <row r="587" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
-      <c r="B587" s="3"/>
+      <c r="B587" s="2"/>
     </row>
     <row r="588" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A588" s="1"/>
-      <c r="B588" s="3"/>
+      <c r="B588" s="2"/>
     </row>
     <row r="589" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A589" s="1"/>
-      <c r="B589" s="3"/>
+      <c r="B589" s="2"/>
     </row>
     <row r="590" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A590" s="1"/>
-      <c r="B590" s="3"/>
+      <c r="B590" s="2"/>
     </row>
     <row r="591" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A591" s="1"/>
-      <c r="B591" s="3"/>
+      <c r="B591" s="2"/>
     </row>
     <row r="592" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A592" s="1"/>
-      <c r="B592" s="3"/>
+      <c r="B592" s="2"/>
     </row>
     <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A593" s="1"/>
-      <c r="B593" s="3"/>
+      <c r="B593" s="2"/>
     </row>
     <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
-      <c r="B594" s="3"/>
+      <c r="B594" s="2"/>
     </row>
     <row r="595" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A595" s="1"/>
-      <c r="B595" s="3"/>
+      <c r="B595" s="2"/>
     </row>
     <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A596" s="1"/>
-      <c r="B596" s="3"/>
+      <c r="B596" s="2"/>
     </row>
     <row r="597" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A597" s="1"/>
-      <c r="B597" s="3"/>
+      <c r="B597" s="2"/>
     </row>
     <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A598" s="1"/>
-      <c r="B598" s="3"/>
+      <c r="B598" s="2"/>
     </row>
     <row r="599" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A599" s="1"/>
-      <c r="B599" s="3"/>
+      <c r="B599" s="2"/>
     </row>
     <row r="600" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A600" s="1"/>
-      <c r="B600" s="3"/>
+      <c r="B600" s="2"/>
     </row>
     <row r="601" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
-      <c r="B601" s="3"/>
+      <c r="B601" s="2"/>
     </row>
     <row r="602" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A602" s="1"/>
-      <c r="B602" s="3"/>
+      <c r="B602" s="2"/>
     </row>
     <row r="603" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A603" s="1"/>
-      <c r="B603" s="3"/>
+      <c r="B603" s="2"/>
     </row>
     <row r="604" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
-      <c r="B604" s="3"/>
+      <c r="B604" s="2"/>
     </row>
     <row r="605" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A605" s="1"/>
-      <c r="B605" s="3"/>
+      <c r="B605" s="2"/>
     </row>
     <row r="606" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
-      <c r="B606" s="3"/>
+      <c r="B606" s="2"/>
     </row>
     <row r="607" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A607" s="1"/>
-      <c r="B607" s="3"/>
+      <c r="B607" s="2"/>
     </row>
     <row r="608" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A608" s="1"/>
-      <c r="B608" s="3"/>
+      <c r="B608" s="2"/>
     </row>
     <row r="609" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A609" s="1"/>
-      <c r="B609" s="3"/>
+      <c r="B609" s="2"/>
     </row>
     <row r="610" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A610" s="1"/>
-      <c r="B610" s="3"/>
+      <c r="B610" s="2"/>
     </row>
     <row r="611" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A611" s="1"/>
-      <c r="B611" s="3"/>
+      <c r="B611" s="2"/>
     </row>
     <row r="612" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A612" s="1"/>
-      <c r="B612" s="3"/>
+      <c r="B612" s="2"/>
     </row>
     <row r="613" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A613" s="1"/>
-      <c r="B613" s="3"/>
+      <c r="B613" s="2"/>
     </row>
     <row r="614" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A614" s="1"/>
-      <c r="B614" s="3"/>
+      <c r="B614" s="2"/>
     </row>
     <row r="615" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A615" s="1"/>
-      <c r="B615" s="3"/>
+      <c r="B615" s="2"/>
     </row>
     <row r="616" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A616" s="1"/>
-      <c r="B616" s="3"/>
+      <c r="B616" s="2"/>
     </row>
     <row r="617" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
-      <c r="B617" s="3"/>
+      <c r="B617" s="2"/>
     </row>
     <row r="618" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A618" s="1"/>
-      <c r="B618" s="3"/>
+      <c r="B618" s="2"/>
     </row>
     <row r="619" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A619" s="1"/>
-      <c r="B619" s="3"/>
+      <c r="B619" s="2"/>
     </row>
     <row r="620" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A620" s="1"/>
-      <c r="B620" s="3"/>
+      <c r="B620" s="2"/>
     </row>
     <row r="621" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A621" s="1"/>
-      <c r="B621" s="3"/>
+      <c r="B621" s="2"/>
     </row>
     <row r="622" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A622" s="1"/>
-      <c r="B622" s="3"/>
+      <c r="B622" s="2"/>
     </row>
     <row r="623" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
-      <c r="B623" s="3"/>
+      <c r="B623" s="2"/>
     </row>
     <row r="624" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A624" s="1"/>
-      <c r="B624" s="3"/>
+      <c r="B624" s="2"/>
     </row>
     <row r="625" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A625" s="1"/>
-      <c r="B625" s="3"/>
+      <c r="B625" s="2"/>
     </row>
     <row r="626" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
-      <c r="B626" s="3"/>
+      <c r="B626" s="2"/>
     </row>
     <row r="627" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A627" s="1"/>
-      <c r="B627" s="3"/>
+      <c r="B627" s="2"/>
     </row>
     <row r="628" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A628" s="1"/>
-      <c r="B628" s="3"/>
+      <c r="B628" s="2"/>
     </row>
     <row r="629" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A629" s="1"/>
-      <c r="B629" s="3"/>
+      <c r="B629" s="2"/>
     </row>
     <row r="630" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A630" s="1"/>
-      <c r="B630" s="3"/>
+      <c r="B630" s="2"/>
     </row>
     <row r="631" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A631" s="1"/>
-      <c r="B631" s="3"/>
+      <c r="B631" s="2"/>
     </row>
     <row r="632" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A632" s="1"/>
-      <c r="B632" s="3"/>
+      <c r="B632" s="2"/>
     </row>
     <row r="633" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A633" s="1"/>
-      <c r="B633" s="3"/>
+      <c r="B633" s="2"/>
     </row>
     <row r="634" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A634" s="1"/>
-      <c r="B634" s="3"/>
+      <c r="B634" s="2"/>
     </row>
     <row r="635" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A635" s="1"/>
-      <c r="B635" s="3"/>
+      <c r="B635" s="2"/>
     </row>
     <row r="636" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A636" s="1"/>
-      <c r="B636" s="3"/>
+      <c r="B636" s="2"/>
     </row>
     <row r="637" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A637" s="1"/>
-      <c r="B637" s="3"/>
+      <c r="B637" s="2"/>
     </row>
     <row r="638" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A638" s="1"/>
-      <c r="B638" s="3"/>
+      <c r="B638" s="2"/>
     </row>
     <row r="639" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A639" s="1"/>
-      <c r="B639" s="3"/>
+      <c r="B639" s="2"/>
     </row>
     <row r="640" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A640" s="1"/>
-      <c r="B640" s="3"/>
+      <c r="B640" s="2"/>
     </row>
     <row r="641" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A641" s="1"/>
-      <c r="B641" s="3"/>
+      <c r="B641" s="2"/>
     </row>
     <row r="642" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A642" s="1"/>
-      <c r="B642" s="3"/>
+      <c r="B642" s="2"/>
     </row>
     <row r="643" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A643" s="1"/>
-      <c r="B643" s="3"/>
+      <c r="B643" s="2"/>
     </row>
     <row r="644" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A644" s="1"/>
-      <c r="B644" s="3"/>
+      <c r="B644" s="2"/>
     </row>
     <row r="645" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A645" s="1"/>
-      <c r="B645" s="3"/>
+      <c r="B645" s="2"/>
     </row>
     <row r="646" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A646" s="1"/>
-      <c r="B646" s="3"/>
+      <c r="B646" s="2"/>
     </row>
     <row r="647" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A647" s="1"/>
-      <c r="B647" s="3"/>
+      <c r="B647" s="2"/>
     </row>
     <row r="648" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A648" s="1"/>
-      <c r="B648" s="3"/>
+      <c r="B648" s="2"/>
     </row>
     <row r="649" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A649" s="1"/>
-      <c r="B649" s="3"/>
+      <c r="B649" s="2"/>
     </row>
     <row r="650" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A650" s="1"/>
-      <c r="B650" s="3"/>
+      <c r="B650" s="2"/>
     </row>
     <row r="651" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A651" s="1"/>
-      <c r="B651" s="3"/>
+      <c r="B651" s="2"/>
     </row>
     <row r="652" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A652" s="1"/>
-      <c r="B652" s="3"/>
+      <c r="B652" s="2"/>
     </row>
     <row r="653" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A653" s="1"/>
-      <c r="B653" s="3"/>
+      <c r="B653" s="2"/>
     </row>
     <row r="654" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A654" s="1"/>
-      <c r="B654" s="3"/>
+      <c r="B654" s="2"/>
     </row>
     <row r="655" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A655" s="1"/>
-      <c r="B655" s="3"/>
+      <c r="B655" s="2"/>
     </row>
     <row r="656" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A656" s="1"/>
-      <c r="B656" s="3"/>
+      <c r="B656" s="2"/>
     </row>
     <row r="657" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A657" s="1"/>
-      <c r="B657" s="3"/>
+      <c r="B657" s="2"/>
     </row>
     <row r="658" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A658" s="1"/>
-      <c r="B658" s="3"/>
+      <c r="B658" s="2"/>
     </row>
     <row r="659" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A659" s="1"/>
-      <c r="B659" s="3"/>
+      <c r="B659" s="2"/>
     </row>
     <row r="660" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A660" s="1"/>
-      <c r="B660" s="3"/>
+      <c r="B660" s="2"/>
     </row>
     <row r="661" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A661" s="1"/>
-      <c r="B661" s="3"/>
+      <c r="B661" s="2"/>
     </row>
     <row r="662" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A662" s="1"/>
-      <c r="B662" s="3"/>
+      <c r="B662" s="2"/>
     </row>
     <row r="663" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A663" s="1"/>
-      <c r="B663" s="3"/>
+      <c r="B663" s="2"/>
     </row>
     <row r="664" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A664" s="1"/>
-      <c r="B664" s="3"/>
+      <c r="B664" s="2"/>
     </row>
     <row r="665" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A665" s="1"/>
-      <c r="B665" s="3"/>
+      <c r="B665" s="2"/>
     </row>
     <row r="666" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A666" s="1"/>
-      <c r="B666" s="3"/>
+      <c r="B666" s="2"/>
     </row>
     <row r="667" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A667" s="1"/>
-      <c r="B667" s="3"/>
+      <c r="B667" s="2"/>
     </row>
     <row r="668" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A668" s="1"/>
-      <c r="B668" s="3"/>
+      <c r="B668" s="2"/>
     </row>
     <row r="669" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A669" s="1"/>
-      <c r="B669" s="3"/>
+      <c r="B669" s="2"/>
     </row>
     <row r="670" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A670" s="1"/>
-      <c r="B670" s="3"/>
+      <c r="B670" s="2"/>
     </row>
     <row r="671" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A671" s="1"/>
-      <c r="B671" s="3"/>
+      <c r="B671" s="2"/>
     </row>
     <row r="672" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A672" s="1"/>
-      <c r="B672" s="3"/>
+      <c r="B672" s="2"/>
     </row>
     <row r="673" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A673" s="1"/>
-      <c r="B673" s="3"/>
+      <c r="B673" s="2"/>
     </row>
     <row r="674" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A674" s="1"/>
-      <c r="B674" s="3"/>
+      <c r="B674" s="2"/>
     </row>
     <row r="675" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A675" s="1"/>
-      <c r="B675" s="3"/>
+      <c r="B675" s="2"/>
     </row>
     <row r="676" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A676" s="1"/>
-      <c r="B676" s="3"/>
+      <c r="B676" s="2"/>
     </row>
     <row r="677" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A677" s="1"/>
-      <c r="B677" s="3"/>
+      <c r="B677" s="2"/>
     </row>
     <row r="678" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A678" s="1"/>
-      <c r="B678" s="3"/>
+      <c r="B678" s="2"/>
     </row>
     <row r="679" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A679" s="1"/>
-      <c r="B679" s="3"/>
+      <c r="B679" s="2"/>
     </row>
     <row r="680" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A680" s="1"/>
-      <c r="B680" s="3"/>
+      <c r="B680" s="2"/>
     </row>
     <row r="681" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A681" s="1"/>
-      <c r="B681" s="3"/>
+      <c r="B681" s="2"/>
     </row>
     <row r="682" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A682" s="1"/>
-      <c r="B682" s="3"/>
+      <c r="B682" s="2"/>
     </row>
     <row r="683" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A683" s="1"/>
-      <c r="B683" s="3"/>
+      <c r="B683" s="2"/>
     </row>
     <row r="684" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A684" s="1"/>
-      <c r="B684" s="3"/>
+      <c r="B684" s="2"/>
     </row>
     <row r="685" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A685" s="1"/>
-      <c r="B685" s="3"/>
+      <c r="B685" s="2"/>
     </row>
     <row r="686" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A686" s="1"/>
-      <c r="B686" s="3"/>
+      <c r="B686" s="2"/>
     </row>
     <row r="687" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A687" s="1"/>
-      <c r="B687" s="3"/>
+      <c r="B687" s="2"/>
     </row>
     <row r="688" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A688" s="1"/>
-      <c r="B688" s="3"/>
+      <c r="B688" s="2"/>
     </row>
     <row r="689" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A689" s="1"/>
-      <c r="B689" s="3"/>
+      <c r="B689" s="2"/>
     </row>
     <row r="690" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A690" s="1"/>
-      <c r="B690" s="3"/>
+      <c r="B690" s="2"/>
     </row>
     <row r="691" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A691" s="1"/>
-      <c r="B691" s="3"/>
+      <c r="B691" s="2"/>
     </row>
     <row r="692" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A692" s="1"/>
-      <c r="B692" s="3"/>
+      <c r="B692" s="2"/>
     </row>
     <row r="693" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A693" s="1"/>
-      <c r="B693" s="3"/>
+      <c r="B693" s="2"/>
     </row>
     <row r="694" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A694" s="1"/>
-      <c r="B694" s="3"/>
+      <c r="B694" s="2"/>
     </row>
     <row r="695" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A695" s="1"/>
-      <c r="B695" s="3"/>
+      <c r="B695" s="2"/>
     </row>
     <row r="696" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A696" s="1"/>
-      <c r="B696" s="3"/>
+      <c r="B696" s="2"/>
     </row>
     <row r="697" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A697" s="1"/>
-      <c r="B697" s="3"/>
+      <c r="B697" s="2"/>
     </row>
     <row r="698" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A698" s="1"/>
-      <c r="B698" s="3"/>
+      <c r="B698" s="2"/>
     </row>
     <row r="699" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A699" s="1"/>
-      <c r="B699" s="3"/>
+      <c r="B699" s="2"/>
     </row>
     <row r="700" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A700" s="1"/>
-      <c r="B700" s="3"/>
+      <c r="B700" s="2"/>
     </row>
     <row r="701" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A701" s="1"/>
-      <c r="B701" s="3"/>
+      <c r="B701" s="2"/>
     </row>
     <row r="702" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A702" s="1"/>
-      <c r="B702" s="3"/>
+      <c r="B702" s="2"/>
     </row>
     <row r="703" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A703" s="1"/>
-      <c r="B703" s="3"/>
+      <c r="B703" s="2"/>
     </row>
     <row r="704" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A704" s="1"/>
-      <c r="B704" s="3"/>
+      <c r="B704" s="2"/>
     </row>
     <row r="705" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A705" s="1"/>
-      <c r="B705" s="3"/>
+      <c r="B705" s="2"/>
     </row>
     <row r="706" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A706" s="1"/>
-      <c r="B706" s="3"/>
+      <c r="B706" s="2"/>
     </row>
     <row r="707" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A707" s="1"/>
-      <c r="B707" s="3"/>
+      <c r="B707" s="2"/>
     </row>
     <row r="708" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A708" s="1"/>
-      <c r="B708" s="3"/>
+      <c r="B708" s="2"/>
     </row>
     <row r="709" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A709" s="1"/>
-      <c r="B709" s="3"/>
+      <c r="B709" s="2"/>
     </row>
     <row r="710" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A710" s="1"/>
-      <c r="B710" s="3"/>
+      <c r="B710" s="2"/>
     </row>
     <row r="711" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A711" s="1"/>
-      <c r="B711" s="3"/>
+      <c r="B711" s="2"/>
     </row>
     <row r="712" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A712" s="1"/>
-      <c r="B712" s="3"/>
+      <c r="B712" s="2"/>
     </row>
     <row r="713" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A713" s="1"/>
-      <c r="B713" s="3"/>
+      <c r="B713" s="2"/>
     </row>
     <row r="714" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A714" s="1"/>
-      <c r="B714" s="3"/>
+      <c r="B714" s="2"/>
     </row>
     <row r="715" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A715" s="1"/>
-      <c r="B715" s="3"/>
+      <c r="B715" s="2"/>
     </row>
     <row r="716" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A716" s="1"/>
-      <c r="B716" s="3"/>
+      <c r="B716" s="2"/>
     </row>
     <row r="717" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A717" s="1"/>
-      <c r="B717" s="3"/>
+      <c r="B717" s="2"/>
     </row>
     <row r="718" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A718" s="1"/>
-      <c r="B718" s="3"/>
+      <c r="B718" s="2"/>
     </row>
     <row r="719" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A719" s="1"/>
-      <c r="B719" s="3"/>
+      <c r="B719" s="2"/>
     </row>
     <row r="720" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A720" s="1"/>
-      <c r="B720" s="3"/>
+      <c r="B720" s="2"/>
     </row>
     <row r="721" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A721" s="1"/>
-      <c r="B721" s="3"/>
+      <c r="B721" s="2"/>
     </row>
     <row r="722" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A722" s="1"/>
-      <c r="B722" s="3"/>
+      <c r="B722" s="2"/>
     </row>
     <row r="723" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A723" s="1"/>
-      <c r="B723" s="3"/>
+      <c r="B723" s="2"/>
     </row>
     <row r="724" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A724" s="1"/>
-      <c r="B724" s="3"/>
+      <c r="B724" s="2"/>
     </row>
     <row r="725" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A725" s="1"/>
-      <c r="B725" s="3"/>
+      <c r="B725" s="2"/>
     </row>
     <row r="726" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A726" s="1"/>
-      <c r="B726" s="3"/>
+      <c r="B726" s="2"/>
     </row>
     <row r="727" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A727" s="1"/>
-      <c r="B727" s="3"/>
+      <c r="B727" s="2"/>
     </row>
     <row r="728" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A728" s="1"/>
-      <c r="B728" s="3"/>
+      <c r="B728" s="2"/>
     </row>
     <row r="729" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A729" s="1"/>
-      <c r="B729" s="3"/>
+      <c r="B729" s="2"/>
     </row>
     <row r="730" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A730" s="1"/>
-      <c r="B730" s="3"/>
+      <c r="B730" s="2"/>
     </row>
     <row r="731" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A731" s="1"/>
-      <c r="B731" s="3"/>
+      <c r="B731" s="2"/>
     </row>
     <row r="732" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A732" s="1"/>
-      <c r="B732" s="3"/>
+      <c r="B732" s="2"/>
     </row>
     <row r="733" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A733" s="1"/>
-      <c r="B733" s="3"/>
+      <c r="B733" s="2"/>
     </row>
     <row r="734" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A734" s="1"/>
-      <c r="B734" s="3"/>
+      <c r="B734" s="2"/>
     </row>
     <row r="735" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A735" s="1"/>
-      <c r="B735" s="3"/>
+      <c r="B735" s="2"/>
     </row>
     <row r="736" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A736" s="1"/>
-      <c r="B736" s="3"/>
+      <c r="B736" s="2"/>
     </row>
     <row r="737" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A737" s="1"/>
-      <c r="B737" s="3"/>
+      <c r="B737" s="2"/>
     </row>
     <row r="738" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A738" s="1"/>
-      <c r="B738" s="3"/>
+      <c r="B738" s="2"/>
     </row>
     <row r="739" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A739" s="1"/>
-      <c r="B739" s="3"/>
+      <c r="B739" s="2"/>
     </row>
     <row r="740" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A740" s="1"/>
-      <c r="B740" s="3"/>
+      <c r="B740" s="2"/>
     </row>
     <row r="741" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A741" s="1"/>
-      <c r="B741" s="3"/>
+      <c r="B741" s="2"/>
     </row>
     <row r="742" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A742" s="1"/>
-      <c r="B742" s="3"/>
+      <c r="B742" s="2"/>
     </row>
     <row r="743" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A743" s="1"/>
-      <c r="B743" s="3"/>
+      <c r="B743" s="2"/>
     </row>
     <row r="744" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A744" s="1"/>
-      <c r="B744" s="3"/>
+      <c r="B744" s="2"/>
     </row>
     <row r="745" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A745" s="1"/>
-      <c r="B745" s="3"/>
+      <c r="B745" s="2"/>
     </row>
     <row r="746" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A746" s="1"/>
-      <c r="B746" s="3"/>
+      <c r="B746" s="2"/>
     </row>
     <row r="747" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A747" s="1"/>
-      <c r="B747" s="3"/>
+      <c r="B747" s="2"/>
     </row>
     <row r="748" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A748" s="1"/>
-      <c r="B748" s="3"/>
+      <c r="B748" s="2"/>
     </row>
     <row r="749" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A749" s="1"/>
-      <c r="B749" s="3"/>
+      <c r="B749" s="2"/>
     </row>
     <row r="750" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A750" s="1"/>
-      <c r="B750" s="3"/>
+      <c r="B750" s="2"/>
     </row>
     <row r="751" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A751" s="1"/>
-      <c r="B751" s="3"/>
+      <c r="B751" s="2"/>
     </row>
     <row r="752" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A752" s="1"/>
-      <c r="B752" s="3"/>
+      <c r="B752" s="2"/>
     </row>
     <row r="753" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A753" s="1"/>
-      <c r="B753" s="3"/>
+      <c r="B753" s="2"/>
     </row>
     <row r="754" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A754" s="1"/>
-      <c r="B754" s="3"/>
+      <c r="B754" s="2"/>
     </row>
     <row r="755" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A755" s="1"/>
-      <c r="B755" s="3"/>
+      <c r="B755" s="2"/>
     </row>
     <row r="756" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A756" s="1"/>
-      <c r="B756" s="3"/>
+      <c r="B756" s="2"/>
     </row>
     <row r="757" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A757" s="1"/>
-      <c r="B757" s="3"/>
+      <c r="B757" s="2"/>
     </row>
     <row r="758" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A758" s="1"/>
-      <c r="B758" s="3"/>
+      <c r="B758" s="2"/>
     </row>
     <row r="759" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A759" s="1"/>
-      <c r="B759" s="3"/>
+      <c r="B759" s="2"/>
     </row>
     <row r="760" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A760" s="1"/>
-      <c r="B760" s="3"/>
+      <c r="B760" s="2"/>
     </row>
     <row r="761" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A761" s="1"/>
-      <c r="B761" s="3"/>
+      <c r="B761" s="2"/>
     </row>
     <row r="762" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A762" s="1"/>
-      <c r="B762" s="3"/>
+      <c r="B762" s="2"/>
     </row>
     <row r="763" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A763" s="1"/>
-      <c r="B763" s="3"/>
+      <c r="B763" s="2"/>
     </row>
     <row r="764" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A764" s="1"/>
-      <c r="B764" s="3"/>
+      <c r="B764" s="2"/>
     </row>
     <row r="765" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A765" s="1"/>
-      <c r="B765" s="3"/>
+      <c r="B765" s="2"/>
     </row>
     <row r="766" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A766" s="1"/>
-      <c r="B766" s="3"/>
+      <c r="B766" s="2"/>
     </row>
     <row r="767" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A767" s="1"/>
-      <c r="B767" s="3"/>
+      <c r="B767" s="2"/>
     </row>
     <row r="768" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A768" s="1"/>
-      <c r="B768" s="3"/>
+      <c r="B768" s="2"/>
     </row>
     <row r="769" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A769" s="1"/>
-      <c r="B769" s="3"/>
+      <c r="B769" s="2"/>
     </row>
     <row r="770" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A770" s="1"/>
-      <c r="B770" s="3"/>
+      <c r="B770" s="2"/>
     </row>
     <row r="771" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A771" s="1"/>
-      <c r="B771" s="3"/>
+      <c r="B771" s="2"/>
     </row>
     <row r="772" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A772" s="1"/>
-      <c r="B772" s="3"/>
+      <c r="B772" s="2"/>
     </row>
     <row r="773" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A773" s="1"/>
-      <c r="B773" s="3"/>
+      <c r="B773" s="2"/>
     </row>
     <row r="774" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A774" s="1"/>
-      <c r="B774" s="3"/>
+      <c r="B774" s="2"/>
     </row>
     <row r="775" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A775" s="1"/>
-      <c r="B775" s="3"/>
+      <c r="B775" s="2"/>
     </row>
     <row r="776" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A776" s="1"/>
-      <c r="B776" s="3"/>
+      <c r="B776" s="2"/>
     </row>
     <row r="777" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A777" s="1"/>
-      <c r="B777" s="3"/>
+      <c r="B777" s="2"/>
     </row>
     <row r="778" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A778" s="1"/>
-      <c r="B778" s="3"/>
+      <c r="B778" s="2"/>
     </row>
     <row r="779" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A779" s="1"/>
-      <c r="B779" s="3"/>
+      <c r="B779" s="2"/>
     </row>
     <row r="780" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A780" s="1"/>
-      <c r="B780" s="3"/>
+      <c r="B780" s="2"/>
     </row>
     <row r="781" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A781" s="1"/>
-      <c r="B781" s="3"/>
+      <c r="B781" s="2"/>
     </row>
     <row r="782" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A782" s="1"/>
-      <c r="B782" s="3"/>
+      <c r="B782" s="2"/>
     </row>
     <row r="783" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A783" s="1"/>
-      <c r="B783" s="3"/>
+      <c r="B783" s="2"/>
     </row>
     <row r="784" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A784" s="1"/>
-      <c r="B784" s="3"/>
+      <c r="B784" s="2"/>
     </row>
     <row r="785" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A785" s="1"/>
-      <c r="B785" s="3"/>
+      <c r="B785" s="2"/>
     </row>
     <row r="786" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A786" s="1"/>
-      <c r="B786" s="3"/>
+      <c r="B786" s="2"/>
     </row>
     <row r="787" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A787" s="1"/>
-      <c r="B787" s="3"/>
+      <c r="B787" s="2"/>
     </row>
     <row r="788" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A788" s="1"/>
-      <c r="B788" s="3"/>
+      <c r="B788" s="2"/>
     </row>
     <row r="789" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A789" s="1"/>
-      <c r="B789" s="3"/>
+      <c r="B789" s="2"/>
     </row>
     <row r="790" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A790" s="1"/>
-      <c r="B790" s="3"/>
+      <c r="B790" s="2"/>
     </row>
     <row r="791" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A791" s="1"/>
-      <c r="B791" s="3"/>
+      <c r="B791" s="2"/>
     </row>
     <row r="792" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A792" s="1"/>
-      <c r="B792" s="3"/>
+      <c r="B792" s="2"/>
     </row>
     <row r="793" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A793" s="1"/>
-      <c r="B793" s="3"/>
+      <c r="B793" s="2"/>
     </row>
     <row r="794" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A794" s="1"/>
-      <c r="B794" s="3"/>
+      <c r="B794" s="2"/>
     </row>
     <row r="795" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A795" s="1"/>
-      <c r="B795" s="3"/>
+      <c r="B795" s="2"/>
     </row>
     <row r="796" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A796" s="1"/>
-      <c r="B796" s="3"/>
+      <c r="B796" s="2"/>
     </row>
     <row r="797" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A797" s="1"/>
-      <c r="B797" s="3"/>
+      <c r="B797" s="2"/>
     </row>
     <row r="798" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A798" s="1"/>
-      <c r="B798" s="3"/>
+      <c r="B798" s="2"/>
     </row>
     <row r="799" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A799" s="1"/>
-      <c r="B799" s="3"/>
+      <c r="B799" s="2"/>
     </row>
     <row r="800" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A800" s="1"/>
-      <c r="B800" s="3"/>
+      <c r="B800" s="2"/>
     </row>
     <row r="801" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A801" s="1"/>
-      <c r="B801" s="3"/>
+      <c r="B801" s="2"/>
     </row>
     <row r="802" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A802" s="1"/>
-      <c r="B802" s="3"/>
+      <c r="B802" s="2"/>
     </row>
     <row r="803" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A803" s="1"/>
-      <c r="B803" s="3"/>
+      <c r="B803" s="2"/>
     </row>
     <row r="804" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A804" s="1"/>
-      <c r="B804" s="3"/>
+      <c r="B804" s="2"/>
     </row>
     <row r="805" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A805" s="1"/>
-      <c r="B805" s="3"/>
+      <c r="B805" s="2"/>
     </row>
     <row r="806" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A806" s="1"/>
-      <c r="B806" s="3"/>
+      <c r="B806" s="2"/>
     </row>
     <row r="807" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A807" s="1"/>
-      <c r="B807" s="3"/>
+      <c r="B807" s="2"/>
     </row>
     <row r="808" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A808" s="1"/>
-      <c r="B808" s="3"/>
+      <c r="B808" s="2"/>
     </row>
     <row r="809" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A809" s="1"/>
-      <c r="B809" s="3"/>
+      <c r="B809" s="2"/>
     </row>
     <row r="810" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A810" s="1"/>
-      <c r="B810" s="3"/>
+      <c r="B810" s="2"/>
     </row>
     <row r="811" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A811" s="1"/>
-      <c r="B811" s="3"/>
+      <c r="B811" s="2"/>
     </row>
     <row r="812" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A812" s="1"/>
-      <c r="B812" s="3"/>
+      <c r="B812" s="2"/>
     </row>
     <row r="813" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A813" s="1"/>
-      <c r="B813" s="3"/>
+      <c r="B813" s="2"/>
     </row>
     <row r="814" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A814" s="1"/>
-      <c r="B814" s="3"/>
+      <c r="B814" s="2"/>
     </row>
     <row r="815" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A815" s="1"/>
-      <c r="B815" s="3"/>
+      <c r="B815" s="2"/>
     </row>
     <row r="816" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A816" s="1"/>
-      <c r="B816" s="3"/>
+      <c r="B816" s="2"/>
     </row>
     <row r="817" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A817" s="1"/>
-      <c r="B817" s="3"/>
+      <c r="B817" s="2"/>
     </row>
     <row r="818" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A818" s="1"/>
-      <c r="B818" s="3"/>
+      <c r="B818" s="2"/>
     </row>
     <row r="819" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A819" s="1"/>
-      <c r="B819" s="3"/>
+      <c r="B819" s="2"/>
     </row>
     <row r="820" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A820" s="1"/>
-      <c r="B820" s="3"/>
+      <c r="B820" s="2"/>
     </row>
     <row r="821" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A821" s="1"/>
-      <c r="B821" s="3"/>
+      <c r="B821" s="2"/>
     </row>
     <row r="822" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A822" s="1"/>
-      <c r="B822" s="3"/>
+      <c r="B822" s="2"/>
     </row>
     <row r="823" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A823" s="1"/>
-      <c r="B823" s="3"/>
+      <c r="B823" s="2"/>
     </row>
     <row r="824" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A824" s="1"/>
-      <c r="B824" s="3"/>
+      <c r="B824" s="2"/>
     </row>
     <row r="825" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A825" s="1"/>
-      <c r="B825" s="3"/>
+      <c r="B825" s="2"/>
     </row>
     <row r="826" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A826" s="1"/>
-      <c r="B826" s="3"/>
+      <c r="B826" s="2"/>
     </row>
     <row r="827" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A827" s="1"/>
-      <c r="B827" s="3"/>
+      <c r="B827" s="2"/>
     </row>
     <row r="828" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A828" s="1"/>
-      <c r="B828" s="3"/>
+      <c r="B828" s="2"/>
     </row>
     <row r="829" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A829" s="1"/>
-      <c r="B829" s="3"/>
+      <c r="B829" s="2"/>
     </row>
     <row r="830" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A830" s="1"/>
-      <c r="B830" s="3"/>
+      <c r="B830" s="2"/>
     </row>
     <row r="831" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A831" s="1"/>
-      <c r="B831" s="3"/>
+      <c r="B831" s="2"/>
     </row>
     <row r="832" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A832" s="1"/>
-      <c r="B832" s="3"/>
+      <c r="B832" s="2"/>
     </row>
     <row r="833" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A833" s="1"/>
-      <c r="B833" s="3"/>
+      <c r="B833" s="2"/>
     </row>
     <row r="834" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A834" s="1"/>
-      <c r="B834" s="3"/>
+      <c r="B834" s="2"/>
     </row>
     <row r="835" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A835" s="1"/>
-      <c r="B835" s="3"/>
+      <c r="B835" s="2"/>
     </row>
     <row r="836" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A836" s="1"/>
-      <c r="B836" s="3"/>
+      <c r="B836" s="2"/>
     </row>
     <row r="837" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A837" s="1"/>
-      <c r="B837" s="3"/>
+      <c r="B837" s="2"/>
     </row>
     <row r="838" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A838" s="1"/>
-      <c r="B838" s="3"/>
+      <c r="B838" s="2"/>
     </row>
     <row r="839" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A839" s="1"/>
-      <c r="B839" s="3"/>
+      <c r="B839" s="2"/>
     </row>
     <row r="840" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A840" s="1"/>
-      <c r="B840" s="3"/>
+      <c r="B840" s="2"/>
     </row>
     <row r="841" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A841" s="1"/>
-      <c r="B841" s="3"/>
+      <c r="B841" s="2"/>
     </row>
     <row r="842" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A842" s="1"/>
-      <c r="B842" s="3"/>
+      <c r="B842" s="2"/>
     </row>
     <row r="843" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A843" s="1"/>
-      <c r="B843" s="3"/>
+      <c r="B843" s="2"/>
     </row>
     <row r="844" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A844" s="1"/>
-      <c r="B844" s="3"/>
+      <c r="B844" s="2"/>
     </row>
     <row r="845" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A845" s="1"/>
-      <c r="B845" s="3"/>
+      <c r="B845" s="2"/>
     </row>
     <row r="846" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A846" s="1"/>
-      <c r="B846" s="3"/>
+      <c r="B846" s="2"/>
     </row>
     <row r="847" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A847" s="1"/>
-      <c r="B847" s="3"/>
+      <c r="B847" s="2"/>
     </row>
     <row r="848" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A848" s="1"/>
-      <c r="B848" s="3"/>
+      <c r="B848" s="2"/>
     </row>
     <row r="849" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A849" s="1"/>
-      <c r="B849" s="3"/>
+      <c r="B849" s="2"/>
     </row>
     <row r="850" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A850" s="1"/>
-      <c r="B850" s="3"/>
+      <c r="B850" s="2"/>
     </row>
     <row r="851" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A851" s="1"/>
-      <c r="B851" s="3"/>
+      <c r="B851" s="2"/>
     </row>
     <row r="852" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A852" s="1"/>
-      <c r="B852" s="3"/>
+      <c r="B852" s="2"/>
     </row>
     <row r="853" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A853" s="1"/>
-      <c r="B853" s="3"/>
+      <c r="B853" s="2"/>
     </row>
     <row r="854" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A854" s="1"/>
-      <c r="B854" s="3"/>
+      <c r="B854" s="2"/>
     </row>
     <row r="855" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A855" s="1"/>
-      <c r="B855" s="3"/>
+      <c r="B855" s="2"/>
     </row>
     <row r="856" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A856" s="1"/>
-      <c r="B856" s="3"/>
+      <c r="B856" s="2"/>
     </row>
     <row r="857" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A857" s="1"/>
-      <c r="B857" s="3"/>
+      <c r="B857" s="2"/>
     </row>
     <row r="858" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A858" s="1"/>
-      <c r="B858" s="3"/>
+      <c r="B858" s="2"/>
     </row>
     <row r="859" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A859" s="1"/>
-      <c r="B859" s="3"/>
+      <c r="B859" s="2"/>
     </row>
     <row r="860" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A860" s="1"/>
-      <c r="B860" s="3"/>
+      <c r="B860" s="2"/>
     </row>
     <row r="861" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A861" s="1"/>
-      <c r="B861" s="3"/>
+      <c r="B861" s="2"/>
     </row>
     <row r="862" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A862" s="1"/>
-      <c r="B862" s="3"/>
+      <c r="B862" s="2"/>
     </row>
     <row r="863" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A863" s="1"/>
-      <c r="B863" s="3"/>
+      <c r="B863" s="2"/>
     </row>
     <row r="864" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A864" s="1"/>
-      <c r="B864" s="3"/>
+      <c r="B864" s="2"/>
     </row>
     <row r="865" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A865" s="1"/>
-      <c r="B865" s="3"/>
+      <c r="B865" s="2"/>
     </row>
     <row r="866" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A866" s="1"/>
-      <c r="B866" s="3"/>
+      <c r="B866" s="2"/>
     </row>
     <row r="867" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A867" s="1"/>
-      <c r="B867" s="3"/>
+      <c r="B867" s="2"/>
     </row>
     <row r="868" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A868" s="1"/>
-      <c r="B868" s="3"/>
+      <c r="B868" s="2"/>
     </row>
     <row r="869" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A869" s="1"/>
-      <c r="B869" s="3"/>
+      <c r="B869" s="2"/>
     </row>
     <row r="870" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A870" s="1"/>
-      <c r="B870" s="3"/>
+      <c r="B870" s="2"/>
     </row>
     <row r="871" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A871" s="1"/>
-      <c r="B871" s="3"/>
+      <c r="B871" s="2"/>
     </row>
     <row r="872" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A872" s="1"/>
-      <c r="B872" s="3"/>
+      <c r="B872" s="2"/>
     </row>
     <row r="873" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A873" s="1"/>
-      <c r="B873" s="3"/>
+      <c r="B873" s="2"/>
     </row>
     <row r="874" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A874" s="1"/>
-      <c r="B874" s="3"/>
+      <c r="B874" s="2"/>
     </row>
     <row r="875" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A875" s="1"/>
-      <c r="B875" s="3"/>
+      <c r="B875" s="2"/>
     </row>
     <row r="876" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A876" s="1"/>
-      <c r="B876" s="3"/>
+      <c r="B876" s="2"/>
     </row>
     <row r="877" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A877" s="1"/>
-      <c r="B877" s="3"/>
+      <c r="B877" s="2"/>
     </row>
     <row r="878" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A878" s="1"/>
-      <c r="B878" s="3"/>
+      <c r="B878" s="2"/>
     </row>
     <row r="879" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A879" s="1"/>
-      <c r="B879" s="3"/>
+      <c r="B879" s="2"/>
     </row>
     <row r="880" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A880" s="1"/>
-      <c r="B880" s="3"/>
+      <c r="B880" s="2"/>
     </row>
     <row r="881" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A881" s="1"/>
-      <c r="B881" s="3"/>
+      <c r="B881" s="2"/>
     </row>
     <row r="882" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A882" s="1"/>
-      <c r="B882" s="3"/>
+      <c r="B882" s="2"/>
     </row>
     <row r="883" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A883" s="1"/>
-      <c r="B883" s="3"/>
+      <c r="B883" s="2"/>
     </row>
     <row r="884" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A884" s="1"/>
-      <c r="B884" s="3"/>
+      <c r="B884" s="2"/>
     </row>
     <row r="885" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A885" s="1"/>
-      <c r="B885" s="3"/>
+      <c r="B885" s="2"/>
     </row>
     <row r="886" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A886" s="1"/>
-      <c r="B886" s="3"/>
+      <c r="B886" s="2"/>
     </row>
     <row r="887" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A887" s="1"/>
-      <c r="B887" s="3"/>
+      <c r="B887" s="2"/>
     </row>
     <row r="888" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A888" s="1"/>
-      <c r="B888" s="3"/>
+      <c r="B888" s="2"/>
     </row>
     <row r="889" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A889" s="1"/>
-      <c r="B889" s="3"/>
+      <c r="B889" s="2"/>
     </row>
     <row r="890" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A890" s="1"/>
-      <c r="B890" s="3"/>
+      <c r="B890" s="2"/>
     </row>
     <row r="891" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A891" s="1"/>
-      <c r="B891" s="3"/>
+      <c r="B891" s="2"/>
     </row>
     <row r="892" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A892" s="1"/>
-      <c r="B892" s="3"/>
+      <c r="B892" s="2"/>
     </row>
     <row r="893" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A893" s="1"/>
-      <c r="B893" s="3"/>
+      <c r="B893" s="2"/>
     </row>
     <row r="894" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A894" s="1"/>
-      <c r="B894" s="3"/>
+      <c r="B894" s="2"/>
     </row>
     <row r="895" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A895" s="1"/>
-      <c r="B895" s="3"/>
+      <c r="B895" s="2"/>
     </row>
     <row r="896" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A896" s="1"/>
-      <c r="B896" s="3"/>
+      <c r="B896" s="2"/>
     </row>
     <row r="897" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A897" s="1"/>
-      <c r="B897" s="3"/>
+      <c r="B897" s="2"/>
     </row>
     <row r="898" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A898" s="1"/>
-      <c r="B898" s="3"/>
+      <c r="B898" s="2"/>
     </row>
     <row r="899" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A899" s="1"/>
-      <c r="B899" s="3"/>
+      <c r="B899" s="2"/>
     </row>
     <row r="900" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A900" s="1"/>
-      <c r="B900" s="3"/>
+      <c r="B900" s="2"/>
     </row>
     <row r="901" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A901" s="1"/>
-      <c r="B901" s="3"/>
+      <c r="B901" s="2"/>
     </row>
     <row r="902" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A902" s="1"/>
-      <c r="B902" s="3"/>
+      <c r="B902" s="2"/>
     </row>
     <row r="903" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A903" s="1"/>
-      <c r="B903" s="3"/>
+      <c r="B903" s="2"/>
     </row>
     <row r="904" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A904" s="1"/>
-      <c r="B904" s="3"/>
+      <c r="B904" s="2"/>
     </row>
     <row r="905" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A905" s="1"/>
-      <c r="B905" s="3"/>
+      <c r="B905" s="2"/>
     </row>
     <row r="906" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A906" s="1"/>
-      <c r="B906" s="3"/>
+      <c r="B906" s="2"/>
     </row>
     <row r="907" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A907" s="1"/>
-      <c r="B907" s="3"/>
+      <c r="B907" s="2"/>
     </row>
     <row r="908" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A908" s="1"/>
-      <c r="B908" s="3"/>
+      <c r="B908" s="2"/>
     </row>
     <row r="909" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A909" s="1"/>
-      <c r="B909" s="3"/>
+      <c r="B909" s="2"/>
     </row>
     <row r="910" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A910" s="1"/>
-      <c r="B910" s="3"/>
+      <c r="B910" s="2"/>
     </row>
     <row r="911" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A911" s="1"/>
-      <c r="B911" s="3"/>
+      <c r="B911" s="2"/>
     </row>
     <row r="912" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A912" s="1"/>
-      <c r="B912" s="3"/>
+      <c r="B912" s="2"/>
     </row>
     <row r="913" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A913" s="1"/>
-      <c r="B913" s="3"/>
+      <c r="B913" s="2"/>
     </row>
     <row r="914" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A914" s="1"/>
-      <c r="B914" s="3"/>
+      <c r="B914" s="2"/>
     </row>
     <row r="915" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A915" s="1"/>
-      <c r="B915" s="3"/>
+      <c r="B915" s="2"/>
     </row>
     <row r="916" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A916" s="1"/>
-      <c r="B916" s="3"/>
+      <c r="B916" s="2"/>
     </row>
     <row r="917" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A917" s="1"/>
-      <c r="B917" s="3"/>
+      <c r="B917" s="2"/>
     </row>
     <row r="918" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A918" s="1"/>
-      <c r="B918" s="3"/>
+      <c r="B918" s="2"/>
     </row>
     <row r="919" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A919" s="1"/>
-      <c r="B919" s="3"/>
+      <c r="B919" s="2"/>
     </row>
     <row r="920" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A920" s="1"/>
-      <c r="B920" s="3"/>
+      <c r="B920" s="2"/>
     </row>
     <row r="921" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A921" s="1"/>
-      <c r="B921" s="3"/>
+      <c r="B921" s="2"/>
     </row>
     <row r="922" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A922" s="1"/>
-      <c r="B922" s="3"/>
+      <c r="B922" s="2"/>
     </row>
     <row r="923" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A923" s="1"/>
-      <c r="B923" s="3"/>
+      <c r="B923" s="2"/>
     </row>
     <row r="924" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A924" s="1"/>
-      <c r="B924" s="3"/>
+      <c r="B924" s="2"/>
     </row>
     <row r="925" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A925" s="1"/>
-      <c r="B925" s="3"/>
+      <c r="B925" s="2"/>
     </row>
     <row r="926" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A926" s="1"/>
-      <c r="B926" s="3"/>
+      <c r="B926" s="2"/>
     </row>
     <row r="927" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A927" s="1"/>
-      <c r="B927" s="3"/>
+      <c r="B927" s="2"/>
     </row>
     <row r="928" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A928" s="1"/>
-      <c r="B928" s="3"/>
+      <c r="B928" s="2"/>
     </row>
     <row r="929" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A929" s="1"/>
-      <c r="B929" s="3"/>
+      <c r="B929" s="2"/>
     </row>
     <row r="930" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A930" s="1"/>
-      <c r="B930" s="3"/>
+      <c r="B930" s="2"/>
     </row>
     <row r="931" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A931" s="1"/>
-      <c r="B931" s="3"/>
+      <c r="B931" s="2"/>
     </row>
     <row r="932" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A932" s="1"/>
-      <c r="B932" s="3"/>
+      <c r="B932" s="2"/>
     </row>
     <row r="933" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A933" s="1"/>
-      <c r="B933" s="3"/>
+      <c r="B933" s="2"/>
     </row>
     <row r="934" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A934" s="1"/>
-      <c r="B934" s="3"/>
+      <c r="B934" s="2"/>
     </row>
     <row r="935" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A935" s="1"/>
-      <c r="B935" s="3"/>
+      <c r="B935" s="2"/>
     </row>
     <row r="936" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A936" s="1"/>
-      <c r="B936" s="3"/>
+      <c r="B936" s="2"/>
     </row>
     <row r="937" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A937" s="1"/>
-      <c r="B937" s="3"/>
+      <c r="B937" s="2"/>
     </row>
     <row r="938" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A938" s="1"/>
-      <c r="B938" s="3"/>
+      <c r="B938" s="2"/>
     </row>
     <row r="939" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A939" s="1"/>
-      <c r="B939" s="3"/>
+      <c r="B939" s="2"/>
     </row>
     <row r="940" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A940" s="1"/>
-      <c r="B940" s="3"/>
+      <c r="B940" s="2"/>
     </row>
     <row r="941" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A941" s="1"/>
-      <c r="B941" s="3"/>
+      <c r="B941" s="2"/>
     </row>
     <row r="942" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A942" s="1"/>
-      <c r="B942" s="3"/>
+      <c r="B942" s="2"/>
     </row>
     <row r="943" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A943" s="1"/>
-      <c r="B943" s="3"/>
+      <c r="B943" s="2"/>
     </row>
     <row r="944" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A944" s="1"/>
-      <c r="B944" s="3"/>
+      <c r="B944" s="2"/>
     </row>
     <row r="945" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A945" s="1"/>
-      <c r="B945" s="3"/>
+      <c r="B945" s="2"/>
     </row>
     <row r="946" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A946" s="1"/>
-      <c r="B946" s="3"/>
+      <c r="B946" s="2"/>
     </row>
     <row r="947" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A947" s="1"/>
-      <c r="B947" s="3"/>
+      <c r="B947" s="2"/>
     </row>
     <row r="948" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A948" s="1"/>
-      <c r="B948" s="3"/>
+      <c r="B948" s="2"/>
     </row>
     <row r="949" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A949" s="1"/>
-      <c r="B949" s="3"/>
+      <c r="B949" s="2"/>
     </row>
     <row r="950" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A950" s="1"/>
-      <c r="B950" s="3"/>
+      <c r="B950" s="2"/>
     </row>
     <row r="951" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A951" s="1"/>
-      <c r="B951" s="3"/>
+      <c r="B951" s="2"/>
     </row>
     <row r="952" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A952" s="1"/>
-      <c r="B952" s="3"/>
+      <c r="B952" s="2"/>
     </row>
     <row r="953" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A953" s="1"/>
-      <c r="B953" s="3"/>
+      <c r="B953" s="2"/>
     </row>
     <row r="954" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A954" s="1"/>
-      <c r="B954" s="3"/>
+      <c r="B954" s="2"/>
     </row>
     <row r="955" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A955" s="1"/>
-      <c r="B955" s="3"/>
+      <c r="B955" s="2"/>
     </row>
     <row r="956" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A956" s="1"/>
-      <c r="B956" s="3"/>
+      <c r="B956" s="2"/>
     </row>
     <row r="957" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A957" s="1"/>
-      <c r="B957" s="3"/>
+      <c r="B957" s="2"/>
     </row>
     <row r="958" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A958" s="1"/>
-      <c r="B958" s="3"/>
+      <c r="B958" s="2"/>
     </row>
     <row r="959" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A959" s="1"/>
-      <c r="B959" s="3"/>
+      <c r="B959" s="2"/>
     </row>
     <row r="960" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A960" s="1"/>
-      <c r="B960" s="3"/>
+      <c r="B960" s="2"/>
     </row>
     <row r="961" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A961" s="1"/>
-      <c r="B961" s="3"/>
+      <c r="B961" s="2"/>
     </row>
     <row r="962" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A962" s="1"/>
-      <c r="B962" s="3"/>
+      <c r="B962" s="2"/>
     </row>
     <row r="963" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A963" s="1"/>
-      <c r="B963" s="3"/>
+      <c r="B963" s="2"/>
     </row>
     <row r="964" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A964" s="1"/>
-      <c r="B964" s="3"/>
+      <c r="B964" s="2"/>
     </row>
     <row r="965" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A965" s="1"/>
-      <c r="B965" s="3"/>
+      <c r="B965" s="2"/>
     </row>
     <row r="966" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A966" s="1"/>
-      <c r="B966" s="3"/>
+      <c r="B966" s="2"/>
     </row>
     <row r="967" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A967" s="1"/>
-      <c r="B967" s="3"/>
+      <c r="B967" s="2"/>
     </row>
     <row r="968" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A968" s="1"/>
-      <c r="B968" s="3"/>
+      <c r="B968" s="2"/>
     </row>
     <row r="969" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A969" s="1"/>
-      <c r="B969" s="3"/>
+      <c r="B969" s="2"/>
     </row>
     <row r="970" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A970" s="1"/>
-      <c r="B970" s="3"/>
+      <c r="B970" s="2"/>
     </row>
     <row r="971" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A971" s="1"/>
-      <c r="B971" s="3"/>
+      <c r="B971" s="2"/>
     </row>
     <row r="972" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A972" s="1"/>
-      <c r="B972" s="3"/>
+      <c r="B972" s="2"/>
     </row>
     <row r="973" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A973" s="1"/>
-      <c r="B973" s="3"/>
+      <c r="B973" s="2"/>
     </row>
     <row r="974" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A974" s="1"/>
-      <c r="B974" s="3"/>
+      <c r="B974" s="2"/>
     </row>
     <row r="975" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A975" s="1"/>
-      <c r="B975" s="3"/>
+      <c r="B975" s="2"/>
     </row>
     <row r="976" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A976" s="1"/>
-      <c r="B976" s="3"/>
+      <c r="B976" s="2"/>
     </row>
     <row r="977" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A977" s="1"/>
-      <c r="B977" s="3"/>
+      <c r="B977" s="2"/>
     </row>
     <row r="978" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A978" s="1"/>
-      <c r="B978" s="3"/>
+      <c r="B978" s="2"/>
     </row>
     <row r="979" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A979" s="1"/>
-      <c r="B979" s="3"/>
+      <c r="B979" s="2"/>
     </row>
     <row r="980" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A980" s="1"/>
-      <c r="B980" s="3"/>
+      <c r="B980" s="2"/>
     </row>
     <row r="981" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A981" s="1"/>
-      <c r="B981" s="3"/>
+      <c r="B981" s="2"/>
     </row>
     <row r="982" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A982" s="1"/>
-      <c r="B982" s="3"/>
+      <c r="B982" s="2"/>
     </row>
     <row r="983" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A983" s="1"/>
-      <c r="B983" s="3"/>
+      <c r="B983" s="2"/>
     </row>
     <row r="984" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A984" s="1"/>
-      <c r="B984" s="3"/>
+      <c r="B984" s="2"/>
     </row>
     <row r="985" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A985" s="1"/>
-      <c r="B985" s="3"/>
+      <c r="B985" s="2"/>
     </row>
     <row r="986" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A986" s="1"/>
-      <c r="B986" s="3"/>
+      <c r="B986" s="2"/>
     </row>
     <row r="987" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A987" s="1"/>
-      <c r="B987" s="3"/>
+      <c r="B987" s="2"/>
     </row>
     <row r="988" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A988" s="1"/>
-      <c r="B988" s="3"/>
+      <c r="B988" s="2"/>
     </row>
     <row r="989" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A989" s="1"/>
-      <c r="B989" s="3"/>
+      <c r="B989" s="2"/>
     </row>
     <row r="990" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A990" s="1"/>
-      <c r="B990" s="3"/>
+      <c r="B990" s="2"/>
     </row>
     <row r="991" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A991" s="1"/>
-      <c r="B991" s="3"/>
+      <c r="B991" s="2"/>
     </row>
     <row r="992" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A992" s="1"/>
-      <c r="B992" s="3"/>
+      <c r="B992" s="2"/>
     </row>
     <row r="993" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A993" s="1"/>
-      <c r="B993" s="3"/>
+      <c r="B993" s="2"/>
     </row>
     <row r="994" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A994" s="1"/>
-      <c r="B994" s="3"/>
+      <c r="B994" s="2"/>
     </row>
     <row r="995" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A995" s="1"/>
-      <c r="B995" s="3"/>
+      <c r="B995" s="2"/>
     </row>
     <row r="996" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A996" s="1"/>
-      <c r="B996" s="3"/>
+      <c r="B996" s="2"/>
     </row>
     <row r="997" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A997" s="1"/>
-      <c r="B997" s="3"/>
+      <c r="B997" s="2"/>
     </row>
     <row r="998" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A998" s="1"/>
-      <c r="B998" s="3"/>
+      <c r="B998" s="2"/>
     </row>
     <row r="999" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A999" s="1"/>
-      <c r="B999" s="3"/>
+      <c r="B999" s="2"/>
     </row>
     <row r="1000" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1000" s="1"/>
-      <c r="B1000" s="3"/>
+      <c r="B1000" s="2"/>
     </row>
     <row r="1001" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1001" s="1"/>
-      <c r="B1001" s="3"/>
+      <c r="B1001" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D2D525-411F-45DC-8AED-3926F1DCCA40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656855A4-1EB0-4488-91D6-8EBB627FC9DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 4" sheetId="1" r:id="rId1"/>
+    <sheet name="Week 6" sheetId="3" r:id="rId1"/>
+    <sheet name="Week 5" sheetId="1" r:id="rId2"/>
+    <sheet name="Job Role Rotation Schedule" sheetId="2" r:id="rId3"/>
+    <sheet name="Future Ideas " sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="61">
   <si>
     <t>Question</t>
   </si>
@@ -126,6 +129,84 @@
   <si>
     <t xml:space="preserve">Meeting with team. Refer to minutes for further details </t>
   </si>
+  <si>
+    <t>Programming pairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 13 </t>
+  </si>
+  <si>
+    <t>Week 5 to Week 6</t>
+  </si>
+  <si>
+    <t>Week 7 to Week 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 9 to Week 10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 11 to Week 12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da Eun </t>
+  </si>
+  <si>
+    <t>Vittorio</t>
+  </si>
+  <si>
+    <t>Brendon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheng Qin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pair 1 </t>
+  </si>
+  <si>
+    <t>Pair 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheng Qin and Vittorio </t>
+  </si>
+  <si>
+    <t>Brendon and DaEun</t>
+  </si>
+  <si>
+    <t>Matthew and Brendon</t>
+  </si>
+  <si>
+    <t>Sheng Qin and DaEun</t>
+  </si>
+  <si>
+    <t>Allow to bid two or more of the same section but will only be assigned by random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew and Vittorio </t>
+  </si>
+  <si>
+    <t>Matthew and DaEun</t>
+  </si>
+  <si>
+    <t>Sheng Qin and Vittorio</t>
+  </si>
+  <si>
+    <t>Sheng Qin and Brendon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vittorio and Matthew </t>
+  </si>
+  <si>
+    <t>Da Eun and Brendon</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
 </sst>
 </file>
 
@@ -175,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -183,11 +264,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -202,21 +298,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -225,6 +308,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,68 +606,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EDCCAD-5CD2-4134-B74E-9B1D82E970A8}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N4" sqref="N4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="26" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="14.42578125" style="10"/>
+    <col min="1" max="1" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="26" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="14.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="D1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -577,50 +660,28 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="S2" s="1"/>
@@ -633,7 +694,4458 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:26" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A106" s="1"/>
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A107" s="1"/>
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A108" s="1"/>
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A110" s="1"/>
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A111" s="1"/>
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A112" s="1"/>
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A113" s="1"/>
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A114" s="1"/>
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A115" s="1"/>
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A116" s="1"/>
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A117" s="1"/>
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A118" s="1"/>
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A119" s="1"/>
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A120" s="1"/>
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A121" s="1"/>
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A122" s="1"/>
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A123" s="1"/>
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A124" s="1"/>
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A125" s="1"/>
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A126" s="1"/>
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A127" s="1"/>
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A128" s="1"/>
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A129" s="1"/>
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A130" s="1"/>
+      <c r="B130" s="2"/>
+    </row>
+    <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A131" s="1"/>
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A132" s="1"/>
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A133" s="1"/>
+      <c r="B133" s="2"/>
+    </row>
+    <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A134" s="1"/>
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A135" s="1"/>
+      <c r="B135" s="2"/>
+    </row>
+    <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A136" s="1"/>
+      <c r="B136" s="2"/>
+    </row>
+    <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A137" s="1"/>
+      <c r="B137" s="2"/>
+    </row>
+    <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A138" s="1"/>
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A139" s="1"/>
+      <c r="B139" s="2"/>
+    </row>
+    <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A140" s="1"/>
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A141" s="1"/>
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A142" s="1"/>
+      <c r="B142" s="2"/>
+    </row>
+    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A143" s="1"/>
+      <c r="B143" s="2"/>
+    </row>
+    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A144" s="1"/>
+      <c r="B144" s="2"/>
+    </row>
+    <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A145" s="1"/>
+      <c r="B145" s="2"/>
+    </row>
+    <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A146" s="1"/>
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A147" s="1"/>
+      <c r="B147" s="2"/>
+    </row>
+    <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A148" s="1"/>
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A149" s="1"/>
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A150" s="1"/>
+      <c r="B150" s="2"/>
+    </row>
+    <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A151" s="1"/>
+      <c r="B151" s="2"/>
+    </row>
+    <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A152" s="1"/>
+      <c r="B152" s="2"/>
+    </row>
+    <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A153" s="1"/>
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A154" s="1"/>
+      <c r="B154" s="2"/>
+    </row>
+    <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A155" s="1"/>
+      <c r="B155" s="2"/>
+    </row>
+    <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A156" s="1"/>
+      <c r="B156" s="2"/>
+    </row>
+    <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A157" s="1"/>
+      <c r="B157" s="2"/>
+    </row>
+    <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A158" s="1"/>
+      <c r="B158" s="2"/>
+    </row>
+    <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A159" s="1"/>
+      <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A160" s="1"/>
+      <c r="B160" s="2"/>
+    </row>
+    <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A161" s="1"/>
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A162" s="1"/>
+      <c r="B162" s="2"/>
+    </row>
+    <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A163" s="1"/>
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A164" s="1"/>
+      <c r="B164" s="2"/>
+    </row>
+    <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A165" s="1"/>
+      <c r="B165" s="2"/>
+    </row>
+    <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A166" s="1"/>
+      <c r="B166" s="2"/>
+    </row>
+    <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A167" s="1"/>
+      <c r="B167" s="2"/>
+    </row>
+    <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A168" s="1"/>
+      <c r="B168" s="2"/>
+    </row>
+    <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A169" s="1"/>
+      <c r="B169" s="2"/>
+    </row>
+    <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A170" s="1"/>
+      <c r="B170" s="2"/>
+    </row>
+    <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A171" s="1"/>
+      <c r="B171" s="2"/>
+    </row>
+    <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A172" s="1"/>
+      <c r="B172" s="2"/>
+    </row>
+    <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A173" s="1"/>
+      <c r="B173" s="2"/>
+    </row>
+    <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A174" s="1"/>
+      <c r="B174" s="2"/>
+    </row>
+    <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A175" s="1"/>
+      <c r="B175" s="2"/>
+    </row>
+    <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A176" s="1"/>
+      <c r="B176" s="2"/>
+    </row>
+    <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A177" s="1"/>
+      <c r="B177" s="2"/>
+    </row>
+    <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A178" s="1"/>
+      <c r="B178" s="2"/>
+    </row>
+    <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A179" s="1"/>
+      <c r="B179" s="2"/>
+    </row>
+    <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A180" s="1"/>
+      <c r="B180" s="2"/>
+    </row>
+    <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A181" s="1"/>
+      <c r="B181" s="2"/>
+    </row>
+    <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A182" s="1"/>
+      <c r="B182" s="2"/>
+    </row>
+    <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A183" s="1"/>
+      <c r="B183" s="2"/>
+    </row>
+    <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A184" s="1"/>
+      <c r="B184" s="2"/>
+    </row>
+    <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A185" s="1"/>
+      <c r="B185" s="2"/>
+    </row>
+    <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A186" s="1"/>
+      <c r="B186" s="2"/>
+    </row>
+    <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A187" s="1"/>
+      <c r="B187" s="2"/>
+    </row>
+    <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A188" s="1"/>
+      <c r="B188" s="2"/>
+    </row>
+    <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A189" s="1"/>
+      <c r="B189" s="2"/>
+    </row>
+    <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A190" s="1"/>
+      <c r="B190" s="2"/>
+    </row>
+    <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A191" s="1"/>
+      <c r="B191" s="2"/>
+    </row>
+    <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A192" s="1"/>
+      <c r="B192" s="2"/>
+    </row>
+    <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A193" s="1"/>
+      <c r="B193" s="2"/>
+    </row>
+    <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A194" s="1"/>
+      <c r="B194" s="2"/>
+    </row>
+    <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A195" s="1"/>
+      <c r="B195" s="2"/>
+    </row>
+    <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A196" s="1"/>
+      <c r="B196" s="2"/>
+    </row>
+    <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A197" s="1"/>
+      <c r="B197" s="2"/>
+    </row>
+    <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A198" s="1"/>
+      <c r="B198" s="2"/>
+    </row>
+    <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A199" s="1"/>
+      <c r="B199" s="2"/>
+    </row>
+    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A200" s="1"/>
+      <c r="B200" s="2"/>
+    </row>
+    <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A201" s="1"/>
+      <c r="B201" s="2"/>
+    </row>
+    <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A202" s="1"/>
+      <c r="B202" s="2"/>
+    </row>
+    <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A203" s="1"/>
+      <c r="B203" s="2"/>
+    </row>
+    <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A204" s="1"/>
+      <c r="B204" s="2"/>
+    </row>
+    <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A205" s="1"/>
+      <c r="B205" s="2"/>
+    </row>
+    <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A206" s="1"/>
+      <c r="B206" s="2"/>
+    </row>
+    <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A207" s="1"/>
+      <c r="B207" s="2"/>
+    </row>
+    <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A208" s="1"/>
+      <c r="B208" s="2"/>
+    </row>
+    <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A209" s="1"/>
+      <c r="B209" s="2"/>
+    </row>
+    <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A210" s="1"/>
+      <c r="B210" s="2"/>
+    </row>
+    <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A211" s="1"/>
+      <c r="B211" s="2"/>
+    </row>
+    <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A212" s="1"/>
+      <c r="B212" s="2"/>
+    </row>
+    <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A213" s="1"/>
+      <c r="B213" s="2"/>
+    </row>
+    <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A214" s="1"/>
+      <c r="B214" s="2"/>
+    </row>
+    <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A215" s="1"/>
+      <c r="B215" s="2"/>
+    </row>
+    <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A216" s="1"/>
+      <c r="B216" s="2"/>
+    </row>
+    <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A217" s="1"/>
+      <c r="B217" s="2"/>
+    </row>
+    <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A218" s="1"/>
+      <c r="B218" s="2"/>
+    </row>
+    <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A219" s="1"/>
+      <c r="B219" s="2"/>
+    </row>
+    <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A220" s="1"/>
+      <c r="B220" s="2"/>
+    </row>
+    <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A221" s="1"/>
+      <c r="B221" s="2"/>
+    </row>
+    <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A222" s="1"/>
+      <c r="B222" s="2"/>
+    </row>
+    <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A223" s="1"/>
+      <c r="B223" s="2"/>
+    </row>
+    <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A224" s="1"/>
+      <c r="B224" s="2"/>
+    </row>
+    <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A225" s="1"/>
+      <c r="B225" s="2"/>
+    </row>
+    <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A226" s="1"/>
+      <c r="B226" s="2"/>
+    </row>
+    <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A227" s="1"/>
+      <c r="B227" s="2"/>
+    </row>
+    <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A228" s="1"/>
+      <c r="B228" s="2"/>
+    </row>
+    <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A229" s="1"/>
+      <c r="B229" s="2"/>
+    </row>
+    <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A230" s="1"/>
+      <c r="B230" s="2"/>
+    </row>
+    <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A231" s="1"/>
+      <c r="B231" s="2"/>
+    </row>
+    <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A232" s="1"/>
+      <c r="B232" s="2"/>
+    </row>
+    <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A233" s="1"/>
+      <c r="B233" s="2"/>
+    </row>
+    <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A234" s="1"/>
+      <c r="B234" s="2"/>
+    </row>
+    <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A235" s="1"/>
+      <c r="B235" s="2"/>
+    </row>
+    <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A236" s="1"/>
+      <c r="B236" s="2"/>
+    </row>
+    <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A237" s="1"/>
+      <c r="B237" s="2"/>
+    </row>
+    <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A238" s="1"/>
+      <c r="B238" s="2"/>
+    </row>
+    <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A239" s="1"/>
+      <c r="B239" s="2"/>
+    </row>
+    <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A240" s="1"/>
+      <c r="B240" s="2"/>
+    </row>
+    <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A241" s="1"/>
+      <c r="B241" s="2"/>
+    </row>
+    <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A242" s="1"/>
+      <c r="B242" s="2"/>
+    </row>
+    <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A243" s="1"/>
+      <c r="B243" s="2"/>
+    </row>
+    <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A244" s="1"/>
+      <c r="B244" s="2"/>
+    </row>
+    <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A245" s="1"/>
+      <c r="B245" s="2"/>
+    </row>
+    <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A246" s="1"/>
+      <c r="B246" s="2"/>
+    </row>
+    <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A247" s="1"/>
+      <c r="B247" s="2"/>
+    </row>
+    <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A248" s="1"/>
+      <c r="B248" s="2"/>
+    </row>
+    <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A249" s="1"/>
+      <c r="B249" s="2"/>
+    </row>
+    <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A250" s="1"/>
+      <c r="B250" s="2"/>
+    </row>
+    <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A251" s="1"/>
+      <c r="B251" s="2"/>
+    </row>
+    <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A252" s="1"/>
+      <c r="B252" s="2"/>
+    </row>
+    <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A253" s="1"/>
+      <c r="B253" s="2"/>
+    </row>
+    <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A254" s="1"/>
+      <c r="B254" s="2"/>
+    </row>
+    <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A255" s="1"/>
+      <c r="B255" s="2"/>
+    </row>
+    <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A256" s="1"/>
+      <c r="B256" s="2"/>
+    </row>
+    <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A257" s="1"/>
+      <c r="B257" s="2"/>
+    </row>
+    <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A258" s="1"/>
+      <c r="B258" s="2"/>
+    </row>
+    <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A259" s="1"/>
+      <c r="B259" s="2"/>
+    </row>
+    <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A260" s="1"/>
+      <c r="B260" s="2"/>
+    </row>
+    <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A261" s="1"/>
+      <c r="B261" s="2"/>
+    </row>
+    <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A262" s="1"/>
+      <c r="B262" s="2"/>
+    </row>
+    <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A263" s="1"/>
+      <c r="B263" s="2"/>
+    </row>
+    <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A264" s="1"/>
+      <c r="B264" s="2"/>
+    </row>
+    <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A265" s="1"/>
+      <c r="B265" s="2"/>
+    </row>
+    <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A266" s="1"/>
+      <c r="B266" s="2"/>
+    </row>
+    <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A267" s="1"/>
+      <c r="B267" s="2"/>
+    </row>
+    <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A268" s="1"/>
+      <c r="B268" s="2"/>
+    </row>
+    <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A269" s="1"/>
+      <c r="B269" s="2"/>
+    </row>
+    <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A270" s="1"/>
+      <c r="B270" s="2"/>
+    </row>
+    <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A271" s="1"/>
+      <c r="B271" s="2"/>
+    </row>
+    <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A272" s="1"/>
+      <c r="B272" s="2"/>
+    </row>
+    <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A273" s="1"/>
+      <c r="B273" s="2"/>
+    </row>
+    <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A274" s="1"/>
+      <c r="B274" s="2"/>
+    </row>
+    <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A275" s="1"/>
+      <c r="B275" s="2"/>
+    </row>
+    <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A276" s="1"/>
+      <c r="B276" s="2"/>
+    </row>
+    <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A277" s="1"/>
+      <c r="B277" s="2"/>
+    </row>
+    <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A278" s="1"/>
+      <c r="B278" s="2"/>
+    </row>
+    <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A279" s="1"/>
+      <c r="B279" s="2"/>
+    </row>
+    <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A280" s="1"/>
+      <c r="B280" s="2"/>
+    </row>
+    <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A281" s="1"/>
+      <c r="B281" s="2"/>
+    </row>
+    <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A282" s="1"/>
+      <c r="B282" s="2"/>
+    </row>
+    <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A283" s="1"/>
+      <c r="B283" s="2"/>
+    </row>
+    <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A284" s="1"/>
+      <c r="B284" s="2"/>
+    </row>
+    <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A285" s="1"/>
+      <c r="B285" s="2"/>
+    </row>
+    <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A286" s="1"/>
+      <c r="B286" s="2"/>
+    </row>
+    <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A287" s="1"/>
+      <c r="B287" s="2"/>
+    </row>
+    <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A288" s="1"/>
+      <c r="B288" s="2"/>
+    </row>
+    <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A289" s="1"/>
+      <c r="B289" s="2"/>
+    </row>
+    <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A290" s="1"/>
+      <c r="B290" s="2"/>
+    </row>
+    <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A291" s="1"/>
+      <c r="B291" s="2"/>
+    </row>
+    <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A292" s="1"/>
+      <c r="B292" s="2"/>
+    </row>
+    <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A293" s="1"/>
+      <c r="B293" s="2"/>
+    </row>
+    <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A294" s="1"/>
+      <c r="B294" s="2"/>
+    </row>
+    <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A295" s="1"/>
+      <c r="B295" s="2"/>
+    </row>
+    <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A296" s="1"/>
+      <c r="B296" s="2"/>
+    </row>
+    <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A297" s="1"/>
+      <c r="B297" s="2"/>
+    </row>
+    <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A298" s="1"/>
+      <c r="B298" s="2"/>
+    </row>
+    <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A299" s="1"/>
+      <c r="B299" s="2"/>
+    </row>
+    <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A300" s="1"/>
+      <c r="B300" s="2"/>
+    </row>
+    <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A301" s="1"/>
+      <c r="B301" s="2"/>
+    </row>
+    <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A302" s="1"/>
+      <c r="B302" s="2"/>
+    </row>
+    <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A303" s="1"/>
+      <c r="B303" s="2"/>
+    </row>
+    <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A304" s="1"/>
+      <c r="B304" s="2"/>
+    </row>
+    <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A305" s="1"/>
+      <c r="B305" s="2"/>
+    </row>
+    <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A306" s="1"/>
+      <c r="B306" s="2"/>
+    </row>
+    <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A307" s="1"/>
+      <c r="B307" s="2"/>
+    </row>
+    <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A308" s="1"/>
+      <c r="B308" s="2"/>
+    </row>
+    <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A309" s="1"/>
+      <c r="B309" s="2"/>
+    </row>
+    <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A310" s="1"/>
+      <c r="B310" s="2"/>
+    </row>
+    <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A311" s="1"/>
+      <c r="B311" s="2"/>
+    </row>
+    <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A312" s="1"/>
+      <c r="B312" s="2"/>
+    </row>
+    <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A313" s="1"/>
+      <c r="B313" s="2"/>
+    </row>
+    <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A314" s="1"/>
+      <c r="B314" s="2"/>
+    </row>
+    <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A315" s="1"/>
+      <c r="B315" s="2"/>
+    </row>
+    <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A316" s="1"/>
+      <c r="B316" s="2"/>
+    </row>
+    <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A317" s="1"/>
+      <c r="B317" s="2"/>
+    </row>
+    <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A318" s="1"/>
+      <c r="B318" s="2"/>
+    </row>
+    <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A319" s="1"/>
+      <c r="B319" s="2"/>
+    </row>
+    <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A320" s="1"/>
+      <c r="B320" s="2"/>
+    </row>
+    <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A321" s="1"/>
+      <c r="B321" s="2"/>
+    </row>
+    <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A322" s="1"/>
+      <c r="B322" s="2"/>
+    </row>
+    <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A323" s="1"/>
+      <c r="B323" s="2"/>
+    </row>
+    <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A324" s="1"/>
+      <c r="B324" s="2"/>
+    </row>
+    <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A325" s="1"/>
+      <c r="B325" s="2"/>
+    </row>
+    <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A326" s="1"/>
+      <c r="B326" s="2"/>
+    </row>
+    <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A327" s="1"/>
+      <c r="B327" s="2"/>
+    </row>
+    <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A328" s="1"/>
+      <c r="B328" s="2"/>
+    </row>
+    <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A329" s="1"/>
+      <c r="B329" s="2"/>
+    </row>
+    <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A330" s="1"/>
+      <c r="B330" s="2"/>
+    </row>
+    <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A331" s="1"/>
+      <c r="B331" s="2"/>
+    </row>
+    <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A332" s="1"/>
+      <c r="B332" s="2"/>
+    </row>
+    <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A333" s="1"/>
+      <c r="B333" s="2"/>
+    </row>
+    <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A334" s="1"/>
+      <c r="B334" s="2"/>
+    </row>
+    <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A335" s="1"/>
+      <c r="B335" s="2"/>
+    </row>
+    <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A336" s="1"/>
+      <c r="B336" s="2"/>
+    </row>
+    <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A337" s="1"/>
+      <c r="B337" s="2"/>
+    </row>
+    <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A338" s="1"/>
+      <c r="B338" s="2"/>
+    </row>
+    <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A339" s="1"/>
+      <c r="B339" s="2"/>
+    </row>
+    <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A340" s="1"/>
+      <c r="B340" s="2"/>
+    </row>
+    <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A341" s="1"/>
+      <c r="B341" s="2"/>
+    </row>
+    <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A342" s="1"/>
+      <c r="B342" s="2"/>
+    </row>
+    <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A343" s="1"/>
+      <c r="B343" s="2"/>
+    </row>
+    <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A344" s="1"/>
+      <c r="B344" s="2"/>
+    </row>
+    <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A345" s="1"/>
+      <c r="B345" s="2"/>
+    </row>
+    <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A346" s="1"/>
+      <c r="B346" s="2"/>
+    </row>
+    <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A347" s="1"/>
+      <c r="B347" s="2"/>
+    </row>
+    <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A348" s="1"/>
+      <c r="B348" s="2"/>
+    </row>
+    <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A349" s="1"/>
+      <c r="B349" s="2"/>
+    </row>
+    <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A350" s="1"/>
+      <c r="B350" s="2"/>
+    </row>
+    <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A351" s="1"/>
+      <c r="B351" s="2"/>
+    </row>
+    <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A352" s="1"/>
+      <c r="B352" s="2"/>
+    </row>
+    <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A353" s="1"/>
+      <c r="B353" s="2"/>
+    </row>
+    <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A354" s="1"/>
+      <c r="B354" s="2"/>
+    </row>
+    <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A355" s="1"/>
+      <c r="B355" s="2"/>
+    </row>
+    <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A356" s="1"/>
+      <c r="B356" s="2"/>
+    </row>
+    <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A357" s="1"/>
+      <c r="B357" s="2"/>
+    </row>
+    <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A358" s="1"/>
+      <c r="B358" s="2"/>
+    </row>
+    <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A359" s="1"/>
+      <c r="B359" s="2"/>
+    </row>
+    <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A360" s="1"/>
+      <c r="B360" s="2"/>
+    </row>
+    <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A361" s="1"/>
+      <c r="B361" s="2"/>
+    </row>
+    <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A362" s="1"/>
+      <c r="B362" s="2"/>
+    </row>
+    <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A363" s="1"/>
+      <c r="B363" s="2"/>
+    </row>
+    <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A364" s="1"/>
+      <c r="B364" s="2"/>
+    </row>
+    <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A365" s="1"/>
+      <c r="B365" s="2"/>
+    </row>
+    <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A366" s="1"/>
+      <c r="B366" s="2"/>
+    </row>
+    <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A367" s="1"/>
+      <c r="B367" s="2"/>
+    </row>
+    <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A368" s="1"/>
+      <c r="B368" s="2"/>
+    </row>
+    <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A369" s="1"/>
+      <c r="B369" s="2"/>
+    </row>
+    <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A370" s="1"/>
+      <c r="B370" s="2"/>
+    </row>
+    <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A371" s="1"/>
+      <c r="B371" s="2"/>
+    </row>
+    <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A372" s="1"/>
+      <c r="B372" s="2"/>
+    </row>
+    <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A373" s="1"/>
+      <c r="B373" s="2"/>
+    </row>
+    <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A374" s="1"/>
+      <c r="B374" s="2"/>
+    </row>
+    <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A375" s="1"/>
+      <c r="B375" s="2"/>
+    </row>
+    <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A376" s="1"/>
+      <c r="B376" s="2"/>
+    </row>
+    <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A377" s="1"/>
+      <c r="B377" s="2"/>
+    </row>
+    <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A378" s="1"/>
+      <c r="B378" s="2"/>
+    </row>
+    <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A379" s="1"/>
+      <c r="B379" s="2"/>
+    </row>
+    <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A380" s="1"/>
+      <c r="B380" s="2"/>
+    </row>
+    <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A381" s="1"/>
+      <c r="B381" s="2"/>
+    </row>
+    <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A382" s="1"/>
+      <c r="B382" s="2"/>
+    </row>
+    <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A383" s="1"/>
+      <c r="B383" s="2"/>
+    </row>
+    <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A384" s="1"/>
+      <c r="B384" s="2"/>
+    </row>
+    <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A385" s="1"/>
+      <c r="B385" s="2"/>
+    </row>
+    <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A386" s="1"/>
+      <c r="B386" s="2"/>
+    </row>
+    <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A387" s="1"/>
+      <c r="B387" s="2"/>
+    </row>
+    <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A388" s="1"/>
+      <c r="B388" s="2"/>
+    </row>
+    <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A389" s="1"/>
+      <c r="B389" s="2"/>
+    </row>
+    <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A390" s="1"/>
+      <c r="B390" s="2"/>
+    </row>
+    <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A391" s="1"/>
+      <c r="B391" s="2"/>
+    </row>
+    <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A392" s="1"/>
+      <c r="B392" s="2"/>
+    </row>
+    <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A393" s="1"/>
+      <c r="B393" s="2"/>
+    </row>
+    <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A394" s="1"/>
+      <c r="B394" s="2"/>
+    </row>
+    <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A395" s="1"/>
+      <c r="B395" s="2"/>
+    </row>
+    <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A396" s="1"/>
+      <c r="B396" s="2"/>
+    </row>
+    <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A397" s="1"/>
+      <c r="B397" s="2"/>
+    </row>
+    <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A398" s="1"/>
+      <c r="B398" s="2"/>
+    </row>
+    <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A399" s="1"/>
+      <c r="B399" s="2"/>
+    </row>
+    <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A400" s="1"/>
+      <c r="B400" s="2"/>
+    </row>
+    <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A401" s="1"/>
+      <c r="B401" s="2"/>
+    </row>
+    <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A402" s="1"/>
+      <c r="B402" s="2"/>
+    </row>
+    <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A403" s="1"/>
+      <c r="B403" s="2"/>
+    </row>
+    <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A404" s="1"/>
+      <c r="B404" s="2"/>
+    </row>
+    <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A405" s="1"/>
+      <c r="B405" s="2"/>
+    </row>
+    <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A406" s="1"/>
+      <c r="B406" s="2"/>
+    </row>
+    <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A407" s="1"/>
+      <c r="B407" s="2"/>
+    </row>
+    <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A408" s="1"/>
+      <c r="B408" s="2"/>
+    </row>
+    <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A409" s="1"/>
+      <c r="B409" s="2"/>
+    </row>
+    <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A410" s="1"/>
+      <c r="B410" s="2"/>
+    </row>
+    <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A411" s="1"/>
+      <c r="B411" s="2"/>
+    </row>
+    <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A412" s="1"/>
+      <c r="B412" s="2"/>
+    </row>
+    <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A413" s="1"/>
+      <c r="B413" s="2"/>
+    </row>
+    <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A414" s="1"/>
+      <c r="B414" s="2"/>
+    </row>
+    <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A415" s="1"/>
+      <c r="B415" s="2"/>
+    </row>
+    <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A416" s="1"/>
+      <c r="B416" s="2"/>
+    </row>
+    <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A417" s="1"/>
+      <c r="B417" s="2"/>
+    </row>
+    <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A418" s="1"/>
+      <c r="B418" s="2"/>
+    </row>
+    <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A419" s="1"/>
+      <c r="B419" s="2"/>
+    </row>
+    <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A420" s="1"/>
+      <c r="B420" s="2"/>
+    </row>
+    <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A421" s="1"/>
+      <c r="B421" s="2"/>
+    </row>
+    <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A422" s="1"/>
+      <c r="B422" s="2"/>
+    </row>
+    <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A423" s="1"/>
+      <c r="B423" s="2"/>
+    </row>
+    <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A424" s="1"/>
+      <c r="B424" s="2"/>
+    </row>
+    <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A425" s="1"/>
+      <c r="B425" s="2"/>
+    </row>
+    <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A426" s="1"/>
+      <c r="B426" s="2"/>
+    </row>
+    <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A427" s="1"/>
+      <c r="B427" s="2"/>
+    </row>
+    <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A428" s="1"/>
+      <c r="B428" s="2"/>
+    </row>
+    <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A429" s="1"/>
+      <c r="B429" s="2"/>
+    </row>
+    <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A430" s="1"/>
+      <c r="B430" s="2"/>
+    </row>
+    <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A431" s="1"/>
+      <c r="B431" s="2"/>
+    </row>
+    <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A432" s="1"/>
+      <c r="B432" s="2"/>
+    </row>
+    <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A433" s="1"/>
+      <c r="B433" s="2"/>
+    </row>
+    <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A434" s="1"/>
+      <c r="B434" s="2"/>
+    </row>
+    <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A435" s="1"/>
+      <c r="B435" s="2"/>
+    </row>
+    <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A436" s="1"/>
+      <c r="B436" s="2"/>
+    </row>
+    <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A437" s="1"/>
+      <c r="B437" s="2"/>
+    </row>
+    <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A438" s="1"/>
+      <c r="B438" s="2"/>
+    </row>
+    <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A439" s="1"/>
+      <c r="B439" s="2"/>
+    </row>
+    <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A440" s="1"/>
+      <c r="B440" s="2"/>
+    </row>
+    <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A441" s="1"/>
+      <c r="B441" s="2"/>
+    </row>
+    <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A442" s="1"/>
+      <c r="B442" s="2"/>
+    </row>
+    <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A443" s="1"/>
+      <c r="B443" s="2"/>
+    </row>
+    <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A444" s="1"/>
+      <c r="B444" s="2"/>
+    </row>
+    <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A445" s="1"/>
+      <c r="B445" s="2"/>
+    </row>
+    <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A446" s="1"/>
+      <c r="B446" s="2"/>
+    </row>
+    <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A447" s="1"/>
+      <c r="B447" s="2"/>
+    </row>
+    <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A448" s="1"/>
+      <c r="B448" s="2"/>
+    </row>
+    <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A449" s="1"/>
+      <c r="B449" s="2"/>
+    </row>
+    <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A450" s="1"/>
+      <c r="B450" s="2"/>
+    </row>
+    <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A451" s="1"/>
+      <c r="B451" s="2"/>
+    </row>
+    <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A452" s="1"/>
+      <c r="B452" s="2"/>
+    </row>
+    <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A453" s="1"/>
+      <c r="B453" s="2"/>
+    </row>
+    <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A454" s="1"/>
+      <c r="B454" s="2"/>
+    </row>
+    <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A455" s="1"/>
+      <c r="B455" s="2"/>
+    </row>
+    <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A456" s="1"/>
+      <c r="B456" s="2"/>
+    </row>
+    <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A457" s="1"/>
+      <c r="B457" s="2"/>
+    </row>
+    <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A458" s="1"/>
+      <c r="B458" s="2"/>
+    </row>
+    <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A459" s="1"/>
+      <c r="B459" s="2"/>
+    </row>
+    <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A460" s="1"/>
+      <c r="B460" s="2"/>
+    </row>
+    <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A461" s="1"/>
+      <c r="B461" s="2"/>
+    </row>
+    <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A462" s="1"/>
+      <c r="B462" s="2"/>
+    </row>
+    <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A463" s="1"/>
+      <c r="B463" s="2"/>
+    </row>
+    <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A464" s="1"/>
+      <c r="B464" s="2"/>
+    </row>
+    <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A465" s="1"/>
+      <c r="B465" s="2"/>
+    </row>
+    <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A466" s="1"/>
+      <c r="B466" s="2"/>
+    </row>
+    <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A467" s="1"/>
+      <c r="B467" s="2"/>
+    </row>
+    <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A468" s="1"/>
+      <c r="B468" s="2"/>
+    </row>
+    <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A469" s="1"/>
+      <c r="B469" s="2"/>
+    </row>
+    <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A470" s="1"/>
+      <c r="B470" s="2"/>
+    </row>
+    <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A471" s="1"/>
+      <c r="B471" s="2"/>
+    </row>
+    <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A472" s="1"/>
+      <c r="B472" s="2"/>
+    </row>
+    <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A473" s="1"/>
+      <c r="B473" s="2"/>
+    </row>
+    <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A474" s="1"/>
+      <c r="B474" s="2"/>
+    </row>
+    <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A475" s="1"/>
+      <c r="B475" s="2"/>
+    </row>
+    <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A476" s="1"/>
+      <c r="B476" s="2"/>
+    </row>
+    <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A477" s="1"/>
+      <c r="B477" s="2"/>
+    </row>
+    <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A478" s="1"/>
+      <c r="B478" s="2"/>
+    </row>
+    <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A479" s="1"/>
+      <c r="B479" s="2"/>
+    </row>
+    <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A480" s="1"/>
+      <c r="B480" s="2"/>
+    </row>
+    <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A481" s="1"/>
+      <c r="B481" s="2"/>
+    </row>
+    <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A482" s="1"/>
+      <c r="B482" s="2"/>
+    </row>
+    <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A483" s="1"/>
+      <c r="B483" s="2"/>
+    </row>
+    <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A484" s="1"/>
+      <c r="B484" s="2"/>
+    </row>
+    <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A485" s="1"/>
+      <c r="B485" s="2"/>
+    </row>
+    <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A486" s="1"/>
+      <c r="B486" s="2"/>
+    </row>
+    <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A487" s="1"/>
+      <c r="B487" s="2"/>
+    </row>
+    <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A488" s="1"/>
+      <c r="B488" s="2"/>
+    </row>
+    <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A489" s="1"/>
+      <c r="B489" s="2"/>
+    </row>
+    <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A490" s="1"/>
+      <c r="B490" s="2"/>
+    </row>
+    <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A491" s="1"/>
+      <c r="B491" s="2"/>
+    </row>
+    <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A492" s="1"/>
+      <c r="B492" s="2"/>
+    </row>
+    <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A493" s="1"/>
+      <c r="B493" s="2"/>
+    </row>
+    <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A494" s="1"/>
+      <c r="B494" s="2"/>
+    </row>
+    <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A495" s="1"/>
+      <c r="B495" s="2"/>
+    </row>
+    <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A496" s="1"/>
+      <c r="B496" s="2"/>
+    </row>
+    <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A497" s="1"/>
+      <c r="B497" s="2"/>
+    </row>
+    <row r="498" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A498" s="1"/>
+      <c r="B498" s="2"/>
+    </row>
+    <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A499" s="1"/>
+      <c r="B499" s="2"/>
+    </row>
+    <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A500" s="1"/>
+      <c r="B500" s="2"/>
+    </row>
+    <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A501" s="1"/>
+      <c r="B501" s="2"/>
+    </row>
+    <row r="502" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A502" s="1"/>
+      <c r="B502" s="2"/>
+    </row>
+    <row r="503" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A503" s="1"/>
+      <c r="B503" s="2"/>
+    </row>
+    <row r="504" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A504" s="1"/>
+      <c r="B504" s="2"/>
+    </row>
+    <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A505" s="1"/>
+      <c r="B505" s="2"/>
+    </row>
+    <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A506" s="1"/>
+      <c r="B506" s="2"/>
+    </row>
+    <row r="507" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A507" s="1"/>
+      <c r="B507" s="2"/>
+    </row>
+    <row r="508" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A508" s="1"/>
+      <c r="B508" s="2"/>
+    </row>
+    <row r="509" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A509" s="1"/>
+      <c r="B509" s="2"/>
+    </row>
+    <row r="510" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A510" s="1"/>
+      <c r="B510" s="2"/>
+    </row>
+    <row r="511" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A511" s="1"/>
+      <c r="B511" s="2"/>
+    </row>
+    <row r="512" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A512" s="1"/>
+      <c r="B512" s="2"/>
+    </row>
+    <row r="513" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A513" s="1"/>
+      <c r="B513" s="2"/>
+    </row>
+    <row r="514" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A514" s="1"/>
+      <c r="B514" s="2"/>
+    </row>
+    <row r="515" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A515" s="1"/>
+      <c r="B515" s="2"/>
+    </row>
+    <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A516" s="1"/>
+      <c r="B516" s="2"/>
+    </row>
+    <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A517" s="1"/>
+      <c r="B517" s="2"/>
+    </row>
+    <row r="518" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A518" s="1"/>
+      <c r="B518" s="2"/>
+    </row>
+    <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A519" s="1"/>
+      <c r="B519" s="2"/>
+    </row>
+    <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A520" s="1"/>
+      <c r="B520" s="2"/>
+    </row>
+    <row r="521" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A521" s="1"/>
+      <c r="B521" s="2"/>
+    </row>
+    <row r="522" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A522" s="1"/>
+      <c r="B522" s="2"/>
+    </row>
+    <row r="523" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A523" s="1"/>
+      <c r="B523" s="2"/>
+    </row>
+    <row r="524" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A524" s="1"/>
+      <c r="B524" s="2"/>
+    </row>
+    <row r="525" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A525" s="1"/>
+      <c r="B525" s="2"/>
+    </row>
+    <row r="526" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A526" s="1"/>
+      <c r="B526" s="2"/>
+    </row>
+    <row r="527" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A527" s="1"/>
+      <c r="B527" s="2"/>
+    </row>
+    <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A528" s="1"/>
+      <c r="B528" s="2"/>
+    </row>
+    <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A529" s="1"/>
+      <c r="B529" s="2"/>
+    </row>
+    <row r="530" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A530" s="1"/>
+      <c r="B530" s="2"/>
+    </row>
+    <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A531" s="1"/>
+      <c r="B531" s="2"/>
+    </row>
+    <row r="532" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A532" s="1"/>
+      <c r="B532" s="2"/>
+    </row>
+    <row r="533" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A533" s="1"/>
+      <c r="B533" s="2"/>
+    </row>
+    <row r="534" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A534" s="1"/>
+      <c r="B534" s="2"/>
+    </row>
+    <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A535" s="1"/>
+      <c r="B535" s="2"/>
+    </row>
+    <row r="536" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A536" s="1"/>
+      <c r="B536" s="2"/>
+    </row>
+    <row r="537" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A537" s="1"/>
+      <c r="B537" s="2"/>
+    </row>
+    <row r="538" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A538" s="1"/>
+      <c r="B538" s="2"/>
+    </row>
+    <row r="539" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A539" s="1"/>
+      <c r="B539" s="2"/>
+    </row>
+    <row r="540" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A540" s="1"/>
+      <c r="B540" s="2"/>
+    </row>
+    <row r="541" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A541" s="1"/>
+      <c r="B541" s="2"/>
+    </row>
+    <row r="542" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A542" s="1"/>
+      <c r="B542" s="2"/>
+    </row>
+    <row r="543" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A543" s="1"/>
+      <c r="B543" s="2"/>
+    </row>
+    <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A544" s="1"/>
+      <c r="B544" s="2"/>
+    </row>
+    <row r="545" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A545" s="1"/>
+      <c r="B545" s="2"/>
+    </row>
+    <row r="546" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A546" s="1"/>
+      <c r="B546" s="2"/>
+    </row>
+    <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A547" s="1"/>
+      <c r="B547" s="2"/>
+    </row>
+    <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A548" s="1"/>
+      <c r="B548" s="2"/>
+    </row>
+    <row r="549" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A549" s="1"/>
+      <c r="B549" s="2"/>
+    </row>
+    <row r="550" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A550" s="1"/>
+      <c r="B550" s="2"/>
+    </row>
+    <row r="551" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A551" s="1"/>
+      <c r="B551" s="2"/>
+    </row>
+    <row r="552" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A552" s="1"/>
+      <c r="B552" s="2"/>
+    </row>
+    <row r="553" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A553" s="1"/>
+      <c r="B553" s="2"/>
+    </row>
+    <row r="554" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A554" s="1"/>
+      <c r="B554" s="2"/>
+    </row>
+    <row r="555" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A555" s="1"/>
+      <c r="B555" s="2"/>
+    </row>
+    <row r="556" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A556" s="1"/>
+      <c r="B556" s="2"/>
+    </row>
+    <row r="557" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A557" s="1"/>
+      <c r="B557" s="2"/>
+    </row>
+    <row r="558" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A558" s="1"/>
+      <c r="B558" s="2"/>
+    </row>
+    <row r="559" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A559" s="1"/>
+      <c r="B559" s="2"/>
+    </row>
+    <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A560" s="1"/>
+      <c r="B560" s="2"/>
+    </row>
+    <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A561" s="1"/>
+      <c r="B561" s="2"/>
+    </row>
+    <row r="562" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A562" s="1"/>
+      <c r="B562" s="2"/>
+    </row>
+    <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A563" s="1"/>
+      <c r="B563" s="2"/>
+    </row>
+    <row r="564" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A564" s="1"/>
+      <c r="B564" s="2"/>
+    </row>
+    <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A565" s="1"/>
+      <c r="B565" s="2"/>
+    </row>
+    <row r="566" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A566" s="1"/>
+      <c r="B566" s="2"/>
+    </row>
+    <row r="567" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A567" s="1"/>
+      <c r="B567" s="2"/>
+    </row>
+    <row r="568" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A568" s="1"/>
+      <c r="B568" s="2"/>
+    </row>
+    <row r="569" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A569" s="1"/>
+      <c r="B569" s="2"/>
+    </row>
+    <row r="570" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A570" s="1"/>
+      <c r="B570" s="2"/>
+    </row>
+    <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A571" s="1"/>
+      <c r="B571" s="2"/>
+    </row>
+    <row r="572" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A572" s="1"/>
+      <c r="B572" s="2"/>
+    </row>
+    <row r="573" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A573" s="1"/>
+      <c r="B573" s="2"/>
+    </row>
+    <row r="574" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A574" s="1"/>
+      <c r="B574" s="2"/>
+    </row>
+    <row r="575" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A575" s="1"/>
+      <c r="B575" s="2"/>
+    </row>
+    <row r="576" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A576" s="1"/>
+      <c r="B576" s="2"/>
+    </row>
+    <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A577" s="1"/>
+      <c r="B577" s="2"/>
+    </row>
+    <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A578" s="1"/>
+      <c r="B578" s="2"/>
+    </row>
+    <row r="579" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A579" s="1"/>
+      <c r="B579" s="2"/>
+    </row>
+    <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A580" s="1"/>
+      <c r="B580" s="2"/>
+    </row>
+    <row r="581" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A581" s="1"/>
+      <c r="B581" s="2"/>
+    </row>
+    <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A582" s="1"/>
+      <c r="B582" s="2"/>
+    </row>
+    <row r="583" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A583" s="1"/>
+      <c r="B583" s="2"/>
+    </row>
+    <row r="584" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A584" s="1"/>
+      <c r="B584" s="2"/>
+    </row>
+    <row r="585" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A585" s="1"/>
+      <c r="B585" s="2"/>
+    </row>
+    <row r="586" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A586" s="1"/>
+      <c r="B586" s="2"/>
+    </row>
+    <row r="587" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A587" s="1"/>
+      <c r="B587" s="2"/>
+    </row>
+    <row r="588" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A588" s="1"/>
+      <c r="B588" s="2"/>
+    </row>
+    <row r="589" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A589" s="1"/>
+      <c r="B589" s="2"/>
+    </row>
+    <row r="590" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A590" s="1"/>
+      <c r="B590" s="2"/>
+    </row>
+    <row r="591" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A591" s="1"/>
+      <c r="B591" s="2"/>
+    </row>
+    <row r="592" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A592" s="1"/>
+      <c r="B592" s="2"/>
+    </row>
+    <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A593" s="1"/>
+      <c r="B593" s="2"/>
+    </row>
+    <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A594" s="1"/>
+      <c r="B594" s="2"/>
+    </row>
+    <row r="595" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A595" s="1"/>
+      <c r="B595" s="2"/>
+    </row>
+    <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A596" s="1"/>
+      <c r="B596" s="2"/>
+    </row>
+    <row r="597" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A597" s="1"/>
+      <c r="B597" s="2"/>
+    </row>
+    <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A598" s="1"/>
+      <c r="B598" s="2"/>
+    </row>
+    <row r="599" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A599" s="1"/>
+      <c r="B599" s="2"/>
+    </row>
+    <row r="600" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A600" s="1"/>
+      <c r="B600" s="2"/>
+    </row>
+    <row r="601" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A601" s="1"/>
+      <c r="B601" s="2"/>
+    </row>
+    <row r="602" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A602" s="1"/>
+      <c r="B602" s="2"/>
+    </row>
+    <row r="603" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A603" s="1"/>
+      <c r="B603" s="2"/>
+    </row>
+    <row r="604" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A604" s="1"/>
+      <c r="B604" s="2"/>
+    </row>
+    <row r="605" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A605" s="1"/>
+      <c r="B605" s="2"/>
+    </row>
+    <row r="606" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A606" s="1"/>
+      <c r="B606" s="2"/>
+    </row>
+    <row r="607" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A607" s="1"/>
+      <c r="B607" s="2"/>
+    </row>
+    <row r="608" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A608" s="1"/>
+      <c r="B608" s="2"/>
+    </row>
+    <row r="609" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A609" s="1"/>
+      <c r="B609" s="2"/>
+    </row>
+    <row r="610" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A610" s="1"/>
+      <c r="B610" s="2"/>
+    </row>
+    <row r="611" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A611" s="1"/>
+      <c r="B611" s="2"/>
+    </row>
+    <row r="612" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A612" s="1"/>
+      <c r="B612" s="2"/>
+    </row>
+    <row r="613" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A613" s="1"/>
+      <c r="B613" s="2"/>
+    </row>
+    <row r="614" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A614" s="1"/>
+      <c r="B614" s="2"/>
+    </row>
+    <row r="615" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A615" s="1"/>
+      <c r="B615" s="2"/>
+    </row>
+    <row r="616" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A616" s="1"/>
+      <c r="B616" s="2"/>
+    </row>
+    <row r="617" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A617" s="1"/>
+      <c r="B617" s="2"/>
+    </row>
+    <row r="618" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A618" s="1"/>
+      <c r="B618" s="2"/>
+    </row>
+    <row r="619" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A619" s="1"/>
+      <c r="B619" s="2"/>
+    </row>
+    <row r="620" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A620" s="1"/>
+      <c r="B620" s="2"/>
+    </row>
+    <row r="621" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A621" s="1"/>
+      <c r="B621" s="2"/>
+    </row>
+    <row r="622" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A622" s="1"/>
+      <c r="B622" s="2"/>
+    </row>
+    <row r="623" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A623" s="1"/>
+      <c r="B623" s="2"/>
+    </row>
+    <row r="624" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A624" s="1"/>
+      <c r="B624" s="2"/>
+    </row>
+    <row r="625" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A625" s="1"/>
+      <c r="B625" s="2"/>
+    </row>
+    <row r="626" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A626" s="1"/>
+      <c r="B626" s="2"/>
+    </row>
+    <row r="627" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A627" s="1"/>
+      <c r="B627" s="2"/>
+    </row>
+    <row r="628" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A628" s="1"/>
+      <c r="B628" s="2"/>
+    </row>
+    <row r="629" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A629" s="1"/>
+      <c r="B629" s="2"/>
+    </row>
+    <row r="630" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A630" s="1"/>
+      <c r="B630" s="2"/>
+    </row>
+    <row r="631" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A631" s="1"/>
+      <c r="B631" s="2"/>
+    </row>
+    <row r="632" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A632" s="1"/>
+      <c r="B632" s="2"/>
+    </row>
+    <row r="633" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A633" s="1"/>
+      <c r="B633" s="2"/>
+    </row>
+    <row r="634" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A634" s="1"/>
+      <c r="B634" s="2"/>
+    </row>
+    <row r="635" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A635" s="1"/>
+      <c r="B635" s="2"/>
+    </row>
+    <row r="636" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A636" s="1"/>
+      <c r="B636" s="2"/>
+    </row>
+    <row r="637" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A637" s="1"/>
+      <c r="B637" s="2"/>
+    </row>
+    <row r="638" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A638" s="1"/>
+      <c r="B638" s="2"/>
+    </row>
+    <row r="639" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A639" s="1"/>
+      <c r="B639" s="2"/>
+    </row>
+    <row r="640" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A640" s="1"/>
+      <c r="B640" s="2"/>
+    </row>
+    <row r="641" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A641" s="1"/>
+      <c r="B641" s="2"/>
+    </row>
+    <row r="642" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A642" s="1"/>
+      <c r="B642" s="2"/>
+    </row>
+    <row r="643" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A643" s="1"/>
+      <c r="B643" s="2"/>
+    </row>
+    <row r="644" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A644" s="1"/>
+      <c r="B644" s="2"/>
+    </row>
+    <row r="645" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A645" s="1"/>
+      <c r="B645" s="2"/>
+    </row>
+    <row r="646" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A646" s="1"/>
+      <c r="B646" s="2"/>
+    </row>
+    <row r="647" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A647" s="1"/>
+      <c r="B647" s="2"/>
+    </row>
+    <row r="648" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A648" s="1"/>
+      <c r="B648" s="2"/>
+    </row>
+    <row r="649" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A649" s="1"/>
+      <c r="B649" s="2"/>
+    </row>
+    <row r="650" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A650" s="1"/>
+      <c r="B650" s="2"/>
+    </row>
+    <row r="651" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A651" s="1"/>
+      <c r="B651" s="2"/>
+    </row>
+    <row r="652" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A652" s="1"/>
+      <c r="B652" s="2"/>
+    </row>
+    <row r="653" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A653" s="1"/>
+      <c r="B653" s="2"/>
+    </row>
+    <row r="654" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A654" s="1"/>
+      <c r="B654" s="2"/>
+    </row>
+    <row r="655" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A655" s="1"/>
+      <c r="B655" s="2"/>
+    </row>
+    <row r="656" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A656" s="1"/>
+      <c r="B656" s="2"/>
+    </row>
+    <row r="657" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A657" s="1"/>
+      <c r="B657" s="2"/>
+    </row>
+    <row r="658" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A658" s="1"/>
+      <c r="B658" s="2"/>
+    </row>
+    <row r="659" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A659" s="1"/>
+      <c r="B659" s="2"/>
+    </row>
+    <row r="660" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A660" s="1"/>
+      <c r="B660" s="2"/>
+    </row>
+    <row r="661" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A661" s="1"/>
+      <c r="B661" s="2"/>
+    </row>
+    <row r="662" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A662" s="1"/>
+      <c r="B662" s="2"/>
+    </row>
+    <row r="663" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A663" s="1"/>
+      <c r="B663" s="2"/>
+    </row>
+    <row r="664" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A664" s="1"/>
+      <c r="B664" s="2"/>
+    </row>
+    <row r="665" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A665" s="1"/>
+      <c r="B665" s="2"/>
+    </row>
+    <row r="666" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A666" s="1"/>
+      <c r="B666" s="2"/>
+    </row>
+    <row r="667" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A667" s="1"/>
+      <c r="B667" s="2"/>
+    </row>
+    <row r="668" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A668" s="1"/>
+      <c r="B668" s="2"/>
+    </row>
+    <row r="669" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A669" s="1"/>
+      <c r="B669" s="2"/>
+    </row>
+    <row r="670" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A670" s="1"/>
+      <c r="B670" s="2"/>
+    </row>
+    <row r="671" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A671" s="1"/>
+      <c r="B671" s="2"/>
+    </row>
+    <row r="672" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A672" s="1"/>
+      <c r="B672" s="2"/>
+    </row>
+    <row r="673" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A673" s="1"/>
+      <c r="B673" s="2"/>
+    </row>
+    <row r="674" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A674" s="1"/>
+      <c r="B674" s="2"/>
+    </row>
+    <row r="675" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A675" s="1"/>
+      <c r="B675" s="2"/>
+    </row>
+    <row r="676" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A676" s="1"/>
+      <c r="B676" s="2"/>
+    </row>
+    <row r="677" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A677" s="1"/>
+      <c r="B677" s="2"/>
+    </row>
+    <row r="678" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A678" s="1"/>
+      <c r="B678" s="2"/>
+    </row>
+    <row r="679" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A679" s="1"/>
+      <c r="B679" s="2"/>
+    </row>
+    <row r="680" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A680" s="1"/>
+      <c r="B680" s="2"/>
+    </row>
+    <row r="681" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A681" s="1"/>
+      <c r="B681" s="2"/>
+    </row>
+    <row r="682" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A682" s="1"/>
+      <c r="B682" s="2"/>
+    </row>
+    <row r="683" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A683" s="1"/>
+      <c r="B683" s="2"/>
+    </row>
+    <row r="684" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A684" s="1"/>
+      <c r="B684" s="2"/>
+    </row>
+    <row r="685" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A685" s="1"/>
+      <c r="B685" s="2"/>
+    </row>
+    <row r="686" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A686" s="1"/>
+      <c r="B686" s="2"/>
+    </row>
+    <row r="687" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A687" s="1"/>
+      <c r="B687" s="2"/>
+    </row>
+    <row r="688" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A688" s="1"/>
+      <c r="B688" s="2"/>
+    </row>
+    <row r="689" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A689" s="1"/>
+      <c r="B689" s="2"/>
+    </row>
+    <row r="690" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A690" s="1"/>
+      <c r="B690" s="2"/>
+    </row>
+    <row r="691" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A691" s="1"/>
+      <c r="B691" s="2"/>
+    </row>
+    <row r="692" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A692" s="1"/>
+      <c r="B692" s="2"/>
+    </row>
+    <row r="693" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A693" s="1"/>
+      <c r="B693" s="2"/>
+    </row>
+    <row r="694" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A694" s="1"/>
+      <c r="B694" s="2"/>
+    </row>
+    <row r="695" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A695" s="1"/>
+      <c r="B695" s="2"/>
+    </row>
+    <row r="696" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A696" s="1"/>
+      <c r="B696" s="2"/>
+    </row>
+    <row r="697" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A697" s="1"/>
+      <c r="B697" s="2"/>
+    </row>
+    <row r="698" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A698" s="1"/>
+      <c r="B698" s="2"/>
+    </row>
+    <row r="699" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A699" s="1"/>
+      <c r="B699" s="2"/>
+    </row>
+    <row r="700" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A700" s="1"/>
+      <c r="B700" s="2"/>
+    </row>
+    <row r="701" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A701" s="1"/>
+      <c r="B701" s="2"/>
+    </row>
+    <row r="702" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A702" s="1"/>
+      <c r="B702" s="2"/>
+    </row>
+    <row r="703" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A703" s="1"/>
+      <c r="B703" s="2"/>
+    </row>
+    <row r="704" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A704" s="1"/>
+      <c r="B704" s="2"/>
+    </row>
+    <row r="705" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A705" s="1"/>
+      <c r="B705" s="2"/>
+    </row>
+    <row r="706" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A706" s="1"/>
+      <c r="B706" s="2"/>
+    </row>
+    <row r="707" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A707" s="1"/>
+      <c r="B707" s="2"/>
+    </row>
+    <row r="708" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A708" s="1"/>
+      <c r="B708" s="2"/>
+    </row>
+    <row r="709" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A709" s="1"/>
+      <c r="B709" s="2"/>
+    </row>
+    <row r="710" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A710" s="1"/>
+      <c r="B710" s="2"/>
+    </row>
+    <row r="711" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A711" s="1"/>
+      <c r="B711" s="2"/>
+    </row>
+    <row r="712" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A712" s="1"/>
+      <c r="B712" s="2"/>
+    </row>
+    <row r="713" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A713" s="1"/>
+      <c r="B713" s="2"/>
+    </row>
+    <row r="714" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A714" s="1"/>
+      <c r="B714" s="2"/>
+    </row>
+    <row r="715" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A715" s="1"/>
+      <c r="B715" s="2"/>
+    </row>
+    <row r="716" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A716" s="1"/>
+      <c r="B716" s="2"/>
+    </row>
+    <row r="717" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A717" s="1"/>
+      <c r="B717" s="2"/>
+    </row>
+    <row r="718" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A718" s="1"/>
+      <c r="B718" s="2"/>
+    </row>
+    <row r="719" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A719" s="1"/>
+      <c r="B719" s="2"/>
+    </row>
+    <row r="720" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A720" s="1"/>
+      <c r="B720" s="2"/>
+    </row>
+    <row r="721" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A721" s="1"/>
+      <c r="B721" s="2"/>
+    </row>
+    <row r="722" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A722" s="1"/>
+      <c r="B722" s="2"/>
+    </row>
+    <row r="723" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A723" s="1"/>
+      <c r="B723" s="2"/>
+    </row>
+    <row r="724" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A724" s="1"/>
+      <c r="B724" s="2"/>
+    </row>
+    <row r="725" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A725" s="1"/>
+      <c r="B725" s="2"/>
+    </row>
+    <row r="726" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A726" s="1"/>
+      <c r="B726" s="2"/>
+    </row>
+    <row r="727" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A727" s="1"/>
+      <c r="B727" s="2"/>
+    </row>
+    <row r="728" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A728" s="1"/>
+      <c r="B728" s="2"/>
+    </row>
+    <row r="729" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A729" s="1"/>
+      <c r="B729" s="2"/>
+    </row>
+    <row r="730" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A730" s="1"/>
+      <c r="B730" s="2"/>
+    </row>
+    <row r="731" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A731" s="1"/>
+      <c r="B731" s="2"/>
+    </row>
+    <row r="732" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A732" s="1"/>
+      <c r="B732" s="2"/>
+    </row>
+    <row r="733" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A733" s="1"/>
+      <c r="B733" s="2"/>
+    </row>
+    <row r="734" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A734" s="1"/>
+      <c r="B734" s="2"/>
+    </row>
+    <row r="735" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A735" s="1"/>
+      <c r="B735" s="2"/>
+    </row>
+    <row r="736" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A736" s="1"/>
+      <c r="B736" s="2"/>
+    </row>
+    <row r="737" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A737" s="1"/>
+      <c r="B737" s="2"/>
+    </row>
+    <row r="738" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A738" s="1"/>
+      <c r="B738" s="2"/>
+    </row>
+    <row r="739" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A739" s="1"/>
+      <c r="B739" s="2"/>
+    </row>
+    <row r="740" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A740" s="1"/>
+      <c r="B740" s="2"/>
+    </row>
+    <row r="741" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A741" s="1"/>
+      <c r="B741" s="2"/>
+    </row>
+    <row r="742" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A742" s="1"/>
+      <c r="B742" s="2"/>
+    </row>
+    <row r="743" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A743" s="1"/>
+      <c r="B743" s="2"/>
+    </row>
+    <row r="744" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A744" s="1"/>
+      <c r="B744" s="2"/>
+    </row>
+    <row r="745" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A745" s="1"/>
+      <c r="B745" s="2"/>
+    </row>
+    <row r="746" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A746" s="1"/>
+      <c r="B746" s="2"/>
+    </row>
+    <row r="747" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A747" s="1"/>
+      <c r="B747" s="2"/>
+    </row>
+    <row r="748" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A748" s="1"/>
+      <c r="B748" s="2"/>
+    </row>
+    <row r="749" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A749" s="1"/>
+      <c r="B749" s="2"/>
+    </row>
+    <row r="750" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A750" s="1"/>
+      <c r="B750" s="2"/>
+    </row>
+    <row r="751" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A751" s="1"/>
+      <c r="B751" s="2"/>
+    </row>
+    <row r="752" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A752" s="1"/>
+      <c r="B752" s="2"/>
+    </row>
+    <row r="753" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A753" s="1"/>
+      <c r="B753" s="2"/>
+    </row>
+    <row r="754" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A754" s="1"/>
+      <c r="B754" s="2"/>
+    </row>
+    <row r="755" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A755" s="1"/>
+      <c r="B755" s="2"/>
+    </row>
+    <row r="756" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A756" s="1"/>
+      <c r="B756" s="2"/>
+    </row>
+    <row r="757" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A757" s="1"/>
+      <c r="B757" s="2"/>
+    </row>
+    <row r="758" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A758" s="1"/>
+      <c r="B758" s="2"/>
+    </row>
+    <row r="759" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A759" s="1"/>
+      <c r="B759" s="2"/>
+    </row>
+    <row r="760" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A760" s="1"/>
+      <c r="B760" s="2"/>
+    </row>
+    <row r="761" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A761" s="1"/>
+      <c r="B761" s="2"/>
+    </row>
+    <row r="762" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A762" s="1"/>
+      <c r="B762" s="2"/>
+    </row>
+    <row r="763" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A763" s="1"/>
+      <c r="B763" s="2"/>
+    </row>
+    <row r="764" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A764" s="1"/>
+      <c r="B764" s="2"/>
+    </row>
+    <row r="765" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A765" s="1"/>
+      <c r="B765" s="2"/>
+    </row>
+    <row r="766" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A766" s="1"/>
+      <c r="B766" s="2"/>
+    </row>
+    <row r="767" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A767" s="1"/>
+      <c r="B767" s="2"/>
+    </row>
+    <row r="768" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A768" s="1"/>
+      <c r="B768" s="2"/>
+    </row>
+    <row r="769" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A769" s="1"/>
+      <c r="B769" s="2"/>
+    </row>
+    <row r="770" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A770" s="1"/>
+      <c r="B770" s="2"/>
+    </row>
+    <row r="771" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A771" s="1"/>
+      <c r="B771" s="2"/>
+    </row>
+    <row r="772" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A772" s="1"/>
+      <c r="B772" s="2"/>
+    </row>
+    <row r="773" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A773" s="1"/>
+      <c r="B773" s="2"/>
+    </row>
+    <row r="774" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A774" s="1"/>
+      <c r="B774" s="2"/>
+    </row>
+    <row r="775" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A775" s="1"/>
+      <c r="B775" s="2"/>
+    </row>
+    <row r="776" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A776" s="1"/>
+      <c r="B776" s="2"/>
+    </row>
+    <row r="777" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A777" s="1"/>
+      <c r="B777" s="2"/>
+    </row>
+    <row r="778" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A778" s="1"/>
+      <c r="B778" s="2"/>
+    </row>
+    <row r="779" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A779" s="1"/>
+      <c r="B779" s="2"/>
+    </row>
+    <row r="780" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A780" s="1"/>
+      <c r="B780" s="2"/>
+    </row>
+    <row r="781" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A781" s="1"/>
+      <c r="B781" s="2"/>
+    </row>
+    <row r="782" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A782" s="1"/>
+      <c r="B782" s="2"/>
+    </row>
+    <row r="783" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A783" s="1"/>
+      <c r="B783" s="2"/>
+    </row>
+    <row r="784" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A784" s="1"/>
+      <c r="B784" s="2"/>
+    </row>
+    <row r="785" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A785" s="1"/>
+      <c r="B785" s="2"/>
+    </row>
+    <row r="786" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A786" s="1"/>
+      <c r="B786" s="2"/>
+    </row>
+    <row r="787" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A787" s="1"/>
+      <c r="B787" s="2"/>
+    </row>
+    <row r="788" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A788" s="1"/>
+      <c r="B788" s="2"/>
+    </row>
+    <row r="789" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A789" s="1"/>
+      <c r="B789" s="2"/>
+    </row>
+    <row r="790" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A790" s="1"/>
+      <c r="B790" s="2"/>
+    </row>
+    <row r="791" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A791" s="1"/>
+      <c r="B791" s="2"/>
+    </row>
+    <row r="792" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A792" s="1"/>
+      <c r="B792" s="2"/>
+    </row>
+    <row r="793" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A793" s="1"/>
+      <c r="B793" s="2"/>
+    </row>
+    <row r="794" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A794" s="1"/>
+      <c r="B794" s="2"/>
+    </row>
+    <row r="795" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A795" s="1"/>
+      <c r="B795" s="2"/>
+    </row>
+    <row r="796" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A796" s="1"/>
+      <c r="B796" s="2"/>
+    </row>
+    <row r="797" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A797" s="1"/>
+      <c r="B797" s="2"/>
+    </row>
+    <row r="798" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A798" s="1"/>
+      <c r="B798" s="2"/>
+    </row>
+    <row r="799" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A799" s="1"/>
+      <c r="B799" s="2"/>
+    </row>
+    <row r="800" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A800" s="1"/>
+      <c r="B800" s="2"/>
+    </row>
+    <row r="801" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A801" s="1"/>
+      <c r="B801" s="2"/>
+    </row>
+    <row r="802" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A802" s="1"/>
+      <c r="B802" s="2"/>
+    </row>
+    <row r="803" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A803" s="1"/>
+      <c r="B803" s="2"/>
+    </row>
+    <row r="804" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A804" s="1"/>
+      <c r="B804" s="2"/>
+    </row>
+    <row r="805" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A805" s="1"/>
+      <c r="B805" s="2"/>
+    </row>
+    <row r="806" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A806" s="1"/>
+      <c r="B806" s="2"/>
+    </row>
+    <row r="807" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A807" s="1"/>
+      <c r="B807" s="2"/>
+    </row>
+    <row r="808" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A808" s="1"/>
+      <c r="B808" s="2"/>
+    </row>
+    <row r="809" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A809" s="1"/>
+      <c r="B809" s="2"/>
+    </row>
+    <row r="810" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A810" s="1"/>
+      <c r="B810" s="2"/>
+    </row>
+    <row r="811" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A811" s="1"/>
+      <c r="B811" s="2"/>
+    </row>
+    <row r="812" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A812" s="1"/>
+      <c r="B812" s="2"/>
+    </row>
+    <row r="813" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A813" s="1"/>
+      <c r="B813" s="2"/>
+    </row>
+    <row r="814" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A814" s="1"/>
+      <c r="B814" s="2"/>
+    </row>
+    <row r="815" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A815" s="1"/>
+      <c r="B815" s="2"/>
+    </row>
+    <row r="816" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A816" s="1"/>
+      <c r="B816" s="2"/>
+    </row>
+    <row r="817" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A817" s="1"/>
+      <c r="B817" s="2"/>
+    </row>
+    <row r="818" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A818" s="1"/>
+      <c r="B818" s="2"/>
+    </row>
+    <row r="819" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A819" s="1"/>
+      <c r="B819" s="2"/>
+    </row>
+    <row r="820" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A820" s="1"/>
+      <c r="B820" s="2"/>
+    </row>
+    <row r="821" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A821" s="1"/>
+      <c r="B821" s="2"/>
+    </row>
+    <row r="822" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A822" s="1"/>
+      <c r="B822" s="2"/>
+    </row>
+    <row r="823" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A823" s="1"/>
+      <c r="B823" s="2"/>
+    </row>
+    <row r="824" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A824" s="1"/>
+      <c r="B824" s="2"/>
+    </row>
+    <row r="825" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A825" s="1"/>
+      <c r="B825" s="2"/>
+    </row>
+    <row r="826" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A826" s="1"/>
+      <c r="B826" s="2"/>
+    </row>
+    <row r="827" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A827" s="1"/>
+      <c r="B827" s="2"/>
+    </row>
+    <row r="828" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A828" s="1"/>
+      <c r="B828" s="2"/>
+    </row>
+    <row r="829" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A829" s="1"/>
+      <c r="B829" s="2"/>
+    </row>
+    <row r="830" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A830" s="1"/>
+      <c r="B830" s="2"/>
+    </row>
+    <row r="831" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A831" s="1"/>
+      <c r="B831" s="2"/>
+    </row>
+    <row r="832" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A832" s="1"/>
+      <c r="B832" s="2"/>
+    </row>
+    <row r="833" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A833" s="1"/>
+      <c r="B833" s="2"/>
+    </row>
+    <row r="834" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A834" s="1"/>
+      <c r="B834" s="2"/>
+    </row>
+    <row r="835" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A835" s="1"/>
+      <c r="B835" s="2"/>
+    </row>
+    <row r="836" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A836" s="1"/>
+      <c r="B836" s="2"/>
+    </row>
+    <row r="837" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A837" s="1"/>
+      <c r="B837" s="2"/>
+    </row>
+    <row r="838" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A838" s="1"/>
+      <c r="B838" s="2"/>
+    </row>
+    <row r="839" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A839" s="1"/>
+      <c r="B839" s="2"/>
+    </row>
+    <row r="840" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A840" s="1"/>
+      <c r="B840" s="2"/>
+    </row>
+    <row r="841" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A841" s="1"/>
+      <c r="B841" s="2"/>
+    </row>
+    <row r="842" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A842" s="1"/>
+      <c r="B842" s="2"/>
+    </row>
+    <row r="843" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A843" s="1"/>
+      <c r="B843" s="2"/>
+    </row>
+    <row r="844" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A844" s="1"/>
+      <c r="B844" s="2"/>
+    </row>
+    <row r="845" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A845" s="1"/>
+      <c r="B845" s="2"/>
+    </row>
+    <row r="846" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A846" s="1"/>
+      <c r="B846" s="2"/>
+    </row>
+    <row r="847" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A847" s="1"/>
+      <c r="B847" s="2"/>
+    </row>
+    <row r="848" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A848" s="1"/>
+      <c r="B848" s="2"/>
+    </row>
+    <row r="849" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A849" s="1"/>
+      <c r="B849" s="2"/>
+    </row>
+    <row r="850" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A850" s="1"/>
+      <c r="B850" s="2"/>
+    </row>
+    <row r="851" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A851" s="1"/>
+      <c r="B851" s="2"/>
+    </row>
+    <row r="852" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A852" s="1"/>
+      <c r="B852" s="2"/>
+    </row>
+    <row r="853" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A853" s="1"/>
+      <c r="B853" s="2"/>
+    </row>
+    <row r="854" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A854" s="1"/>
+      <c r="B854" s="2"/>
+    </row>
+    <row r="855" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A855" s="1"/>
+      <c r="B855" s="2"/>
+    </row>
+    <row r="856" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A856" s="1"/>
+      <c r="B856" s="2"/>
+    </row>
+    <row r="857" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A857" s="1"/>
+      <c r="B857" s="2"/>
+    </row>
+    <row r="858" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A858" s="1"/>
+      <c r="B858" s="2"/>
+    </row>
+    <row r="859" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A859" s="1"/>
+      <c r="B859" s="2"/>
+    </row>
+    <row r="860" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A860" s="1"/>
+      <c r="B860" s="2"/>
+    </row>
+    <row r="861" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A861" s="1"/>
+      <c r="B861" s="2"/>
+    </row>
+    <row r="862" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A862" s="1"/>
+      <c r="B862" s="2"/>
+    </row>
+    <row r="863" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A863" s="1"/>
+      <c r="B863" s="2"/>
+    </row>
+    <row r="864" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A864" s="1"/>
+      <c r="B864" s="2"/>
+    </row>
+    <row r="865" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A865" s="1"/>
+      <c r="B865" s="2"/>
+    </row>
+    <row r="866" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A866" s="1"/>
+      <c r="B866" s="2"/>
+    </row>
+    <row r="867" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A867" s="1"/>
+      <c r="B867" s="2"/>
+    </row>
+    <row r="868" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A868" s="1"/>
+      <c r="B868" s="2"/>
+    </row>
+    <row r="869" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A869" s="1"/>
+      <c r="B869" s="2"/>
+    </row>
+    <row r="870" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A870" s="1"/>
+      <c r="B870" s="2"/>
+    </row>
+    <row r="871" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A871" s="1"/>
+      <c r="B871" s="2"/>
+    </row>
+    <row r="872" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A872" s="1"/>
+      <c r="B872" s="2"/>
+    </row>
+    <row r="873" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A873" s="1"/>
+      <c r="B873" s="2"/>
+    </row>
+    <row r="874" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A874" s="1"/>
+      <c r="B874" s="2"/>
+    </row>
+    <row r="875" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A875" s="1"/>
+      <c r="B875" s="2"/>
+    </row>
+    <row r="876" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A876" s="1"/>
+      <c r="B876" s="2"/>
+    </row>
+    <row r="877" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A877" s="1"/>
+      <c r="B877" s="2"/>
+    </row>
+    <row r="878" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A878" s="1"/>
+      <c r="B878" s="2"/>
+    </row>
+    <row r="879" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A879" s="1"/>
+      <c r="B879" s="2"/>
+    </row>
+    <row r="880" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A880" s="1"/>
+      <c r="B880" s="2"/>
+    </row>
+    <row r="881" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A881" s="1"/>
+      <c r="B881" s="2"/>
+    </row>
+    <row r="882" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A882" s="1"/>
+      <c r="B882" s="2"/>
+    </row>
+    <row r="883" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A883" s="1"/>
+      <c r="B883" s="2"/>
+    </row>
+    <row r="884" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A884" s="1"/>
+      <c r="B884" s="2"/>
+    </row>
+    <row r="885" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A885" s="1"/>
+      <c r="B885" s="2"/>
+    </row>
+    <row r="886" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A886" s="1"/>
+      <c r="B886" s="2"/>
+    </row>
+    <row r="887" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A887" s="1"/>
+      <c r="B887" s="2"/>
+    </row>
+    <row r="888" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A888" s="1"/>
+      <c r="B888" s="2"/>
+    </row>
+    <row r="889" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A889" s="1"/>
+      <c r="B889" s="2"/>
+    </row>
+    <row r="890" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A890" s="1"/>
+      <c r="B890" s="2"/>
+    </row>
+    <row r="891" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A891" s="1"/>
+      <c r="B891" s="2"/>
+    </row>
+    <row r="892" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A892" s="1"/>
+      <c r="B892" s="2"/>
+    </row>
+    <row r="893" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A893" s="1"/>
+      <c r="B893" s="2"/>
+    </row>
+    <row r="894" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A894" s="1"/>
+      <c r="B894" s="2"/>
+    </row>
+    <row r="895" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A895" s="1"/>
+      <c r="B895" s="2"/>
+    </row>
+    <row r="896" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A896" s="1"/>
+      <c r="B896" s="2"/>
+    </row>
+    <row r="897" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A897" s="1"/>
+      <c r="B897" s="2"/>
+    </row>
+    <row r="898" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A898" s="1"/>
+      <c r="B898" s="2"/>
+    </row>
+    <row r="899" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A899" s="1"/>
+      <c r="B899" s="2"/>
+    </row>
+    <row r="900" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A900" s="1"/>
+      <c r="B900" s="2"/>
+    </row>
+    <row r="901" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A901" s="1"/>
+      <c r="B901" s="2"/>
+    </row>
+    <row r="902" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A902" s="1"/>
+      <c r="B902" s="2"/>
+    </row>
+    <row r="903" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A903" s="1"/>
+      <c r="B903" s="2"/>
+    </row>
+    <row r="904" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A904" s="1"/>
+      <c r="B904" s="2"/>
+    </row>
+    <row r="905" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A905" s="1"/>
+      <c r="B905" s="2"/>
+    </row>
+    <row r="906" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A906" s="1"/>
+      <c r="B906" s="2"/>
+    </row>
+    <row r="907" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A907" s="1"/>
+      <c r="B907" s="2"/>
+    </row>
+    <row r="908" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A908" s="1"/>
+      <c r="B908" s="2"/>
+    </row>
+    <row r="909" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A909" s="1"/>
+      <c r="B909" s="2"/>
+    </row>
+    <row r="910" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A910" s="1"/>
+      <c r="B910" s="2"/>
+    </row>
+    <row r="911" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A911" s="1"/>
+      <c r="B911" s="2"/>
+    </row>
+    <row r="912" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A912" s="1"/>
+      <c r="B912" s="2"/>
+    </row>
+    <row r="913" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A913" s="1"/>
+      <c r="B913" s="2"/>
+    </row>
+    <row r="914" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A914" s="1"/>
+      <c r="B914" s="2"/>
+    </row>
+    <row r="915" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A915" s="1"/>
+      <c r="B915" s="2"/>
+    </row>
+    <row r="916" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A916" s="1"/>
+      <c r="B916" s="2"/>
+    </row>
+    <row r="917" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A917" s="1"/>
+      <c r="B917" s="2"/>
+    </row>
+    <row r="918" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A918" s="1"/>
+      <c r="B918" s="2"/>
+    </row>
+    <row r="919" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A919" s="1"/>
+      <c r="B919" s="2"/>
+    </row>
+    <row r="920" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A920" s="1"/>
+      <c r="B920" s="2"/>
+    </row>
+    <row r="921" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A921" s="1"/>
+      <c r="B921" s="2"/>
+    </row>
+    <row r="922" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A922" s="1"/>
+      <c r="B922" s="2"/>
+    </row>
+    <row r="923" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A923" s="1"/>
+      <c r="B923" s="2"/>
+    </row>
+    <row r="924" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A924" s="1"/>
+      <c r="B924" s="2"/>
+    </row>
+    <row r="925" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A925" s="1"/>
+      <c r="B925" s="2"/>
+    </row>
+    <row r="926" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A926" s="1"/>
+      <c r="B926" s="2"/>
+    </row>
+    <row r="927" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A927" s="1"/>
+      <c r="B927" s="2"/>
+    </row>
+    <row r="928" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A928" s="1"/>
+      <c r="B928" s="2"/>
+    </row>
+    <row r="929" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A929" s="1"/>
+      <c r="B929" s="2"/>
+    </row>
+    <row r="930" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A930" s="1"/>
+      <c r="B930" s="2"/>
+    </row>
+    <row r="931" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A931" s="1"/>
+      <c r="B931" s="2"/>
+    </row>
+    <row r="932" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A932" s="1"/>
+      <c r="B932" s="2"/>
+    </row>
+    <row r="933" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A933" s="1"/>
+      <c r="B933" s="2"/>
+    </row>
+    <row r="934" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A934" s="1"/>
+      <c r="B934" s="2"/>
+    </row>
+    <row r="935" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A935" s="1"/>
+      <c r="B935" s="2"/>
+    </row>
+    <row r="936" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A936" s="1"/>
+      <c r="B936" s="2"/>
+    </row>
+    <row r="937" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A937" s="1"/>
+      <c r="B937" s="2"/>
+    </row>
+    <row r="938" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A938" s="1"/>
+      <c r="B938" s="2"/>
+    </row>
+    <row r="939" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A939" s="1"/>
+      <c r="B939" s="2"/>
+    </row>
+    <row r="940" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A940" s="1"/>
+      <c r="B940" s="2"/>
+    </row>
+    <row r="941" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A941" s="1"/>
+      <c r="B941" s="2"/>
+    </row>
+    <row r="942" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A942" s="1"/>
+      <c r="B942" s="2"/>
+    </row>
+    <row r="943" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A943" s="1"/>
+      <c r="B943" s="2"/>
+    </row>
+    <row r="944" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A944" s="1"/>
+      <c r="B944" s="2"/>
+    </row>
+    <row r="945" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A945" s="1"/>
+      <c r="B945" s="2"/>
+    </row>
+    <row r="946" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A946" s="1"/>
+      <c r="B946" s="2"/>
+    </row>
+    <row r="947" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A947" s="1"/>
+      <c r="B947" s="2"/>
+    </row>
+    <row r="948" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A948" s="1"/>
+      <c r="B948" s="2"/>
+    </row>
+    <row r="949" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A949" s="1"/>
+      <c r="B949" s="2"/>
+    </row>
+    <row r="950" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A950" s="1"/>
+      <c r="B950" s="2"/>
+    </row>
+    <row r="951" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A951" s="1"/>
+      <c r="B951" s="2"/>
+    </row>
+    <row r="952" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A952" s="1"/>
+      <c r="B952" s="2"/>
+    </row>
+    <row r="953" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A953" s="1"/>
+      <c r="B953" s="2"/>
+    </row>
+    <row r="954" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A954" s="1"/>
+      <c r="B954" s="2"/>
+    </row>
+    <row r="955" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A955" s="1"/>
+      <c r="B955" s="2"/>
+    </row>
+    <row r="956" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A956" s="1"/>
+      <c r="B956" s="2"/>
+    </row>
+    <row r="957" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A957" s="1"/>
+      <c r="B957" s="2"/>
+    </row>
+    <row r="958" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A958" s="1"/>
+      <c r="B958" s="2"/>
+    </row>
+    <row r="959" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A959" s="1"/>
+      <c r="B959" s="2"/>
+    </row>
+    <row r="960" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A960" s="1"/>
+      <c r="B960" s="2"/>
+    </row>
+    <row r="961" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A961" s="1"/>
+      <c r="B961" s="2"/>
+    </row>
+    <row r="962" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A962" s="1"/>
+      <c r="B962" s="2"/>
+    </row>
+    <row r="963" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A963" s="1"/>
+      <c r="B963" s="2"/>
+    </row>
+    <row r="964" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A964" s="1"/>
+      <c r="B964" s="2"/>
+    </row>
+    <row r="965" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A965" s="1"/>
+      <c r="B965" s="2"/>
+    </row>
+    <row r="966" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A966" s="1"/>
+      <c r="B966" s="2"/>
+    </row>
+    <row r="967" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A967" s="1"/>
+      <c r="B967" s="2"/>
+    </row>
+    <row r="968" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A968" s="1"/>
+      <c r="B968" s="2"/>
+    </row>
+    <row r="969" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A969" s="1"/>
+      <c r="B969" s="2"/>
+    </row>
+    <row r="970" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A970" s="1"/>
+      <c r="B970" s="2"/>
+    </row>
+    <row r="971" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A971" s="1"/>
+      <c r="B971" s="2"/>
+    </row>
+    <row r="972" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A972" s="1"/>
+      <c r="B972" s="2"/>
+    </row>
+    <row r="973" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A973" s="1"/>
+      <c r="B973" s="2"/>
+    </row>
+    <row r="974" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A974" s="1"/>
+      <c r="B974" s="2"/>
+    </row>
+    <row r="975" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A975" s="1"/>
+      <c r="B975" s="2"/>
+    </row>
+    <row r="976" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A976" s="1"/>
+      <c r="B976" s="2"/>
+    </row>
+    <row r="977" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A977" s="1"/>
+      <c r="B977" s="2"/>
+    </row>
+    <row r="978" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A978" s="1"/>
+      <c r="B978" s="2"/>
+    </row>
+    <row r="979" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A979" s="1"/>
+      <c r="B979" s="2"/>
+    </row>
+    <row r="980" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A980" s="1"/>
+      <c r="B980" s="2"/>
+    </row>
+    <row r="981" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A981" s="1"/>
+      <c r="B981" s="2"/>
+    </row>
+    <row r="982" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A982" s="1"/>
+      <c r="B982" s="2"/>
+    </row>
+    <row r="983" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A983" s="1"/>
+      <c r="B983" s="2"/>
+    </row>
+    <row r="984" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A984" s="1"/>
+      <c r="B984" s="2"/>
+    </row>
+    <row r="985" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A985" s="1"/>
+      <c r="B985" s="2"/>
+    </row>
+    <row r="986" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A986" s="1"/>
+      <c r="B986" s="2"/>
+    </row>
+    <row r="987" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A987" s="1"/>
+      <c r="B987" s="2"/>
+    </row>
+    <row r="988" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A988" s="1"/>
+      <c r="B988" s="2"/>
+    </row>
+    <row r="989" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A989" s="1"/>
+      <c r="B989" s="2"/>
+    </row>
+    <row r="990" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A990" s="1"/>
+      <c r="B990" s="2"/>
+    </row>
+    <row r="991" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A991" s="1"/>
+      <c r="B991" s="2"/>
+    </row>
+    <row r="992" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A992" s="1"/>
+      <c r="B992" s="2"/>
+    </row>
+    <row r="993" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A993" s="1"/>
+      <c r="B993" s="2"/>
+    </row>
+    <row r="994" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A994" s="1"/>
+      <c r="B994" s="2"/>
+    </row>
+    <row r="995" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A995" s="1"/>
+      <c r="B995" s="2"/>
+    </row>
+    <row r="996" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A996" s="1"/>
+      <c r="B996" s="2"/>
+    </row>
+    <row r="997" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A997" s="1"/>
+      <c r="B997" s="2"/>
+    </row>
+    <row r="998" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A998" s="1"/>
+      <c r="B998" s="2"/>
+    </row>
+    <row r="999" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A999" s="1"/>
+      <c r="B999" s="2"/>
+    </row>
+    <row r="1000" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1000" s="1"/>
+      <c r="B1000" s="2"/>
+    </row>
+    <row r="1001" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Z1001"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J3" sqref="J3:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="26" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="14.42578125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -652,7 +5164,7 @@
       <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -751,7 +5263,7 @@
       <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -770,7 +5282,7 @@
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -869,7 +5381,7 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -888,7 +5400,7 @@
       <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -897,13 +5409,13 @@
       <c r="L9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="P9" s="5"/>
@@ -938,7 +5450,7 @@
       <c r="M10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="O10" s="5" t="s">
@@ -987,7 +5499,7 @@
       <c r="R11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1006,7 +5518,7 @@
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -1105,15 +5617,15 @@
       <c r="R14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
         <v>22</v>
@@ -1124,7 +5636,7 @@
       <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="11" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -1133,13 +5645,13 @@
       <c r="L15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="9" t="s">
         <v>19</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="9" t="s">
         <v>19</v>
       </c>
       <c r="P15" s="5"/>
@@ -1151,10 +5663,10 @@
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1174,10 +5686,10 @@
       <c r="M16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16" s="14" t="s">
+      <c r="N16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="9" t="s">
         <v>19</v>
       </c>
       <c r="P16" s="5"/>
@@ -1189,9 +5701,9 @@
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
         <v>19</v>
@@ -1209,13 +5721,13 @@
       <c r="L17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="14" t="s">
+      <c r="N17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="14" t="s">
+      <c r="O17" s="9" t="s">
         <v>31</v>
       </c>
       <c r="P17" s="5"/>
@@ -5160,12 +9672,9 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="J3:J5"/>
     <mergeCell ref="J6:J8"/>
@@ -5173,11 +9682,149 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069872A1-C4F0-4436-B644-2EB9556DB5EB}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="A1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDD4944-ED4D-412D-9629-9BF382F6A9DA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F098471-E1F8-4001-AEA3-D700623E3FF7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2978188A-9B59-4229-8F20-88298AE11E61}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="58">
   <si>
     <t>Question</t>
   </si>
@@ -164,12 +164,45 @@
   <si>
     <t>Met with the team for a meeting. Continued coding the bootstrap validation implementation</t>
   </si>
+  <si>
+    <t xml:space="preserve">Re-edited the slides and assisted the team with bug metrics and validations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spent time doing bug metrics and validations with the rest of the team </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time issues </t>
+  </si>
+  <si>
+    <t>Coding the validations for bid.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finish up the validations for bid.csv and the common validations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The complicated logic involved </t>
+  </si>
+  <si>
+    <t>ppt slides for presentation and meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not a working day </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on bug metrics and validation with the team </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just too many bugs to look through </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -199,6 +232,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -236,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -262,6 +301,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -270,25 +319,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -602,36 +653,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="16" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -642,8 +693,8 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
@@ -665,8 +716,8 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
       <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
@@ -698,7 +749,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -717,7 +768,7 @@
       <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -746,7 +797,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -763,7 +814,7 @@
       <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="13"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
@@ -790,7 +841,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -807,7 +858,7 @@
       <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="13"/>
+      <c r="J5" s="17"/>
       <c r="K5" s="4" t="s">
         <v>9</v>
       </c>
@@ -834,7 +885,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -853,7 +904,7 @@
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -882,7 +933,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -899,7 +950,7 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="13"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
@@ -926,7 +977,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -943,7 +994,7 @@
       <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="13"/>
+      <c r="J8" s="17"/>
       <c r="K8" s="4" t="s">
         <v>9</v>
       </c>
@@ -970,7 +1021,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -989,7 +1040,7 @@
       <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1018,7 +1069,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1035,7 +1086,7 @@
       <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="13"/>
+      <c r="J10" s="17"/>
       <c r="K10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1062,7 +1113,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1079,7 +1130,7 @@
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="13"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1106,7 +1157,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1125,7 +1176,7 @@
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="16" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -1154,7 +1205,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1171,7 +1222,7 @@
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="13"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1198,7 +1249,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1215,7 +1266,7 @@
       <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="13"/>
+      <c r="J14" s="17"/>
       <c r="K14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1242,7 +1293,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1261,7 +1312,7 @@
       <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -1290,7 +1341,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1307,7 +1358,7 @@
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="13"/>
+      <c r="J16" s="17"/>
       <c r="K16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1334,7 +1385,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1351,7 +1402,7 @@
       <c r="I17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="13"/>
+      <c r="J17" s="17"/>
       <c r="K17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5315,11 +5366,10 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="J12:J14"/>
@@ -5327,10 +5377,11 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5364,24 +5415,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5392,9 +5443,9 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5426,7 +5477,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5458,7 +5509,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -5488,7 +5539,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5518,7 +5569,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5550,7 +5601,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5580,7 +5631,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5610,7 +5661,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5642,7 +5693,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5672,7 +5723,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5702,7 +5753,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5734,7 +5785,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -5764,7 +5815,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -5794,7 +5845,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -5826,7 +5877,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -5856,7 +5907,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -9823,15 +9874,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9843,199 +9894,244 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="17.42578125" style="18"/>
+    <col min="1" max="16384" width="17.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="3" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="4" t="s">
+      <c r="C3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="4" t="s">
+      <c r="D4" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="108" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="162" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="D6" s="12" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="162" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="12" t="s">
         <v>46</v>
       </c>
+      <c r="D7" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="12" t="s">
         <v>45</v>
       </c>
+      <c r="D8" s="12" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="108" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="D9" s="12" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="162" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="12" t="s">
         <v>46</v>
       </c>
+      <c r="D10" s="12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="108" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="D11" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="162" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="D12" s="12" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="162" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="12" t="s">
         <v>46</v>
       </c>
+      <c r="D13" s="12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="12" t="s">
         <v>45</v>
       </c>
+      <c r="D14" s="12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="108" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="D15" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="162" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="4" t="s">
+      <c r="D16" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="12" t="s">
         <v>45</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2978188A-9B59-4229-8F20-88298AE11E61}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4D236D-6101-4F9A-81EE-E19B3ED61036}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="63">
   <si>
     <t>Question</t>
   </si>
@@ -197,6 +197,21 @@
   <si>
     <t xml:space="preserve">Just too many bugs to look through </t>
   </si>
+  <si>
+    <t>Bug metrics &amp; Testcases</t>
+  </si>
+  <si>
+    <t>PHP Errors, that do not highlight which row the error is from causing delay in test casing, thus resulting to individual row testing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did validations, not finalised </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Team Meeting. Refer to minutes for more details</t>
+  </si>
 </sst>
 </file>
 
@@ -275,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -307,6 +322,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -321,25 +348,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -653,36 +674,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="18" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -693,8 +714,8 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
@@ -716,8 +737,8 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
@@ -749,7 +770,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -768,7 +789,7 @@
       <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -797,7 +818,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -814,7 +835,7 @@
       <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="17"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
@@ -841,7 +862,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -858,7 +879,7 @@
       <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="17"/>
+      <c r="J5" s="21"/>
       <c r="K5" s="4" t="s">
         <v>9</v>
       </c>
@@ -885,7 +906,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -904,7 +925,7 @@
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -933,7 +954,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -950,7 +971,7 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="17"/>
+      <c r="J7" s="21"/>
       <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
@@ -977,7 +998,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -994,7 +1015,7 @@
       <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="17"/>
+      <c r="J8" s="21"/>
       <c r="K8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1021,7 +1042,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1040,7 +1061,7 @@
       <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1069,7 +1090,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1086,7 +1107,7 @@
       <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="17"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1113,7 +1134,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1130,7 +1151,7 @@
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1157,7 +1178,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1176,7 +1197,7 @@
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="20" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -1205,7 +1226,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1222,7 +1243,7 @@
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="17"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1249,7 +1270,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1266,7 +1287,7 @@
       <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="17"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1293,7 +1314,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1312,7 +1333,7 @@
       <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="20" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -1341,7 +1362,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1358,7 +1379,7 @@
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="17"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1385,7 +1406,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1402,7 +1423,7 @@
       <c r="I17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="17"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5415,24 +5436,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5443,9 +5464,9 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5477,7 +5498,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5509,7 +5530,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -5539,7 +5560,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5569,7 +5590,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5601,7 +5622,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5631,7 +5652,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5661,7 +5682,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5693,7 +5714,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5723,7 +5744,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5753,7 +5774,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5785,7 +5806,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -5815,7 +5836,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -5845,7 +5866,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -5877,7 +5898,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -5907,7 +5928,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -9894,7 +9915,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -9903,44 +9924,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -9948,7 +9969,7 @@
       <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -9957,10 +9978,16 @@
       <c r="D3" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="E3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="126" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -9969,10 +9996,16 @@
       <c r="D4" s="12" t="s">
         <v>47</v>
       </c>
+      <c r="E4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -9980,13 +10013,19 @@
       </c>
       <c r="D5" s="12" t="s">
         <v>48</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="162" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -9995,10 +10034,16 @@
       <c r="D6" s="12" t="s">
         <v>46</v>
       </c>
+      <c r="E6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="162" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -10007,10 +10052,16 @@
       <c r="D7" s="12" t="s">
         <v>49</v>
       </c>
+      <c r="E7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -10018,13 +10069,19 @@
       </c>
       <c r="D8" s="12" t="s">
         <v>50</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="108" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -10033,10 +10090,16 @@
       <c r="D9" s="12" t="s">
         <v>54</v>
       </c>
+      <c r="E9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="162" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -10045,10 +10108,16 @@
       <c r="D10" s="12" t="s">
         <v>55</v>
       </c>
+      <c r="E10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -10056,13 +10125,19 @@
       </c>
       <c r="D11" s="12" t="s">
         <v>55</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="162" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -10071,10 +10146,16 @@
       <c r="D12" s="12" t="s">
         <v>46</v>
       </c>
+      <c r="E12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="162" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -10083,10 +10164,16 @@
       <c r="D13" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="24" t="s">
+      <c r="E13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="198" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -10094,13 +10181,19 @@
       </c>
       <c r="D14" s="12" t="s">
         <v>57</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="108" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -10109,10 +10202,16 @@
       <c r="D15" s="12" t="s">
         <v>51</v>
       </c>
+      <c r="E15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="162" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -10121,10 +10220,16 @@
       <c r="D16" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="72" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="24" t="s">
+      <c r="E16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -10132,6 +10237,12 @@
       </c>
       <c r="D17" s="12" t="s">
         <v>53</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C651DA3E-A253-42D5-8BD1-95EAFDB77E0C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813690D2-47C5-419E-AAAB-67871B357675}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="65">
   <si>
     <t>Question</t>
   </si>
@@ -296,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -343,19 +343,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -683,36 +686,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="20" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -723,8 +726,8 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
@@ -746,8 +749,8 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
       <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
@@ -779,7 +782,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -798,7 +801,7 @@
       <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -827,7 +830,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -844,7 +847,7 @@
       <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="22"/>
+      <c r="J4" s="23"/>
       <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
@@ -871,7 +874,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -888,7 +891,7 @@
       <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="22"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="4" t="s">
         <v>9</v>
       </c>
@@ -915,7 +918,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -934,7 +937,7 @@
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="22" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -963,7 +966,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -980,7 +983,7 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="22"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1007,7 +1010,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1024,7 +1027,7 @@
       <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="22"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1051,7 +1054,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1070,7 +1073,7 @@
       <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="22" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1099,7 +1102,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1116,7 +1119,7 @@
       <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="22"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1143,7 +1146,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1160,7 +1163,7 @@
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="22"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1187,7 +1190,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1206,7 +1209,7 @@
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="22" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -1235,7 +1238,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1252,7 +1255,7 @@
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="22"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1279,7 +1282,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1296,7 +1299,7 @@
       <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="22"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1323,7 +1326,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1342,7 +1345,7 @@
       <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="22" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -1371,7 +1374,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1388,7 +1391,7 @@
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="22"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1415,7 +1418,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1432,7 +1435,7 @@
       <c r="I17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="22"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5396,11 +5399,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5412,6 +5410,11 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5445,24 +5448,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5473,9 +5476,9 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5507,7 +5510,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5539,7 +5542,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -5569,7 +5572,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5599,7 +5602,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5631,7 +5634,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5661,7 +5664,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5691,7 +5694,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5723,7 +5726,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5753,7 +5756,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5783,7 +5786,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5815,7 +5818,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -5845,7 +5848,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -5875,7 +5878,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -5907,7 +5910,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -5937,7 +5940,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -9923,8 +9926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A3AA99-F4D2-4A92-BF2C-95E1F810A93F}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -9933,25 +9936,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -9975,7 +9978,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="87" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -9996,9 +9999,15 @@
       <c r="G3" s="17" t="s">
         <v>62</v>
       </c>
+      <c r="H3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
@@ -10017,9 +10026,15 @@
       <c r="G4" s="17" t="s">
         <v>55</v>
       </c>
+      <c r="H4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
@@ -10038,9 +10053,15 @@
       <c r="G5" s="12" t="s">
         <v>44</v>
       </c>
+      <c r="H5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -10061,9 +10082,15 @@
       <c r="G6" s="17" t="s">
         <v>64</v>
       </c>
+      <c r="H6" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
@@ -10082,9 +10109,15 @@
       <c r="G7" s="17" t="s">
         <v>55</v>
       </c>
+      <c r="H7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
@@ -10103,9 +10136,15 @@
       <c r="G8" s="17" t="s">
         <v>44</v>
       </c>
+      <c r="H8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -10126,9 +10165,15 @@
       <c r="G9" s="17" t="s">
         <v>64</v>
       </c>
+      <c r="H9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
@@ -10147,9 +10192,15 @@
       <c r="G10" s="17" t="s">
         <v>55</v>
       </c>
+      <c r="H10" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
@@ -10168,9 +10219,15 @@
       <c r="G11" s="17" t="s">
         <v>44</v>
       </c>
+      <c r="H11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -10191,9 +10248,15 @@
       <c r="G12" s="17" t="s">
         <v>62</v>
       </c>
+      <c r="H12" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="15" t="s">
         <v>8</v>
       </c>
@@ -10212,9 +10275,15 @@
       <c r="G13" s="17" t="s">
         <v>55</v>
       </c>
+      <c r="H13" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="174" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
@@ -10233,9 +10302,15 @@
       <c r="G14" s="12" t="s">
         <v>44</v>
       </c>
+      <c r="H14" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -10256,9 +10331,15 @@
       <c r="G15" s="17" t="s">
         <v>62</v>
       </c>
+      <c r="H15" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -10277,9 +10358,15 @@
       <c r="G16" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
+      <c r="H16" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
       <c r="B17" s="15" t="s">
         <v>9</v>
       </c>
@@ -10296,6 +10383,12 @@
         <v>61</v>
       </c>
       <c r="G17" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="18" t="s">
         <v>44</v>
       </c>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813690D2-47C5-419E-AAAB-67871B357675}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E9817E-47D0-41F6-AC43-3979C71F127F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
     <sheet name="Week 6" sheetId="3" r:id="rId2"/>
     <sheet name="Week 7" sheetId="4" r:id="rId3"/>
+    <sheet name="Week 8" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="66">
   <si>
     <t>Question</t>
   </si>
@@ -218,6 +219,9 @@
   <si>
     <t xml:space="preserve">Team Meeting. Refer to minutes for more details &amp; redirect login page for admin </t>
   </si>
+  <si>
+    <t>Week: 6/10/2019 to 12/10/2019</t>
+  </si>
 </sst>
 </file>
 
@@ -296,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -346,19 +350,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -686,36 +693,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="24" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -726,8 +733,8 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
@@ -749,8 +756,8 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
@@ -782,7 +789,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -801,7 +808,7 @@
       <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -830,7 +837,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -847,7 +854,7 @@
       <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="23"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
@@ -874,7 +881,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -891,7 +898,7 @@
       <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="4" t="s">
         <v>9</v>
       </c>
@@ -918,7 +925,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -937,7 +944,7 @@
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="23" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -966,7 +973,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -983,7 +990,7 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="23"/>
+      <c r="J7" s="24"/>
       <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1010,7 +1017,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1027,7 +1034,7 @@
       <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="23"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1054,7 +1061,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1073,7 +1080,7 @@
       <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="23" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1102,7 +1109,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1119,7 +1126,7 @@
       <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="23"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1146,7 +1153,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1163,7 +1170,7 @@
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="23"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1190,7 +1197,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1209,7 +1216,7 @@
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="23" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -1238,7 +1245,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1255,7 +1262,7 @@
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="23"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1282,7 +1289,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1299,7 +1306,7 @@
       <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="23"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1326,7 +1333,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1345,7 +1352,7 @@
       <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="23" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -1374,7 +1381,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1391,7 +1398,7 @@
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="23"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1418,7 +1425,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1435,7 +1442,7 @@
       <c r="I17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="23"/>
+      <c r="J17" s="24"/>
       <c r="K17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5399,6 +5406,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5410,11 +5422,6 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5448,24 +5455,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5476,9 +5483,9 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5510,7 +5517,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5542,7 +5549,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -5572,7 +5579,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5602,7 +5609,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5634,7 +5641,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5664,7 +5671,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5694,7 +5701,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5726,7 +5733,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5756,7 +5763,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5786,7 +5793,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5818,7 +5825,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -5848,7 +5855,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -5878,7 +5885,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -5910,7 +5917,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -5940,7 +5947,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -9926,8 +9933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A3AA99-F4D2-4A92-BF2C-95E1F810A93F}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -9936,25 +9943,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -9978,7 +9985,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="87" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -10007,7 +10014,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
@@ -10034,7 +10041,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
@@ -10061,7 +10068,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -10090,7 +10097,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
@@ -10117,7 +10124,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
@@ -10144,7 +10151,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -10173,7 +10180,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
@@ -10200,7 +10207,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
@@ -10227,7 +10234,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -10256,7 +10263,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="15" t="s">
         <v>8</v>
       </c>
@@ -10283,7 +10290,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="174" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
@@ -10310,7 +10317,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -10339,7 +10346,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -10366,7 +10373,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="15" t="s">
         <v>9</v>
       </c>
@@ -10406,4 +10413,264 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B6745F-6AD3-49D1-88C7-6568265E6BB1}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="17.44140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A4" s="27"/>
+      <c r="B4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="B8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
+      <c r="B11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+      <c r="B13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E9817E-47D0-41F6-AC43-3979C71F127F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C4405F-2484-489A-BA92-CB8A7E42D6D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="76">
   <si>
     <t>Question</t>
   </si>
@@ -208,9 +208,6 @@
     <t xml:space="preserve">Did validations, not finalised </t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Team Meeting. Refer to minutes for more details</t>
   </si>
   <si>
@@ -221,6 +218,39 @@
   </si>
   <si>
     <t>Week: 6/10/2019 to 12/10/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updates and forecast on scheduling, Breaking down of functionalities, updates Team’s roles and responsibilities for next sprint, Meeting agenda and minutes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had difficulty retrieving data as output was none from a method from the bids table through the BidDAO’s retrieveStudentBidsWithInfo($userid) was resolve after an hour. </t>
+  </si>
+  <si>
+    <t>(1)JSON APIs and functionality for Bootstrap, (2)Initiate round and active open and close round and (3) Drop bids</t>
+  </si>
+  <si>
+    <t>Updates to SQL tables as data was not outputting correctly due to the column naming conversation</t>
+  </si>
+  <si>
+    <t>(1)JSON APIs and functionality for Bootstrap(continue) and Admin Login</t>
+  </si>
+  <si>
+    <t>(1)Add Bid page validation.</t>
+  </si>
+  <si>
+    <t>(1)Bootstrap validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1)Calculate critically path, (2)overall functionalities breakdown checklist and (3)code Bootstrap for Drop bid page. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1)Updates and forecast on scheduling, (2)Breaking down of functionalities, (3)updates Team’s roles and responsibilities for next sprint, (4)Meeting agenda and minutes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1)Calculate critically path, (2)overall functionalities breakdown checklist. </t>
+  </si>
+  <si>
+    <t>(1)code Bootstrap for Drop bid page.</t>
   </si>
 </sst>
 </file>
@@ -300,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -353,19 +383,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -381,6 +420,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,10 +753,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
@@ -708,10 +768,10 @@
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="25" t="s">
@@ -733,8 +793,8 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
@@ -756,8 +816,8 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
       <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
@@ -789,7 +849,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -808,7 +868,7 @@
       <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="26" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -837,7 +897,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -854,7 +914,7 @@
       <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="24"/>
+      <c r="J4" s="27"/>
       <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
@@ -881,7 +941,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -898,7 +958,7 @@
       <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="24"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="4" t="s">
         <v>9</v>
       </c>
@@ -925,7 +985,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -944,7 +1004,7 @@
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -973,7 +1033,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -990,7 +1050,7 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1017,7 +1077,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1034,7 +1094,7 @@
       <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="24"/>
+      <c r="J8" s="27"/>
       <c r="K8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1061,7 +1121,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1080,7 +1140,7 @@
       <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1109,7 +1169,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1126,7 +1186,7 @@
       <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="27"/>
       <c r="K10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1153,7 +1213,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1170,7 +1230,7 @@
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="24"/>
+      <c r="J11" s="27"/>
       <c r="K11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1197,7 +1257,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1216,7 +1276,7 @@
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="26" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -1245,7 +1305,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1262,7 +1322,7 @@
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="24"/>
+      <c r="J13" s="27"/>
       <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1289,7 +1349,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1306,7 +1366,7 @@
       <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="24"/>
+      <c r="J14" s="27"/>
       <c r="K14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1333,7 +1393,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1352,7 +1412,7 @@
       <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="26" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -1381,7 +1441,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1398,7 +1458,7 @@
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="24"/>
+      <c r="J16" s="27"/>
       <c r="K16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1425,7 +1485,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1442,7 +1502,7 @@
       <c r="I17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="24"/>
+      <c r="J17" s="27"/>
       <c r="K17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5406,11 +5466,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5422,6 +5477,11 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5435,9 +5495,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J7" sqref="J7"/>
+      <selection pane="topRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5455,13 +5515,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="25" t="s">
@@ -5483,9 +5543,9 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5517,7 +5577,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5549,7 +5609,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -5579,7 +5639,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5609,7 +5669,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5641,7 +5701,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5671,7 +5731,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5701,7 +5761,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5733,7 +5793,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5763,7 +5823,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5793,7 +5853,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5825,7 +5885,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -5855,7 +5915,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -5885,7 +5945,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -5917,7 +5977,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -5947,7 +6007,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -9933,8 +9993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A3AA99-F4D2-4A92-BF2C-95E1F810A93F}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -9943,25 +10003,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -9985,173 +10045,173 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="87" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="18" t="s">
+      <c r="G3" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>44</v>
+      <c r="F5" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="17" t="s">
+      <c r="F7" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>44</v>
+      <c r="E8" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -10160,81 +10220,81 @@
       <c r="C9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="18" t="s">
+      <c r="G9" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>44</v>
+      <c r="F11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -10253,7 +10313,7 @@
         <v>55</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>55</v>
@@ -10263,34 +10323,34 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="17" t="s">
+      <c r="F13" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="174" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
@@ -10303,21 +10363,21 @@
       <c r="E14" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>44</v>
+      <c r="F14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -10336,7 +10396,7 @@
         <v>55</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>55</v>
@@ -10346,7 +10406,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -10360,7 +10420,7 @@
         <v>55</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>55</v>
@@ -10373,7 +10433,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="15" t="s">
         <v>9</v>
       </c>
@@ -10386,17 +10446,17 @@
       <c r="E17" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>44</v>
+      <c r="F17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -10420,34 +10480,37 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="17.44140625" style="19"/>
+    <col min="1" max="4" width="17.44140625" style="19"/>
+    <col min="5" max="5" width="26.6640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="19" customWidth="1"/>
+    <col min="7" max="16384" width="17.44140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="C1" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -10470,49 +10533,76 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:9" ht="121.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="34" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="15" t="s">
+      <c r="E3" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="34" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="15" t="s">
+      <c r="E4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="87" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="C5" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="121.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -10521,36 +10611,63 @@
       <c r="D6" s="19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="15" t="s">
+      <c r="E6" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="36" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="15" t="s">
+      <c r="E7" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="87" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>44</v>
+      <c r="C8" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -10559,10 +10676,16 @@
       <c r="D9" s="19" t="s">
         <v>55</v>
       </c>
+      <c r="E9" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -10571,48 +10694,84 @@
       <c r="D10" s="19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="15" t="s">
+      <c r="E10" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="36" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="E11" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="34" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="15" t="s">
+      <c r="E12" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="174" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="34" t="s">
         <v>55</v>
       </c>
+      <c r="E13" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -10621,12 +10780,21 @@
       <c r="D14" s="19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="E14" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -10635,10 +10803,19 @@
       <c r="D15" s="19" t="s">
         <v>55</v>
       </c>
+      <c r="E15" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="19" t="s">
@@ -10647,17 +10824,35 @@
       <c r="D16" s="19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="15" t="s">
+      <c r="E16" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
+      <c r="B17" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="34" t="s">
         <v>44</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -10672,5 +10867,6 @@
     <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,22 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C4405F-2484-489A-BA92-CB8A7E42D6D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54253D6E-7D4A-49AC-AD22-EC9627A0EF17}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
     <sheet name="Week 6" sheetId="3" r:id="rId2"/>
     <sheet name="Week 7" sheetId="4" r:id="rId3"/>
     <sheet name="Week 8" sheetId="5" r:id="rId4"/>
+    <sheet name="Week 9" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="81">
   <si>
     <t>Question</t>
   </si>
@@ -220,9 +229,6 @@
     <t>Week: 6/10/2019 to 12/10/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Updates and forecast on scheduling, Breaking down of functionalities, updates Team’s roles and responsibilities for next sprint, Meeting agenda and minutes.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Had difficulty retrieving data as output was none from a method from the bids table through the BidDAO’s retrieveStudentBidsWithInfo($userid) was resolve after an hour. </t>
   </si>
   <si>
@@ -232,25 +238,47 @@
     <t>Updates to SQL tables as data was not outputting correctly due to the column naming conversation</t>
   </si>
   <si>
-    <t>(1)JSON APIs and functionality for Bootstrap(continue) and Admin Login</t>
-  </si>
-  <si>
-    <t>(1)Add Bid page validation.</t>
-  </si>
-  <si>
     <t>(1)Bootstrap validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1)Calculate critically path, (2)overall functionalities breakdown checklist and (3)code Bootstrap for Drop bid page. </t>
   </si>
   <si>
     <t xml:space="preserve">(1)Updates and forecast on scheduling, (2)Breaking down of functionalities, (3)updates Team’s roles and responsibilities for next sprint, (4)Meeting agenda and minutes.  </t>
   </si>
   <si>
-    <t xml:space="preserve">(1)Calculate critically path, (2)overall functionalities breakdown checklist. </t>
+    <t xml:space="preserve">(1)JSON APIs and functionality for Bootstrap(continue) (2) Add Bid validation (3) Bootstrap validation </t>
   </si>
   <si>
-    <t>(1)code Bootstrap for Drop bid page.</t>
+    <t xml:space="preserve">(1) Add Bid validation (2) Bootstrap validation </t>
+  </si>
+  <si>
+    <t>(1) update of schedule and forecasting.</t>
+  </si>
+  <si>
+    <t>(1) Calculate critically path, (2) overall functionalities breakdown checklist and (3) update of schedule and forecasting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bid had a Bug </t>
+  </si>
+  <si>
+    <t>Drop bids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programming logic for Notification dialogue box not executing. </t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t>(1) Create static drop section page 
+(2) Update Navigation Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) UI and Bootstrap design 
+(2) Navigation Bar 
+(3) Bids initiating of rounds round states, able to proceed from Initiate, round 1 and round 2 
+(4) Admins page, to show error when bootstrap is run.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Several Issues with the logic as several codes were not output the desire response. </t>
   </si>
 </sst>
 </file>
@@ -330,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -392,31 +420,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -441,6 +446,35 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,36 +787,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="28" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -793,8 +827,8 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
@@ -816,8 +850,8 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
       <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
@@ -849,7 +883,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -868,7 +902,7 @@
       <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="35" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -897,7 +931,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -914,7 +948,7 @@
       <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="27"/>
+      <c r="J4" s="36"/>
       <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
@@ -941,7 +975,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -958,7 +992,7 @@
       <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="27"/>
+      <c r="J5" s="36"/>
       <c r="K5" s="4" t="s">
         <v>9</v>
       </c>
@@ -985,7 +1019,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1004,7 +1038,7 @@
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="35" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -1033,7 +1067,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1050,7 +1084,7 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="27"/>
+      <c r="J7" s="36"/>
       <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1077,7 +1111,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1094,7 +1128,7 @@
       <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="27"/>
+      <c r="J8" s="36"/>
       <c r="K8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1121,7 +1155,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1140,7 +1174,7 @@
       <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="35" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1169,7 +1203,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1186,7 +1220,7 @@
       <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="27"/>
+      <c r="J10" s="36"/>
       <c r="K10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1213,7 +1247,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1230,7 +1264,7 @@
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="27"/>
+      <c r="J11" s="36"/>
       <c r="K11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1257,7 +1291,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1276,7 +1310,7 @@
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="35" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -1305,7 +1339,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1356,7 @@
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="27"/>
+      <c r="J13" s="36"/>
       <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1349,7 +1383,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1366,7 +1400,7 @@
       <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="27"/>
+      <c r="J14" s="36"/>
       <c r="K14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1393,7 +1427,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1412,7 +1446,7 @@
       <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="35" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -1441,7 +1475,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1458,7 +1492,7 @@
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="27"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1485,7 +1519,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1502,7 +1536,7 @@
       <c r="I17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="27"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5466,6 +5500,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5477,11 +5516,6 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5495,7 +5529,7 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F8" sqref="F8"/>
     </sheetView>
@@ -5515,24 +5549,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5543,9 +5577,9 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5577,7 +5611,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5609,7 +5643,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -5639,7 +5673,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5669,7 +5703,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5701,7 +5735,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5731,7 +5765,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5761,7 +5795,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5793,7 +5827,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5823,7 +5857,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5853,7 +5887,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5885,7 +5919,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -5915,7 +5949,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -5945,7 +5979,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -5977,7 +6011,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -6007,7 +6041,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -10003,25 +10037,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -10045,173 +10079,173 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="87" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="34" t="s">
+      <c r="E3" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="34" t="s">
+      <c r="H3" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="34" t="s">
+      <c r="E4" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="34" t="s">
+      <c r="G4" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="38" t="s">
+      <c r="E5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="34" t="s">
+      <c r="G5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="34" t="s">
+      <c r="H6" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="34" t="s">
+      <c r="G7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="34" t="s">
+      <c r="G8" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="38" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -10220,81 +10254,81 @@
       <c r="C9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="34" t="s">
+      <c r="E9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="34" t="s">
+      <c r="H9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="34" t="s">
+      <c r="D10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="34" t="s">
+      <c r="G10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="36" t="s">
+      <c r="D11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>55</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="36" t="s">
+      <c r="G11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="27" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="38" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -10323,34 +10357,34 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="34" t="s">
+      <c r="E13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="34" t="s">
+      <c r="G13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="174" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
@@ -10366,18 +10400,18 @@
       <c r="F14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="36" t="s">
+      <c r="G14" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="27" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -10406,7 +10440,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -10433,7 +10467,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="15" t="s">
         <v>9</v>
       </c>
@@ -10449,13 +10483,13 @@
       <c r="F17" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="36" t="s">
+      <c r="G17" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="27" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10479,8 +10513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B6745F-6AD3-49D1-88C7-6568265E6BB1}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -10488,29 +10522,31 @@
     <col min="1" max="4" width="17.44140625" style="19"/>
     <col min="5" max="5" width="26.6640625" style="19" customWidth="1"/>
     <col min="6" max="6" width="26.33203125" style="19" customWidth="1"/>
-    <col min="7" max="16384" width="17.44140625" style="19"/>
+    <col min="7" max="7" width="23.5546875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="17.44140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -10533,73 +10569,91 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="121.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>69</v>
+      <c r="C3" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="34" t="s">
+      <c r="C4" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="87" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="40" t="s">
+      <c r="C5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="121.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="G5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -10611,60 +10665,78 @@
       <c r="D6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>69</v>
+      <c r="E6" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="34" t="s">
+      <c r="C7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="87" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="40" t="s">
+      <c r="C8" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="G8" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -10676,15 +10748,24 @@
       <c r="D9" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="35" t="s">
+      <c r="E9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>71</v>
       </c>
+      <c r="H9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
@@ -10694,83 +10775,107 @@
       <c r="D10" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="E11" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="191.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>74</v>
+      <c r="C12" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="174" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="34" t="s">
+      <c r="C13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="G13" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="H13" s="26" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+      <c r="I13" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="87" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
       <c r="B14" s="21" t="s">
         <v>9</v>
       </c>
@@ -10786,12 +10891,18 @@
       <c r="F14" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="34" t="s">
-        <v>55</v>
+      <c r="G14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -10803,18 +10914,24 @@
       <c r="D15" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="35" t="s">
+      <c r="E15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="34" t="s">
-        <v>70</v>
+      <c r="H15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="21" t="s">
         <v>8</v>
       </c>
@@ -10824,36 +10941,381 @@
       <c r="D16" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+      <c r="G16" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="39"/>
       <c r="B17" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>55</v>
-      </c>
+      <c r="E17" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B762D8C-72F3-45B7-9544-A442629D54B9}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.44140625" style="24"/>
+    <col min="3" max="3" width="20.5546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" style="24" customWidth="1"/>
+    <col min="9" max="16384" width="17.44140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="1:9" ht="139.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="39"/>
+      <c r="B4" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
+      <c r="B5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="1:9" ht="139.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="39"/>
+      <c r="B7" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="39"/>
+      <c r="B8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="39"/>
+      <c r="B10" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="39"/>
+      <c r="B11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+    </row>
+    <row r="13" spans="1:9" ht="139.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="39"/>
+      <c r="B13" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
+      <c r="B14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="39"/>
+      <c r="B16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="39"/>
+      <c r="B17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54253D6E-7D4A-49AC-AD22-EC9627A0EF17}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27E94E8-3318-4C02-9606-BA7354F6C866}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="84">
   <si>
     <t>Question</t>
   </si>
@@ -280,6 +280,15 @@
   <si>
     <t xml:space="preserve">Several Issues with the logic as several codes were not output the desire response. </t>
   </si>
+  <si>
+    <t>Testcases and Bug Metrics.</t>
+  </si>
+  <si>
+    <t>Discover bug within Bootstrap</t>
+  </si>
+  <si>
+    <t>Preparation PowerPoint for Application Demo and online review</t>
+  </si>
 </sst>
 </file>
 
@@ -451,15 +460,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -787,36 +796,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="34" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="37" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5500,11 +5509,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5516,6 +5520,11 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5549,7 +5558,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="32" t="s">
@@ -5558,15 +5567,15 @@
       <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -11005,10 +11014,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="17.44140625" style="24"/>
     <col min="3" max="3" width="20.5546875" style="24" customWidth="1"/>
@@ -11020,7 +11029,7 @@
     <col min="9" max="16384" width="17.44140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
@@ -11037,7 +11046,7 @@
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
     </row>
-    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="42"/>
       <c r="B2" s="42"/>
       <c r="C2" s="14" t="s">
@@ -11062,7 +11071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="191.4" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>13</v>
       </c>
@@ -11075,7 +11084,9 @@
       <c r="D3" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="25" t="s">
+        <v>79</v>
+      </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
@@ -11092,7 +11103,9 @@
       <c r="D4" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="25" t="s">
+        <v>81</v>
+      </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
       <c r="H4" s="26"/>
@@ -11109,12 +11122,14 @@
       <c r="D5" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>82</v>
+      </c>
       <c r="F5" s="31"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="191.4" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
@@ -11127,7 +11142,9 @@
       <c r="D6" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="25" t="s">
+        <v>79</v>
+      </c>
       <c r="F6" s="28"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -11144,7 +11161,9 @@
       <c r="D7" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="25" t="s">
+        <v>81</v>
+      </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="26"/>
@@ -11161,7 +11180,9 @@
       <c r="D8" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="25" t="s">
+        <v>82</v>
+      </c>
       <c r="F8" s="31"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -11179,7 +11200,9 @@
       <c r="D9" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="F9" s="26"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
@@ -11195,7 +11218,9 @@
       <c r="D10" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="26"/>
+      <c r="E10" s="25" t="s">
+        <v>81</v>
+      </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
@@ -11211,13 +11236,15 @@
       <c r="D11" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="25" t="s">
+        <v>82</v>
+      </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="191.4" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
         <v>16</v>
       </c>
@@ -11230,7 +11257,9 @@
       <c r="D12" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="25"/>
+      <c r="E12" s="25" t="s">
+        <v>79</v>
+      </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -11247,7 +11276,9 @@
       <c r="D13" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="25"/>
+      <c r="E13" s="25" t="s">
+        <v>83</v>
+      </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="26"/>
@@ -11264,6 +11295,9 @@
       <c r="D14" s="25" t="s">
         <v>80</v>
       </c>
+      <c r="E14" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
@@ -11279,7 +11313,9 @@
       <c r="D15" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="25"/>
+      <c r="E15" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="F15" s="26"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
@@ -11295,7 +11331,9 @@
       <c r="D16" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="26"/>
+      <c r="E16" s="25" t="s">
+        <v>81</v>
+      </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
@@ -11311,7 +11349,9 @@
       <c r="D17" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="28"/>
+      <c r="E17" s="25" t="s">
+        <v>82</v>
+      </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE8412B-FD3B-40EC-9920-3CA24042FF42}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806B8C6D-7CAA-42D2-AE1F-500B333F5EF6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="89">
   <si>
     <t>Question</t>
   </si>
@@ -388,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -480,19 +480,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -820,36 +823,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="35" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -860,8 +863,8 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
@@ -883,8 +886,8 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
       <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
@@ -916,7 +919,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -935,7 +938,7 @@
       <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="37" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -964,7 +967,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -981,7 +984,7 @@
       <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="37"/>
+      <c r="J4" s="38"/>
       <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1008,7 +1011,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1025,7 +1028,7 @@
       <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="37"/>
+      <c r="J5" s="38"/>
       <c r="K5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1052,7 +1055,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1071,7 +1074,7 @@
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="37" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -1100,7 +1103,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1117,7 +1120,7 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="37"/>
+      <c r="J7" s="38"/>
       <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1144,7 +1147,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1161,7 +1164,7 @@
       <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="37"/>
+      <c r="J8" s="38"/>
       <c r="K8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1188,7 +1191,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="37" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1207,7 +1210,7 @@
       <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="37" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1236,7 +1239,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1253,7 +1256,7 @@
       <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="37"/>
+      <c r="J10" s="38"/>
       <c r="K10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1280,7 +1283,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="37"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1297,7 +1300,7 @@
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="37"/>
+      <c r="J11" s="38"/>
       <c r="K11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1324,7 +1327,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1343,7 +1346,7 @@
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="37" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -1372,7 +1375,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="37"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1389,7 +1392,7 @@
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="37"/>
+      <c r="J13" s="38"/>
       <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1416,7 +1419,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="37"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1433,7 +1436,7 @@
       <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="37"/>
+      <c r="J14" s="38"/>
       <c r="K14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1460,7 +1463,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="37" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1479,7 +1482,7 @@
       <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="37" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -1508,7 +1511,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1525,7 +1528,7 @@
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="37"/>
+      <c r="J16" s="38"/>
       <c r="K16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1552,7 +1555,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="37"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1569,7 +1572,7 @@
       <c r="I17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="37"/>
+      <c r="J17" s="38"/>
       <c r="K17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5533,11 +5536,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5549,6 +5547,11 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5582,24 +5585,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5610,9 +5613,9 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5644,7 +5647,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5676,7 +5679,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -5706,7 +5709,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5736,7 +5739,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5768,7 +5771,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5798,7 +5801,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5828,7 +5831,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="37" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5860,7 +5863,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5890,7 +5893,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="37"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5920,7 +5923,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5952,7 +5955,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="37"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -5982,7 +5985,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="37"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -6012,7 +6015,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="37" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -6044,7 +6047,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -6074,7 +6077,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="37"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -10070,25 +10073,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -10112,7 +10115,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -10141,7 +10144,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A4" s="40"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
@@ -10168,7 +10171,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="40"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
@@ -10195,7 +10198,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -10224,7 +10227,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="40"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
@@ -10251,7 +10254,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
@@ -10278,7 +10281,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="140" x14ac:dyDescent="0.35">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="40" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -10307,7 +10310,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="40"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
@@ -10334,7 +10337,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A11" s="40"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
@@ -10361,7 +10364,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="40" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -10390,7 +10393,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="40"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="15" t="s">
         <v>8</v>
       </c>
@@ -10417,7 +10420,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="175" x14ac:dyDescent="0.35">
-      <c r="A14" s="40"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
@@ -10444,7 +10447,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="40" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -10473,7 +10476,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="40"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -10500,7 +10503,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A17" s="40"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="15" t="s">
         <v>9</v>
       </c>
@@ -10561,25 +10564,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -10603,7 +10606,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -10632,7 +10635,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A4" s="40"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="21" t="s">
         <v>12</v>
       </c>
@@ -10659,7 +10662,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="40"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
@@ -10686,7 +10689,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="122.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -10715,7 +10718,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A7" s="40"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="21" t="s">
         <v>8</v>
       </c>
@@ -10742,7 +10745,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="21" t="s">
         <v>9</v>
       </c>
@@ -10769,7 +10772,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="40" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -10798,7 +10801,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="40"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
@@ -10825,7 +10828,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="40"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="21" t="s">
         <v>9</v>
       </c>
@@ -10852,7 +10855,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="40" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -10881,7 +10884,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="40"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="21" t="s">
         <v>8</v>
       </c>
@@ -10908,7 +10911,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="40"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="21" t="s">
         <v>9</v>
       </c>
@@ -10935,7 +10938,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="40" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -10964,7 +10967,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="40"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="21" t="s">
         <v>8</v>
       </c>
@@ -10991,7 +10994,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="40"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="21" t="s">
         <v>9</v>
       </c>
@@ -11037,8 +11040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B762D8C-72F3-45B7-9544-A442629D54B9}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -11054,25 +11057,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -11096,7 +11099,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -11114,12 +11117,14 @@
       <c r="F3" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="25"/>
+      <c r="G3" s="25" t="s">
+        <v>84</v>
+      </c>
       <c r="H3" s="25"/>
       <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="140" x14ac:dyDescent="0.35">
-      <c r="A4" s="40"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="23" t="s">
         <v>12</v>
       </c>
@@ -11135,12 +11140,14 @@
       <c r="F4" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="25"/>
+      <c r="G4" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="H4" s="26"/>
       <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="40"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
@@ -11156,11 +11163,13 @@
       <c r="F5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -11178,12 +11187,14 @@
       <c r="F6" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="25" t="s">
+        <v>85</v>
+      </c>
       <c r="H6" s="25"/>
       <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:9" ht="140" x14ac:dyDescent="0.35">
-      <c r="A7" s="40"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="23" t="s">
         <v>8</v>
       </c>
@@ -11199,12 +11210,14 @@
       <c r="F7" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="H7" s="26"/>
       <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="23" t="s">
         <v>9</v>
       </c>
@@ -11220,11 +11233,13 @@
       <c r="F8" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="25"/>
+      <c r="G8" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:9" ht="35" x14ac:dyDescent="0.35">
-      <c r="A9" s="39" t="s">
+    <row r="9" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="40" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="23" t="s">
@@ -11242,11 +11257,14 @@
       <c r="F9" s="25" t="s">
         <v>81</v>
       </c>
+      <c r="G9" s="33" t="s">
+        <v>88</v>
+      </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="140" x14ac:dyDescent="0.35">
-      <c r="A10" s="40"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
@@ -11262,12 +11280,14 @@
       <c r="F10" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="40"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="23" t="s">
         <v>9</v>
       </c>
@@ -11283,12 +11303,14 @@
       <c r="F11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="40" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -11306,12 +11328,14 @@
       <c r="F12" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="25"/>
+      <c r="G12" s="25" t="s">
+        <v>86</v>
+      </c>
       <c r="H12" s="25"/>
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:9" ht="140" x14ac:dyDescent="0.35">
-      <c r="A13" s="40"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="23" t="s">
         <v>8</v>
       </c>
@@ -11327,12 +11351,14 @@
       <c r="F13" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="25"/>
+      <c r="G13" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="H13" s="26"/>
       <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="40"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="23" t="s">
         <v>9</v>
       </c>
@@ -11348,10 +11374,13 @@
       <c r="F14" s="24" t="s">
         <v>30</v>
       </c>
+      <c r="G14" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:9" ht="35" x14ac:dyDescent="0.35">
-      <c r="A15" s="39" t="s">
+    <row r="15" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="40" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -11369,11 +11398,14 @@
       <c r="F15" s="25" t="s">
         <v>81</v>
       </c>
+      <c r="G15" s="33" t="s">
+        <v>87</v>
+      </c>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="40"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="23" t="s">
         <v>8</v>
       </c>
@@ -11389,12 +11421,14 @@
       <c r="F16" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="25"/>
+      <c r="G16" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="40"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="23" t="s">
         <v>9</v>
       </c>
@@ -11410,7 +11444,9 @@
       <c r="F17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806B8C6D-7CAA-42D2-AE1F-500B333F5EF6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D168C13-83F3-4961-AAAB-3B65CF7ABE57}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="89">
   <si>
     <t>Question</t>
   </si>
@@ -388,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -483,19 +483,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -823,36 +826,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="39" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -863,8 +866,8 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
@@ -886,8 +889,8 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
@@ -919,7 +922,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -938,7 +941,7 @@
       <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="38" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -967,7 +970,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -984,7 +987,7 @@
       <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="38"/>
+      <c r="J4" s="39"/>
       <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1011,7 +1014,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1028,7 +1031,7 @@
       <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="38"/>
+      <c r="J5" s="39"/>
       <c r="K5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1055,7 +1058,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1074,7 +1077,7 @@
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="38" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -1103,7 +1106,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1120,7 +1123,7 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="38"/>
+      <c r="J7" s="39"/>
       <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1147,7 +1150,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1164,7 +1167,7 @@
       <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="38"/>
+      <c r="J8" s="39"/>
       <c r="K8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1191,7 +1194,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="38" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1210,7 +1213,7 @@
       <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="38" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1239,7 +1242,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1256,7 +1259,7 @@
       <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="38"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1283,7 +1286,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1300,7 +1303,7 @@
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="38"/>
+      <c r="J11" s="39"/>
       <c r="K11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1327,7 +1330,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="38" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1346,7 +1349,7 @@
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="38" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -1375,7 +1378,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1395,7 @@
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="38"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1419,7 +1422,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1436,7 +1439,7 @@
       <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="38"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1463,7 +1466,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1482,7 +1485,7 @@
       <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="37" t="s">
+      <c r="J15" s="38" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -1511,7 +1514,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="38"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1528,7 +1531,7 @@
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="38"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1555,7 +1558,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1572,7 +1575,7 @@
       <c r="I17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="38"/>
+      <c r="J17" s="39"/>
       <c r="K17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5536,6 +5539,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5547,11 +5555,6 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5585,24 +5588,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5613,9 +5616,9 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5647,7 +5650,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5679,7 +5682,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -5709,7 +5712,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5739,7 +5742,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5771,7 +5774,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5801,7 +5804,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5831,7 +5834,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="38" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5863,7 +5866,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5893,7 +5896,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5923,7 +5926,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="38" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5955,7 +5958,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -5985,7 +5988,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -6015,7 +6018,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -6047,7 +6050,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="38"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -6077,7 +6080,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -10073,25 +10076,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -10115,7 +10118,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -10144,7 +10147,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A4" s="41"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
@@ -10171,7 +10174,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
@@ -10198,7 +10201,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -10227,7 +10230,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
@@ -10254,7 +10257,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
@@ -10281,7 +10284,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="140" x14ac:dyDescent="0.35">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -10310,7 +10313,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
@@ -10337,7 +10340,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
@@ -10364,7 +10367,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -10393,7 +10396,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="15" t="s">
         <v>8</v>
       </c>
@@ -10420,7 +10423,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="175" x14ac:dyDescent="0.35">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
@@ -10447,7 +10450,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="41" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -10476,7 +10479,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="41"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -10503,7 +10506,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A17" s="41"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="15" t="s">
         <v>9</v>
       </c>
@@ -10564,25 +10567,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -10606,7 +10609,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -10635,7 +10638,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A4" s="41"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="21" t="s">
         <v>12</v>
       </c>
@@ -10662,7 +10665,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
@@ -10689,7 +10692,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="122.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -10718,7 +10721,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="21" t="s">
         <v>8</v>
       </c>
@@ -10745,7 +10748,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="21" t="s">
         <v>9</v>
       </c>
@@ -10772,7 +10775,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -10801,7 +10804,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
@@ -10828,7 +10831,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="21" t="s">
         <v>9</v>
       </c>
@@ -10855,7 +10858,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -10884,7 +10887,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="21" t="s">
         <v>8</v>
       </c>
@@ -10911,7 +10914,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="21" t="s">
         <v>9</v>
       </c>
@@ -10938,7 +10941,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="41" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -10967,7 +10970,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="41"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="21" t="s">
         <v>8</v>
       </c>
@@ -10994,7 +10997,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="41"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="21" t="s">
         <v>9</v>
       </c>
@@ -11040,8 +11043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B762D8C-72F3-45B7-9544-A442629D54B9}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -11057,25 +11060,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -11099,7 +11102,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -11120,11 +11123,13 @@
       <c r="G3" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="140" x14ac:dyDescent="0.35">
-      <c r="A4" s="41"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="23" t="s">
         <v>12</v>
       </c>
@@ -11143,11 +11148,13 @@
       <c r="G4" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="26"/>
+      <c r="H4" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
@@ -11166,10 +11173,12 @@
       <c r="G5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -11190,11 +11199,13 @@
       <c r="G6" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:9" ht="140" x14ac:dyDescent="0.35">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="23" t="s">
         <v>8</v>
       </c>
@@ -11213,11 +11224,13 @@
       <c r="G7" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="26"/>
+      <c r="H7" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="23" t="s">
         <v>9</v>
       </c>
@@ -11236,10 +11249,12 @@
       <c r="G8" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="23" t="s">
@@ -11260,11 +11275,13 @@
       <c r="G9" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="140" x14ac:dyDescent="0.35">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
@@ -11283,11 +11300,13 @@
       <c r="G10" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="25"/>
+      <c r="H10" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="23" t="s">
         <v>9</v>
       </c>
@@ -11306,11 +11325,13 @@
       <c r="G11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="25"/>
+      <c r="H11" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -11331,11 +11352,13 @@
       <c r="G12" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="25"/>
+      <c r="H12" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:9" ht="140" x14ac:dyDescent="0.35">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="23" t="s">
         <v>8</v>
       </c>
@@ -11354,11 +11377,13 @@
       <c r="G13" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="26"/>
+      <c r="H13" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="23" t="s">
         <v>9</v>
       </c>
@@ -11377,10 +11402,12 @@
       <c r="G14" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="25"/>
+      <c r="H14" s="34" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="41" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -11401,11 +11428,13 @@
       <c r="G15" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="25"/>
+      <c r="H15" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="41"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="23" t="s">
         <v>8</v>
       </c>
@@ -11424,11 +11453,13 @@
       <c r="G16" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="25"/>
+      <c r="H16" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="41"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="23" t="s">
         <v>9</v>
       </c>
@@ -11447,7 +11478,9 @@
       <c r="G17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="25"/>
+      <c r="H17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="I17" s="25"/>
     </row>
   </sheetData>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D168C13-83F3-4961-AAAB-3B65CF7ABE57}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F041C1-E36C-449D-95E7-964463720E97}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9850" yWindow="590" windowWidth="9280" windowHeight="7360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="92">
   <si>
     <t>Question</t>
   </si>
@@ -310,6 +310,17 @@
 (2) Discovered redundant testcases and came up with improved testcases for Prerequisite.csv
 </t>
   </si>
+  <si>
+    <t>Cleared Round 1 logic</t>
+  </si>
+  <si>
+    <t>(1) did JSON dump and start
+(2)  Did half of Round 2 clearing</t>
+  </si>
+  <si>
+    <t>(1) Updated schedule
+(2) Finished running testcases for bid.csv</t>
+  </si>
 </sst>
 </file>
 
@@ -388,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -486,19 +497,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -826,36 +840,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="37" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -866,8 +880,8 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
@@ -889,8 +903,8 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
@@ -922,7 +936,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -941,7 +955,7 @@
       <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="39" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -970,7 +984,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -987,7 +1001,7 @@
       <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="39"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1014,7 +1028,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="39"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1031,7 +1045,7 @@
       <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="39"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1058,7 +1072,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1077,7 +1091,7 @@
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="39" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -1106,7 +1120,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1123,7 +1137,7 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="39"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1150,7 +1164,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1167,7 +1181,7 @@
       <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1194,7 +1208,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="39" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1213,7 +1227,7 @@
       <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="39" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1242,7 +1256,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1259,7 +1273,7 @@
       <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="39"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1286,7 +1300,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1303,7 +1317,7 @@
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="39"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1330,7 +1344,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="39" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1349,7 +1363,7 @@
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="39" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -1378,7 +1392,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="39"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1395,7 +1409,7 @@
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="39"/>
+      <c r="J13" s="40"/>
       <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1422,7 +1436,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1439,7 +1453,7 @@
       <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="39"/>
+      <c r="J14" s="40"/>
       <c r="K14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1466,7 +1480,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1485,7 +1499,7 @@
       <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="39" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -1514,7 +1528,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="39"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1531,7 +1545,7 @@
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="39"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1558,7 +1572,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="39"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1575,7 +1589,7 @@
       <c r="I17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="39"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5539,11 +5553,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5555,6 +5564,11 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5588,24 +5602,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5616,9 +5630,9 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5650,7 +5664,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5682,7 +5696,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -5712,7 +5726,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="39"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5742,7 +5756,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5774,7 +5788,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5804,7 +5818,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5834,7 +5848,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="39" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5866,7 +5880,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5896,7 +5910,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5926,7 +5940,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="39" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5958,7 +5972,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="39"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -5988,7 +6002,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -6018,7 +6032,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -6050,7 +6064,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="39"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -6080,7 +6094,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="39"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -10076,25 +10090,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -10118,7 +10132,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -10147,7 +10161,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A4" s="42"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
@@ -10174,7 +10188,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="42"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
@@ -10201,7 +10215,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -10230,7 +10244,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="42"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
@@ -10257,7 +10271,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
@@ -10284,7 +10298,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="140" x14ac:dyDescent="0.35">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -10313,7 +10327,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
@@ -10340,7 +10354,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A11" s="42"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
@@ -10367,7 +10381,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -10396,7 +10410,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="15" t="s">
         <v>8</v>
       </c>
@@ -10423,7 +10437,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="175" x14ac:dyDescent="0.35">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
@@ -10450,7 +10464,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="42" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -10479,7 +10493,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="42"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -10506,7 +10520,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A17" s="42"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="15" t="s">
         <v>9</v>
       </c>
@@ -10567,25 +10581,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -10609,7 +10623,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -10638,7 +10652,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A4" s="42"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="21" t="s">
         <v>12</v>
       </c>
@@ -10665,7 +10679,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="42"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
@@ -10692,7 +10706,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="122.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -10721,7 +10735,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A7" s="42"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="21" t="s">
         <v>8</v>
       </c>
@@ -10748,7 +10762,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="21" t="s">
         <v>9</v>
       </c>
@@ -10775,7 +10789,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -10804,7 +10818,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
@@ -10831,7 +10845,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="42"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="21" t="s">
         <v>9</v>
       </c>
@@ -10858,7 +10872,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -10887,7 +10901,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="21" t="s">
         <v>8</v>
       </c>
@@ -10914,7 +10928,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="21" t="s">
         <v>9</v>
       </c>
@@ -10941,7 +10955,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="42" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -10970,7 +10984,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="42"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="21" t="s">
         <v>8</v>
       </c>
@@ -10997,7 +11011,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="42"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="21" t="s">
         <v>9</v>
       </c>
@@ -11041,10 +11055,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B762D8C-72F3-45B7-9544-A442629D54B9}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -11059,26 +11073,26 @@
     <col min="9" max="16384" width="17.453125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-    </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -11101,8 +11115,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:10" ht="192.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="42" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -11126,10 +11140,12 @@
       <c r="H3" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="26"/>
-    </row>
-    <row r="4" spans="1:9" ht="140" x14ac:dyDescent="0.35">
-      <c r="A4" s="42"/>
+      <c r="I3" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="140" x14ac:dyDescent="0.35">
+      <c r="A4" s="43"/>
       <c r="B4" s="23" t="s">
         <v>12</v>
       </c>
@@ -11151,10 +11167,12 @@
       <c r="H4" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="25"/>
-    </row>
-    <row r="5" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="42"/>
+      <c r="I4" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="43"/>
       <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
@@ -11176,9 +11194,12 @@
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="41" t="s">
+      <c r="I5" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="192.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -11202,10 +11223,12 @@
       <c r="H6" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="26"/>
-    </row>
-    <row r="7" spans="1:9" ht="140" x14ac:dyDescent="0.35">
-      <c r="A7" s="42"/>
+      <c r="I6" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="140" x14ac:dyDescent="0.35">
+      <c r="A7" s="43"/>
       <c r="B7" s="23" t="s">
         <v>8</v>
       </c>
@@ -11227,10 +11250,12 @@
       <c r="H7" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="25"/>
-    </row>
-    <row r="8" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="42"/>
+      <c r="I7" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="43"/>
       <c r="B8" s="23" t="s">
         <v>9</v>
       </c>
@@ -11252,9 +11277,12 @@
       <c r="H8" s="25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="41" t="s">
+      <c r="I8" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="157.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="23" t="s">
@@ -11278,10 +11306,12 @@
       <c r="H9" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="25"/>
-    </row>
-    <row r="10" spans="1:9" ht="140" x14ac:dyDescent="0.35">
-      <c r="A10" s="42"/>
+      <c r="I9" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="140" x14ac:dyDescent="0.35">
+      <c r="A10" s="43"/>
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
@@ -11303,10 +11333,12 @@
       <c r="H10" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="25"/>
-    </row>
-    <row r="11" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="42"/>
+      <c r="I10" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="43"/>
       <c r="B11" s="23" t="s">
         <v>9</v>
       </c>
@@ -11328,10 +11360,12 @@
       <c r="H11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="25"/>
-    </row>
-    <row r="12" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="41" t="s">
+      <c r="I11" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="192.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="42" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -11355,10 +11389,12 @@
       <c r="H12" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="26"/>
-    </row>
-    <row r="13" spans="1:9" ht="140" x14ac:dyDescent="0.35">
-      <c r="A13" s="42"/>
+      <c r="I12" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="140" x14ac:dyDescent="0.35">
+      <c r="A13" s="43"/>
       <c r="B13" s="23" t="s">
         <v>8</v>
       </c>
@@ -11380,10 +11416,12 @@
       <c r="H13" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="25"/>
-    </row>
-    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="42"/>
+      <c r="I13" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="43"/>
       <c r="B14" s="23" t="s">
         <v>9</v>
       </c>
@@ -11405,9 +11443,12 @@
       <c r="H14" s="34" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="41" t="s">
+      <c r="I14" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="192.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="42" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -11431,10 +11472,15 @@
       <c r="H15" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="25"/>
-    </row>
-    <row r="16" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="42"/>
+      <c r="I15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="157.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="43"/>
       <c r="B16" s="23" t="s">
         <v>8</v>
       </c>
@@ -11456,10 +11502,15 @@
       <c r="H16" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="25"/>
-    </row>
-    <row r="17" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="42"/>
+      <c r="I16" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="43"/>
       <c r="B17" s="23" t="s">
         <v>9</v>
       </c>
@@ -11481,7 +11532,12 @@
       <c r="H17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="25"/>
+      <c r="I17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F041C1-E36C-449D-95E7-964463720E97}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53365CA-5502-4255-A3EF-EA607F1BF195}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9850" yWindow="590" windowWidth="9280" windowHeight="7360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Week 7" sheetId="4" r:id="rId3"/>
     <sheet name="Week 8" sheetId="5" r:id="rId4"/>
     <sheet name="Week 9" sheetId="6" r:id="rId5"/>
+    <sheet name="Week 10" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="93">
   <si>
     <t>Question</t>
   </si>
@@ -321,6 +322,9 @@
     <t>(1) Updated schedule
 (2) Finished running testcases for bid.csv</t>
   </si>
+  <si>
+    <t>Nade changes to testcases for bid.csv</t>
+  </si>
 </sst>
 </file>
 
@@ -399,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -500,19 +504,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -840,36 +850,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="41" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -880,8 +890,8 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
@@ -903,8 +913,8 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
@@ -936,7 +946,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -955,7 +965,7 @@
       <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="41" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -984,7 +994,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1001,7 +1011,7 @@
       <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="40"/>
+      <c r="J4" s="42"/>
       <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1028,7 +1038,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="40"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1045,7 +1055,7 @@
       <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="40"/>
+      <c r="J5" s="42"/>
       <c r="K5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1072,7 +1082,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1091,7 +1101,7 @@
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -1120,7 +1130,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="40"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1137,7 +1147,7 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="40"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1164,7 +1174,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1181,7 +1191,7 @@
       <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="40"/>
+      <c r="J8" s="42"/>
       <c r="K8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1208,7 +1218,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="41" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1227,7 +1237,7 @@
       <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="41" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1256,7 +1266,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="40"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1273,7 +1283,7 @@
       <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="40"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1300,7 +1310,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="40"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1317,7 +1327,7 @@
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="40"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1344,7 +1354,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="41" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1363,7 +1373,7 @@
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="39" t="s">
+      <c r="J12" s="41" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -1392,7 +1402,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1409,7 +1419,7 @@
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="40"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1436,7 +1446,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="40"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1453,7 +1463,7 @@
       <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="40"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1480,7 +1490,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="41" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1499,7 +1509,7 @@
       <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="J15" s="41" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -1528,7 +1538,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1545,7 +1555,7 @@
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="40"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1572,7 +1582,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="40"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1589,7 +1599,7 @@
       <c r="I17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="40"/>
+      <c r="J17" s="42"/>
       <c r="K17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5553,6 +5563,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5564,11 +5579,6 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5602,24 +5612,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5630,9 +5640,9 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5664,7 +5674,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5696,7 +5706,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -5726,7 +5736,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="40"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5756,7 +5766,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5788,7 +5798,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="40"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5818,7 +5828,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5848,7 +5858,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="41" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5880,7 +5890,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="40"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5910,7 +5920,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="40"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5940,7 +5950,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="41" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5972,7 +5982,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -6002,7 +6012,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="40"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -6032,7 +6042,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="41" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -6064,7 +6074,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -6094,7 +6104,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="40"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -10090,25 +10100,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -10132,7 +10142,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="44" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -10161,7 +10171,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A4" s="43"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
@@ -10188,7 +10198,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
@@ -10215,7 +10225,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -10244,7 +10254,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="43"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
@@ -10271,7 +10281,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A8" s="43"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
@@ -10298,7 +10308,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="140" x14ac:dyDescent="0.35">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="44" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -10327,7 +10337,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="43"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
@@ -10354,7 +10364,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A11" s="43"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
@@ -10381,7 +10391,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="44" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -10410,7 +10420,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="43"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="15" t="s">
         <v>8</v>
       </c>
@@ -10437,7 +10447,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="175" x14ac:dyDescent="0.35">
-      <c r="A14" s="43"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
@@ -10464,7 +10474,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="44" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -10493,7 +10503,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="43"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -10520,7 +10530,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A17" s="43"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="15" t="s">
         <v>9</v>
       </c>
@@ -10581,25 +10591,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -10623,7 +10633,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="44" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -10652,7 +10662,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A4" s="43"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="21" t="s">
         <v>12</v>
       </c>
@@ -10679,7 +10689,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
@@ -10706,7 +10716,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="122.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -10735,7 +10745,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A7" s="43"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="21" t="s">
         <v>8</v>
       </c>
@@ -10762,7 +10772,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A8" s="43"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="21" t="s">
         <v>9</v>
       </c>
@@ -10789,7 +10799,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="44" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -10818,7 +10828,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="43"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
@@ -10845,7 +10855,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="43"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="21" t="s">
         <v>9</v>
       </c>
@@ -10872,7 +10882,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="44" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -10901,7 +10911,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="43"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="21" t="s">
         <v>8</v>
       </c>
@@ -10928,7 +10938,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="43"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="21" t="s">
         <v>9</v>
       </c>
@@ -10955,7 +10965,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="44" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -10984,7 +10994,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="43"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="21" t="s">
         <v>8</v>
       </c>
@@ -11011,7 +11021,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="43"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="21" t="s">
         <v>9</v>
       </c>
@@ -11057,8 +11067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B762D8C-72F3-45B7-9544-A442629D54B9}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -11074,25 +11084,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -11116,7 +11126,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="44" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -11145,7 +11155,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="140" x14ac:dyDescent="0.35">
-      <c r="A4" s="43"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="23" t="s">
         <v>12</v>
       </c>
@@ -11172,7 +11182,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
@@ -11199,7 +11209,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -11228,7 +11238,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="140" x14ac:dyDescent="0.35">
-      <c r="A7" s="43"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="23" t="s">
         <v>8</v>
       </c>
@@ -11255,7 +11265,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="43"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="23" t="s">
         <v>9</v>
       </c>
@@ -11282,7 +11292,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="44" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="23" t="s">
@@ -11311,7 +11321,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="140" x14ac:dyDescent="0.35">
-      <c r="A10" s="43"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
@@ -11338,7 +11348,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="43"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="23" t="s">
         <v>9</v>
       </c>
@@ -11365,7 +11375,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="44" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -11394,7 +11404,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="140" x14ac:dyDescent="0.35">
-      <c r="A13" s="43"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="23" t="s">
         <v>8</v>
       </c>
@@ -11421,7 +11431,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="43"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="23" t="s">
         <v>9</v>
       </c>
@@ -11448,7 +11458,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="44" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -11480,7 +11490,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="43"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="23" t="s">
         <v>8</v>
       </c>
@@ -11510,7 +11520,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="43"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="23" t="s">
         <v>9</v>
       </c>
@@ -11538,6 +11548,314 @@
       <c r="J17" s="25" t="s">
         <v>30</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35242D0-2AD6-442D-ABA4-BF0550EDBCE1}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="17.453125" style="37"/>
+    <col min="3" max="3" width="20.54296875" style="37" customWidth="1"/>
+    <col min="4" max="4" width="36.90625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="26.6328125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="26.36328125" style="37" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" style="37" customWidth="1"/>
+    <col min="8" max="8" width="20.81640625" style="37" customWidth="1"/>
+    <col min="9" max="16384" width="17.453125" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="35" x14ac:dyDescent="0.35">
+      <c r="A3" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" ht="35" x14ac:dyDescent="0.35">
+      <c r="A4" s="45"/>
+      <c r="B4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="45"/>
+      <c r="B5" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="1:10" ht="87.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="45"/>
+      <c r="B7" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="45"/>
+      <c r="B8" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="1:10" ht="105" x14ac:dyDescent="0.35">
+      <c r="A9" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="45"/>
+      <c r="B10" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="45"/>
+      <c r="B11" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:10" ht="35" x14ac:dyDescent="0.35">
+      <c r="A12" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="45"/>
+      <c r="B13" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="45"/>
+      <c r="B14" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="1:10" ht="87.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="45"/>
+      <c r="B16" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="45"/>
+      <c r="B17" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53365CA-5502-4255-A3EF-EA607F1BF195}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AC6DE3-2E39-45D7-AFFD-502089EA54B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="93">
   <si>
     <t>Question</t>
   </si>
@@ -514,15 +514,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -850,36 +850,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="40" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5563,11 +5563,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5579,6 +5574,11 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5612,7 +5612,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="38" t="s">
@@ -5621,15 +5621,15 @@
       <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -10688,7 +10688,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="105" x14ac:dyDescent="0.35">
       <c r="A5" s="45"/>
       <c r="B5" s="21" t="s">
         <v>9</v>
@@ -11569,8 +11569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35242D0-2AD6-442D-ABA4-BF0550EDBCE1}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -11637,7 +11637,9 @@
       <c r="C3" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
@@ -11652,7 +11654,9 @@
       <c r="C4" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
@@ -11667,7 +11671,9 @@
       <c r="C5" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="E5" s="25"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
@@ -11684,7 +11690,9 @@
       <c r="C6" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
@@ -11699,7 +11707,9 @@
       <c r="C7" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -11714,7 +11724,9 @@
       <c r="C8" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="E8" s="25"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
@@ -11731,7 +11743,9 @@
       <c r="C9" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="25" t="s">
+        <v>92</v>
+      </c>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="H9" s="25"/>
@@ -11745,7 +11759,9 @@
       <c r="C10" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="E10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -11759,7 +11775,9 @@
       <c r="C11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
@@ -11776,7 +11794,9 @@
       <c r="C12" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
@@ -11791,7 +11811,9 @@
       <c r="C13" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
@@ -11806,7 +11828,9 @@
       <c r="C14" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="25"/>
+      <c r="D14" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:10" ht="87.5" x14ac:dyDescent="0.35">
@@ -11819,7 +11843,9 @@
       <c r="C15" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="H15" s="25"/>
@@ -11834,7 +11860,9 @@
       <c r="C16" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="25"/>
+      <c r="D16" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="E16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
@@ -11849,7 +11877,9 @@
       <c r="C17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="25"/>
+      <c r="D17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AC6DE3-2E39-45D7-AFFD-502089EA54B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038B6CD9-648A-47A9-9553-3B9295AEC39F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="93">
   <si>
     <t>Question</t>
   </si>
@@ -514,15 +514,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -850,36 +850,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="43" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="40" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5563,6 +5563,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5574,11 +5579,6 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5612,7 +5612,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="38" t="s">
@@ -5621,15 +5621,15 @@
       <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -10688,7 +10688,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="105" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A5" s="45"/>
       <c r="B5" s="21" t="s">
         <v>9</v>
@@ -11569,8 +11569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35242D0-2AD6-442D-ABA4-BF0550EDBCE1}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -11640,7 +11640,9 @@
       <c r="D3" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
@@ -11657,7 +11659,9 @@
       <c r="D4" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -11674,7 +11678,9 @@
       <c r="D5" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
       <c r="H5" s="25"/>
@@ -11693,7 +11699,9 @@
       <c r="D6" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -11710,7 +11718,9 @@
       <c r="D7" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
@@ -11727,7 +11737,9 @@
       <c r="D8" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
       <c r="H8" s="25"/>
@@ -11746,7 +11758,9 @@
       <c r="D9" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="F9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
@@ -11762,7 +11776,9 @@
       <c r="D10" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="25"/>
+      <c r="E10" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
@@ -11778,7 +11794,9 @@
       <c r="D11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="25"/>
+      <c r="E11" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -11797,7 +11815,9 @@
       <c r="D12" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="25"/>
+      <c r="E12" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -11814,7 +11834,9 @@
       <c r="D13" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="25"/>
+      <c r="E13" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -11831,7 +11853,9 @@
       <c r="D14" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="25"/>
+      <c r="E14" s="25" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
@@ -11846,7 +11870,9 @@
       <c r="D15" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="25"/>
+      <c r="E15" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="F15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
@@ -11863,7 +11889,9 @@
       <c r="D16" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="25"/>
+      <c r="E16" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
@@ -11880,7 +11908,9 @@
       <c r="D17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="25"/>
+      <c r="E17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038B6CD9-648A-47A9-9553-3B9295AEC39F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33732E2-82DA-486C-904E-B4B971FED7F6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="101">
   <si>
     <t>Question</t>
   </si>
@@ -325,6 +325,32 @@
   <si>
     <t>Nade changes to testcases for bid.csv</t>
   </si>
+  <si>
+    <t>Made changes to testcases for bid.csv</t>
+  </si>
+  <si>
+    <t>Did the dropsection.csv</t>
+  </si>
+  <si>
+    <t>did JSON -update-bid.php</t>
+  </si>
+  <si>
+    <t>Boostrap vaidate not modular - cannot be reused for update-bid</t>
+  </si>
+  <si>
+    <t>1. Scheduling updates on googledrive
+2. neaten manual testcases</t>
+  </si>
+  <si>
+    <t>Did Round 2 clearing logic</t>
+  </si>
+  <si>
+    <t>1. Scheduling updates on googledrive
+2. Did dropsection.csv</t>
+  </si>
+  <si>
+    <t>coming up woth sound and consistent logic for the naming conventionf or task ID</t>
+  </si>
 </sst>
 </file>
 
@@ -514,15 +540,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -850,36 +876,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="40" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5563,11 +5589,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5579,6 +5600,11 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5612,7 +5638,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="38" t="s">
@@ -5621,15 +5647,15 @@
       <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -11569,8 +11595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35242D0-2AD6-442D-ABA4-BF0550EDBCE1}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -11643,7 +11669,9 @@
       <c r="E3" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
@@ -11662,7 +11690,9 @@
       <c r="E4" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="25" t="s">
+        <v>94</v>
+      </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
@@ -11681,7 +11711,9 @@
       <c r="E5" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="31"/>
+      <c r="F5" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="G5" s="31"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
@@ -11702,7 +11734,9 @@
       <c r="E6" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
@@ -11721,7 +11755,9 @@
       <c r="E7" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
@@ -11740,7 +11776,9 @@
       <c r="E8" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="25" t="s">
+        <v>96</v>
+      </c>
       <c r="G8" s="31"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
@@ -11761,29 +11799,34 @@
       <c r="E9" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
     </row>
-    <row r="10" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A10" s="45"/>
       <c r="B10" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>55</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>97</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="70" x14ac:dyDescent="0.35">
       <c r="A11" s="45"/>
       <c r="B11" s="36" t="s">
         <v>9</v>
@@ -11797,7 +11840,9 @@
       <c r="E11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="25" t="s">
+        <v>100</v>
+      </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
@@ -11818,12 +11863,14 @@
       <c r="E12" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A13" s="45"/>
       <c r="B13" s="36" t="s">
         <v>8</v>
@@ -11837,7 +11884,9 @@
       <c r="E13" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="25" t="s">
+        <v>99</v>
+      </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
@@ -11856,6 +11905,9 @@
       <c r="E14" s="25" t="s">
         <v>77</v>
       </c>
+      <c r="F14" s="25" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
@@ -11873,7 +11925,9 @@
       <c r="E15" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
@@ -11892,6 +11946,9 @@
       <c r="E16" s="25" t="s">
         <v>55</v>
       </c>
+      <c r="F16" s="37" t="s">
+        <v>98</v>
+      </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
@@ -11911,7 +11968,9 @@
       <c r="E17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="25"/>
+      <c r="F17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33732E2-82DA-486C-904E-B4B971FED7F6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658C6A68-3435-45F5-84B1-2047A7E5AD22}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="101">
   <si>
     <t>Question</t>
   </si>
@@ -540,15 +540,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -876,36 +876,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="43" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="40" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5589,6 +5589,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5600,11 +5605,6 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5638,7 +5638,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="38" t="s">
@@ -5647,15 +5647,15 @@
       <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -11595,8 +11595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35242D0-2AD6-442D-ABA4-BF0550EDBCE1}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -11672,7 +11672,9 @@
       <c r="F3" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="25"/>
+      <c r="G3" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
     </row>
@@ -11693,7 +11695,9 @@
       <c r="F4" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="25"/>
+      <c r="G4" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
     </row>
@@ -11714,7 +11718,9 @@
       <c r="F5" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
     </row>
@@ -11737,7 +11743,9 @@
       <c r="F6" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
     </row>
@@ -11758,7 +11766,9 @@
       <c r="F7" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
     </row>
@@ -11779,7 +11789,9 @@
       <c r="F8" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
     </row>
@@ -11800,6 +11812,9 @@
         <v>55</v>
       </c>
       <c r="F9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="25" t="s">
         <v>55</v>
       </c>
       <c r="H9" s="25"/>
@@ -11822,7 +11837,9 @@
       <c r="F10" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
     </row>
@@ -11843,7 +11860,9 @@
       <c r="F11" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
     </row>
@@ -11866,7 +11885,9 @@
       <c r="F12" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="25"/>
+      <c r="G12" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
     </row>
@@ -11887,7 +11908,9 @@
       <c r="F13" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="25"/>
+      <c r="G13" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
     </row>
@@ -11908,6 +11931,9 @@
       <c r="F14" s="25" t="s">
         <v>77</v>
       </c>
+      <c r="G14" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
@@ -11926,6 +11952,9 @@
         <v>55</v>
       </c>
       <c r="F15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="25" t="s">
         <v>55</v>
       </c>
       <c r="H15" s="25"/>
@@ -11949,7 +11978,9 @@
       <c r="F16" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="25"/>
+      <c r="G16" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
@@ -11971,7 +12002,9 @@
       <c r="F17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658C6A68-3435-45F5-84B1-2047A7E5AD22}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567A711A-B88F-4DB6-B1A0-41724EBB6439}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="101">
   <si>
     <t>Question</t>
   </si>
@@ -540,15 +540,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -876,36 +876,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="40" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5589,11 +5589,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5605,6 +5600,11 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5638,7 +5638,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="38" t="s">
@@ -5647,15 +5647,15 @@
       <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -11595,8 +11595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35242D0-2AD6-442D-ABA4-BF0550EDBCE1}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -11675,7 +11675,9 @@
       <c r="G3" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="35" x14ac:dyDescent="0.35">
@@ -11698,7 +11700,9 @@
       <c r="G4" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
@@ -11721,7 +11725,9 @@
       <c r="G5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:10" ht="87.5" x14ac:dyDescent="0.35">
@@ -11746,7 +11752,9 @@
       <c r="G6" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
@@ -11769,7 +11777,9 @@
       <c r="G7" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="25"/>
+      <c r="H7" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
@@ -11792,7 +11802,9 @@
       <c r="G8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="105" x14ac:dyDescent="0.35">
@@ -11817,7 +11829,9 @@
       <c r="G9" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="87.5" x14ac:dyDescent="0.35">
@@ -11840,7 +11854,9 @@
       <c r="G10" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="25"/>
+      <c r="H10" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:10" ht="70" x14ac:dyDescent="0.35">
@@ -11863,7 +11879,9 @@
       <c r="G11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="25"/>
+      <c r="H11" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:10" ht="35" x14ac:dyDescent="0.35">
@@ -11888,7 +11906,9 @@
       <c r="G12" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="25"/>
+      <c r="H12" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:10" ht="87.5" x14ac:dyDescent="0.35">
@@ -11911,7 +11931,9 @@
       <c r="G13" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
@@ -11934,6 +11956,9 @@
       <c r="G14" s="25" t="s">
         <v>30</v>
       </c>
+      <c r="H14" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
@@ -11957,7 +11982,9 @@
       <c r="G15" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="25"/>
+      <c r="H15" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
     </row>
@@ -11981,7 +12008,9 @@
       <c r="G16" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="25"/>
+      <c r="H16" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
     </row>
@@ -12005,7 +12034,9 @@
       <c r="G17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="25"/>
+      <c r="H17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567A711A-B88F-4DB6-B1A0-41724EBB6439}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604417F3-0936-41BF-B873-39AD6A6B1FC0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="103">
   <si>
     <t>Question</t>
   </si>
@@ -351,6 +351,12 @@
   <si>
     <t>coming up woth sound and consistent logic for the naming conventionf or task ID</t>
   </si>
+  <si>
+    <t xml:space="preserve">Made changes to testcares for section.csv </t>
+  </si>
+  <si>
+    <t>JSON- dump(bids)</t>
+  </si>
 </sst>
 </file>
 
@@ -540,15 +546,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -876,36 +882,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="43" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="40" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5589,6 +5595,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5600,11 +5611,6 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5638,7 +5644,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="38" t="s">
@@ -5647,15 +5653,15 @@
       <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -11595,8 +11601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35242D0-2AD6-442D-ABA4-BF0550EDBCE1}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -11678,7 +11684,9 @@
       <c r="H3" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="35" x14ac:dyDescent="0.35">
       <c r="A4" s="45"/>
@@ -11703,7 +11711,9 @@
       <c r="H4" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A5" s="45"/>
@@ -11728,7 +11738,9 @@
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
@@ -11755,7 +11767,9 @@
       <c r="H6" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="25"/>
+      <c r="I6" s="25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A7" s="45"/>
@@ -11780,7 +11794,9 @@
       <c r="H7" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="25"/>
+      <c r="I7" s="25" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A8" s="45"/>
@@ -11805,7 +11821,9 @@
       <c r="H8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="25"/>
+      <c r="I8" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="105" x14ac:dyDescent="0.35">
       <c r="A9" s="44" t="s">
@@ -11832,7 +11850,9 @@
       <c r="H9" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="25"/>
+      <c r="I9" s="25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A10" s="45"/>
@@ -11857,7 +11877,9 @@
       <c r="H10" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="25"/>
+      <c r="I10" s="25" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="70" x14ac:dyDescent="0.35">
       <c r="A11" s="45"/>
@@ -11882,7 +11904,9 @@
       <c r="H11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="25"/>
+      <c r="I11" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="35" x14ac:dyDescent="0.35">
       <c r="A12" s="44" t="s">
@@ -11909,7 +11933,9 @@
       <c r="H12" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="25"/>
+      <c r="I12" s="25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A13" s="45"/>
@@ -11934,7 +11960,9 @@
       <c r="H13" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="25"/>
+      <c r="I13" s="25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A14" s="45"/>
@@ -11959,6 +11987,9 @@
       <c r="H14" s="25" t="s">
         <v>30</v>
       </c>
+      <c r="I14" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
@@ -11985,7 +12016,9 @@
       <c r="H15" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="25"/>
+      <c r="I15" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
@@ -12011,7 +12044,9 @@
       <c r="H16" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="25"/>
+      <c r="I16" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
@@ -12037,7 +12072,9 @@
       <c r="H17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="25"/>
+      <c r="I17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="J17" s="25"/>
     </row>
   </sheetData>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604417F3-0936-41BF-B873-39AD6A6B1FC0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1F98EF-A727-44D8-B297-6027C5137F90}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Week 8" sheetId="5" r:id="rId4"/>
     <sheet name="Week 9" sheetId="6" r:id="rId5"/>
     <sheet name="Week 10" sheetId="7" r:id="rId6"/>
+    <sheet name="Week 11" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="103">
   <si>
     <t>Question</t>
   </si>
@@ -435,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -542,19 +543,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -882,36 +889,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="40" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -922,8 +929,8 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
@@ -945,8 +952,8 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
@@ -978,7 +985,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -997,7 +1004,7 @@
       <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="43" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -1026,7 +1033,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="42"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1043,7 +1050,7 @@
       <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="42"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1070,7 +1077,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="42"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1087,7 +1094,7 @@
       <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="42"/>
+      <c r="J5" s="44"/>
       <c r="K5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1114,7 +1121,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1133,7 +1140,7 @@
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="43" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -1162,7 +1169,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="42"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1179,7 +1186,7 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="44"/>
       <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1206,7 +1213,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="42"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1223,7 +1230,7 @@
       <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="42"/>
+      <c r="J8" s="44"/>
       <c r="K8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1250,7 +1257,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1269,7 +1276,7 @@
       <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="43" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1298,7 +1305,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="42"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1315,7 +1322,7 @@
       <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="42"/>
+      <c r="J10" s="44"/>
       <c r="K10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1342,7 +1349,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1359,7 +1366,7 @@
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="42"/>
+      <c r="J11" s="44"/>
       <c r="K11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1386,7 +1393,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1405,7 +1412,7 @@
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="41" t="s">
+      <c r="J12" s="43" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -1434,7 +1441,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="42"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1451,7 +1458,7 @@
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="42"/>
+      <c r="J13" s="44"/>
       <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1478,7 +1485,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="42"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1495,7 +1502,7 @@
       <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="42"/>
+      <c r="J14" s="44"/>
       <c r="K14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1522,7 +1529,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="43" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1541,7 +1548,7 @@
       <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="41" t="s">
+      <c r="J15" s="43" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -1570,7 +1577,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="42"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1587,7 +1594,7 @@
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="42"/>
+      <c r="J16" s="44"/>
       <c r="K16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1614,7 +1621,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="42"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1631,7 +1638,7 @@
       <c r="I17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="42"/>
+      <c r="J17" s="44"/>
       <c r="K17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5595,11 +5602,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5611,6 +5613,11 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5644,24 +5651,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5672,9 +5679,9 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5706,7 +5713,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5738,7 +5745,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="42"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -5768,7 +5775,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="42"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5798,7 +5805,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5830,7 +5837,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="42"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5860,7 +5867,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="42"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5890,7 +5897,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5922,7 +5929,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="42"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5952,7 +5959,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5982,7 +5989,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -6014,7 +6021,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="42"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -6044,7 +6051,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="42"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -6074,7 +6081,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="43" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -6106,7 +6113,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="42"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -6136,7 +6143,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="42"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -10132,25 +10139,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -10174,7 +10181,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -10203,7 +10210,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
@@ -10230,7 +10237,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
@@ -10257,7 +10264,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -10286,7 +10293,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
@@ -10313,7 +10320,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
@@ -10340,7 +10347,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="140" x14ac:dyDescent="0.35">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -10369,7 +10376,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
@@ -10396,7 +10403,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A11" s="45"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
@@ -10423,7 +10430,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -10452,7 +10459,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="45"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="15" t="s">
         <v>8</v>
       </c>
@@ -10479,7 +10486,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="175" x14ac:dyDescent="0.35">
-      <c r="A14" s="45"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
@@ -10506,7 +10513,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -10535,7 +10542,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="45"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -10562,7 +10569,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A17" s="45"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="15" t="s">
         <v>9</v>
       </c>
@@ -10623,25 +10630,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -10665,7 +10672,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -10694,7 +10701,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="21" t="s">
         <v>12</v>
       </c>
@@ -10721,7 +10728,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
@@ -10748,7 +10755,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="122.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -10777,7 +10784,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="21" t="s">
         <v>8</v>
       </c>
@@ -10804,7 +10811,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.35">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="21" t="s">
         <v>9</v>
       </c>
@@ -10831,7 +10838,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -10860,7 +10867,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
@@ -10887,7 +10894,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="45"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="21" t="s">
         <v>9</v>
       </c>
@@ -10914,7 +10921,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -10943,7 +10950,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="45"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="21" t="s">
         <v>8</v>
       </c>
@@ -10970,7 +10977,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="45"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="21" t="s">
         <v>9</v>
       </c>
@@ -10997,7 +11004,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="70" x14ac:dyDescent="0.35">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -11026,7 +11033,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="45"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="21" t="s">
         <v>8</v>
       </c>
@@ -11053,7 +11060,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="45"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="21" t="s">
         <v>9</v>
       </c>
@@ -11116,25 +11123,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -11158,7 +11165,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -11187,7 +11194,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="140" x14ac:dyDescent="0.35">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="23" t="s">
         <v>12</v>
       </c>
@@ -11214,7 +11221,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
@@ -11241,7 +11248,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -11270,7 +11277,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="140" x14ac:dyDescent="0.35">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="23" t="s">
         <v>8</v>
       </c>
@@ -11297,7 +11304,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="23" t="s">
         <v>9</v>
       </c>
@@ -11324,7 +11331,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="23" t="s">
@@ -11353,7 +11360,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="140" x14ac:dyDescent="0.35">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
@@ -11380,7 +11387,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="45"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="23" t="s">
         <v>9</v>
       </c>
@@ -11407,7 +11414,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -11436,7 +11443,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="140" x14ac:dyDescent="0.35">
-      <c r="A13" s="45"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="23" t="s">
         <v>8</v>
       </c>
@@ -11463,7 +11470,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="45"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="23" t="s">
         <v>9</v>
       </c>
@@ -11490,7 +11497,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="192.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -11522,7 +11529,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="157.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="45"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="23" t="s">
         <v>8</v>
       </c>
@@ -11552,7 +11559,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="45"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="23" t="s">
         <v>9</v>
       </c>
@@ -11601,8 +11608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35242D0-2AD6-442D-ABA4-BF0550EDBCE1}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -11618,25 +11625,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -11660,7 +11667,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="35" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="36" t="s">
@@ -11689,7 +11696,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="35" x14ac:dyDescent="0.35">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="36" t="s">
         <v>12</v>
       </c>
@@ -11716,7 +11723,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="36" t="s">
         <v>9</v>
       </c>
@@ -11743,7 +11750,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -11772,7 +11779,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="36" t="s">
         <v>8</v>
       </c>
@@ -11799,7 +11806,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="36" t="s">
         <v>9</v>
       </c>
@@ -11826,7 +11833,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="105" x14ac:dyDescent="0.35">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="36" t="s">
@@ -11855,7 +11862,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="36" t="s">
         <v>8</v>
       </c>
@@ -11882,7 +11889,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="70" x14ac:dyDescent="0.35">
-      <c r="A11" s="45"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="36" t="s">
         <v>9</v>
       </c>
@@ -11909,7 +11916,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="35" x14ac:dyDescent="0.35">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -11938,7 +11945,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="45"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="36" t="s">
         <v>8</v>
       </c>
@@ -11965,7 +11972,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="45"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="36" t="s">
         <v>9</v>
       </c>
@@ -11992,7 +11999,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="36" t="s">
@@ -12022,7 +12029,7 @@
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="45"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="36" t="s">
         <v>8</v>
       </c>
@@ -12050,7 +12057,7 @@
       <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="45"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="36" t="s">
         <v>9</v>
       </c>
@@ -12075,6 +12082,320 @@
       <c r="I17" s="25" t="s">
         <v>30</v>
       </c>
+      <c r="J17" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7F8344-AAAE-454A-B8B2-31F07E61DB11}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="17.453125" style="39"/>
+    <col min="3" max="3" width="20.54296875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="36.90625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="26.6328125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="26.36328125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" style="39" customWidth="1"/>
+    <col min="8" max="8" width="20.81640625" style="39" customWidth="1"/>
+    <col min="9" max="16384" width="17.453125" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="35" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" ht="35" x14ac:dyDescent="0.35">
+      <c r="A4" s="47"/>
+      <c r="B4" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="47"/>
+      <c r="B5" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="1:10" ht="35" x14ac:dyDescent="0.35">
+      <c r="A6" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="47"/>
+      <c r="B7" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="47"/>
+      <c r="B8" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="47"/>
+      <c r="B10" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="47"/>
+      <c r="B11" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:10" ht="35" x14ac:dyDescent="0.35">
+      <c r="A12" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="47"/>
+      <c r="B13" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="47"/>
+      <c r="B14" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:10" ht="35" x14ac:dyDescent="0.35">
+      <c r="A15" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="47"/>
+      <c r="B16" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="47"/>
+      <c r="B17" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
       <c r="J17" s="25"/>
     </row>
   </sheetData>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1F98EF-A727-44D8-B297-6027C5137F90}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A451A0B-0335-490C-93B9-F0F7B47D963E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="109">
   <si>
     <t>Question</t>
   </si>
@@ -156,15 +156,6 @@
     <t>Continued coding the boostrap validation implementation</t>
   </si>
   <si>
-    <t>Week: 15/09/2019 to 21/09/2019</t>
-  </si>
-  <si>
-    <t>Week: 22/09/2019 to 28/09/2019</t>
-  </si>
-  <si>
-    <t>Week: 29/09/2019 to 05/10/2019</t>
-  </si>
-  <si>
     <t>Conducted a meeting with the team. See minutes for more details</t>
   </si>
   <si>
@@ -226,9 +217,6 @@
   </si>
   <si>
     <t xml:space="preserve">Team Meeting. Refer to minutes for more details &amp; redirect login page for admin </t>
-  </si>
-  <si>
-    <t>Week: 6/10/2019 to 12/10/2019</t>
   </si>
   <si>
     <t xml:space="preserve">Had difficulty retrieving data as output was none from a method from the bids table through the BidDAO’s retrieveStudentBidsWithInfo($userid) was resolve after an hour. </t>
@@ -357,6 +345,38 @@
   </si>
   <si>
     <t>JSON- dump(bids)</t>
+  </si>
+  <si>
+    <t>Week: 28/10/2019 to 03/11/2019</t>
+  </si>
+  <si>
+    <t>Week: 21/10/2019 to 27/10/2019</t>
+  </si>
+  <si>
+    <t>Week: 14/10/2019 to 20/10/2019</t>
+  </si>
+  <si>
+    <t>Week: 7/10/2019 to 13/10/2019</t>
+  </si>
+  <si>
+    <t>Week: 30/09/2019 to 06/10/2019</t>
+  </si>
+  <si>
+    <t>Week: 23/09/2019 to 29/09/2019</t>
+  </si>
+  <si>
+    <t>Week: 16/09/2019 to 22/09/2019</t>
+  </si>
+  <si>
+    <t>Auto-testcases</t>
+  </si>
+  <si>
+    <t>Manual testcases
+Updated Schedule</t>
+  </si>
+  <si>
+    <t>Not a working day 
+Updated Schedule</t>
   </si>
 </sst>
 </file>
@@ -553,15 +573,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -863,7 +883,7 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="83" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1:R1"/>
     </sheetView>
@@ -889,36 +909,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="45" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="42" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
+      <c r="L1" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5602,6 +5622,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5613,11 +5638,6 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5631,9 +5651,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="79" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F8" sqref="F8"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5651,7 +5671,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="40" t="s">
@@ -5660,15 +5680,15 @@
       <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="D1" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -10129,8 +10149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A3AA99-F4D2-4A92-BF2C-95E1F810A93F}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -10146,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
@@ -10191,22 +10211,22 @@
         <v>19</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.35">
@@ -10215,25 +10235,25 @@
         <v>12</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
@@ -10245,22 +10265,22 @@
         <v>30</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
@@ -10274,22 +10294,22 @@
         <v>39</v>
       </c>
       <c r="D6" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>49</v>
-      </c>
       <c r="F6" s="25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
@@ -10298,25 +10318,25 @@
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>49</v>
-      </c>
       <c r="E7" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>63</v>
-      </c>
       <c r="G7" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="70" x14ac:dyDescent="0.35">
@@ -10325,10 +10345,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>30</v>
@@ -10337,13 +10357,13 @@
         <v>30</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="140" x14ac:dyDescent="0.35">
@@ -10357,22 +10377,22 @@
         <v>39</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
@@ -10381,25 +10401,25 @@
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="70" x14ac:dyDescent="0.35">
@@ -10408,25 +10428,25 @@
         <v>9</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
@@ -10440,22 +10460,22 @@
         <v>39</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>61</v>
-      </c>
       <c r="H12" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
@@ -10464,25 +10484,25 @@
         <v>8</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="175" x14ac:dyDescent="0.35">
@@ -10491,25 +10511,25 @@
         <v>9</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>30</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.35">
@@ -10523,22 +10543,22 @@
         <v>39</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
@@ -10547,25 +10567,25 @@
         <v>8</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="70" x14ac:dyDescent="0.35">
@@ -10574,25 +10594,25 @@
         <v>9</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>30</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -10615,8 +10635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B6745F-6AD3-49D1-88C7-6568265E6BB1}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -10637,7 +10657,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
@@ -10679,25 +10699,25 @@
         <v>7</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="25" t="s">
-        <v>70</v>
-      </c>
       <c r="H3" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.35">
@@ -10706,25 +10726,25 @@
         <v>12</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>70</v>
-      </c>
       <c r="G4" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
@@ -10733,25 +10753,25 @@
         <v>9</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="122.5" x14ac:dyDescent="0.35">
@@ -10762,25 +10782,25 @@
         <v>7</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F6" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="25" t="s">
-        <v>70</v>
-      </c>
       <c r="H6" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.35">
@@ -10789,25 +10809,25 @@
         <v>8</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E7" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>70</v>
-      </c>
       <c r="G7" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.35">
@@ -10816,28 +10836,28 @@
         <v>9</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="70" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A9" s="46" t="s">
         <v>15</v>
       </c>
@@ -10845,25 +10865,25 @@
         <v>7</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
@@ -10872,25 +10892,25 @@
         <v>8</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
@@ -10899,25 +10919,25 @@
         <v>9</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
@@ -10928,52 +10948,52 @@
         <v>7</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F12" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="25" t="s">
-        <v>73</v>
-      </c>
       <c r="H12" s="25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="175" x14ac:dyDescent="0.35">
       <c r="A13" s="47"/>
       <c r="B13" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>73</v>
-      </c>
       <c r="G13" s="25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
@@ -10982,25 +11002,25 @@
         <v>9</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="70" x14ac:dyDescent="0.35">
@@ -11011,25 +11031,25 @@
         <v>7</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
@@ -11038,25 +11058,25 @@
         <v>8</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="157.5" x14ac:dyDescent="0.35">
@@ -11065,25 +11085,25 @@
         <v>9</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -11107,7 +11127,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C1" sqref="C1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -11130,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
@@ -11172,25 +11192,25 @@
         <v>7</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="140" x14ac:dyDescent="0.35">
@@ -11199,25 +11219,25 @@
         <v>12</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
@@ -11226,13 +11246,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>30</v>
@@ -11255,25 +11275,25 @@
         <v>7</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F6" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="25" t="s">
-        <v>85</v>
-      </c>
       <c r="H6" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="140" x14ac:dyDescent="0.35">
@@ -11282,25 +11302,25 @@
         <v>8</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>85</v>
-      </c>
       <c r="G7" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
@@ -11309,13 +11329,13 @@
         <v>9</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>30</v>
@@ -11338,25 +11358,25 @@
         <v>7</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="140" x14ac:dyDescent="0.35">
@@ -11365,25 +11385,25 @@
         <v>8</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
@@ -11392,13 +11412,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>30</v>
@@ -11421,25 +11441,25 @@
         <v>7</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E12" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="G12" s="25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="140" x14ac:dyDescent="0.35">
@@ -11448,25 +11468,25 @@
         <v>8</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D13" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F13" s="25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
@@ -11475,13 +11495,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>30</v>
@@ -11504,28 +11524,28 @@
         <v>7</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="157.5" x14ac:dyDescent="0.35">
@@ -11534,28 +11554,28 @@
         <v>8</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
@@ -11564,13 +11584,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>30</v>
@@ -11609,7 +11629,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C1" sqref="C1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -11632,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
@@ -11674,25 +11694,25 @@
         <v>7</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="35" x14ac:dyDescent="0.35">
@@ -11701,25 +11721,25 @@
         <v>12</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
@@ -11728,16 +11748,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>30</v>
@@ -11757,25 +11777,25 @@
         <v>7</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
@@ -11784,25 +11804,25 @@
         <v>8</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
@@ -11811,16 +11831,16 @@
         <v>9</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>30</v>
@@ -11840,25 +11860,25 @@
         <v>7</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="87.5" x14ac:dyDescent="0.35">
@@ -11867,25 +11887,25 @@
         <v>8</v>
       </c>
       <c r="C10" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="37" t="s">
+      <c r="G10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="25" t="s">
         <v>97</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="70" x14ac:dyDescent="0.35">
@@ -11903,7 +11923,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>30</v>
@@ -11923,25 +11943,25 @@
         <v>7</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="87.5" x14ac:dyDescent="0.35">
@@ -11950,25 +11970,25 @@
         <v>8</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
@@ -11977,16 +11997,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>30</v>
@@ -12006,25 +12026,25 @@
         <v>7</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J15" s="25"/>
     </row>
@@ -12034,25 +12054,25 @@
         <v>8</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J16" s="25"/>
     </row>
@@ -12104,8 +12124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7F8344-AAAE-454A-B8B2-31F07E61DB11}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -12128,7 +12148,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
@@ -12170,9 +12190,11 @@
         <v>7</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="25"/>
+        <v>52</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
@@ -12185,9 +12207,11 @@
         <v>12</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="25"/>
+        <v>52</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
@@ -12202,7 +12226,9 @@
       <c r="C5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
@@ -12217,9 +12243,11 @@
         <v>7</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="25"/>
+        <v>98</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>98</v>
+      </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
@@ -12232,9 +12260,11 @@
         <v>8</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="25"/>
+        <v>98</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>106</v>
+      </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -12249,7 +12279,9 @@
       <c r="C8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -12264,9 +12296,11 @@
         <v>7</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="25"/>
+        <v>97</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -12279,9 +12313,11 @@
         <v>8</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="25"/>
+        <v>52</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>107</v>
+      </c>
       <c r="E10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -12295,7 +12331,9 @@
       <c r="C11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
@@ -12310,9 +12348,11 @@
         <v>7</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="25"/>
+        <v>52</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
@@ -12325,9 +12365,11 @@
         <v>8</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="25"/>
+        <v>52</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>108</v>
+      </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
@@ -12342,7 +12384,9 @@
       <c r="C14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="25"/>
+      <c r="D14" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
@@ -12357,9 +12401,11 @@
         <v>7</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="25"/>
+        <v>52</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
@@ -12373,9 +12419,11 @@
         <v>8</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="25"/>
+        <v>52</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="E16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
@@ -12390,7 +12438,9 @@
       <c r="C17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="25"/>
+      <c r="D17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A451A0B-0335-490C-93B9-F0F7B47D963E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544C9081-373C-4663-8FF8-96E9E51AE043}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="112">
   <si>
     <t>Question</t>
   </si>
@@ -378,6 +378,16 @@
     <t>Not a working day 
 Updated Schedule</t>
   </si>
+  <si>
+    <t>Prepare for UAT</t>
+  </si>
+  <si>
+    <t>1. Prepare for UAT
+2. manual testcases</t>
+  </si>
+  <si>
+    <t>Preare for UAT</t>
+  </si>
 </sst>
 </file>
 
@@ -573,15 +583,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -909,36 +919,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="42" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="45" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5622,11 +5632,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5638,6 +5643,11 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5671,7 +5681,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="40" t="s">
@@ -5680,15 +5690,15 @@
       <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -10857,7 +10867,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="70" x14ac:dyDescent="0.35">
       <c r="A9" s="46" t="s">
         <v>15</v>
       </c>
@@ -10969,7 +10979,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="175" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="192.5" x14ac:dyDescent="0.35">
       <c r="A13" s="47"/>
       <c r="B13" s="21" t="s">
         <v>8</v>
@@ -12124,8 +12134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7F8344-AAAE-454A-B8B2-31F07E61DB11}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -12195,7 +12205,9 @@
       <c r="D3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
@@ -12212,7 +12224,9 @@
       <c r="D4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="25" t="s">
+        <v>109</v>
+      </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -12229,7 +12243,9 @@
       <c r="D5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -12248,7 +12264,9 @@
       <c r="D6" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="25" t="s">
+        <v>106</v>
+      </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -12265,7 +12283,9 @@
       <c r="D7" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="25" t="s">
+        <v>111</v>
+      </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
@@ -12282,7 +12302,9 @@
       <c r="D8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -12301,7 +12323,9 @@
       <c r="D9" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>107</v>
+      </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -12318,7 +12342,9 @@
       <c r="D10" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="25"/>
+      <c r="E10" s="25" t="s">
+        <v>110</v>
+      </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
@@ -12334,7 +12360,9 @@
       <c r="D11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="25"/>
+      <c r="E11" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -12353,7 +12381,9 @@
       <c r="D12" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="25"/>
+      <c r="E12" s="25" t="s">
+        <v>108</v>
+      </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -12370,7 +12400,9 @@
       <c r="D13" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="25"/>
+      <c r="E13" s="25" t="s">
+        <v>109</v>
+      </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -12387,7 +12419,9 @@
       <c r="D14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="25"/>
+      <c r="E14" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -12406,7 +12440,9 @@
       <c r="D15" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="25"/>
+      <c r="E15" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -12424,7 +12460,9 @@
       <c r="D16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="25"/>
+      <c r="E16" s="25" t="s">
+        <v>109</v>
+      </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
@@ -12441,7 +12479,9 @@
       <c r="D17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="25"/>
+      <c r="E17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544C9081-373C-4663-8FF8-96E9E51AE043}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0E46C7-E928-4D11-A623-17613F5AF162}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="114">
   <si>
     <t>Question</t>
   </si>
@@ -388,6 +388,12 @@
   <si>
     <t>Preare for UAT</t>
   </si>
+  <si>
+    <t>Debugging and reviewing codes for UAT</t>
+  </si>
+  <si>
+    <t>Update Manual testcases</t>
+  </si>
 </sst>
 </file>
 
@@ -583,15 +589,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -919,36 +925,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="45" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="42" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5632,6 +5638,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5643,11 +5654,6 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5681,7 +5687,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="40" t="s">
@@ -5690,15 +5696,15 @@
       <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -12134,8 +12140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7F8344-AAAE-454A-B8B2-31F07E61DB11}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -12208,7 +12214,9 @@
       <c r="E3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="25" t="s">
+        <v>109</v>
+      </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
@@ -12227,7 +12235,9 @@
       <c r="E4" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
@@ -12246,12 +12256,14 @@
       <c r="E5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
     </row>
-    <row r="6" spans="1:10" ht="35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>14</v>
       </c>
@@ -12267,7 +12279,9 @@
       <c r="E6" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="25" t="s">
+        <v>112</v>
+      </c>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
@@ -12284,9 +12298,11 @@
         <v>106</v>
       </c>
       <c r="E7" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
@@ -12305,7 +12321,9 @@
       <c r="E8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
@@ -12326,7 +12344,9 @@
       <c r="E9" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="25" t="s">
+        <v>110</v>
+      </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
@@ -12345,6 +12365,9 @@
       <c r="E10" s="25" t="s">
         <v>110</v>
       </c>
+      <c r="F10" s="39" t="s">
+        <v>109</v>
+      </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
@@ -12363,7 +12386,9 @@
       <c r="E11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
@@ -12384,7 +12409,9 @@
       <c r="E12" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="25" t="s">
+        <v>109</v>
+      </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
@@ -12403,7 +12430,9 @@
       <c r="E13" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="25" t="s">
+        <v>113</v>
+      </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
@@ -12422,12 +12451,14 @@
       <c r="E14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="1:10" ht="35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A15" s="46" t="s">
         <v>17</v>
       </c>
@@ -12443,7 +12474,9 @@
       <c r="E15" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="25" t="s">
+        <v>112</v>
+      </c>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
@@ -12461,7 +12494,10 @@
         <v>52</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
@@ -12482,7 +12518,9 @@
       <c r="E17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="25"/>
+      <c r="F17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="117">
   <si>
     <t>Question</t>
   </si>
@@ -399,6 +399,9 @@
   <si>
     <t>Created list of bugs to fix after UAT</t>
   </si>
+  <si>
+    <t>Fix bug from UAT</t>
+  </si>
 </sst>
 </file>
 
@@ -594,15 +597,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -930,36 +933,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="45" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="42" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5643,6 +5646,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5654,11 +5662,6 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5692,7 +5695,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="40" t="s">
@@ -5701,15 +5704,15 @@
       <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -12145,8 +12148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12225,7 +12228,9 @@
       <c r="G3" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
@@ -12248,7 +12253,9 @@
       <c r="G4" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="25" t="s">
+        <v>116</v>
+      </c>
       <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -12271,7 +12278,9 @@
       <c r="G5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -12296,7 +12305,9 @@
       <c r="G6" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -12319,7 +12330,9 @@
       <c r="G7" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="25"/>
+      <c r="H7" s="25" t="s">
+        <v>116</v>
+      </c>
       <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -12342,7 +12355,9 @@
       <c r="G8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -12367,7 +12382,9 @@
       <c r="G9" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -12390,7 +12407,9 @@
       <c r="G10" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="25"/>
+      <c r="H10" s="25" t="s">
+        <v>116</v>
+      </c>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -12413,7 +12432,9 @@
       <c r="G11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="25"/>
+      <c r="H11" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -12438,7 +12459,9 @@
       <c r="G12" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="25"/>
+      <c r="H12" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -12461,7 +12484,9 @@
       <c r="G13" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="25" t="s">
+        <v>116</v>
+      </c>
       <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -12484,7 +12509,9 @@
       <c r="G14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="25"/>
+      <c r="H14" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -12509,7 +12536,9 @@
       <c r="G15" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="25"/>
+      <c r="H15" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
     </row>
@@ -12533,7 +12562,9 @@
       <c r="G16" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H16" s="25"/>
+      <c r="H16" s="25" t="s">
+        <v>116</v>
+      </c>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
     </row>
@@ -12557,7 +12588,9 @@
       <c r="G17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="25"/>
+      <c r="H17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="117">
   <si>
     <t>Question</t>
   </si>
@@ -597,15 +597,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -933,36 +933,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="42" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="45" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5646,11 +5646,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5662,6 +5657,11 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5695,7 +5695,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="40" t="s">
@@ -5704,15 +5704,15 @@
       <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -12148,8 +12148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12231,7 +12231,9 @@
       <c r="H3" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="25" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A4" s="47"/>
@@ -12256,7 +12258,9 @@
       <c r="H4" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="25" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
@@ -12281,7 +12285,9 @@
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
@@ -12308,7 +12314,9 @@
       <c r="H6" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I6" s="25"/>
+      <c r="I6" s="25" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A7" s="47"/>
@@ -12333,7 +12341,9 @@
       <c r="H7" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="25"/>
+      <c r="I7" s="25" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A8" s="47"/>
@@ -12358,7 +12368,9 @@
       <c r="H8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="25"/>
+      <c r="I8" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
@@ -12385,7 +12397,9 @@
       <c r="H9" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I9" s="25"/>
+      <c r="I9" s="25" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A10" s="47"/>
@@ -12410,7 +12424,9 @@
       <c r="H10" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="I10" s="25"/>
+      <c r="I10" s="25" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
@@ -12435,7 +12451,9 @@
       <c r="H11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="25"/>
+      <c r="I11" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A12" s="46" t="s">
@@ -12462,7 +12480,9 @@
       <c r="H12" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="25"/>
+      <c r="I12" s="25" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
@@ -12487,7 +12507,9 @@
       <c r="H13" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="25"/>
+      <c r="I13" s="25" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
@@ -12512,7 +12534,9 @@
       <c r="H14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="25"/>
+      <c r="I14" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A15" s="46" t="s">
@@ -12539,7 +12563,9 @@
       <c r="H15" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="25"/>
+      <c r="I15" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -12565,7 +12591,9 @@
       <c r="H16" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="I16" s="25"/>
+      <c r="I16" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -12591,7 +12619,9 @@
       <c r="H17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="25"/>
+      <c r="I17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="J17" s="25"/>
     </row>
   </sheetData>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Week 9" sheetId="6" r:id="rId5"/>
     <sheet name="Week 10" sheetId="7" r:id="rId6"/>
     <sheet name="Week 11" sheetId="9" r:id="rId7"/>
+    <sheet name="Week 12" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="117">
   <si>
     <t>Question</t>
   </si>
@@ -480,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -587,6 +588,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -597,15 +601,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -933,36 +937,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="45" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -973,8 +977,8 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
@@ -996,8 +1000,8 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
       <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1029,7 +1033,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1048,7 +1052,7 @@
       <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="44" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -1077,7 +1081,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1094,7 +1098,7 @@
       <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="44"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1121,7 +1125,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1138,7 +1142,7 @@
       <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="44"/>
+      <c r="J5" s="45"/>
       <c r="K5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1165,7 +1169,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1184,7 +1188,7 @@
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="44" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -1213,7 +1217,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1230,7 +1234,7 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="44"/>
+      <c r="J7" s="45"/>
       <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1257,7 +1261,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1274,7 +1278,7 @@
       <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="44"/>
+      <c r="J8" s="45"/>
       <c r="K8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1301,7 +1305,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1320,7 +1324,7 @@
       <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="44" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1349,7 +1353,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1366,7 +1370,7 @@
       <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="44"/>
+      <c r="J10" s="45"/>
       <c r="K10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1393,7 +1397,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1410,7 +1414,7 @@
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="44"/>
+      <c r="J11" s="45"/>
       <c r="K11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1437,7 +1441,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1456,7 +1460,7 @@
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="43" t="s">
+      <c r="J12" s="44" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -1485,7 +1489,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1502,7 +1506,7 @@
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="44"/>
+      <c r="J13" s="45"/>
       <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1529,7 +1533,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1546,7 +1550,7 @@
       <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="44"/>
+      <c r="J14" s="45"/>
       <c r="K14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1573,7 +1577,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="44" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1592,7 +1596,7 @@
       <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="44" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -1621,7 +1625,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1638,7 +1642,7 @@
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="44"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1665,7 +1669,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1682,7 +1686,7 @@
       <c r="I17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="44"/>
+      <c r="J17" s="45"/>
       <c r="K17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5646,6 +5650,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5657,11 +5666,6 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5695,24 +5699,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5723,9 +5727,9 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5757,7 +5761,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5789,7 +5793,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -5819,7 +5823,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5849,7 +5853,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5881,7 +5885,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5911,7 +5915,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5941,7 +5945,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5973,7 +5977,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -6003,7 +6007,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -6033,7 +6037,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -6065,7 +6069,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -6095,7 +6099,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -6125,7 +6129,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="44" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -6157,7 +6161,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -6187,7 +6191,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -10183,25 +10187,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -10225,7 +10229,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="87" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -10254,7 +10258,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
@@ -10281,7 +10285,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
@@ -10308,7 +10312,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -10337,7 +10341,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
@@ -10364,7 +10368,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
@@ -10391,7 +10395,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -10420,7 +10424,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
@@ -10447,7 +10451,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
@@ -10474,7 +10478,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="47" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -10503,7 +10507,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="15" t="s">
         <v>8</v>
       </c>
@@ -10530,7 +10534,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="174" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
@@ -10557,7 +10561,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="47" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -10586,7 +10590,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -10613,7 +10617,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="15" t="s">
         <v>9</v>
       </c>
@@ -10674,25 +10678,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -10716,7 +10720,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -10745,7 +10749,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="21" t="s">
         <v>12</v>
       </c>
@@ -10771,8 +10775,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="87" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+    <row r="5" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
       <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
@@ -10798,8 +10802,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:9" ht="121.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -10828,7 +10832,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="21" t="s">
         <v>8</v>
       </c>
@@ -10855,7 +10859,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="21" t="s">
         <v>9</v>
       </c>
@@ -10882,7 +10886,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -10911,7 +10915,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
@@ -10938,7 +10942,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="21" t="s">
         <v>9</v>
       </c>
@@ -10965,7 +10969,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="191.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="47" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -10994,7 +10998,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="191.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="21" t="s">
         <v>8</v>
       </c>
@@ -11021,7 +11025,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="87" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="21" t="s">
         <v>9</v>
       </c>
@@ -11048,7 +11052,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="47" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -11077,7 +11081,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="21" t="s">
         <v>8</v>
       </c>
@@ -11104,7 +11108,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="21" t="s">
         <v>9</v>
       </c>
@@ -11167,25 +11171,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -11209,7 +11213,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="191.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -11238,7 +11242,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="23" t="s">
         <v>12</v>
       </c>
@@ -11265,7 +11269,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
@@ -11292,7 +11296,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="191.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -11321,7 +11325,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="23" t="s">
         <v>8</v>
       </c>
@@ -11348,7 +11352,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="23" t="s">
         <v>9</v>
       </c>
@@ -11375,7 +11379,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="174" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="23" t="s">
@@ -11404,7 +11408,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
@@ -11431,7 +11435,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="23" t="s">
         <v>9</v>
       </c>
@@ -11458,7 +11462,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="191.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="47" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -11487,7 +11491,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="23" t="s">
         <v>8</v>
       </c>
@@ -11514,7 +11518,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="23" t="s">
         <v>9</v>
       </c>
@@ -11541,7 +11545,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="191.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="47" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -11573,7 +11577,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="174" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="23" t="s">
         <v>8</v>
       </c>
@@ -11603,7 +11607,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="23" t="s">
         <v>9</v>
       </c>
@@ -11669,25 +11673,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -11711,7 +11715,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="36" t="s">
@@ -11740,7 +11744,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="36" t="s">
         <v>12</v>
       </c>
@@ -11767,7 +11771,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="36" t="s">
         <v>9</v>
       </c>
@@ -11794,7 +11798,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="87" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -11823,7 +11827,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="36" t="s">
         <v>8</v>
       </c>
@@ -11850,7 +11854,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="36" t="s">
         <v>9</v>
       </c>
@@ -11877,7 +11881,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="36" t="s">
@@ -11906,7 +11910,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="87" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="36" t="s">
         <v>8</v>
       </c>
@@ -11933,7 +11937,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="87" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="36" t="s">
         <v>9</v>
       </c>
@@ -11960,7 +11964,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="47" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -11989,7 +11993,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="87" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="36" t="s">
         <v>8</v>
       </c>
@@ -12016,7 +12020,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="36" t="s">
         <v>9</v>
       </c>
@@ -12043,7 +12047,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="87" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="47" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="36" t="s">
@@ -12073,7 +12077,7 @@
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="36" t="s">
         <v>8</v>
       </c>
@@ -12101,7 +12105,7 @@
       <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="36" t="s">
         <v>9</v>
       </c>
@@ -12146,40 +12150,537 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:I1"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.44140625" style="39"/>
-    <col min="3" max="3" width="20.5546875" style="39" customWidth="1"/>
-    <col min="4" max="4" width="36.88671875" style="39" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" style="39" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" style="39" customWidth="1"/>
-    <col min="9" max="16384" width="17.44140625" style="39"/>
+    <col min="1" max="2" width="17.44140625" style="38"/>
+    <col min="3" max="3" width="20.5546875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" style="38" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" style="38" customWidth="1"/>
+    <col min="9" max="16384" width="17.44140625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A4" s="47"/>
+      <c r="B4" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="47"/>
+      <c r="B7" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="47"/>
+      <c r="B8" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="47"/>
+      <c r="B10" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="47"/>
+      <c r="B11" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="47"/>
+      <c r="B13" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="47"/>
+      <c r="B14" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="40"/>
+    </row>
+    <row r="15" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="47"/>
+      <c r="B16" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="47"/>
+      <c r="B17" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.44140625" style="40"/>
+    <col min="3" max="3" width="20.5546875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" style="40" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" style="40" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" style="40" customWidth="1"/>
+    <col min="9" max="16384" width="17.44140625" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="50"/>
@@ -12207,10 +12708,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -12219,25 +12720,15 @@
       <c r="D3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>114</v>
-      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A4" s="47"/>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="39" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -12246,25 +12737,15 @@
       <c r="D4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>114</v>
-      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="39" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="25" t="s">
@@ -12273,81 +12754,51 @@
       <c r="D5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>114</v>
-      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A7" s="47"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>114</v>
-      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A8" s="47"/>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="39" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -12356,81 +12807,50 @@
       <c r="D8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>114</v>
-      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A10" s="47"/>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>114</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="39" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -12439,27 +12859,17 @@
       <c r="D11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="25" t="s">
@@ -12468,52 +12878,32 @@
       <c r="D12" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>114</v>
-      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>114</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="39" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -12522,27 +12912,17 @@
       <c r="D14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -12551,26 +12931,16 @@
       <c r="D15" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>114</v>
-      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -12579,26 +12949,16 @@
       <c r="D16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>114</v>
-      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
       <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="39" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="25" t="s">
@@ -12607,21 +12967,11 @@
       <c r="D17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
       <c r="J17" s="25"/>
     </row>
   </sheetData>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="118">
   <si>
     <t>Question</t>
   </si>
@@ -403,6 +403,9 @@
   <si>
     <t>Fix bug from UAT</t>
   </si>
+  <si>
+    <t>Fix bug from manual UAT</t>
+  </si>
 </sst>
 </file>
 
@@ -601,15 +604,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -937,36 +940,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="43" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5650,11 +5653,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5666,6 +5664,11 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5699,7 +5702,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="41" t="s">
@@ -5708,15 +5711,15 @@
       <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -10775,7 +10778,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="87" x14ac:dyDescent="0.3">
       <c r="A5" s="48"/>
       <c r="B5" s="21" t="s">
         <v>9</v>
@@ -10802,7 +10805,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="121.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>14</v>
       </c>
@@ -12649,8 +12652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D13"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12720,7 +12723,9 @@
       <c r="D3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
@@ -12737,7 +12742,9 @@
       <c r="D4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -12754,7 +12761,9 @@
       <c r="D5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -12771,9 +12780,11 @@
         <v>52</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="25"/>
+        <v>52</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -12788,9 +12799,11 @@
         <v>52</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="25"/>
+        <v>52</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
@@ -12807,7 +12820,9 @@
       <c r="D8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -12826,7 +12841,9 @@
       <c r="D9" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -12843,7 +12860,9 @@
       <c r="D10" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="25"/>
+      <c r="E10" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
@@ -12859,7 +12878,9 @@
       <c r="D11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="25"/>
+      <c r="E11" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -12878,7 +12899,9 @@
       <c r="D12" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="25"/>
+      <c r="E12" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -12895,7 +12918,9 @@
       <c r="D13" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="25"/>
+      <c r="E13" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -12912,7 +12937,9 @@
       <c r="D14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="25"/>
+      <c r="E14" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -12931,7 +12958,9 @@
       <c r="D15" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="25"/>
+      <c r="E15" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -12949,7 +12978,9 @@
       <c r="D16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="25"/>
+      <c r="E16" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
@@ -12967,7 +12998,9 @@
       <c r="D17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="25"/>
+      <c r="E17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="120">
   <si>
     <t>Question</t>
   </si>
@@ -406,6 +406,12 @@
   <si>
     <t>Fix bug from manual UAT</t>
   </si>
+  <si>
+    <t>Fix bug from manual UAT and JSON testcases</t>
+  </si>
+  <si>
+    <t>Work on Testcases</t>
+  </si>
 </sst>
 </file>
 
@@ -604,15 +610,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -940,36 +946,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="46" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5653,6 +5659,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5664,11 +5675,6 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5702,7 +5708,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="41" t="s">
@@ -5711,15 +5717,15 @@
       <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -12652,8 +12658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12726,7 +12732,9 @@
       <c r="E3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="25" t="s">
+        <v>118</v>
+      </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
@@ -12745,7 +12753,9 @@
       <c r="E4" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
@@ -12764,7 +12774,9 @@
       <c r="E5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
@@ -12785,7 +12797,9 @@
       <c r="E6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="25" t="s">
+        <v>118</v>
+      </c>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
@@ -12804,7 +12818,9 @@
       <c r="E7" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
@@ -12823,7 +12839,9 @@
       <c r="E8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
@@ -12844,7 +12862,9 @@
       <c r="E9" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
@@ -12863,6 +12883,9 @@
       <c r="E10" s="25" t="s">
         <v>52</v>
       </c>
+      <c r="F10" s="25" t="s">
+        <v>119</v>
+      </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
@@ -12881,7 +12904,9 @@
       <c r="E11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
@@ -12902,7 +12927,9 @@
       <c r="E12" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
@@ -12921,7 +12948,9 @@
       <c r="E13" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="25" t="s">
+        <v>119</v>
+      </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
@@ -12940,7 +12969,9 @@
       <c r="E14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -12961,7 +12992,9 @@
       <c r="E15" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="25" t="s">
+        <v>118</v>
+      </c>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
@@ -12981,7 +13014,9 @@
       <c r="E16" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
@@ -13001,7 +13036,9 @@
       <c r="E17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="25"/>
+      <c r="F17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="121">
   <si>
     <t>Question</t>
   </si>
@@ -412,6 +412,9 @@
   <si>
     <t>Work on Testcases</t>
   </si>
+  <si>
+    <t>Work on testcases</t>
+  </si>
 </sst>
 </file>
 
@@ -610,15 +613,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -946,36 +949,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="43" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5659,11 +5662,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5675,6 +5673,11 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5708,7 +5711,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="41" t="s">
@@ -5717,15 +5720,15 @@
       <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -10784,7 +10787,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="87" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
       <c r="A5" s="48"/>
       <c r="B5" s="21" t="s">
         <v>9</v>
@@ -10811,7 +10814,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="121.8" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>14</v>
       </c>
@@ -12658,8 +12661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12735,7 +12738,9 @@
       <c r="F3" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="25"/>
+      <c r="G3" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
     </row>
@@ -12756,7 +12761,9 @@
       <c r="F4" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="25"/>
+      <c r="G4" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
     </row>
@@ -12777,7 +12784,9 @@
       <c r="F5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
     </row>
@@ -12800,7 +12809,9 @@
       <c r="F6" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
     </row>
@@ -12821,7 +12832,9 @@
       <c r="F7" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
     </row>
@@ -12842,7 +12855,9 @@
       <c r="F8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="25"/>
+      <c r="G8" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
     </row>
@@ -12865,7 +12880,9 @@
       <c r="F9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="25" t="s">
+        <v>120</v>
+      </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
     </row>
@@ -12886,7 +12903,9 @@
       <c r="F10" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
     </row>
@@ -12907,7 +12926,9 @@
       <c r="F11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
     </row>
@@ -12930,7 +12951,9 @@
       <c r="F12" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="25"/>
+      <c r="G12" s="25" t="s">
+        <v>120</v>
+      </c>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
     </row>
@@ -12951,7 +12974,9 @@
       <c r="F13" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="25"/>
+      <c r="G13" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
     </row>
@@ -12972,7 +12997,9 @@
       <c r="F14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
     </row>
@@ -12995,7 +13022,9 @@
       <c r="F15" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="G15" s="25"/>
+      <c r="G15" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
@@ -13017,7 +13046,9 @@
       <c r="F16" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="G16" s="25"/>
+      <c r="G16" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
@@ -13039,7 +13070,9 @@
       <c r="F17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="121">
   <si>
     <t>Question</t>
   </si>
@@ -613,15 +613,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -949,36 +949,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="46" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5662,6 +5662,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5673,11 +5678,6 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5711,7 +5711,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="41" t="s">
@@ -5720,15 +5720,15 @@
       <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -10787,7 +10787,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="87" x14ac:dyDescent="0.3">
       <c r="A5" s="48"/>
       <c r="B5" s="21" t="s">
         <v>9</v>
@@ -10814,7 +10814,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="121.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>14</v>
       </c>
@@ -12661,8 +12661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12741,7 +12741,9 @@
       <c r="G3" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
@@ -12764,7 +12766,9 @@
       <c r="G4" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -12787,7 +12791,9 @@
       <c r="G5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -12812,7 +12818,9 @@
       <c r="G6" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -12835,7 +12843,9 @@
       <c r="G7" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="25"/>
+      <c r="H7" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -12858,7 +12868,9 @@
       <c r="G8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -12883,7 +12895,9 @@
       <c r="G9" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -12906,7 +12920,9 @@
       <c r="G10" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="25"/>
+      <c r="H10" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -12929,7 +12945,9 @@
       <c r="G11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="25"/>
+      <c r="H11" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -12954,7 +12972,9 @@
       <c r="G12" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="H12" s="25"/>
+      <c r="H12" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -12977,7 +12997,9 @@
       <c r="G13" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -13000,7 +13022,9 @@
       <c r="G14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="25"/>
+      <c r="H14" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -13025,7 +13049,9 @@
       <c r="G15" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="25"/>
+      <c r="H15" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
     </row>
@@ -13049,7 +13075,9 @@
       <c r="G16" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="25"/>
+      <c r="H16" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
     </row>
@@ -13073,7 +13101,9 @@
       <c r="G17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="25"/>
+      <c r="H17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="121">
   <si>
     <t>Question</t>
   </si>
@@ -613,15 +613,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -949,36 +949,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="43" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5662,11 +5662,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5678,6 +5673,11 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5711,7 +5711,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="41" t="s">
@@ -5720,15 +5720,15 @@
       <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -12661,8 +12661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12744,7 +12744,9 @@
       <c r="H3" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="25" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A4" s="47"/>
@@ -12769,7 +12771,9 @@
       <c r="H4" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="25" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
@@ -12794,7 +12798,9 @@
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
@@ -12821,7 +12827,9 @@
       <c r="H6" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I6" s="25"/>
+      <c r="I6" s="25" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A7" s="47"/>
@@ -12846,7 +12854,9 @@
       <c r="H7" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I7" s="25"/>
+      <c r="I7" s="25" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A8" s="47"/>
@@ -12871,7 +12881,9 @@
       <c r="H8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="25"/>
+      <c r="I8" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
@@ -12898,7 +12910,9 @@
       <c r="H9" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I9" s="25"/>
+      <c r="I9" s="25" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A10" s="47"/>
@@ -12923,7 +12937,9 @@
       <c r="H10" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I10" s="25"/>
+      <c r="I10" s="25" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
@@ -12948,7 +12964,9 @@
       <c r="H11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="25"/>
+      <c r="I11" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
@@ -12975,7 +12993,9 @@
       <c r="H12" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="25"/>
+      <c r="I12" s="25" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
@@ -13000,7 +13020,9 @@
       <c r="H13" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I13" s="25"/>
+      <c r="I13" s="25" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
@@ -13025,7 +13047,9 @@
       <c r="H14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="25"/>
+      <c r="I14" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
@@ -13052,7 +13076,9 @@
       <c r="H15" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="25"/>
+      <c r="I15" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -13078,7 +13104,9 @@
       <c r="H16" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I16" s="25"/>
+      <c r="I16" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
@@ -13104,7 +13132,9 @@
       <c r="H17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="25"/>
+      <c r="I17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="J17" s="25"/>
     </row>
   </sheetData>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Week 10" sheetId="7" r:id="rId6"/>
     <sheet name="Week 11" sheetId="9" r:id="rId7"/>
     <sheet name="Week 12" sheetId="12" r:id="rId8"/>
+    <sheet name="Week 13" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="123">
   <si>
     <t>Question</t>
   </si>
@@ -415,6 +416,12 @@
   <si>
     <t>Work on testcases</t>
   </si>
+  <si>
+    <t>Week: 04/11/2019 to 10/11/2019</t>
+  </si>
+  <si>
+    <t>Week: 11/11/2019 to 17/11/2019</t>
+  </si>
 </sst>
 </file>
 
@@ -493,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -609,19 +616,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -949,36 +962,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="46" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -989,8 +1002,8 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1012,8 +1025,8 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
       <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1045,7 +1058,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1064,7 +1077,7 @@
       <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="46" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -1093,7 +1106,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1110,7 +1123,7 @@
       <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="45"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1137,7 +1150,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1154,7 +1167,7 @@
       <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="45"/>
+      <c r="J5" s="47"/>
       <c r="K5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1181,7 +1194,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1200,7 +1213,7 @@
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="46" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -1229,7 +1242,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1246,7 +1259,7 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="45"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1273,7 +1286,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1290,7 +1303,7 @@
       <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="45"/>
+      <c r="J8" s="47"/>
       <c r="K8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1317,7 +1330,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1336,7 +1349,7 @@
       <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="46" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1365,7 +1378,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1382,7 +1395,7 @@
       <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="45"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1409,7 +1422,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1426,7 +1439,7 @@
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="45"/>
+      <c r="J11" s="47"/>
       <c r="K11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1453,7 +1466,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1472,7 +1485,7 @@
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="46" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -1501,7 +1514,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1518,7 +1531,7 @@
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="45"/>
+      <c r="J13" s="47"/>
       <c r="K13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1545,7 +1558,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1562,7 +1575,7 @@
       <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="45"/>
+      <c r="J14" s="47"/>
       <c r="K14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1589,7 +1602,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1608,7 +1621,7 @@
       <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="44" t="s">
+      <c r="J15" s="46" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -1637,7 +1650,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1654,7 +1667,7 @@
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="45"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1681,7 +1694,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1698,7 +1711,7 @@
       <c r="I17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="45"/>
+      <c r="J17" s="47"/>
       <c r="K17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5662,6 +5675,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5673,11 +5691,6 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5711,24 +5724,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5739,9 +5752,9 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5773,7 +5786,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5805,7 +5818,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -5835,7 +5848,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5865,7 +5878,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5897,7 +5910,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5927,7 +5940,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5957,7 +5970,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5989,7 +6002,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -6019,7 +6032,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -6049,7 +6062,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -6081,7 +6094,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -6111,7 +6124,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -6141,7 +6154,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -6173,7 +6186,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -6203,7 +6216,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -10199,25 +10212,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -10241,7 +10254,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="87" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -10270,7 +10283,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
@@ -10297,7 +10310,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
@@ -10324,7 +10337,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -10353,7 +10366,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
@@ -10380,7 +10393,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
@@ -10407,7 +10420,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -10436,7 +10449,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
@@ -10463,7 +10476,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
@@ -10490,7 +10503,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -10519,7 +10532,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="15" t="s">
         <v>8</v>
       </c>
@@ -10546,7 +10559,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="174" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
@@ -10573,7 +10586,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -10602,7 +10615,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -10629,7 +10642,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="15" t="s">
         <v>9</v>
       </c>
@@ -10690,25 +10703,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -10732,7 +10745,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -10761,7 +10774,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="21" t="s">
         <v>12</v>
       </c>
@@ -10788,7 +10801,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="87" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
@@ -10815,7 +10828,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -10844,7 +10857,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="21" t="s">
         <v>8</v>
       </c>
@@ -10871,7 +10884,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="21" t="s">
         <v>9</v>
       </c>
@@ -10898,7 +10911,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -10927,7 +10940,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
@@ -10954,7 +10967,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="21" t="s">
         <v>9</v>
       </c>
@@ -10981,7 +10994,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="191.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -11010,7 +11023,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="191.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="21" t="s">
         <v>8</v>
       </c>
@@ -11037,7 +11050,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="87" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="21" t="s">
         <v>9</v>
       </c>
@@ -11064,7 +11077,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -11093,7 +11106,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="21" t="s">
         <v>8</v>
       </c>
@@ -11120,7 +11133,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="21" t="s">
         <v>9</v>
       </c>
@@ -11183,25 +11196,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -11225,7 +11238,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="191.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -11254,7 +11267,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="23" t="s">
         <v>12</v>
       </c>
@@ -11281,7 +11294,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
@@ -11308,7 +11321,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="191.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -11337,7 +11350,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="23" t="s">
         <v>8</v>
       </c>
@@ -11364,7 +11377,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="23" t="s">
         <v>9</v>
       </c>
@@ -11391,7 +11404,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="174" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="23" t="s">
@@ -11420,7 +11433,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
@@ -11447,7 +11460,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="23" t="s">
         <v>9</v>
       </c>
@@ -11474,7 +11487,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="191.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -11503,7 +11516,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="23" t="s">
         <v>8</v>
       </c>
@@ -11530,7 +11543,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="23" t="s">
         <v>9</v>
       </c>
@@ -11557,7 +11570,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="191.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -11589,7 +11602,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="174" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="23" t="s">
         <v>8</v>
       </c>
@@ -11619,7 +11632,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="23" t="s">
         <v>9</v>
       </c>
@@ -11685,25 +11698,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -11727,7 +11740,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="36" t="s">
@@ -11756,7 +11769,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="36" t="s">
         <v>12</v>
       </c>
@@ -11783,7 +11796,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="36" t="s">
         <v>9</v>
       </c>
@@ -11810,7 +11823,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="87" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -11839,7 +11852,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="36" t="s">
         <v>8</v>
       </c>
@@ -11866,7 +11879,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="36" t="s">
         <v>9</v>
       </c>
@@ -11893,7 +11906,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="36" t="s">
@@ -11922,7 +11935,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="87" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="36" t="s">
         <v>8</v>
       </c>
@@ -11949,7 +11962,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="87" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="36" t="s">
         <v>9</v>
       </c>
@@ -11976,7 +11989,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -12005,7 +12018,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="87" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="36" t="s">
         <v>8</v>
       </c>
@@ -12032,7 +12045,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="36" t="s">
         <v>9</v>
       </c>
@@ -12059,7 +12072,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="87" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="36" t="s">
@@ -12089,7 +12102,7 @@
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="36" t="s">
         <v>8</v>
       </c>
@@ -12117,7 +12130,7 @@
       <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="36" t="s">
         <v>9</v>
       </c>
@@ -12181,25 +12194,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -12223,7 +12236,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="39" t="s">
@@ -12252,7 +12265,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="39" t="s">
         <v>12</v>
       </c>
@@ -12279,7 +12292,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="39" t="s">
         <v>9</v>
       </c>
@@ -12306,7 +12319,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="39" t="s">
@@ -12335,7 +12348,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="39" t="s">
         <v>8</v>
       </c>
@@ -12362,7 +12375,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="39" t="s">
         <v>9</v>
       </c>
@@ -12389,7 +12402,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="39" t="s">
@@ -12418,7 +12431,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="39" t="s">
         <v>8</v>
       </c>
@@ -12445,7 +12458,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="39" t="s">
         <v>9</v>
       </c>
@@ -12472,7 +12485,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="39" t="s">
@@ -12501,7 +12514,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="39" t="s">
         <v>8</v>
       </c>
@@ -12528,7 +12541,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="39" t="s">
         <v>9</v>
       </c>
@@ -12556,7 +12569,7 @@
       <c r="L14" s="40"/>
     </row>
     <row r="15" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="39" t="s">
@@ -12586,7 +12599,7 @@
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="39" t="s">
         <v>8</v>
       </c>
@@ -12614,7 +12627,7 @@
       <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="39" t="s">
         <v>9</v>
       </c>
@@ -12661,8 +12674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:I17"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12678,25 +12691,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="C1" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -12720,7 +12733,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="39" t="s">
@@ -12749,7 +12762,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="39" t="s">
         <v>12</v>
       </c>
@@ -12776,7 +12789,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="39" t="s">
         <v>9</v>
       </c>
@@ -12803,7 +12816,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="39" t="s">
@@ -12832,7 +12845,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="39" t="s">
         <v>8</v>
       </c>
@@ -12859,7 +12872,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="39" t="s">
         <v>9</v>
       </c>
@@ -12886,7 +12899,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="39" t="s">
@@ -12915,7 +12928,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="39" t="s">
         <v>8</v>
       </c>
@@ -12942,7 +12955,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="39" t="s">
         <v>9</v>
       </c>
@@ -12969,7 +12982,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="39" t="s">
@@ -12998,7 +13011,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="39" t="s">
         <v>8</v>
       </c>
@@ -13025,7 +13038,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="39" t="s">
         <v>9</v>
       </c>
@@ -13052,7 +13065,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="49" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="39" t="s">
@@ -13082,7 +13095,7 @@
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="39" t="s">
         <v>8</v>
       </c>
@@ -13110,7 +13123,7 @@
       <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="39" t="s">
         <v>9</v>
       </c>
@@ -13135,6 +13148,322 @@
       <c r="I17" s="25" t="s">
         <v>30</v>
       </c>
+      <c r="J17" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.44140625" style="42"/>
+    <col min="3" max="3" width="20.5546875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" style="42" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="42" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" style="42" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" style="42" customWidth="1"/>
+    <col min="9" max="16384" width="17.44140625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="49"/>
+      <c r="B7" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="49"/>
+      <c r="B8" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="49"/>
+      <c r="B10" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="49"/>
+      <c r="B11" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="49"/>
+      <c r="B13" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="49"/>
+      <c r="B14" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="49"/>
+      <c r="B16" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="49"/>
+      <c r="B17" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
       <c r="J17" s="25"/>
     </row>
   </sheetData>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="124">
   <si>
     <t>Question</t>
   </si>
@@ -422,6 +422,9 @@
   <si>
     <t>Week: 11/11/2019 to 17/11/2019</t>
   </si>
+  <si>
+    <t>Work on Manual Testcases and fix bugs</t>
+  </si>
 </sst>
 </file>
 
@@ -626,15 +629,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -962,36 +965,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="45" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="48" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5675,11 +5678,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5691,6 +5689,11 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5724,7 +5727,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="43" t="s">
@@ -5733,15 +5736,15 @@
       <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -10883,7 +10886,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="87" x14ac:dyDescent="0.3">
       <c r="A8" s="50"/>
       <c r="B8" s="21" t="s">
         <v>9</v>
@@ -11022,7 +11025,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="191.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="174" x14ac:dyDescent="0.3">
       <c r="A13" s="50"/>
       <c r="B13" s="21" t="s">
         <v>8</v>
@@ -11403,7 +11406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="174" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="156.6" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>15</v>
       </c>
@@ -11601,7 +11604,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="174" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="156.6" x14ac:dyDescent="0.3">
       <c r="A16" s="50"/>
       <c r="B16" s="23" t="s">
         <v>8</v>
@@ -12071,7 +12074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="87" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
         <v>17</v>
       </c>
@@ -13170,8 +13173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13238,22 +13241,26 @@
       <c r="C3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="25" t="s">
+        <v>123</v>
+      </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
     </row>
-    <row r="4" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
       <c r="B4" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="25"/>
+        <v>123</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
@@ -13268,7 +13275,9 @@
       <c r="C5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
@@ -13285,7 +13294,9 @@
       <c r="C6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
@@ -13300,7 +13311,9 @@
       <c r="C7" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -13315,7 +13328,9 @@
       <c r="C8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -13332,7 +13347,9 @@
       <c r="C9" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -13347,7 +13364,9 @@
       <c r="C10" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
@@ -13362,7 +13381,9 @@
       <c r="C11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
@@ -13379,7 +13400,9 @@
       <c r="C12" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
@@ -13394,7 +13417,9 @@
       <c r="C13" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
@@ -13409,14 +13434,16 @@
       <c r="C14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="25"/>
+      <c r="D14" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
         <v>17</v>
       </c>
@@ -13426,7 +13453,9 @@
       <c r="C15" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="25" t="s">
+        <v>123</v>
+      </c>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
@@ -13440,9 +13469,11 @@
         <v>8</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="25"/>
+        <v>123</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
@@ -13458,7 +13489,9 @@
       <c r="C17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="25"/>
+      <c r="D17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="124">
   <si>
     <t>Question</t>
   </si>
@@ -629,15 +629,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -965,36 +965,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="48" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="45" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5678,6 +5678,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5689,11 +5694,6 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5727,7 +5727,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="43" t="s">
@@ -5736,15 +5736,15 @@
       <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -10886,7 +10886,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="87" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
       <c r="A8" s="50"/>
       <c r="B8" s="21" t="s">
         <v>9</v>
@@ -11025,7 +11025,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="174" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="191.4" x14ac:dyDescent="0.3">
       <c r="A13" s="50"/>
       <c r="B13" s="21" t="s">
         <v>8</v>
@@ -11406,7 +11406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="156.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="174" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>15</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="87" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
         <v>17</v>
       </c>
@@ -13173,8 +13173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13231,7 +13231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
@@ -13244,7 +13244,9 @@
       <c r="D3" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
@@ -13261,7 +13263,9 @@
       <c r="D4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -13278,13 +13282,15 @@
       <c r="D5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
     </row>
-    <row r="6" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
         <v>14</v>
       </c>
@@ -13297,7 +13303,9 @@
       <c r="D6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -13314,7 +13322,9 @@
       <c r="D7" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
@@ -13331,13 +13341,15 @@
       <c r="D8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>15</v>
       </c>
@@ -13350,7 +13362,9 @@
       <c r="D9" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -13367,7 +13381,9 @@
       <c r="D10" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="25"/>
+      <c r="E10" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -13384,13 +13400,15 @@
       <c r="D11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="25"/>
+      <c r="E11" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
         <v>16</v>
       </c>
@@ -13403,7 +13421,9 @@
       <c r="D12" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="25"/>
+      <c r="E12" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -13420,7 +13440,9 @@
       <c r="D13" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="25"/>
+      <c r="E13" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -13437,7 +13459,9 @@
       <c r="D14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="25"/>
+      <c r="E14" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -13456,7 +13480,9 @@
       <c r="D15" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="25"/>
+      <c r="E15" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -13474,7 +13500,9 @@
       <c r="D16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="25"/>
+      <c r="E16" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
@@ -13492,7 +13520,9 @@
       <c r="D17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="25"/>
+      <c r="E17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="124">
   <si>
     <t>Question</t>
   </si>
@@ -629,15 +629,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -965,36 +965,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="45" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="48" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5678,11 +5678,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5694,6 +5689,11 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5727,7 +5727,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="43" t="s">
@@ -5736,15 +5736,15 @@
       <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -10886,7 +10886,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="104.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="87" x14ac:dyDescent="0.3">
       <c r="A8" s="50"/>
       <c r="B8" s="21" t="s">
         <v>9</v>
@@ -11025,7 +11025,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="191.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="174" x14ac:dyDescent="0.3">
       <c r="A13" s="50"/>
       <c r="B13" s="21" t="s">
         <v>8</v>
@@ -11406,7 +11406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="174" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="156.6" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>15</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="87" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
         <v>17</v>
       </c>
@@ -13173,8 +13173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13231,7 +13231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
@@ -13244,9 +13244,7 @@
       <c r="D3" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>52</v>
-      </c>
+      <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
@@ -13263,9 +13261,7 @@
       <c r="D4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>52</v>
-      </c>
+      <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -13282,15 +13278,13 @@
       <c r="D5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
     </row>
-    <row r="6" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
         <v>14</v>
       </c>
@@ -13303,9 +13297,7 @@
       <c r="D6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>52</v>
-      </c>
+      <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -13322,9 +13314,7 @@
       <c r="D7" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>52</v>
-      </c>
+      <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
@@ -13341,15 +13331,13 @@
       <c r="D8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>15</v>
       </c>
@@ -13362,9 +13350,7 @@
       <c r="D9" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>52</v>
-      </c>
+      <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -13381,9 +13367,7 @@
       <c r="D10" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>52</v>
-      </c>
+      <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -13400,15 +13384,13 @@
       <c r="D11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
         <v>16</v>
       </c>
@@ -13421,9 +13403,7 @@
       <c r="D12" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>52</v>
-      </c>
+      <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -13440,9 +13420,7 @@
       <c r="D13" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>52</v>
-      </c>
+      <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -13459,9 +13437,7 @@
       <c r="D14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -13480,9 +13456,7 @@
       <c r="D15" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>52</v>
-      </c>
+      <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -13500,9 +13474,7 @@
       <c r="D16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>52</v>
-      </c>
+      <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
@@ -13520,9 +13492,7 @@
       <c r="D17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="124">
   <si>
     <t>Question</t>
   </si>
@@ -629,15 +629,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -965,36 +965,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="48" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="45" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5678,6 +5678,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5689,11 +5694,6 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5727,7 +5727,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="43" t="s">
@@ -5736,15 +5736,15 @@
       <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -13173,8 +13173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13231,7 +13231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
@@ -13244,7 +13244,9 @@
       <c r="D3" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
@@ -13261,7 +13263,9 @@
       <c r="D4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -13278,13 +13282,15 @@
       <c r="D5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
     </row>
-    <row r="6" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
         <v>14</v>
       </c>
@@ -13297,7 +13303,9 @@
       <c r="D6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -13314,7 +13322,9 @@
       <c r="D7" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
@@ -13331,13 +13341,15 @@
       <c r="D8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>15</v>
       </c>
@@ -13350,7 +13362,9 @@
       <c r="D9" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -13367,7 +13381,9 @@
       <c r="D10" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="25"/>
+      <c r="E10" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -13384,13 +13400,15 @@
       <c r="D11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="25"/>
+      <c r="E11" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
         <v>16</v>
       </c>
@@ -13403,7 +13421,9 @@
       <c r="D12" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="25"/>
+      <c r="E12" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -13420,7 +13440,9 @@
       <c r="D13" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="25"/>
+      <c r="E13" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -13437,7 +13459,9 @@
       <c r="D14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="25"/>
+      <c r="E14" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -13456,7 +13480,9 @@
       <c r="D15" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="25"/>
+      <c r="E15" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -13474,7 +13500,9 @@
       <c r="D16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="25"/>
+      <c r="E16" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
@@ -13492,7 +13520,9 @@
       <c r="D17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="25"/>
+      <c r="E17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="125">
   <si>
     <t>Question</t>
   </si>
@@ -425,6 +425,9 @@
   <si>
     <t>Work on Manual Testcases and fix bugs</t>
   </si>
+  <si>
+    <t>Run through Manual Testcases and fix bugs</t>
+  </si>
 </sst>
 </file>
 
@@ -629,15 +632,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -965,36 +968,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="45" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="48" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5678,11 +5681,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5694,6 +5692,11 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5727,7 +5730,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="43" t="s">
@@ -5736,15 +5739,15 @@
       <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -13173,8 +13176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13247,7 +13250,9 @@
       <c r="E3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
@@ -13266,7 +13271,9 @@
       <c r="E4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="25" t="s">
+        <v>124</v>
+      </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
@@ -13285,7 +13292,9 @@
       <c r="E5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
@@ -13306,7 +13315,9 @@
       <c r="E6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
@@ -13325,7 +13336,9 @@
       <c r="E7" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="25" t="s">
+        <v>124</v>
+      </c>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
@@ -13344,7 +13357,9 @@
       <c r="E8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
@@ -13365,7 +13380,9 @@
       <c r="E9" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
@@ -13384,7 +13401,9 @@
       <c r="E10" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="25" t="s">
+        <v>124</v>
+      </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
@@ -13403,7 +13422,9 @@
       <c r="E11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
@@ -13424,7 +13445,9 @@
       <c r="E12" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
@@ -13443,7 +13466,9 @@
       <c r="E13" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="25" t="s">
+        <v>124</v>
+      </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
@@ -13462,7 +13487,9 @@
       <c r="E14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -13483,7 +13510,9 @@
       <c r="E15" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
@@ -13503,7 +13532,9 @@
       <c r="E16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="25" t="s">
+        <v>124</v>
+      </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
@@ -13523,7 +13554,9 @@
       <c r="E17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="25"/>
+      <c r="F17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheng\Documents\GitHub\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD06196-7F51-4A1A-9114-92F38EC4F22B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41BD810-4586-4E6C-9A68-9C2BFBC7B2F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="141">
   <si>
     <t>Question</t>
   </si>
@@ -445,6 +445,30 @@
   </si>
   <si>
     <t>Create manual testcases, work on schedule</t>
+  </si>
+  <si>
+    <t>Manual testcases</t>
+  </si>
+  <si>
+    <t>Bug fix for deployment</t>
+  </si>
+  <si>
+    <t>administrative works in preparation for presentations</t>
+  </si>
+  <si>
+    <t>json testcases</t>
+  </si>
+  <si>
+    <t>Finish bid-status.php</t>
+  </si>
+  <si>
+    <t>Deployed and run testing</t>
+  </si>
+  <si>
+    <t>Finished bid-status.php</t>
+  </si>
+  <si>
+    <t>Administrative works in preparation for presentations</t>
   </si>
 </sst>
 </file>
@@ -5731,8 +5755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D946F54-6BBC-4274-9AAE-34E9A51127C8}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -5806,13 +5830,17 @@
         <v>52</v>
       </c>
       <c r="F3" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="H3" s="25" t="s">
+        <v>134</v>
+      </c>
       <c r="I3" s="25"/>
     </row>
-    <row r="4" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="70" x14ac:dyDescent="0.35">
       <c r="A4" s="51"/>
       <c r="B4" s="43" t="s">
         <v>12</v>
@@ -5827,10 +5855,14 @@
         <v>52</v>
       </c>
       <c r="F4" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="H4" s="25" t="s">
+        <v>135</v>
+      </c>
       <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
@@ -5850,8 +5882,12 @@
       <c r="F5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="G5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:10" ht="35" x14ac:dyDescent="0.35">
@@ -5871,10 +5907,14 @@
         <v>52</v>
       </c>
       <c r="F6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="H6" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
@@ -5892,10 +5932,14 @@
         <v>52</v>
       </c>
       <c r="F7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="H7" s="25" t="s">
+        <v>136</v>
+      </c>
       <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
@@ -5915,11 +5959,15 @@
       <c r="F8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="G8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:10" ht="35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="70" x14ac:dyDescent="0.35">
       <c r="A9" s="51" t="s">
         <v>15</v>
       </c>
@@ -5936,13 +5984,17 @@
         <v>52</v>
       </c>
       <c r="F9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="H9" s="25" t="s">
+        <v>124</v>
+      </c>
       <c r="I9" s="25"/>
     </row>
-    <row r="10" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="70" x14ac:dyDescent="0.35">
       <c r="A10" s="51"/>
       <c r="B10" s="43" t="s">
         <v>8</v>
@@ -5957,10 +6009,14 @@
         <v>52</v>
       </c>
       <c r="F10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+      <c r="H10" s="25" t="s">
+        <v>135</v>
+      </c>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
@@ -5980,8 +6036,12 @@
       <c r="F11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="G11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:10" ht="35" x14ac:dyDescent="0.35">
@@ -6001,10 +6061,14 @@
         <v>52</v>
       </c>
       <c r="F12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="H12" s="25" t="s">
+        <v>133</v>
+      </c>
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
@@ -6022,10 +6086,14 @@
         <v>52</v>
       </c>
       <c r="F13" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="H13" s="25" t="s">
+        <v>133</v>
+      </c>
       <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
@@ -6045,8 +6113,12 @@
       <c r="F14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="G14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:10" ht="35" x14ac:dyDescent="0.35">
@@ -6066,14 +6138,18 @@
         <v>52</v>
       </c>
       <c r="F15" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="H15" s="25" t="s">
+        <v>139</v>
+      </c>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
     </row>
-    <row r="16" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="70" x14ac:dyDescent="0.35">
       <c r="A16" s="51"/>
       <c r="B16" s="43" t="s">
         <v>8</v>
@@ -6088,10 +6164,14 @@
         <v>52</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+        <v>52</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>140</v>
+      </c>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
     </row>
@@ -6112,8 +6192,12 @@
       <c r="F17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="G17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheng\Documents\GitHub\project-g4t6\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41BD810-4586-4E6C-9A68-9C2BFBC7B2F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101E18A5-F7F0-4E97-AC38-0CE883986655}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="142">
   <si>
     <t>Question</t>
   </si>
@@ -470,6 +470,9 @@
   <si>
     <t>Administrative works in preparation for presentations</t>
   </si>
+  <si>
+    <t>prepare for final presentation</t>
+  </si>
 </sst>
 </file>
 
@@ -680,15 +683,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1016,36 +1019,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="47" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="50" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -5729,11 +5732,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C1:I1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J15:J17"/>
@@ -5745,6 +5743,11 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5755,8 +5758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D946F54-6BBC-4274-9AAE-34E9A51127C8}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -5813,7 +5816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
@@ -5838,7 +5841,9 @@
       <c r="H3" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="25" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="70" x14ac:dyDescent="0.35">
       <c r="A4" s="51"/>
@@ -5863,7 +5868,9 @@
       <c r="H4" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="25" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A5" s="51"/>
@@ -5888,7 +5895,9 @@
       <c r="H5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="35" x14ac:dyDescent="0.35">
       <c r="A6" s="51" t="s">
@@ -5915,7 +5924,9 @@
       <c r="H6" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="25"/>
+      <c r="I6" s="25" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A7" s="51"/>
@@ -5940,7 +5951,9 @@
       <c r="H7" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="I7" s="25"/>
+      <c r="I7" s="25" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A8" s="51"/>
@@ -5965,7 +5978,9 @@
       <c r="H8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="25"/>
+      <c r="I8" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="70" x14ac:dyDescent="0.35">
       <c r="A9" s="51" t="s">
@@ -5992,7 +6007,9 @@
       <c r="H9" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="I9" s="25"/>
+      <c r="I9" s="25" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="70" x14ac:dyDescent="0.35">
       <c r="A10" s="51"/>
@@ -6017,7 +6034,9 @@
       <c r="H10" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="I10" s="25"/>
+      <c r="I10" s="25" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A11" s="51"/>
@@ -6042,7 +6061,9 @@
       <c r="H11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="25"/>
+      <c r="I11" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="35" x14ac:dyDescent="0.35">
       <c r="A12" s="51" t="s">
@@ -6069,7 +6090,9 @@
       <c r="H12" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="I12" s="25"/>
+      <c r="I12" s="25" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A13" s="51"/>
@@ -6094,7 +6117,9 @@
       <c r="H13" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="I13" s="25"/>
+      <c r="I13" s="25" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A14" s="51"/>
@@ -6119,9 +6144,11 @@
       <c r="H14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="25"/>
-    </row>
-    <row r="15" spans="1:10" ht="35" x14ac:dyDescent="0.35">
+      <c r="I14" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A15" s="51" t="s">
         <v>17</v>
       </c>
@@ -6146,7 +6173,9 @@
       <c r="H15" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="I15" s="25"/>
+      <c r="I15" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="70" x14ac:dyDescent="0.35">
@@ -6172,7 +6201,9 @@
       <c r="H16" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="I16" s="25"/>
+      <c r="I16" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
@@ -6198,7 +6229,9 @@
       <c r="H17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="25"/>
+      <c r="I17" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="J17" s="25"/>
     </row>
   </sheetData>
@@ -6244,7 +6277,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="45" t="s">
@@ -6253,15 +6286,15 @@
       <c r="C1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
